--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1905" windowWidth="21840" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -26,13 +26,13 @@
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'01-17'!$A$3:$S$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'02-17'!$A$3:$S$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$214</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$195</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39766))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$195</definedName>
+    <definedName name="DS">TH!$A$4:$Q$213</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39784))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$213</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - EIB'!$A$1:$P$32</definedName>
@@ -50,7 +50,7 @@
     <author>User 1</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0">
+    <comment ref="Q4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="499">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1887,9 +1887,6 @@
     <t>1025 037000 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">1025 037000 </t>
-  </si>
-  <si>
     <t>1402LDS201602725</t>
   </si>
   <si>
@@ -1987,6 +1984,123 @@
   </si>
   <si>
     <t>Thanh toán tiền vận tải - Vĩnh Phát</t>
+  </si>
+  <si>
+    <t>LC- Chung Haewon</t>
+  </si>
+  <si>
+    <t>CK-Kojubu (Ghẹ)</t>
+  </si>
+  <si>
+    <t>CK-Kojubu (Cá bò)</t>
+  </si>
+  <si>
+    <t>CK-Tokai</t>
+  </si>
+  <si>
+    <t>CK-Michang</t>
+  </si>
+  <si>
+    <t>1025 037000 2068</t>
+  </si>
+  <si>
+    <t>1025 037000 1959</t>
+  </si>
+  <si>
+    <t>1025 037000 1973</t>
+  </si>
+  <si>
+    <t>1025 037000 2006</t>
+  </si>
+  <si>
+    <t>1025 037000 2130</t>
+  </si>
+  <si>
+    <t>1025 037000 2147</t>
+  </si>
+  <si>
+    <t>1025 037000 2226</t>
+  </si>
+  <si>
+    <t>1025 037000 2219</t>
+  </si>
+  <si>
+    <t>1025 037000 2233</t>
+  </si>
+  <si>
+    <t>Thanh toán dự án Trà Vinh</t>
+  </si>
+  <si>
+    <t>CTY TNHH MTV THANH HOÀNG THANH</t>
+  </si>
+  <si>
+    <t>017 100 325 7097</t>
+  </si>
+  <si>
+    <t>NH TMCP An Bình – PGD Khánh Hội</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền thi công công trình - Thanh Hoàng Thanh</t>
+  </si>
+  <si>
+    <t>VIETCOMBANK – CN. BÌNH TÂY</t>
+  </si>
+  <si>
+    <t>Thanh toán VLXD Trà Vinh</t>
+  </si>
+  <si>
+    <t>CTY TNHH PHI HẢI</t>
+  </si>
+  <si>
+    <t>07 000 443 4690</t>
+  </si>
+  <si>
+    <t>NH Sacombank – CN Sóc Trăng</t>
+  </si>
+  <si>
+    <t>1025 037000 2116</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1&amp;2 tháng 01 năm 2017</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>053 100 250 3669</t>
+  </si>
+  <si>
+    <t>Vietcombank – CN Đông Sài Gòn</t>
+  </si>
+  <si>
+    <t>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền cước vận chuyển &amp; phí liên quan - asia</t>
+  </si>
+  <si>
+    <t>CTY CỔ PHẦN BẢO HIỂM VIỄN ĐÔNG-SỞ GIAO DỊCH TPHCM</t>
+  </si>
+  <si>
+    <t>0600 0598 0634</t>
+  </si>
+  <si>
+    <t>Sacombank - CN Trung Tân</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền BH của HĐ: 16-99-11-020303-0056862</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền hàng - Trà Vinh</t>
+  </si>
+  <si>
+    <t>PB16010048099 - Thanh toán tiền điện kỳ 2/T1 &amp; kỳ 1,2/T2 năm 2017</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 3/T1 &amp; kỳ 1,2/T2 năm 2017</t>
+  </si>
+  <si>
+    <t>1402LDS201700049</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2119,7 @@
     <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2412,6 +2526,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2807,7 +2927,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3343,18 +3463,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3379,6 +3487,60 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="44" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="48" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3412,9 +3574,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3433,12 +3592,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="50" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3451,13 +3619,7 @@
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3826,14 +3988,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H172" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="R177" sqref="R177:R189"/>
+      <selection pane="bottomRight" activeCell="N201" sqref="N201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3913,39 +4075,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="239" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="222" t="s">
+      <c r="D2" s="237"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="217" t="s">
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="221" t="s">
+      <c r="O2" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="219" t="s">
+      <c r="P2" s="235"/>
+      <c r="Q2" s="233" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="218"/>
+      <c r="B3" s="232"/>
       <c r="C3" s="60" t="s">
         <v>12</v>
       </c>
@@ -3979,14 +4141,14 @@
       <c r="M3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="218"/>
+      <c r="N3" s="232"/>
       <c r="O3" s="61" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="220"/>
+      <c r="Q3" s="234"/>
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
@@ -4044,7 +4206,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B195" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B213" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -11976,7 +12138,7 @@
       <c r="L168" s="65"/>
       <c r="M168" s="65"/>
       <c r="N168" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O168" s="68"/>
       <c r="P168" s="69">
@@ -12023,7 +12185,7 @@
       <c r="L169" s="65"/>
       <c r="M169" s="65"/>
       <c r="N169" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O169" s="68"/>
       <c r="P169" s="69">
@@ -12149,23 +12311,23 @@
         <v>21</v>
       </c>
       <c r="F172" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G172" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H172" s="64" t="s">
         <v>224</v>
       </c>
       <c r="I172" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J172" s="66"/>
       <c r="K172" s="67"/>
       <c r="L172" s="65"/>
       <c r="M172" s="65"/>
       <c r="N172" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O172" s="68"/>
       <c r="P172" s="69">
@@ -12212,7 +12374,7 @@
       <c r="L173" s="65"/>
       <c r="M173" s="65"/>
       <c r="N173" s="104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O173" s="68"/>
       <c r="P173" s="69">
@@ -12243,16 +12405,16 @@
         <v>23</v>
       </c>
       <c r="F174" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="G174" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="G174" s="64" t="s">
+      <c r="H174" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="H174" s="64" t="s">
+      <c r="I174" s="65" t="s">
         <v>454</v>
-      </c>
-      <c r="I174" s="65" t="s">
-        <v>455</v>
       </c>
       <c r="J174" s="66"/>
       <c r="K174" s="67"/>
@@ -12274,7 +12436,7 @@
     <row r="175" spans="1:18" ht="18.75" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B175" s="62">
         <f>IF(C175&lt;&gt;"",ROW()-3,"")</f>
@@ -12306,7 +12468,7 @@
       <c r="L175" s="65"/>
       <c r="M175" s="65"/>
       <c r="N175" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O175" s="68"/>
       <c r="P175" s="69">
@@ -12315,7 +12477,7 @@
       <c r="Q175" s="92"/>
       <c r="R175" s="202" t="str">
         <f>IF(AND(C175="pv",D175='UNC - PV'!$Q$2,LEFT(E175,1)="u",'UNC - PV'!$O$2="vnđ",TH!P175&lt;&gt;""),"p",IF(AND(C175="pv",D175='UNC - PV'!$Q$2,LEFT(E175,1)="u",'UNC - PV'!$O$2="usd",TH!O175&lt;&gt;""),"p1",IF(AND(C175="pv",D175='LC - PV'!$P$2,LEFT(E175,1)="l"),"p2",IF(AND(LEFT(C175,3)="EIB",D175='UNC - EIB'!$T$2,LEFT(E175,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P175&lt;&gt;""),"e",IF(AND(LEFT(C175,3)="EIB",D175='UNC - EIB'!$T$2,LEFT(E175,1)="U",'UNC - EIB'!$R$2="usd",TH!O175&lt;&gt;""),"e1",IF(AND(LEFT(C175,3)="EIB",D175='LC - EIB'!$S$2,LEFT(E175,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="176" spans="1:18" ht="18.75" customHeight="1">
@@ -12343,7 +12505,7 @@
         <v>174</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I176" s="94" t="s">
         <v>9</v>
@@ -12353,7 +12515,7 @@
       <c r="L176" s="65"/>
       <c r="M176" s="65"/>
       <c r="N176" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O176" s="68"/>
       <c r="P176" s="69">
@@ -12362,7 +12524,7 @@
       <c r="Q176" s="92"/>
       <c r="R176" s="202" t="str">
         <f>IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="vnđ",TH!P176&lt;&gt;""),"p",IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="usd",TH!O176&lt;&gt;""),"p1",IF(AND(C176="pv",D176='LC - PV'!$P$2,LEFT(E176,1)="l"),"p2",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P176&lt;&gt;""),"e",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="U",'UNC - EIB'!$R$2="usd",TH!O176&lt;&gt;""),"e1",IF(AND(LEFT(C176,3)="EIB",D176='LC - EIB'!$S$2,LEFT(E176,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:18" ht="18.75" customHeight="1">
@@ -12400,7 +12562,7 @@
       <c r="L177" s="65"/>
       <c r="M177" s="65"/>
       <c r="N177" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O177" s="68"/>
       <c r="P177" s="69">
@@ -12409,7 +12571,7 @@
       <c r="Q177" s="92"/>
       <c r="R177" s="202" t="str">
         <f>IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="vnđ",TH!P177&lt;&gt;""),"p",IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="usd",TH!O177&lt;&gt;""),"p1",IF(AND(C177="pv",D177='LC - PV'!$P$2,LEFT(E177,1)="l"),"p2",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P177&lt;&gt;""),"e",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="U",'UNC - EIB'!$R$2="usd",TH!O177&lt;&gt;""),"e1",IF(AND(LEFT(C177,3)="EIB",D177='LC - EIB'!$S$2,LEFT(E177,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="178" spans="1:18" ht="18.75" customHeight="1">
@@ -12456,13 +12618,13 @@
       <c r="Q178" s="92"/>
       <c r="R178" s="202" t="str">
         <f>IF(AND(C178="pv",D178='UNC - PV'!$Q$2,LEFT(E178,1)="u",'UNC - PV'!$O$2="vnđ",TH!P178&lt;&gt;""),"p",IF(AND(C178="pv",D178='UNC - PV'!$Q$2,LEFT(E178,1)="u",'UNC - PV'!$O$2="usd",TH!O178&lt;&gt;""),"p1",IF(AND(C178="pv",D178='LC - PV'!$P$2,LEFT(E178,1)="l"),"p2",IF(AND(LEFT(C178,3)="EIB",D178='UNC - EIB'!$T$2,LEFT(E178,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P178&lt;&gt;""),"e",IF(AND(LEFT(C178,3)="EIB",D178='UNC - EIB'!$T$2,LEFT(E178,1)="U",'UNC - EIB'!$R$2="usd",TH!O178&lt;&gt;""),"e1",IF(AND(LEFT(C178,3)="EIB",D178='LC - EIB'!$S$2,LEFT(E178,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:18" ht="18.75" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B179" s="62">
         <f t="shared" si="12"/>
@@ -12503,7 +12665,7 @@
       <c r="Q179" s="92"/>
       <c r="R179" s="202" t="str">
         <f>IF(AND(C179="pv",D179='UNC - PV'!$Q$2,LEFT(E179,1)="u",'UNC - PV'!$O$2="vnđ",TH!P179&lt;&gt;""),"p",IF(AND(C179="pv",D179='UNC - PV'!$Q$2,LEFT(E179,1)="u",'UNC - PV'!$O$2="usd",TH!O179&lt;&gt;""),"p1",IF(AND(C179="pv",D179='LC - PV'!$P$2,LEFT(E179,1)="l"),"p2",IF(AND(LEFT(C179,3)="EIB",D179='UNC - EIB'!$T$2,LEFT(E179,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P179&lt;&gt;""),"e",IF(AND(LEFT(C179,3)="EIB",D179='UNC - EIB'!$T$2,LEFT(E179,1)="U",'UNC - EIB'!$R$2="usd",TH!O179&lt;&gt;""),"e1",IF(AND(LEFT(C179,3)="EIB",D179='LC - EIB'!$S$2,LEFT(E179,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:18" ht="18.75" customHeight="1">
@@ -12619,13 +12781,13 @@
         <v>24</v>
       </c>
       <c r="F182" s="96" t="s">
+        <v>456</v>
+      </c>
+      <c r="G182" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="G182" s="96" t="s">
+      <c r="H182" s="96" t="s">
         <v>458</v>
-      </c>
-      <c r="H182" s="96" t="s">
-        <v>459</v>
       </c>
       <c r="I182" s="99" t="s">
         <v>9</v>
@@ -12635,7 +12797,7 @@
       <c r="L182" s="99"/>
       <c r="M182" s="99"/>
       <c r="N182" s="96" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O182" s="68"/>
       <c r="P182" s="69">
@@ -12699,24 +12861,42 @@
         <f>IF(AND(C184="pv",E184='UNC - PV'!$S$2,D184='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C184,3)="eib",E184='UNC - EIB'!$V$2,D184='UNC - EIB'!$T$2),"x1",IF(AND(C184="pv",E184='LC - PV'!$R$2,D184='LC - PV'!$P$2),"x2",IF(AND(LEFT(C184,3)="eib",E184='LC - EIB'!$U$2,D184='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B184" s="62" t="str">
+      <c r="B184" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C184" s="62"/>
-      <c r="D184" s="67"/>
-      <c r="E184" s="192"/>
-      <c r="F184" s="64"/>
-      <c r="G184" s="64"/>
-      <c r="H184" s="64"/>
-      <c r="I184" s="65"/>
-      <c r="J184" s="66"/>
-      <c r="K184" s="67"/>
-      <c r="L184" s="65"/>
-      <c r="M184" s="65"/>
-      <c r="N184" s="64"/>
-      <c r="O184" s="68"/>
-      <c r="P184" s="69"/>
+        <v>181</v>
+      </c>
+      <c r="C184" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D184" s="67">
+        <v>42759</v>
+      </c>
+      <c r="E184" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="G184" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="H184" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I184" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="J184" s="97"/>
+      <c r="K184" s="98"/>
+      <c r="L184" s="99"/>
+      <c r="M184" s="99"/>
+      <c r="N184" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="O184" s="100"/>
+      <c r="P184" s="101">
+        <v>100000000</v>
+      </c>
       <c r="Q184" s="92"/>
       <c r="R184" s="202" t="str">
         <f>IF(AND(C184="pv",D184='UNC - PV'!$Q$2,LEFT(E184,1)="u",'UNC - PV'!$O$2="vnđ",TH!P184&lt;&gt;""),"p",IF(AND(C184="pv",D184='UNC - PV'!$Q$2,LEFT(E184,1)="u",'UNC - PV'!$O$2="usd",TH!O184&lt;&gt;""),"p1",IF(AND(C184="pv",D184='LC - PV'!$P$2,LEFT(E184,1)="l"),"p2",IF(AND(LEFT(C184,3)="EIB",D184='UNC - EIB'!$T$2,LEFT(E184,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P184&lt;&gt;""),"e",IF(AND(LEFT(C184,3)="EIB",D184='UNC - EIB'!$T$2,LEFT(E184,1)="U",'UNC - EIB'!$R$2="usd",TH!O184&lt;&gt;""),"e1",IF(AND(LEFT(C184,3)="EIB",D184='LC - EIB'!$S$2,LEFT(E184,1)="l"),"e2",""))))))</f>
@@ -12728,24 +12908,42 @@
         <f>IF(AND(C185="pv",E185='UNC - PV'!$S$2,D185='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C185,3)="eib",E185='UNC - EIB'!$V$2,D185='UNC - EIB'!$T$2),"x1",IF(AND(C185="pv",E185='LC - PV'!$R$2,D185='LC - PV'!$P$2),"x2",IF(AND(LEFT(C185,3)="eib",E185='LC - EIB'!$U$2,D185='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B185" s="62" t="str">
+      <c r="B185" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C185" s="62"/>
-      <c r="D185" s="67"/>
-      <c r="E185" s="65"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="65"/>
+        <v>182</v>
+      </c>
+      <c r="C185" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D185" s="67">
+        <v>42759</v>
+      </c>
+      <c r="E185" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="G185" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="H185" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="I185" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J185" s="66"/>
       <c r="K185" s="67"/>
       <c r="L185" s="65"/>
       <c r="M185" s="65"/>
-      <c r="N185" s="64"/>
+      <c r="N185" s="64" t="s">
+        <v>478</v>
+      </c>
       <c r="O185" s="68"/>
-      <c r="P185" s="69"/>
+      <c r="P185" s="101">
+        <v>100000000</v>
+      </c>
       <c r="Q185" s="92"/>
       <c r="R185" s="202" t="str">
         <f>IF(AND(C185="pv",D185='UNC - PV'!$Q$2,LEFT(E185,1)="u",'UNC - PV'!$O$2="vnđ",TH!P185&lt;&gt;""),"p",IF(AND(C185="pv",D185='UNC - PV'!$Q$2,LEFT(E185,1)="u",'UNC - PV'!$O$2="usd",TH!O185&lt;&gt;""),"p1",IF(AND(C185="pv",D185='LC - PV'!$P$2,LEFT(E185,1)="l"),"p2",IF(AND(LEFT(C185,3)="EIB",D185='UNC - EIB'!$T$2,LEFT(E185,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P185&lt;&gt;""),"e",IF(AND(LEFT(C185,3)="EIB",D185='UNC - EIB'!$T$2,LEFT(E185,1)="U",'UNC - EIB'!$R$2="usd",TH!O185&lt;&gt;""),"e1",IF(AND(LEFT(C185,3)="EIB",D185='LC - EIB'!$S$2,LEFT(E185,1)="l"),"e2",""))))))</f>
@@ -12757,24 +12955,42 @@
         <f>IF(AND(C186="pv",E186='UNC - PV'!$S$2,D186='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C186,3)="eib",E186='UNC - EIB'!$V$2,D186='UNC - EIB'!$T$2),"x1",IF(AND(C186="pv",E186='LC - PV'!$R$2,D186='LC - PV'!$P$2),"x2",IF(AND(LEFT(C186,3)="eib",E186='LC - EIB'!$U$2,D186='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B186" s="62" t="str">
-        <f t="shared" ref="B186:B190" si="13">IF(C186&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C186" s="62"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="65"/>
-      <c r="F186" s="64"/>
-      <c r="G186" s="64"/>
-      <c r="H186" s="64"/>
-      <c r="I186" s="65"/>
+      <c r="B186" s="62">
+        <f t="shared" ref="B186:B208" si="13">IF(C186&lt;&gt;"",ROW()-3,"")</f>
+        <v>183</v>
+      </c>
+      <c r="C186" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D186" s="67">
+        <v>42759</v>
+      </c>
+      <c r="E186" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="G186" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="H186" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="I186" s="65" t="s">
+        <v>183</v>
+      </c>
       <c r="J186" s="66"/>
       <c r="K186" s="67"/>
       <c r="L186" s="65"/>
       <c r="M186" s="65"/>
-      <c r="N186" s="64"/>
+      <c r="N186" s="96" t="s">
+        <v>474</v>
+      </c>
       <c r="O186" s="68"/>
-      <c r="P186" s="69"/>
+      <c r="P186" s="101">
+        <v>100000000</v>
+      </c>
       <c r="Q186" s="92"/>
       <c r="R186" s="202" t="str">
         <f>IF(AND(C186="pv",D186='UNC - PV'!$Q$2,LEFT(E186,1)="u",'UNC - PV'!$O$2="vnđ",TH!P186&lt;&gt;""),"p",IF(AND(C186="pv",D186='UNC - PV'!$Q$2,LEFT(E186,1)="u",'UNC - PV'!$O$2="usd",TH!O186&lt;&gt;""),"p1",IF(AND(C186="pv",D186='LC - PV'!$P$2,LEFT(E186,1)="l"),"p2",IF(AND(LEFT(C186,3)="EIB",D186='UNC - EIB'!$T$2,LEFT(E186,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P186&lt;&gt;""),"e",IF(AND(LEFT(C186,3)="EIB",D186='UNC - EIB'!$T$2,LEFT(E186,1)="U",'UNC - EIB'!$R$2="usd",TH!O186&lt;&gt;""),"e1",IF(AND(LEFT(C186,3)="EIB",D186='LC - EIB'!$S$2,LEFT(E186,1)="l"),"e2",""))))))</f>
@@ -12786,24 +13002,42 @@
         <f>IF(AND(C187="pv",E187='UNC - PV'!$S$2,D187='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C187,3)="eib",E187='UNC - EIB'!$V$2,D187='UNC - EIB'!$T$2),"x1",IF(AND(C187="pv",E187='LC - PV'!$R$2,D187='LC - PV'!$P$2),"x2",IF(AND(LEFT(C187,3)="eib",E187='LC - EIB'!$U$2,D187='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B187" s="62" t="str">
+      <c r="B187" s="62">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C187" s="62"/>
-      <c r="D187" s="67"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-      <c r="H187" s="64"/>
-      <c r="I187" s="65"/>
+        <v>184</v>
+      </c>
+      <c r="C187" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D187" s="67">
+        <v>42759</v>
+      </c>
+      <c r="E187" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="G187" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="H187" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="I187" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J187" s="66"/>
       <c r="K187" s="67"/>
       <c r="L187" s="65"/>
       <c r="M187" s="65"/>
-      <c r="N187" s="64"/>
+      <c r="N187" s="64" t="s">
+        <v>480</v>
+      </c>
       <c r="O187" s="68"/>
-      <c r="P187" s="69"/>
+      <c r="P187" s="69">
+        <v>105612482</v>
+      </c>
       <c r="Q187" s="92"/>
       <c r="R187" s="202" t="str">
         <f>IF(AND(C187="pv",D187='UNC - PV'!$Q$2,LEFT(E187,1)="u",'UNC - PV'!$O$2="vnđ",TH!P187&lt;&gt;""),"p",IF(AND(C187="pv",D187='UNC - PV'!$Q$2,LEFT(E187,1)="u",'UNC - PV'!$O$2="usd",TH!O187&lt;&gt;""),"p1",IF(AND(C187="pv",D187='LC - PV'!$P$2,LEFT(E187,1)="l"),"p2",IF(AND(LEFT(C187,3)="EIB",D187='UNC - EIB'!$T$2,LEFT(E187,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P187&lt;&gt;""),"e",IF(AND(LEFT(C187,3)="EIB",D187='UNC - EIB'!$T$2,LEFT(E187,1)="U",'UNC - EIB'!$R$2="usd",TH!O187&lt;&gt;""),"e1",IF(AND(LEFT(C187,3)="EIB",D187='LC - EIB'!$S$2,LEFT(E187,1)="l"),"e2",""))))))</f>
@@ -12815,23 +13049,41 @@
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B188" s="62" t="str">
+      <c r="B188" s="62">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C188" s="62"/>
-      <c r="D188" s="67"/>
-      <c r="E188" s="65"/>
-      <c r="F188" s="64"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="64"/>
-      <c r="I188" s="65"/>
+        <v>185</v>
+      </c>
+      <c r="C188" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D188" s="67">
+        <v>42774</v>
+      </c>
+      <c r="E188" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G188" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="H188" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I188" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J188" s="66"/>
       <c r="K188" s="67"/>
       <c r="L188" s="65"/>
       <c r="M188" s="65"/>
-      <c r="N188" s="64"/>
-      <c r="O188" s="68"/>
+      <c r="N188" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="O188" s="68">
+        <v>53000</v>
+      </c>
       <c r="P188" s="69"/>
       <c r="Q188" s="92"/>
       <c r="R188" s="202" t="str">
@@ -12844,24 +13096,42 @@
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B189" s="62" t="str">
+      <c r="B189" s="62">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C189" s="62"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="65"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="64"/>
-      <c r="I189" s="65"/>
+        <v>186</v>
+      </c>
+      <c r="C189" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D189" s="67">
+        <v>42779</v>
+      </c>
+      <c r="E189" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="J189" s="66"/>
       <c r="K189" s="67"/>
       <c r="L189" s="65"/>
       <c r="M189" s="65"/>
-      <c r="N189" s="64"/>
+      <c r="N189" s="64" t="s">
+        <v>485</v>
+      </c>
       <c r="O189" s="68"/>
-      <c r="P189" s="69"/>
+      <c r="P189" s="69">
+        <v>66142120</v>
+      </c>
       <c r="Q189" s="92"/>
       <c r="R189" s="202" t="str">
         <f>IF(AND(C189="pv",D189='UNC - PV'!$Q$2,LEFT(E189,1)="u",'UNC - PV'!$O$2="vnđ",TH!P189&lt;&gt;""),"p",IF(AND(C189="pv",D189='UNC - PV'!$Q$2,LEFT(E189,1)="u",'UNC - PV'!$O$2="usd",TH!O189&lt;&gt;""),"p1",IF(AND(C189="pv",D189='LC - PV'!$P$2,LEFT(E189,1)="l"),"p2",IF(AND(LEFT(C189,3)="EIB",D189='UNC - EIB'!$T$2,LEFT(E189,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P189&lt;&gt;""),"e",IF(AND(LEFT(C189,3)="EIB",D189='UNC - EIB'!$T$2,LEFT(E189,1)="U",'UNC - EIB'!$R$2="usd",TH!O189&lt;&gt;""),"e1",IF(AND(LEFT(C189,3)="EIB",D189='LC - EIB'!$S$2,LEFT(E189,1)="l"),"e2",""))))))</f>
@@ -12873,24 +13143,42 @@
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B190" s="62" t="str">
+      <c r="B190" s="62">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C190" s="62"/>
-      <c r="D190" s="67"/>
-      <c r="E190" s="65"/>
-      <c r="F190" s="64"/>
-      <c r="G190" s="64"/>
-      <c r="H190" s="64"/>
-      <c r="I190" s="65"/>
+        <v>187</v>
+      </c>
+      <c r="C190" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D190" s="67">
+        <v>42779</v>
+      </c>
+      <c r="E190" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G190" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H190" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I190" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J190" s="66"/>
       <c r="K190" s="67"/>
       <c r="L190" s="65"/>
       <c r="M190" s="65"/>
-      <c r="N190" s="64"/>
+      <c r="N190" s="96" t="s">
+        <v>387</v>
+      </c>
       <c r="O190" s="68"/>
-      <c r="P190" s="69"/>
+      <c r="P190" s="69">
+        <v>6280000000</v>
+      </c>
       <c r="Q190" s="92"/>
       <c r="R190" s="202" t="str">
         <f>IF(AND(C190="pv",D190='UNC - PV'!$Q$2,LEFT(E190,1)="u",'UNC - PV'!$O$2="vnđ",TH!P190&lt;&gt;""),"p",IF(AND(C190="pv",D190='UNC - PV'!$Q$2,LEFT(E190,1)="u",'UNC - PV'!$O$2="usd",TH!O190&lt;&gt;""),"p1",IF(AND(C190="pv",D190='LC - PV'!$P$2,LEFT(E190,1)="l"),"p2",IF(AND(LEFT(C190,3)="EIB",D190='UNC - EIB'!$T$2,LEFT(E190,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P190&lt;&gt;""),"e",IF(AND(LEFT(C190,3)="EIB",D190='UNC - EIB'!$T$2,LEFT(E190,1)="U",'UNC - EIB'!$R$2="usd",TH!O190&lt;&gt;""),"e1",IF(AND(LEFT(C190,3)="EIB",D190='LC - EIB'!$S$2,LEFT(E190,1)="l"),"e2",""))))))</f>
@@ -12902,24 +13190,42 @@
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B191" s="62" t="str">
-        <f t="shared" ref="B191" si="14">IF(C191&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C191" s="62"/>
-      <c r="D191" s="67"/>
-      <c r="E191" s="65"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="64"/>
-      <c r="I191" s="65"/>
+      <c r="B191" s="62">
+        <f t="shared" si="13"/>
+        <v>188</v>
+      </c>
+      <c r="C191" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D191" s="67">
+        <v>42780</v>
+      </c>
+      <c r="E191" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G191" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H191" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I191" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J191" s="66"/>
       <c r="K191" s="67"/>
       <c r="L191" s="65"/>
       <c r="M191" s="65"/>
-      <c r="N191" s="64"/>
+      <c r="N191" s="64" t="s">
+        <v>489</v>
+      </c>
       <c r="O191" s="68"/>
-      <c r="P191" s="69"/>
+      <c r="P191" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q191" s="92"/>
       <c r="R191" s="202" t="str">
         <f>IF(AND(C191="pv",D191='UNC - PV'!$Q$2,LEFT(E191,1)="u",'UNC - PV'!$O$2="vnđ",TH!P191&lt;&gt;""),"p",IF(AND(C191="pv",D191='UNC - PV'!$Q$2,LEFT(E191,1)="u",'UNC - PV'!$O$2="usd",TH!O191&lt;&gt;""),"p1",IF(AND(C191="pv",D191='LC - PV'!$P$2,LEFT(E191,1)="l"),"p2",IF(AND(LEFT(C191,3)="EIB",D191='UNC - EIB'!$T$2,LEFT(E191,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P191&lt;&gt;""),"e",IF(AND(LEFT(C191,3)="EIB",D191='UNC - EIB'!$T$2,LEFT(E191,1)="U",'UNC - EIB'!$R$2="usd",TH!O191&lt;&gt;""),"e1",IF(AND(LEFT(C191,3)="EIB",D191='LC - EIB'!$S$2,LEFT(E191,1)="l"),"e2",""))))))</f>
@@ -12931,24 +13237,42 @@
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B192" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C192" s="62"/>
-      <c r="D192" s="67"/>
-      <c r="E192" s="65"/>
-      <c r="F192" s="64"/>
-      <c r="G192" s="64"/>
-      <c r="H192" s="64"/>
-      <c r="I192" s="65"/>
+      <c r="B192" s="62">
+        <f t="shared" si="13"/>
+        <v>189</v>
+      </c>
+      <c r="C192" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D192" s="67">
+        <v>42780</v>
+      </c>
+      <c r="E192" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G192" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H192" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I192" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J192" s="66"/>
       <c r="K192" s="67"/>
       <c r="L192" s="65"/>
       <c r="M192" s="65"/>
-      <c r="N192" s="64"/>
+      <c r="N192" s="64" t="s">
+        <v>490</v>
+      </c>
       <c r="O192" s="68"/>
-      <c r="P192" s="69"/>
+      <c r="P192" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q192" s="92"/>
       <c r="R192" s="202" t="str">
         <f>IF(AND(C192="pv",D192='UNC - PV'!$Q$2,LEFT(E192,1)="u",'UNC - PV'!$O$2="vnđ",TH!P192&lt;&gt;""),"p",IF(AND(C192="pv",D192='UNC - PV'!$Q$2,LEFT(E192,1)="u",'UNC - PV'!$O$2="usd",TH!O192&lt;&gt;""),"p1",IF(AND(C192="pv",D192='LC - PV'!$P$2,LEFT(E192,1)="l"),"p2",IF(AND(LEFT(C192,3)="EIB",D192='UNC - EIB'!$T$2,LEFT(E192,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P192&lt;&gt;""),"e",IF(AND(LEFT(C192,3)="EIB",D192='UNC - EIB'!$T$2,LEFT(E192,1)="U",'UNC - EIB'!$R$2="usd",TH!O192&lt;&gt;""),"e1",IF(AND(LEFT(C192,3)="EIB",D192='LC - EIB'!$S$2,LEFT(E192,1)="l"),"e2",""))))))</f>
@@ -12960,24 +13284,42 @@
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B193" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C193" s="62"/>
-      <c r="D193" s="67"/>
-      <c r="E193" s="65"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="64"/>
-      <c r="I193" s="65"/>
+      <c r="B193" s="62">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="C193" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D193" s="67">
+        <v>42780</v>
+      </c>
+      <c r="E193" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G193" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H193" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I193" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J193" s="66"/>
       <c r="K193" s="67"/>
       <c r="L193" s="65"/>
       <c r="M193" s="65"/>
-      <c r="N193" s="64"/>
+      <c r="N193" s="96" t="s">
+        <v>387</v>
+      </c>
       <c r="O193" s="68"/>
-      <c r="P193" s="69"/>
+      <c r="P193" s="69">
+        <v>180000000</v>
+      </c>
       <c r="Q193" s="92"/>
       <c r="R193" s="202" t="str">
         <f>IF(AND(C193="pv",D193='UNC - PV'!$Q$2,LEFT(E193,1)="u",'UNC - PV'!$O$2="vnđ",TH!P193&lt;&gt;""),"p",IF(AND(C193="pv",D193='UNC - PV'!$Q$2,LEFT(E193,1)="u",'UNC - PV'!$O$2="usd",TH!O193&lt;&gt;""),"p1",IF(AND(C193="pv",D193='LC - PV'!$P$2,LEFT(E193,1)="l"),"p2",IF(AND(LEFT(C193,3)="EIB",D193='UNC - EIB'!$T$2,LEFT(E193,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P193&lt;&gt;""),"e",IF(AND(LEFT(C193,3)="EIB",D193='UNC - EIB'!$T$2,LEFT(E193,1)="U",'UNC - EIB'!$R$2="usd",TH!O193&lt;&gt;""),"e1",IF(AND(LEFT(C193,3)="EIB",D193='LC - EIB'!$S$2,LEFT(E193,1)="l"),"e2",""))))))</f>
@@ -12989,24 +13331,42 @@
         <f>IF(AND(C194="pv",E194='UNC - PV'!$S$2,D194='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C194,3)="eib",E194='UNC - EIB'!$V$2,D194='UNC - EIB'!$T$2),"x1",IF(AND(C194="pv",E194='LC - PV'!$R$2,D194='LC - PV'!$P$2),"x2",IF(AND(LEFT(C194,3)="eib",E194='LC - EIB'!$U$2,D194='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B194" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C194" s="62"/>
-      <c r="D194" s="67"/>
-      <c r="E194" s="65"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="65"/>
+      <c r="B194" s="62">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="C194" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" s="67">
+        <v>42780</v>
+      </c>
+      <c r="E194" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F194" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="G194" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="H194" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="I194" s="99" t="s">
+        <v>156</v>
+      </c>
       <c r="J194" s="66"/>
       <c r="K194" s="67"/>
       <c r="L194" s="65"/>
       <c r="M194" s="65"/>
-      <c r="N194" s="64"/>
+      <c r="N194" s="64" t="s">
+        <v>354</v>
+      </c>
       <c r="O194" s="68"/>
-      <c r="P194" s="69"/>
+      <c r="P194" s="69">
+        <v>180000000</v>
+      </c>
       <c r="Q194" s="92"/>
       <c r="R194" s="202" t="str">
         <f>IF(AND(C194="pv",D194='UNC - PV'!$Q$2,LEFT(E194,1)="u",'UNC - PV'!$O$2="vnđ",TH!P194&lt;&gt;""),"p",IF(AND(C194="pv",D194='UNC - PV'!$Q$2,LEFT(E194,1)="u",'UNC - PV'!$O$2="usd",TH!O194&lt;&gt;""),"p1",IF(AND(C194="pv",D194='LC - PV'!$P$2,LEFT(E194,1)="l"),"p2",IF(AND(LEFT(C194,3)="EIB",D194='UNC - EIB'!$T$2,LEFT(E194,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P194&lt;&gt;""),"e",IF(AND(LEFT(C194,3)="EIB",D194='UNC - EIB'!$T$2,LEFT(E194,1)="U",'UNC - EIB'!$R$2="usd",TH!O194&lt;&gt;""),"e1",IF(AND(LEFT(C194,3)="EIB",D194='LC - EIB'!$S$2,LEFT(E194,1)="l"),"e2",""))))))</f>
@@ -13018,32 +13378,699 @@
         <f>IF(AND(C195="pv",E195='UNC - PV'!$S$2,D195='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C195,3)="eib",E195='UNC - EIB'!$V$2,D195='UNC - EIB'!$T$2),"x1",IF(AND(C195="pv",E195='LC - PV'!$R$2,D195='LC - PV'!$P$2),"x2",IF(AND(LEFT(C195,3)="eib",E195='LC - EIB'!$U$2,D195='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B195" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C195" s="62"/>
-      <c r="D195" s="67"/>
-      <c r="E195" s="65"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
-      <c r="H195" s="64"/>
-      <c r="I195" s="65"/>
+      <c r="B195" s="62">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="C195" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D195" s="67">
+        <v>42783</v>
+      </c>
+      <c r="E195" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G195" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="H195" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="I195" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J195" s="66"/>
       <c r="K195" s="67"/>
       <c r="L195" s="65"/>
       <c r="M195" s="65"/>
-      <c r="N195" s="64"/>
+      <c r="N195" s="64" t="s">
+        <v>494</v>
+      </c>
       <c r="O195" s="68"/>
-      <c r="P195" s="69"/>
+      <c r="P195" s="69">
+        <v>24578195</v>
+      </c>
       <c r="Q195" s="92"/>
       <c r="R195" s="202" t="str">
         <f>IF(AND(C195="pv",D195='UNC - PV'!$Q$2,LEFT(E195,1)="u",'UNC - PV'!$O$2="vnđ",TH!P195&lt;&gt;""),"p",IF(AND(C195="pv",D195='UNC - PV'!$Q$2,LEFT(E195,1)="u",'UNC - PV'!$O$2="usd",TH!O195&lt;&gt;""),"p1",IF(AND(C195="pv",D195='LC - PV'!$P$2,LEFT(E195,1)="l"),"p2",IF(AND(LEFT(C195,3)="EIB",D195='UNC - EIB'!$T$2,LEFT(E195,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P195&lt;&gt;""),"e",IF(AND(LEFT(C195,3)="EIB",D195='UNC - EIB'!$T$2,LEFT(E195,1)="U",'UNC - EIB'!$R$2="usd",TH!O195&lt;&gt;""),"e1",IF(AND(LEFT(C195,3)="EIB",D195='LC - EIB'!$S$2,LEFT(E195,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
+    <row r="196" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A196" s="55" t="str">
+        <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B196" s="62">
+        <f t="shared" ref="B196:B204" si="14">IF(C196&lt;&gt;"",ROW()-3,"")</f>
+        <v>193</v>
+      </c>
+      <c r="C196" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="67">
+        <v>42788</v>
+      </c>
+      <c r="E196" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F196" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G196" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="H196" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I196" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J196" s="66"/>
+      <c r="K196" s="67"/>
+      <c r="L196" s="65"/>
+      <c r="M196" s="65"/>
+      <c r="N196" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="O196" s="68"/>
+      <c r="P196" s="69">
+        <v>22500000</v>
+      </c>
+      <c r="Q196" s="92"/>
+      <c r="R196" s="202" t="str">
+        <f>IF(AND(C196="pv",D196='UNC - PV'!$Q$2,LEFT(E196,1)="u",'UNC - PV'!$O$2="vnđ",TH!P196&lt;&gt;""),"p",IF(AND(C196="pv",D196='UNC - PV'!$Q$2,LEFT(E196,1)="u",'UNC - PV'!$O$2="usd",TH!O196&lt;&gt;""),"p1",IF(AND(C196="pv",D196='LC - PV'!$P$2,LEFT(E196,1)="l"),"p2",IF(AND(LEFT(C196,3)="EIB",D196='UNC - EIB'!$T$2,LEFT(E196,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P196&lt;&gt;""),"e",IF(AND(LEFT(C196,3)="EIB",D196='UNC - EIB'!$T$2,LEFT(E196,1)="U",'UNC - EIB'!$R$2="usd",TH!O196&lt;&gt;""),"e1",IF(AND(LEFT(C196,3)="EIB",D196='LC - EIB'!$S$2,LEFT(E196,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A197" s="55" t="str">
+        <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B197" s="62">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
+      <c r="C197" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D197" s="67">
+        <v>42788</v>
+      </c>
+      <c r="E197" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G197" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H197" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I197" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J197" s="66"/>
+      <c r="K197" s="67"/>
+      <c r="L197" s="65"/>
+      <c r="M197" s="65"/>
+      <c r="N197" s="96" t="s">
+        <v>495</v>
+      </c>
+      <c r="O197" s="68"/>
+      <c r="P197" s="69">
+        <v>80000000</v>
+      </c>
+      <c r="Q197" s="92"/>
+      <c r="R197" s="202" t="str">
+        <f>IF(AND(C197="pv",D197='UNC - PV'!$Q$2,LEFT(E197,1)="u",'UNC - PV'!$O$2="vnđ",TH!P197&lt;&gt;""),"p",IF(AND(C197="pv",D197='UNC - PV'!$Q$2,LEFT(E197,1)="u",'UNC - PV'!$O$2="usd",TH!O197&lt;&gt;""),"p1",IF(AND(C197="pv",D197='LC - PV'!$P$2,LEFT(E197,1)="l"),"p2",IF(AND(LEFT(C197,3)="EIB",D197='UNC - EIB'!$T$2,LEFT(E197,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P197&lt;&gt;""),"e",IF(AND(LEFT(C197,3)="EIB",D197='UNC - EIB'!$T$2,LEFT(E197,1)="U",'UNC - EIB'!$R$2="usd",TH!O197&lt;&gt;""),"e1",IF(AND(LEFT(C197,3)="EIB",D197='LC - EIB'!$S$2,LEFT(E197,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A198" s="55" t="str">
+        <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B198" s="62">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+      <c r="C198" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D198" s="67">
+        <v>42793</v>
+      </c>
+      <c r="E198" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G198" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="H198" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I198" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J198" s="66"/>
+      <c r="K198" s="67"/>
+      <c r="L198" s="65"/>
+      <c r="M198" s="65"/>
+      <c r="N198" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="O198" s="68">
+        <v>450000</v>
+      </c>
+      <c r="P198" s="69"/>
+      <c r="Q198" s="92"/>
+      <c r="R198" s="202" t="str">
+        <f>IF(AND(C198="pv",D198='UNC - PV'!$Q$2,LEFT(E198,1)="u",'UNC - PV'!$O$2="vnđ",TH!P198&lt;&gt;""),"p",IF(AND(C198="pv",D198='UNC - PV'!$Q$2,LEFT(E198,1)="u",'UNC - PV'!$O$2="usd",TH!O198&lt;&gt;""),"p1",IF(AND(C198="pv",D198='LC - PV'!$P$2,LEFT(E198,1)="l"),"p2",IF(AND(LEFT(C198,3)="EIB",D198='UNC - EIB'!$T$2,LEFT(E198,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P198&lt;&gt;""),"e",IF(AND(LEFT(C198,3)="EIB",D198='UNC - EIB'!$T$2,LEFT(E198,1)="U",'UNC - EIB'!$R$2="usd",TH!O198&lt;&gt;""),"e1",IF(AND(LEFT(C198,3)="EIB",D198='LC - EIB'!$S$2,LEFT(E198,1)="l"),"e2",""))))))</f>
+        <v>p1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A199" s="55" t="str">
+        <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B199" s="62">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+      <c r="C199" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D199" s="67">
+        <v>42793</v>
+      </c>
+      <c r="E199" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G199" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="H199" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I199" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J199" s="97"/>
+      <c r="K199" s="67"/>
+      <c r="L199" s="65"/>
+      <c r="M199" s="65"/>
+      <c r="N199" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O199" s="68">
+        <v>450000</v>
+      </c>
+      <c r="P199" s="69"/>
+      <c r="Q199" s="92"/>
+      <c r="R199" s="202" t="str">
+        <f>IF(AND(C199="pv",D199='UNC - PV'!$Q$2,LEFT(E199,1)="u",'UNC - PV'!$O$2="vnđ",TH!P199&lt;&gt;""),"p",IF(AND(C199="pv",D199='UNC - PV'!$Q$2,LEFT(E199,1)="u",'UNC - PV'!$O$2="usd",TH!O199&lt;&gt;""),"p1",IF(AND(C199="pv",D199='LC - PV'!$P$2,LEFT(E199,1)="l"),"p2",IF(AND(LEFT(C199,3)="EIB",D199='UNC - EIB'!$T$2,LEFT(E199,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P199&lt;&gt;""),"e",IF(AND(LEFT(C199,3)="EIB",D199='UNC - EIB'!$T$2,LEFT(E199,1)="U",'UNC - EIB'!$R$2="usd",TH!O199&lt;&gt;""),"e1",IF(AND(LEFT(C199,3)="EIB",D199='LC - EIB'!$S$2,LEFT(E199,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A200" s="55" t="str">
+        <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B200" s="62">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+      <c r="C200" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D200" s="67">
+        <v>42793</v>
+      </c>
+      <c r="E200" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F200" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G200" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H200" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I200" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J200" s="66"/>
+      <c r="K200" s="67"/>
+      <c r="L200" s="65"/>
+      <c r="M200" s="65"/>
+      <c r="N200" s="96" t="s">
+        <v>495</v>
+      </c>
+      <c r="O200" s="68"/>
+      <c r="P200" s="69">
+        <v>5249911000</v>
+      </c>
+      <c r="Q200" s="92"/>
+      <c r="R200" s="202" t="str">
+        <f>IF(AND(C200="pv",D200='UNC - PV'!$Q$2,LEFT(E200,1)="u",'UNC - PV'!$O$2="vnđ",TH!P200&lt;&gt;""),"p",IF(AND(C200="pv",D200='UNC - PV'!$Q$2,LEFT(E200,1)="u",'UNC - PV'!$O$2="usd",TH!O200&lt;&gt;""),"p1",IF(AND(C200="pv",D200='LC - PV'!$P$2,LEFT(E200,1)="l"),"p2",IF(AND(LEFT(C200,3)="EIB",D200='UNC - EIB'!$T$2,LEFT(E200,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P200&lt;&gt;""),"e",IF(AND(LEFT(C200,3)="EIB",D200='UNC - EIB'!$T$2,LEFT(E200,1)="U",'UNC - EIB'!$R$2="usd",TH!O200&lt;&gt;""),"e1",IF(AND(LEFT(C200,3)="EIB",D200='LC - EIB'!$S$2,LEFT(E200,1)="l"),"e2",""))))))</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A201" s="55" t="str">
+        <f>IF(AND(C201="pv",E201='UNC - PV'!$S$2,D201='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C201,3)="eib",E201='UNC - EIB'!$V$2,D201='UNC - EIB'!$T$2),"x1",IF(AND(C201="pv",E201='LC - PV'!$R$2,D201='LC - PV'!$P$2),"x2",IF(AND(LEFT(C201,3)="eib",E201='LC - EIB'!$U$2,D201='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B201" s="62">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+      <c r="C201" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D201" s="67">
+        <v>42793</v>
+      </c>
+      <c r="E201" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G201" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H201" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I201" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="J201" s="66"/>
+      <c r="K201" s="67"/>
+      <c r="L201" s="65"/>
+      <c r="M201" s="65"/>
+      <c r="N201" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="O201" s="68"/>
+      <c r="P201" s="69">
+        <v>75820800</v>
+      </c>
+      <c r="Q201" s="92"/>
+      <c r="R201" s="202" t="str">
+        <f>IF(AND(C201="pv",D201='UNC - PV'!$Q$2,LEFT(E201,1)="u",'UNC - PV'!$O$2="vnđ",TH!P201&lt;&gt;""),"p",IF(AND(C201="pv",D201='UNC - PV'!$Q$2,LEFT(E201,1)="u",'UNC - PV'!$O$2="usd",TH!O201&lt;&gt;""),"p1",IF(AND(C201="pv",D201='LC - PV'!$P$2,LEFT(E201,1)="l"),"p2",IF(AND(LEFT(C201,3)="EIB",D201='UNC - EIB'!$T$2,LEFT(E201,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P201&lt;&gt;""),"e",IF(AND(LEFT(C201,3)="EIB",D201='UNC - EIB'!$T$2,LEFT(E201,1)="U",'UNC - EIB'!$R$2="usd",TH!O201&lt;&gt;""),"e1",IF(AND(LEFT(C201,3)="EIB",D201='LC - EIB'!$S$2,LEFT(E201,1)="l"),"e2",""))))))</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A202" s="55" t="str">
+        <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x1</v>
+      </c>
+      <c r="B202" s="62">
+        <f t="shared" si="14"/>
+        <v>199</v>
+      </c>
+      <c r="C202" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D202" s="67">
+        <v>42793</v>
+      </c>
+      <c r="E202" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="F202" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H202" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I202" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202" s="66"/>
+      <c r="K202" s="67"/>
+      <c r="L202" s="65"/>
+      <c r="M202" s="65"/>
+      <c r="N202" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="O202" s="68"/>
+      <c r="P202" s="69">
+        <f>20062790+10497850+14927330</f>
+        <v>45487970</v>
+      </c>
+      <c r="Q202" s="92"/>
+      <c r="R202" s="202" t="str">
+        <f>IF(AND(C202="pv",D202='UNC - PV'!$Q$2,LEFT(E202,1)="u",'UNC - PV'!$O$2="vnđ",TH!P202&lt;&gt;""),"p",IF(AND(C202="pv",D202='UNC - PV'!$Q$2,LEFT(E202,1)="u",'UNC - PV'!$O$2="usd",TH!O202&lt;&gt;""),"p1",IF(AND(C202="pv",D202='LC - PV'!$P$2,LEFT(E202,1)="l"),"p2",IF(AND(LEFT(C202,3)="EIB",D202='UNC - EIB'!$T$2,LEFT(E202,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P202&lt;&gt;""),"e",IF(AND(LEFT(C202,3)="EIB",D202='UNC - EIB'!$T$2,LEFT(E202,1)="U",'UNC - EIB'!$R$2="usd",TH!O202&lt;&gt;""),"e1",IF(AND(LEFT(C202,3)="EIB",D202='LC - EIB'!$S$2,LEFT(E202,1)="l"),"e2",""))))))</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A203" s="55" t="str">
+        <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B203" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C203" s="62"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="65"/>
+      <c r="F203" s="64"/>
+      <c r="G203" s="64"/>
+      <c r="H203" s="64"/>
+      <c r="I203" s="65"/>
+      <c r="J203" s="66"/>
+      <c r="K203" s="67"/>
+      <c r="L203" s="65"/>
+      <c r="M203" s="65"/>
+      <c r="N203" s="64"/>
+      <c r="O203" s="68"/>
+      <c r="P203" s="69"/>
+      <c r="Q203" s="92"/>
+      <c r="R203" s="202" t="str">
+        <f>IF(AND(C203="pv",D203='UNC - PV'!$Q$2,LEFT(E203,1)="u",'UNC - PV'!$O$2="vnđ",TH!P203&lt;&gt;""),"p",IF(AND(C203="pv",D203='UNC - PV'!$Q$2,LEFT(E203,1)="u",'UNC - PV'!$O$2="usd",TH!O203&lt;&gt;""),"p1",IF(AND(C203="pv",D203='LC - PV'!$P$2,LEFT(E203,1)="l"),"p2",IF(AND(LEFT(C203,3)="EIB",D203='UNC - EIB'!$T$2,LEFT(E203,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P203&lt;&gt;""),"e",IF(AND(LEFT(C203,3)="EIB",D203='UNC - EIB'!$T$2,LEFT(E203,1)="U",'UNC - EIB'!$R$2="usd",TH!O203&lt;&gt;""),"e1",IF(AND(LEFT(C203,3)="EIB",D203='LC - EIB'!$S$2,LEFT(E203,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A204" s="55" t="str">
+        <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B204" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C204" s="62"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="65"/>
+      <c r="F204" s="64"/>
+      <c r="G204" s="64"/>
+      <c r="H204" s="64"/>
+      <c r="I204" s="65"/>
+      <c r="J204" s="66"/>
+      <c r="K204" s="67"/>
+      <c r="L204" s="65"/>
+      <c r="M204" s="65"/>
+      <c r="N204" s="64"/>
+      <c r="O204" s="68"/>
+      <c r="P204" s="69"/>
+      <c r="Q204" s="92"/>
+      <c r="R204" s="202" t="str">
+        <f>IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="vnđ",TH!P204&lt;&gt;""),"p",IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="usd",TH!O204&lt;&gt;""),"p1",IF(AND(C204="pv",D204='LC - PV'!$P$2,LEFT(E204,1)="l"),"p2",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P204&lt;&gt;""),"e",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="U",'UNC - EIB'!$R$2="usd",TH!O204&lt;&gt;""),"e1",IF(AND(LEFT(C204,3)="EIB",D204='LC - EIB'!$S$2,LEFT(E204,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A205" s="55" t="str">
+        <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B205" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="C205" s="62"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="65"/>
+      <c r="F205" s="64"/>
+      <c r="G205" s="64"/>
+      <c r="H205" s="64"/>
+      <c r="I205" s="65"/>
+      <c r="J205" s="66"/>
+      <c r="K205" s="67"/>
+      <c r="L205" s="65"/>
+      <c r="M205" s="65"/>
+      <c r="N205" s="64"/>
+      <c r="O205" s="68"/>
+      <c r="P205" s="69"/>
+      <c r="Q205" s="92"/>
+      <c r="R205" s="202" t="str">
+        <f>IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="vnđ",TH!P205&lt;&gt;""),"p",IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="usd",TH!O205&lt;&gt;""),"p1",IF(AND(C205="pv",D205='LC - PV'!$P$2,LEFT(E205,1)="l"),"p2",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P205&lt;&gt;""),"e",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="U",'UNC - EIB'!$R$2="usd",TH!O205&lt;&gt;""),"e1",IF(AND(LEFT(C205,3)="EIB",D205='LC - EIB'!$S$2,LEFT(E205,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A206" s="55" t="str">
+        <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B206" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="C206" s="62"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="65"/>
+      <c r="F206" s="64"/>
+      <c r="G206" s="64"/>
+      <c r="H206" s="64"/>
+      <c r="I206" s="65"/>
+      <c r="J206" s="66"/>
+      <c r="K206" s="67"/>
+      <c r="L206" s="65"/>
+      <c r="M206" s="65"/>
+      <c r="N206" s="64"/>
+      <c r="O206" s="68"/>
+      <c r="P206" s="69"/>
+      <c r="Q206" s="92"/>
+      <c r="R206" s="202" t="str">
+        <f>IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="vnđ",TH!P206&lt;&gt;""),"p",IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="usd",TH!O206&lt;&gt;""),"p1",IF(AND(C206="pv",D206='LC - PV'!$P$2,LEFT(E206,1)="l"),"p2",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P206&lt;&gt;""),"e",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="U",'UNC - EIB'!$R$2="usd",TH!O206&lt;&gt;""),"e1",IF(AND(LEFT(C206,3)="EIB",D206='LC - EIB'!$S$2,LEFT(E206,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A207" s="55" t="str">
+        <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B207" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="C207" s="62"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="65"/>
+      <c r="F207" s="64"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="64"/>
+      <c r="I207" s="65"/>
+      <c r="J207" s="66"/>
+      <c r="K207" s="67"/>
+      <c r="L207" s="65"/>
+      <c r="M207" s="65"/>
+      <c r="N207" s="64"/>
+      <c r="O207" s="68"/>
+      <c r="P207" s="69"/>
+      <c r="Q207" s="92"/>
+      <c r="R207" s="202" t="str">
+        <f>IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="vnđ",TH!P207&lt;&gt;""),"p",IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="usd",TH!O207&lt;&gt;""),"p1",IF(AND(C207="pv",D207='LC - PV'!$P$2,LEFT(E207,1)="l"),"p2",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P207&lt;&gt;""),"e",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="U",'UNC - EIB'!$R$2="usd",TH!O207&lt;&gt;""),"e1",IF(AND(LEFT(C207,3)="EIB",D207='LC - EIB'!$S$2,LEFT(E207,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A208" s="55" t="str">
+        <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B208" s="62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="C208" s="62"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="64"/>
+      <c r="G208" s="64"/>
+      <c r="H208" s="64"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="66"/>
+      <c r="K208" s="67"/>
+      <c r="L208" s="65"/>
+      <c r="M208" s="65"/>
+      <c r="N208" s="64"/>
+      <c r="O208" s="68"/>
+      <c r="P208" s="69"/>
+      <c r="Q208" s="92"/>
+      <c r="R208" s="202" t="str">
+        <f>IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="vnđ",TH!P208&lt;&gt;""),"p",IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="usd",TH!O208&lt;&gt;""),"p1",IF(AND(C208="pv",D208='LC - PV'!$P$2,LEFT(E208,1)="l"),"p2",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P208&lt;&gt;""),"e",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="U",'UNC - EIB'!$R$2="usd",TH!O208&lt;&gt;""),"e1",IF(AND(LEFT(C208,3)="EIB",D208='LC - EIB'!$S$2,LEFT(E208,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A209" s="55" t="str">
+        <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B209" s="62" t="str">
+        <f t="shared" ref="B209" si="15">IF(C209&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C209" s="62"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="64"/>
+      <c r="G209" s="64"/>
+      <c r="H209" s="64"/>
+      <c r="I209" s="65"/>
+      <c r="J209" s="66"/>
+      <c r="K209" s="67"/>
+      <c r="L209" s="65"/>
+      <c r="M209" s="65"/>
+      <c r="N209" s="64"/>
+      <c r="O209" s="68"/>
+      <c r="P209" s="69"/>
+      <c r="Q209" s="92"/>
+      <c r="R209" s="202" t="str">
+        <f>IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="vnđ",TH!P209&lt;&gt;""),"p",IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="usd",TH!O209&lt;&gt;""),"p1",IF(AND(C209="pv",D209='LC - PV'!$P$2,LEFT(E209,1)="l"),"p2",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P209&lt;&gt;""),"e",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="U",'UNC - EIB'!$R$2="usd",TH!O209&lt;&gt;""),"e1",IF(AND(LEFT(C209,3)="EIB",D209='LC - EIB'!$S$2,LEFT(E209,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A210" s="55" t="str">
+        <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B210" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C210" s="62"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="64"/>
+      <c r="G210" s="64"/>
+      <c r="H210" s="64"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="66"/>
+      <c r="K210" s="67"/>
+      <c r="L210" s="65"/>
+      <c r="M210" s="65"/>
+      <c r="N210" s="64"/>
+      <c r="O210" s="68"/>
+      <c r="P210" s="69"/>
+      <c r="Q210" s="92"/>
+      <c r="R210" s="202" t="str">
+        <f>IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="vnđ",TH!P210&lt;&gt;""),"p",IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="usd",TH!O210&lt;&gt;""),"p1",IF(AND(C210="pv",D210='LC - PV'!$P$2,LEFT(E210,1)="l"),"p2",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P210&lt;&gt;""),"e",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="U",'UNC - EIB'!$R$2="usd",TH!O210&lt;&gt;""),"e1",IF(AND(LEFT(C210,3)="EIB",D210='LC - EIB'!$S$2,LEFT(E210,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A211" s="55" t="str">
+        <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B211" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C211" s="62"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="65"/>
+      <c r="F211" s="64"/>
+      <c r="G211" s="64"/>
+      <c r="H211" s="64"/>
+      <c r="I211" s="65"/>
+      <c r="J211" s="66"/>
+      <c r="K211" s="67"/>
+      <c r="L211" s="65"/>
+      <c r="M211" s="65"/>
+      <c r="N211" s="64"/>
+      <c r="O211" s="68"/>
+      <c r="P211" s="69"/>
+      <c r="Q211" s="92"/>
+      <c r="R211" s="202" t="str">
+        <f>IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="vnđ",TH!P211&lt;&gt;""),"p",IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="usd",TH!O211&lt;&gt;""),"p1",IF(AND(C211="pv",D211='LC - PV'!$P$2,LEFT(E211,1)="l"),"p2",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P211&lt;&gt;""),"e",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="U",'UNC - EIB'!$R$2="usd",TH!O211&lt;&gt;""),"e1",IF(AND(LEFT(C211,3)="EIB",D211='LC - EIB'!$S$2,LEFT(E211,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A212" s="55" t="str">
+        <f>IF(AND(C212="pv",E212='UNC - PV'!$S$2,D212='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C212,3)="eib",E212='UNC - EIB'!$V$2,D212='UNC - EIB'!$T$2),"x1",IF(AND(C212="pv",E212='LC - PV'!$R$2,D212='LC - PV'!$P$2),"x2",IF(AND(LEFT(C212,3)="eib",E212='LC - EIB'!$U$2,D212='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B212" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C212" s="62"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="65"/>
+      <c r="F212" s="64"/>
+      <c r="G212" s="64"/>
+      <c r="H212" s="64"/>
+      <c r="I212" s="65"/>
+      <c r="J212" s="66"/>
+      <c r="K212" s="67"/>
+      <c r="L212" s="65"/>
+      <c r="M212" s="65"/>
+      <c r="N212" s="64"/>
+      <c r="O212" s="68"/>
+      <c r="P212" s="69"/>
+      <c r="Q212" s="92"/>
+      <c r="R212" s="202" t="str">
+        <f>IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="vnđ",TH!P212&lt;&gt;""),"p",IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="usd",TH!O212&lt;&gt;""),"p1",IF(AND(C212="pv",D212='LC - PV'!$P$2,LEFT(E212,1)="l"),"p2",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P212&lt;&gt;""),"e",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="U",'UNC - EIB'!$R$2="usd",TH!O212&lt;&gt;""),"e1",IF(AND(LEFT(C212,3)="EIB",D212='LC - EIB'!$S$2,LEFT(E212,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A213" s="55" t="str">
+        <f>IF(AND(C213="pv",E213='UNC - PV'!$S$2,D213='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C213,3)="eib",E213='UNC - EIB'!$V$2,D213='UNC - EIB'!$T$2),"x1",IF(AND(C213="pv",E213='LC - PV'!$R$2,D213='LC - PV'!$P$2),"x2",IF(AND(LEFT(C213,3)="eib",E213='LC - EIB'!$U$2,D213='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B213" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C213" s="62"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="65"/>
+      <c r="F213" s="64"/>
+      <c r="G213" s="64"/>
+      <c r="H213" s="64"/>
+      <c r="I213" s="65"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="67"/>
+      <c r="L213" s="65"/>
+      <c r="M213" s="65"/>
+      <c r="N213" s="64"/>
+      <c r="O213" s="68"/>
+      <c r="P213" s="69"/>
+      <c r="Q213" s="92"/>
+      <c r="R213" s="202" t="str">
+        <f>IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="vnđ",TH!P213&lt;&gt;""),"p",IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="usd",TH!O213&lt;&gt;""),"p1",IF(AND(C213="pv",D213='LC - PV'!$P$2,LEFT(E213,1)="l"),"p2",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P213&lt;&gt;""),"e",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="U",'UNC - EIB'!$R$2="usd",TH!O213&lt;&gt;""),"e1",IF(AND(LEFT(C213,3)="EIB",D213='LC - EIB'!$S$2,LEFT(E213,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X196"/>
+  <autoFilter ref="B3:X214"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -13053,7 +14080,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C213">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13069,7 +14096,7 @@
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
@@ -13121,7 +14148,7 @@
         <v>27</v>
       </c>
       <c r="T2" s="10">
-        <v>42754</v>
+        <v>42793</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
@@ -13220,7 +14247,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>CÔNG TY TNHH DỊCH VỤ GIAO NHẬN AAAS</v>
+        <v>CTY CP GIẢI PHÁP THANH TOÁN ĐIỆN LỰC VÀ VIỄN THÔNG</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -13239,7 +14266,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>007 100 1293855</v>
+        <v>6801 0000 318 995</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -13270,7 +14297,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>VIETCOMBANK – HCM</v>
+        <v>BIDV – CHI NHÁNH LONG AN</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -13300,7 +14327,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>TPHCM</v>
+        <v>LONG AN</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -13329,7 +14356,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai mươi ba triệu, bảy trăm mười ngàn, ba trăm bốn mươi bốn đồng.</v>
+        <v>Bốn mươi lăm triệu, bốn trăm tám mươi bảy ngàn, chín trăm bảy mươi đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -13341,10 +14368,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="226" t="s">
+      <c r="N20" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="226"/>
+      <c r="O20" s="240"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -13358,10 +14385,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="227" t="s">
+      <c r="N21" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="227"/>
+      <c r="O21" s="241"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -13370,7 +14397,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>23710344</v>
+        <v>45487970</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -13385,7 +14412,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan</v>
+        <v>MKH: PB06030022841- Tiền điện kỳ 3/T1 &amp; kỳ 1,2/T2 năm 2017</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -13523,7 +14550,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13553,16 +14580,16 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="10">
-        <v>42754</v>
+        <v>42793</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -13577,31 +14604,31 @@
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
         <f>IF($O$2="USD"," 3    7    0    0    0   0    0    0    6    0    7    2"," 0    0    0    0    0   0   0    0   6   0    7    2")</f>
-        <v xml:space="preserve"> 0    0    0    0    0   0   0    0   6   0    7    2</v>
+        <v xml:space="preserve"> 3    7    0    0    0   0    0    0    6    0    7    2</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1">
-      <c r="F8" s="228">
+      <c r="F8" s="242">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>31261560</v>
-      </c>
-      <c r="G8" s="228"/>
+        <v>450000</v>
+      </c>
+      <c r="G8" s="242"/>
       <c r="K8" s="7" t="str">
         <f>IF(O2="vnđ","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="L8" s="7" t="str">
         <f>IF(O2="usd","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba mươi mốt triệu, hai trăm sáu mươi mốt ngàn, năm trăm sáu mươi đồng.</v>
+        <v>Bốn trăm năm mươi ngàn đô la mỹ.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
@@ -13612,13 +14639,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>MKH: PB06030022841- Tiền điện kỳ 3 tháng 12 năm 2016</v>
+        <v>Chuyển NT</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1">
-      <c r="F13" s="207" t="str">
+      <c r="F13" s="203" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY CP GIẢI PHÁP THANH TOÁN ĐIỆN LỰC VÀ VIỄN THÔNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -13629,13 +14656,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>6801 0000 318 995</v>
+        <v>1402 148 5100 9479</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>BIDV – CHI NHÁNH LONG AN, LONG AN</v>
+        <v>Eximbank - CN Q4, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -13718,11 +14745,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="229" t="e">
+      <c r="E8" s="242" t="e">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="229"/>
+      <c r="F8" s="242"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -14032,11 +15059,11 @@
         <v>112</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="233" t="e">
+      <c r="L17" s="246" t="e">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="233"/>
+      <c r="M17" s="246"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -14098,11 +15125,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="230" t="s">
+      <c r="N21" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="231"/>
-      <c r="P21" s="231"/>
+      <c r="O21" s="244"/>
+      <c r="P21" s="244"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -14117,11 +15144,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="232" t="s">
+      <c r="N22" s="245" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="227"/>
-      <c r="P22" s="227"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="241"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -14301,682 +15328,692 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="213" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="213" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="213" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="213" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" style="213" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" style="213" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="213" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="213" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="213" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" style="213" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="213"/>
+    <col min="1" max="1" width="50.85546875" style="209" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="209" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="209" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="209" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" style="209" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="209" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="209" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="209" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="209" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" style="209" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="209"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="212" t="s">
+      <c r="E2" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="212" t="s">
+      <c r="G2" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="J2" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="E3" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="247"/>
+      <c r="H3" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" s="247"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A4" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="216" t="s">
+      <c r="E4" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J2" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="E3" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="216" t="s">
+      <c r="G4" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J3" s="234"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" s="215" t="s">
+      <c r="J4" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E4" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G4" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J6" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E6" s="212" t="s">
+      <c r="E7" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G6" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="212" t="s">
+      <c r="G7" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J6" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="234" t="s">
+      <c r="J7" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="E8" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="247"/>
+      <c r="H8" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="247"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A9" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C7" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" s="216" t="s">
+      <c r="E9" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G7" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H7" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J7" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="E8" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="234"/>
-      <c r="H8" s="216" t="s">
+      <c r="G9" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J8" s="234"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A9" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="215" t="s">
+      <c r="J9" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E9" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J9" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A12" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C12" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="E12" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G11" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="212" t="s">
+      <c r="G12" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J11" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="234" t="s">
+      <c r="J12" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="E13" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G13" s="247"/>
+      <c r="H13" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J13" s="247"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A14" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C12" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E12" s="216" t="s">
+      <c r="E14" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G12" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H12" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J12" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A13" s="234"/>
-      <c r="C13" s="234"/>
-      <c r="E13" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G13" s="234"/>
-      <c r="H13" s="216" t="s">
+      <c r="G14" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J13" s="234"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A14" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="215" t="s">
+      <c r="J14" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E14" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G14" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J14" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="16" spans="1:10" ht="21" customHeight="1">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="214" t="s">
+      <c r="C16" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J16" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A17" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E16" s="212" t="s">
+      <c r="E17" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G16" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="212" t="s">
+      <c r="G17" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H17" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J16" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="234" t="s">
+      <c r="J17" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A18" s="247"/>
+      <c r="C18" s="247"/>
+      <c r="E18" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G18" s="247"/>
+      <c r="H18" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J18" s="247"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A19" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="216" t="s">
+      <c r="E19" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G17" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H17" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J17" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="E18" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="234"/>
-      <c r="H18" s="216" t="s">
+      <c r="G19" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H19" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J18" s="234"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A19" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C19" s="215" t="s">
+      <c r="J19" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E19" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G19" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H19" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J19" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="212" t="s">
+      <c r="A21" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="214" t="s">
+      <c r="C21" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G21" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J21" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A22" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E21" s="212" t="s">
+      <c r="E22" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G21" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="212" t="s">
+      <c r="G22" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J21" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A22" s="234" t="s">
+      <c r="J22" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="E23" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="247"/>
+      <c r="H23" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J23" s="247"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A24" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C22" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E22" s="216" t="s">
+      <c r="E24" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G22" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H22" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J22" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A23" s="234"/>
-      <c r="C23" s="234"/>
-      <c r="E23" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G23" s="234"/>
-      <c r="H23" s="216" t="s">
+      <c r="G24" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H24" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J23" s="234"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C24" s="215" t="s">
+      <c r="J24" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E24" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H24" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J24" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="26" spans="1:10" ht="21" customHeight="1">
-      <c r="A26" s="212" t="s">
+      <c r="A26" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="214" t="s">
+      <c r="C26" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J26" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A27" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E26" s="212" t="s">
+      <c r="E27" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G26" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="212" t="s">
+      <c r="G27" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H27" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J26" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="234" t="s">
+      <c r="J27" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="E28" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G28" s="247"/>
+      <c r="H28" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J28" s="247"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A29" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C29" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C27" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E27" s="216" t="s">
+      <c r="E29" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G27" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H27" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J27" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="234"/>
-      <c r="C28" s="234"/>
-      <c r="E28" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G28" s="234"/>
-      <c r="H28" s="216" t="s">
+      <c r="G29" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H29" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J28" s="234"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A29" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C29" s="215" t="s">
+      <c r="J29" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E29" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H29" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J29" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="31" spans="1:10" ht="21" customHeight="1">
-      <c r="A31" s="212" t="s">
+      <c r="A31" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G31" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J31" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A32" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E31" s="212" t="s">
+      <c r="E32" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G31" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="212" t="s">
+      <c r="G32" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J31" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A32" s="234" t="s">
+      <c r="J32" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A33" s="247"/>
+      <c r="C33" s="247"/>
+      <c r="E33" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="247"/>
+      <c r="H33" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J33" s="247"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A34" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C34" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E32" s="216" t="s">
+      <c r="E34" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G32" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H32" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J32" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A33" s="234"/>
-      <c r="C33" s="234"/>
-      <c r="E33" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G33" s="234"/>
-      <c r="H33" s="216" t="s">
+      <c r="G34" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H34" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J33" s="234"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A34" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C34" s="215" t="s">
+      <c r="J34" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E34" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G34" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H34" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J34" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="13.5" thickBot="1"/>
     <row r="36" spans="1:10" ht="21" customHeight="1">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="214" t="s">
+      <c r="C36" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G36" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J36" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A37" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E36" s="212" t="s">
+      <c r="E37" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G36" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="212" t="s">
+      <c r="G37" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H37" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J36" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A37" s="234" t="s">
+      <c r="J37" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A38" s="247"/>
+      <c r="C38" s="247"/>
+      <c r="E38" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" s="247"/>
+      <c r="H38" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J38" s="247"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A39" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C39" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C37" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E37" s="216" t="s">
+      <c r="E39" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G37" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H37" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J37" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A38" s="234"/>
-      <c r="C38" s="234"/>
-      <c r="E38" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G38" s="234"/>
-      <c r="H38" s="216" t="s">
+      <c r="G39" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H39" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J38" s="234"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A39" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C39" s="215" t="s">
+      <c r="J39" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E39" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G39" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H39" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J39" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="11.25" customHeight="1" thickBot="1"/>
     <row r="41" spans="1:10" ht="21" customHeight="1">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="E41" s="208" t="s">
+        <v>432</v>
+      </c>
+      <c r="G41" s="208" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="208" t="s">
+        <v>439</v>
+      </c>
+      <c r="J41" s="208" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A42" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="C42" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="E41" s="212" t="s">
+      <c r="E42" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G41" s="212" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="212" t="s">
+      <c r="G42" s="247" t="s">
+        <v>435</v>
+      </c>
+      <c r="H42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J41" s="212" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A42" s="234" t="s">
+      <c r="J42" s="247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A43" s="247"/>
+      <c r="C43" s="247"/>
+      <c r="E43" s="212" t="s">
+        <v>438</v>
+      </c>
+      <c r="G43" s="247"/>
+      <c r="H43" s="212" t="s">
+        <v>441</v>
+      </c>
+      <c r="J43" s="247"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A44" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" s="211" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="234" t="s">
-        <v>432</v>
-      </c>
-      <c r="E42" s="216" t="s">
+      <c r="E44" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="G42" s="234" t="s">
-        <v>436</v>
-      </c>
-      <c r="H42" s="216" t="s">
-        <v>441</v>
-      </c>
-      <c r="J42" s="234" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A43" s="234"/>
-      <c r="C43" s="234"/>
-      <c r="E43" s="216" t="s">
-        <v>439</v>
-      </c>
-      <c r="G43" s="234"/>
-      <c r="H43" s="216" t="s">
+      <c r="G44" s="211" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" s="211" t="s">
         <v>442</v>
       </c>
-      <c r="J43" s="234"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A44" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" s="215" t="s">
+      <c r="J44" s="211" t="s">
         <v>437</v>
-      </c>
-      <c r="E44" s="215" t="s">
-        <v>435</v>
-      </c>
-      <c r="G44" s="215" t="s">
-        <v>438</v>
-      </c>
-      <c r="H44" s="215" t="s">
-        <v>443</v>
-      </c>
-      <c r="J44" s="215" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="G2:G3"/>
@@ -14993,21 +16030,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.13" top="0.42" bottom="0.16" header="0.35" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15251,6 +16278,2138 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:S58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="174" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="175" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="177" customWidth="1"/>
+    <col min="6" max="6" width="11" style="181" customWidth="1"/>
+    <col min="7" max="7" width="8" style="177" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="229" customWidth="1"/>
+    <col min="9" max="9" width="11" style="177" customWidth="1"/>
+    <col min="10" max="10" width="10" style="177" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="177" customWidth="1"/>
+    <col min="12" max="12" width="11" style="181" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="177" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="177" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="175" customWidth="1"/>
+    <col min="16" max="16" width="8" style="174" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="174" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="174" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="175" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="121" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="111"/>
+      <c r="B1" s="230" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
+    <row r="2" spans="1:19" s="122" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="250" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="250" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="253" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="253"/>
+      <c r="E2" s="254" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="248" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" s="250" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="122" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="250"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="186" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="217" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="214" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="214" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="214" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="214" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="213" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="P3" s="218" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q3" s="249"/>
+      <c r="R3" s="250"/>
+    </row>
+    <row r="4" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="128">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="134">
+        <v>42552</v>
+      </c>
+      <c r="D4" s="134">
+        <v>42736</v>
+      </c>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130">
+        <f>F4-J4</f>
+        <v>43000</v>
+      </c>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135">
+        <f>IF((LEFT(B4,4)="1402"),F4*Q4*DATEDIF(DATE(YEAR(P4),MONTH(P4)-1,IF(MONTH(C4)=(MONTH(P4)-1),DAY(C4),16)),P4,"d")/360,0)</f>
+        <v>92.569444444444443</v>
+      </c>
+      <c r="O4" s="135">
+        <f>IF((LEFT(B4,4)="1025"),F4*Q4*DATEDIF(DATE(YEAR(P4),MONTH(P4)-1,IF(MONTH(C4)=(MONTH($N$1)-1),DAY(C4),16)),P4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="129">
+        <v>42751</v>
+      </c>
+      <c r="Q4" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R4" s="138" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="128">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="134">
+        <v>42586</v>
+      </c>
+      <c r="D5" s="134">
+        <v>42770</v>
+      </c>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135">
+        <v>52300</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130">
+        <f>F5-J5</f>
+        <v>52300</v>
+      </c>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135">
+        <f>IF((LEFT(B5,4)="1402"),F5*Q5*DATEDIF(DATE(YEAR(P5),MONTH(P5)-1,IF(MONTH(C5)=(MONTH(P5)-1),DAY(C5),16)),P5,"d")/360,0)</f>
+        <v>112.59027777777777</v>
+      </c>
+      <c r="O5" s="135">
+        <f>IF((LEFT(B5,4)="1025"),F5*Q5*DATEDIF(DATE(YEAR(P5),MONTH(P5)-1,IF(MONTH(C5)=(MONTH($N$1)-1),DAY(C5),16)),P5,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="129">
+        <v>42751</v>
+      </c>
+      <c r="Q5" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R5" s="138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="128">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="134">
+        <v>42718</v>
+      </c>
+      <c r="D6" s="134">
+        <v>42900</v>
+      </c>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135">
+        <v>93000</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130">
+        <f>F6-J6</f>
+        <v>93000</v>
+      </c>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135">
+        <f>IF((LEFT(B6,4)="1402"),F6*Q6*DATEDIF(DATE(YEAR(P6),MONTH(P6)-1,IF(MONTH(C6)=(MONTH(P6)-1),DAY(C6),16)),P6,"d")/360,0)</f>
+        <v>200.20833333333334</v>
+      </c>
+      <c r="O6" s="135">
+        <f>IF((LEFT(B6,4)="1025"),F6*Q6*DATEDIF(DATE(YEAR(P6),MONTH(P6)-1,IF(MONTH(C6)=(MONTH($N$1)-1),DAY(C6),16)),P6,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="129">
+        <v>42751</v>
+      </c>
+      <c r="Q6" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R6" s="138" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="128">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="219" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="134">
+        <v>42710</v>
+      </c>
+      <c r="D7" s="134">
+        <v>42892</v>
+      </c>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135">
+        <v>70500</v>
+      </c>
+      <c r="G7" s="136"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130">
+        <f>F7-J7</f>
+        <v>70500</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135">
+        <f>IF((LEFT(B7,4)="1402"),F7*Q7*DATEDIF(DATE(YEAR(P7),MONTH(P7)-1,IF(MONTH(C7)=(MONTH(P7)-1),DAY(C7),16)),P7,"d")/360,0)</f>
+        <v>151.77083333333334</v>
+      </c>
+      <c r="O7" s="135">
+        <f>IF((LEFT(B7,4)="1025"),F7*Q7*DATEDIF(DATE(YEAR(P7),MONTH(P7)-1,IF(MONTH(C7)=(MONTH($N$1)-1),DAY(C7),16)),P7,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="129">
+        <v>42751</v>
+      </c>
+      <c r="Q7" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="222"/>
+      <c r="N8" s="222"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="225"/>
+    </row>
+    <row r="9" spans="1:19" s="144" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="251" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="251"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141">
+        <f>SUM(F4:F8)</f>
+        <v>258800</v>
+      </c>
+      <c r="G9" s="140">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="141"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="140"/>
+      <c r="L9" s="141">
+        <f>SUM(L4:L8)</f>
+        <v>258800</v>
+      </c>
+      <c r="M9" s="140"/>
+      <c r="N9" s="141">
+        <f>SUM(N4:N8)</f>
+        <v>557.13888888888891</v>
+      </c>
+      <c r="O9" s="141">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="132"/>
+    </row>
+    <row r="10" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="128">
+        <f t="shared" ref="A10:A25" si="1">ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="134">
+        <v>42600</v>
+      </c>
+      <c r="D10" s="134">
+        <v>42784</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="135">
+        <v>63000</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130">
+        <f t="shared" ref="L10:L25" si="2">F10-J10</f>
+        <v>63000</v>
+      </c>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135">
+        <f t="shared" ref="N10:N25" si="3">IF((LEFT(B10,4)="1402"),F10*Q10*DATEDIF(DATE(YEAR(P10),MONTH(P10)-1,IF(MONTH(C10)=(MONTH(P10)-1),DAY(C10),16)),P10,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="135">
+        <f t="shared" ref="O10:O25" si="4">IF((LEFT(B10,4)="1025"),F10*Q10*DATEDIF(DATE(YEAR(P10),IF(MONTH(P10)=MONTH(C10),MONTH(P10),MONTH(P10)-1),IF(OR(MONTH(P10)=MONTH(C10),MONTH(C10)=(MONTH(P10)-1)),DAY(C10),DAY(P10))),P10,"d")/360,0)</f>
+        <v>162.75</v>
+      </c>
+      <c r="P10" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q10" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R10" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S10" s="191"/>
+    </row>
+    <row r="11" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="128">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="134">
+        <v>42612</v>
+      </c>
+      <c r="D11" s="134">
+        <v>42794</v>
+      </c>
+      <c r="E11" s="136"/>
+      <c r="F11" s="135">
+        <v>89500</v>
+      </c>
+      <c r="G11" s="136"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130">
+        <f t="shared" si="2"/>
+        <v>89500</v>
+      </c>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="135">
+        <f t="shared" si="4"/>
+        <v>231.20833333333334</v>
+      </c>
+      <c r="P11" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q11" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R11" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S11" s="191"/>
+    </row>
+    <row r="12" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="128">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="134">
+        <v>42626</v>
+      </c>
+      <c r="D12" s="134">
+        <v>42807</v>
+      </c>
+      <c r="E12" s="136"/>
+      <c r="F12" s="135">
+        <v>88000</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130">
+        <f t="shared" si="2"/>
+        <v>88000</v>
+      </c>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="135">
+        <f t="shared" si="4"/>
+        <v>227.33333333333334</v>
+      </c>
+      <c r="P12" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q12" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R12" s="138" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="128">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="134">
+        <v>42649</v>
+      </c>
+      <c r="D13" s="134">
+        <v>42831</v>
+      </c>
+      <c r="E13" s="136"/>
+      <c r="F13" s="135">
+        <v>96000</v>
+      </c>
+      <c r="G13" s="136"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="135">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="P13" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q13" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R13" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S13" s="191"/>
+    </row>
+    <row r="14" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="128">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="134">
+        <v>42660</v>
+      </c>
+      <c r="D14" s="134">
+        <v>42842</v>
+      </c>
+      <c r="E14" s="136"/>
+      <c r="F14" s="135">
+        <v>96000</v>
+      </c>
+      <c r="G14" s="136"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="135">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="P14" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q14" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R14" s="138" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="128">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="134">
+        <v>42684</v>
+      </c>
+      <c r="D15" s="134">
+        <v>42865</v>
+      </c>
+      <c r="E15" s="136"/>
+      <c r="F15" s="135">
+        <v>82000</v>
+      </c>
+      <c r="G15" s="136"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130">
+        <f t="shared" si="2"/>
+        <v>82000</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="135">
+        <f t="shared" si="4"/>
+        <v>211.83333333333334</v>
+      </c>
+      <c r="P15" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q15" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R15" s="138" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="128">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="134">
+        <v>42689</v>
+      </c>
+      <c r="D16" s="134">
+        <v>42870</v>
+      </c>
+      <c r="E16" s="136"/>
+      <c r="F16" s="135">
+        <v>89000</v>
+      </c>
+      <c r="G16" s="136"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130">
+        <f t="shared" si="2"/>
+        <v>89000</v>
+      </c>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="135">
+        <f t="shared" si="4"/>
+        <v>229.91666666666666</v>
+      </c>
+      <c r="P16" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q16" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R16" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S16" s="191"/>
+    </row>
+    <row r="17" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="128">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="162">
+        <v>42717</v>
+      </c>
+      <c r="D17" s="134">
+        <v>42899</v>
+      </c>
+      <c r="E17" s="136"/>
+      <c r="F17" s="163">
+        <v>50400</v>
+      </c>
+      <c r="G17" s="136"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130">
+        <f t="shared" si="2"/>
+        <v>50400</v>
+      </c>
+      <c r="M17" s="163"/>
+      <c r="N17" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="135">
+        <f t="shared" si="4"/>
+        <v>130.19999999999999</v>
+      </c>
+      <c r="P17" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q17" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R17" s="138" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="128">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="162">
+        <v>42718</v>
+      </c>
+      <c r="D18" s="134">
+        <v>42900</v>
+      </c>
+      <c r="E18" s="164"/>
+      <c r="F18" s="163">
+        <v>137000</v>
+      </c>
+      <c r="G18" s="136"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130">
+        <f t="shared" si="2"/>
+        <v>137000</v>
+      </c>
+      <c r="M18" s="163"/>
+      <c r="N18" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="135">
+        <f t="shared" si="4"/>
+        <v>353.91666666666669</v>
+      </c>
+      <c r="P18" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q18" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R18" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S18" s="201">
+        <f>E17*Q17/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="128">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="133" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="162">
+        <v>42733</v>
+      </c>
+      <c r="D19" s="134">
+        <v>42915</v>
+      </c>
+      <c r="E19" s="164"/>
+      <c r="F19" s="163">
+        <v>85000</v>
+      </c>
+      <c r="G19" s="136"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130">
+        <f t="shared" si="2"/>
+        <v>85000</v>
+      </c>
+      <c r="M19" s="163"/>
+      <c r="N19" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="135">
+        <f t="shared" si="4"/>
+        <v>219.58333333333334</v>
+      </c>
+      <c r="P19" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q19" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R19" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S19" s="191"/>
+    </row>
+    <row r="20" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="128">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="162">
+        <v>42741</v>
+      </c>
+      <c r="D20" s="134">
+        <v>42922</v>
+      </c>
+      <c r="E20" s="164"/>
+      <c r="F20" s="163">
+        <v>93000</v>
+      </c>
+      <c r="G20" s="164"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130">
+        <f t="shared" si="2"/>
+        <v>93000</v>
+      </c>
+      <c r="M20" s="163"/>
+      <c r="N20" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="135">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="P20" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q20" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R20" s="138" t="s">
+        <v>380</v>
+      </c>
+      <c r="S20" s="191"/>
+    </row>
+    <row r="21" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="128">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="162">
+        <v>42748</v>
+      </c>
+      <c r="D21" s="134">
+        <v>42787</v>
+      </c>
+      <c r="E21" s="164"/>
+      <c r="F21" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="164"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="M21" s="163"/>
+      <c r="N21" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="135">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="P21" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q21" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R21" s="138" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="128">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="162">
+        <v>42751</v>
+      </c>
+      <c r="D22" s="134">
+        <v>42791</v>
+      </c>
+      <c r="E22" s="164"/>
+      <c r="F22" s="163">
+        <v>102600</v>
+      </c>
+      <c r="G22" s="164"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130">
+        <f t="shared" si="2"/>
+        <v>102600</v>
+      </c>
+      <c r="M22" s="163"/>
+      <c r="N22" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="135">
+        <f t="shared" si="4"/>
+        <v>51.3</v>
+      </c>
+      <c r="P22" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q22" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R22" s="138" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="128">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="162">
+        <v>42754</v>
+      </c>
+      <c r="D23" s="134">
+        <v>42844</v>
+      </c>
+      <c r="E23" s="164"/>
+      <c r="F23" s="163">
+        <v>37584</v>
+      </c>
+      <c r="G23" s="164"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130">
+        <f t="shared" si="2"/>
+        <v>37584</v>
+      </c>
+      <c r="M23" s="163"/>
+      <c r="N23" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="135">
+        <f t="shared" si="4"/>
+        <v>9.395999999999999</v>
+      </c>
+      <c r="P23" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q23" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R23" s="138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="128">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B24" s="133" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="162">
+        <v>42754</v>
+      </c>
+      <c r="D24" s="134">
+        <v>42788</v>
+      </c>
+      <c r="E24" s="164"/>
+      <c r="F24" s="163">
+        <v>41200</v>
+      </c>
+      <c r="G24" s="164"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130">
+        <f t="shared" si="2"/>
+        <v>41200</v>
+      </c>
+      <c r="M24" s="163"/>
+      <c r="N24" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="135">
+        <f t="shared" si="4"/>
+        <v>10.3</v>
+      </c>
+      <c r="P24" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q24" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R24" s="138" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="128">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="133" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" s="162">
+        <v>42754</v>
+      </c>
+      <c r="D25" s="134">
+        <v>42935</v>
+      </c>
+      <c r="E25" s="164"/>
+      <c r="F25" s="163">
+        <v>51100</v>
+      </c>
+      <c r="G25" s="164"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130">
+        <f t="shared" si="2"/>
+        <v>51100</v>
+      </c>
+      <c r="M25" s="163"/>
+      <c r="N25" s="135">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="135">
+        <f t="shared" si="4"/>
+        <v>12.775</v>
+      </c>
+      <c r="P25" s="129">
+        <v>42757</v>
+      </c>
+      <c r="Q25" s="187">
+        <v>0.03</v>
+      </c>
+      <c r="R25" s="138" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="128"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="187"/>
+      <c r="R26" s="138"/>
+    </row>
+    <row r="27" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="252" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="252"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="140">
+        <f>SUM(E4:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="141">
+        <f>SUM(F10:F26)</f>
+        <v>1241384</v>
+      </c>
+      <c r="G27" s="140">
+        <f>SUM(G4:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="139"/>
+      <c r="I27" s="141">
+        <f>SUM(I10:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="141">
+        <f>SUM(J10:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="141">
+        <f>SUM(K10:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="141">
+        <f>SUM(L10:L26)</f>
+        <v>1241384</v>
+      </c>
+      <c r="M27" s="141">
+        <f>SUM(M4:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="141">
+        <f>SUM(N10:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="141">
+        <f>SUM(O10:O26)</f>
+        <v>2500.5126666666674</v>
+      </c>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+    </row>
+    <row r="28" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="128">
+        <f>ROW()-27</f>
+        <v>1</v>
+      </c>
+      <c r="B28" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="134">
+        <v>41870</v>
+      </c>
+      <c r="D28" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="136">
+        <v>966640000</v>
+      </c>
+      <c r="F28" s="135"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I28" s="136">
+        <v>8340000</v>
+      </c>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136">
+        <f t="shared" ref="K28:K42" si="5">E28-I28</f>
+        <v>958300000</v>
+      </c>
+      <c r="L28" s="135"/>
+      <c r="M28" s="136">
+        <f t="shared" ref="M28:M41" si="6">IF((LEFT(B28,4)="1402"),E28*Q28*DATEDIF(DATE(YEAR(P28),MONTH(P28)-1,IF(MONTH(C28)=(MONTH(P28)-1),DAY(C28),DAY(P28))),P28,"d")/360,0)</f>
+        <v>7491460</v>
+      </c>
+      <c r="N28" s="135">
+        <f t="shared" ref="N28:N42" si="7">IF((LEFT(B28,4)="1402"),F28*Q28*DATEDIF(DATE(YEAR(P28),MONTH(P28)-1,IF(MONTH(C28)=(MONTH(P28)-1),DAY(C28),16)),P28,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="135">
+        <f t="shared" ref="O28:O42" si="8">IF((LEFT(B28,4)="1015"),F28*Q28*DATEDIF(P28,P$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="227">
+        <f>H28</f>
+        <v>42755</v>
+      </c>
+      <c r="Q28" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R28" s="228" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="128">
+        <f t="shared" ref="A29:A42" si="9">ROW()-27</f>
+        <v>2</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="134">
+        <v>41905</v>
+      </c>
+      <c r="D29" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="136">
+        <v>1933320000</v>
+      </c>
+      <c r="F29" s="135"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I29" s="136">
+        <v>16670000</v>
+      </c>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136">
+        <f t="shared" si="5"/>
+        <v>1916650000</v>
+      </c>
+      <c r="L29" s="135"/>
+      <c r="M29" s="136">
+        <f t="shared" si="6"/>
+        <v>14983230</v>
+      </c>
+      <c r="N29" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="227">
+        <f t="shared" ref="P29:P42" si="10">H29</f>
+        <v>42755</v>
+      </c>
+      <c r="Q29" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R29" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="128">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B30" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="162">
+        <v>41934</v>
+      </c>
+      <c r="D30" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="164">
+        <v>1546640000</v>
+      </c>
+      <c r="F30" s="163"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I30" s="164">
+        <v>13340000</v>
+      </c>
+      <c r="J30" s="163"/>
+      <c r="K30" s="136">
+        <f t="shared" si="5"/>
+        <v>1533300000</v>
+      </c>
+      <c r="L30" s="163"/>
+      <c r="M30" s="136">
+        <f t="shared" si="6"/>
+        <v>11986460</v>
+      </c>
+      <c r="N30" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q30" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R30" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="128">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B31" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="162">
+        <v>41963</v>
+      </c>
+      <c r="D31" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="164">
+        <v>1475000000</v>
+      </c>
+      <c r="F31" s="163"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I31" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="163"/>
+      <c r="K31" s="136">
+        <f t="shared" si="5"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L31" s="163"/>
+      <c r="M31" s="136">
+        <f t="shared" si="6"/>
+        <v>11431250</v>
+      </c>
+      <c r="N31" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q31" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R31" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="128">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B32" s="133" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="162">
+        <v>41984</v>
+      </c>
+      <c r="D32" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="164">
+        <v>966680000</v>
+      </c>
+      <c r="F32" s="163"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I32" s="164">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="163"/>
+      <c r="K32" s="164">
+        <f t="shared" si="5"/>
+        <v>958350000</v>
+      </c>
+      <c r="L32" s="163"/>
+      <c r="M32" s="136">
+        <f t="shared" si="6"/>
+        <v>7491770</v>
+      </c>
+      <c r="N32" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q32" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R32" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="128">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B33" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="162">
+        <v>42033</v>
+      </c>
+      <c r="D33" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="164">
+        <v>1450000000</v>
+      </c>
+      <c r="F33" s="163"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I33" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="163"/>
+      <c r="K33" s="164">
+        <f t="shared" si="5"/>
+        <v>1437500000</v>
+      </c>
+      <c r="L33" s="163"/>
+      <c r="M33" s="136">
+        <f t="shared" si="6"/>
+        <v>11237500</v>
+      </c>
+      <c r="N33" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q33" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R33" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="128">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="162">
+        <v>42088</v>
+      </c>
+      <c r="D34" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="164">
+        <v>1933320000</v>
+      </c>
+      <c r="F34" s="163"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I34" s="164">
+        <v>16670000</v>
+      </c>
+      <c r="J34" s="163"/>
+      <c r="K34" s="164">
+        <f t="shared" si="5"/>
+        <v>1916650000</v>
+      </c>
+      <c r="L34" s="163"/>
+      <c r="M34" s="136">
+        <f t="shared" si="6"/>
+        <v>14983230</v>
+      </c>
+      <c r="N34" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q34" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R34" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="128">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="162">
+        <v>42114</v>
+      </c>
+      <c r="D35" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="164">
+        <v>1353320000</v>
+      </c>
+      <c r="F35" s="163"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I35" s="164">
+        <v>11670000</v>
+      </c>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164">
+        <f t="shared" si="5"/>
+        <v>1341650000</v>
+      </c>
+      <c r="L35" s="163"/>
+      <c r="M35" s="136">
+        <f t="shared" si="6"/>
+        <v>10488230</v>
+      </c>
+      <c r="N35" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q35" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R35" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="128">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B36" s="133" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="162">
+        <v>42138</v>
+      </c>
+      <c r="D36" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="164">
+        <v>1450000000</v>
+      </c>
+      <c r="F36" s="163"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I36" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J36" s="163"/>
+      <c r="K36" s="164">
+        <f t="shared" si="5"/>
+        <v>1437500000</v>
+      </c>
+      <c r="L36" s="163"/>
+      <c r="M36" s="136">
+        <f t="shared" si="6"/>
+        <v>11237500</v>
+      </c>
+      <c r="N36" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q36" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R36" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="128">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="162">
+        <v>42164</v>
+      </c>
+      <c r="D37" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E37" s="164">
+        <v>1450000000</v>
+      </c>
+      <c r="F37" s="163"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I37" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J37" s="163"/>
+      <c r="K37" s="164">
+        <f t="shared" si="5"/>
+        <v>1437500000</v>
+      </c>
+      <c r="L37" s="163"/>
+      <c r="M37" s="136">
+        <f t="shared" si="6"/>
+        <v>11237500</v>
+      </c>
+      <c r="N37" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q37" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R37" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="128">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="133" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="162">
+        <v>42187</v>
+      </c>
+      <c r="D38" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E38" s="164">
+        <v>1450000000</v>
+      </c>
+      <c r="F38" s="163"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I38" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J38" s="163"/>
+      <c r="K38" s="164">
+        <f t="shared" si="5"/>
+        <v>1437500000</v>
+      </c>
+      <c r="L38" s="163"/>
+      <c r="M38" s="136">
+        <f t="shared" si="6"/>
+        <v>11237500</v>
+      </c>
+      <c r="N38" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q38" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R38" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="128">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B39" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="162">
+        <v>42195</v>
+      </c>
+      <c r="D39" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E39" s="164">
+        <v>1450000000</v>
+      </c>
+      <c r="F39" s="163"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I39" s="164">
+        <v>12500000</v>
+      </c>
+      <c r="J39" s="163"/>
+      <c r="K39" s="164">
+        <f t="shared" si="5"/>
+        <v>1437500000</v>
+      </c>
+      <c r="L39" s="163"/>
+      <c r="M39" s="136">
+        <f t="shared" si="6"/>
+        <v>11237500</v>
+      </c>
+      <c r="N39" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q39" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R39" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="128">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B40" s="133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="162">
+        <v>42215</v>
+      </c>
+      <c r="D40" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E40" s="164">
+        <v>966640000</v>
+      </c>
+      <c r="F40" s="163"/>
+      <c r="G40" s="164"/>
+      <c r="H40" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I40" s="164">
+        <v>8330000</v>
+      </c>
+      <c r="J40" s="163"/>
+      <c r="K40" s="164">
+        <f t="shared" si="5"/>
+        <v>958310000</v>
+      </c>
+      <c r="L40" s="163"/>
+      <c r="M40" s="136">
+        <f t="shared" si="6"/>
+        <v>7491460</v>
+      </c>
+      <c r="N40" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q40" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R40" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="128">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B41" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="162">
+        <v>42229</v>
+      </c>
+      <c r="D41" s="134">
+        <v>46253</v>
+      </c>
+      <c r="E41" s="164">
+        <v>966640000</v>
+      </c>
+      <c r="F41" s="163"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="134">
+        <v>42755</v>
+      </c>
+      <c r="I41" s="164">
+        <v>8330000</v>
+      </c>
+      <c r="J41" s="163"/>
+      <c r="K41" s="164">
+        <f t="shared" si="5"/>
+        <v>958310000</v>
+      </c>
+      <c r="L41" s="163"/>
+      <c r="M41" s="136">
+        <f t="shared" si="6"/>
+        <v>7491460</v>
+      </c>
+      <c r="N41" s="135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="227">
+        <f t="shared" si="10"/>
+        <v>42755</v>
+      </c>
+      <c r="Q41" s="187">
+        <v>0.09</v>
+      </c>
+      <c r="R41" s="138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A42" s="128">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B42" s="133" t="s">
+        <v>429</v>
+      </c>
+      <c r="C42" s="162">
+        <v>42730</v>
+      </c>
+      <c r="D42" s="162">
+        <v>42851</v>
+      </c>
+      <c r="E42" s="164"/>
+      <c r="F42" s="163">
+        <v>87000</v>
+      </c>
+      <c r="G42" s="164"/>
+      <c r="H42" s="162">
+        <v>42750</v>
+      </c>
+      <c r="I42" s="164"/>
+      <c r="J42" s="163"/>
+      <c r="K42" s="164">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="163">
+        <f>F42</f>
+        <v>87000</v>
+      </c>
+      <c r="M42" s="136"/>
+      <c r="N42" s="135">
+        <f t="shared" si="7"/>
+        <v>181.25</v>
+      </c>
+      <c r="O42" s="135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="227">
+        <f t="shared" si="10"/>
+        <v>42750</v>
+      </c>
+      <c r="Q42" s="187">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R42" s="138"/>
+    </row>
+    <row r="43" spans="1:18" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A43" s="128"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="163"/>
+      <c r="O43" s="163"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="138"/>
+    </row>
+    <row r="44" spans="1:18" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A44" s="252" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="252"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="140">
+        <f>SUM(E28:E43)</f>
+        <v>19358200000</v>
+      </c>
+      <c r="F44" s="141">
+        <f>SUM(F28:F43)</f>
+        <v>87000</v>
+      </c>
+      <c r="G44" s="140">
+        <f>SUM(G28:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="141"/>
+      <c r="I44" s="140">
+        <f t="shared" ref="I44:O44" si="11">SUM(I28:I43)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J44" s="141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="140">
+        <f t="shared" si="11"/>
+        <v>19191520000</v>
+      </c>
+      <c r="L44" s="141">
+        <f t="shared" si="11"/>
+        <v>87000</v>
+      </c>
+      <c r="M44" s="140">
+        <f t="shared" si="11"/>
+        <v>150026050</v>
+      </c>
+      <c r="N44" s="141">
+        <f t="shared" si="11"/>
+        <v>181.25</v>
+      </c>
+      <c r="O44" s="141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="143"/>
+      <c r="R44" s="143"/>
+    </row>
+    <row r="45" spans="1:18" ht="17.25" customHeight="1">
+      <c r="F45" s="178"/>
+    </row>
+    <row r="46" spans="1:18" ht="17.25" customHeight="1">
+      <c r="F46" s="178"/>
+    </row>
+    <row r="47" spans="1:18" ht="17.25" customHeight="1">
+      <c r="F47" s="175"/>
+    </row>
+    <row r="48" spans="1:18" ht="17.25" customHeight="1">
+      <c r="F48" s="175"/>
+    </row>
+    <row r="50" spans="6:14" ht="17.25" customHeight="1">
+      <c r="F50" s="178"/>
+    </row>
+    <row r="58" spans="6:14" ht="17.25" customHeight="1">
+      <c r="M58" s="181"/>
+      <c r="N58" s="181"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:R27"/>
+  <sortState ref="A10:T25">
+    <sortCondition ref="C10:C25"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15258,7 +18417,7 @@
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -15309,47 +18468,47 @@
       <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="250" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="236" t="s">
+      <c r="B2" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="237" t="s">
+      <c r="C2" s="253" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="254" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="242" t="s">
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="257" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="243" t="s">
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="248" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="243"/>
-      <c r="M2" s="239" t="s">
+      <c r="L2" s="248"/>
+      <c r="M2" s="255" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="240" t="s">
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="256" t="s">
         <v>266</v>
       </c>
-      <c r="S2" s="236" t="s">
+      <c r="S2" s="250" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
+      <c r="A3" s="250"/>
+      <c r="B3" s="250"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -15368,35 +18527,35 @@
       <c r="H3" s="126" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="205" t="s">
+      <c r="I3" s="206" t="s">
         <v>270</v>
       </c>
-      <c r="J3" s="205" t="s">
+      <c r="J3" s="206" t="s">
         <v>272</v>
       </c>
-      <c r="K3" s="206" t="s">
+      <c r="K3" s="207" t="s">
         <v>270</v>
       </c>
       <c r="L3" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="M3" s="203" t="s">
+      <c r="M3" s="204" t="s">
         <v>273</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="204" t="s">
         <v>274</v>
       </c>
       <c r="O3" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="P3" s="204" t="s">
+      <c r="P3" s="205" t="s">
         <v>307</v>
       </c>
-      <c r="Q3" s="204" t="s">
+      <c r="Q3" s="205" t="s">
         <v>276</v>
       </c>
-      <c r="R3" s="240"/>
-      <c r="S3" s="236"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="250"/>
     </row>
     <row r="4" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -15404,13 +18563,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>304</v>
+        <v>498</v>
       </c>
       <c r="C4" s="149">
-        <v>42552</v>
+        <v>42742</v>
       </c>
       <c r="D4" s="149">
-        <v>42736</v>
+        <v>42923</v>
       </c>
       <c r="E4" s="137"/>
       <c r="F4" s="137">
@@ -15500,7 +18659,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C6" s="149">
         <v>42718</v>
@@ -15547,7 +18706,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="146" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="149">
         <v>42710</v>
@@ -15610,10 +18769,10 @@
       <c r="S8" s="160"/>
     </row>
     <row r="9" spans="1:20" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="251" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="241"/>
+      <c r="B9" s="251"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="140"/>
@@ -15793,7 +18952,7 @@
         <v>0.03</v>
       </c>
       <c r="S12" s="152" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
@@ -15840,7 +18999,7 @@
         <v>0.03</v>
       </c>
       <c r="S13" s="152" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T13" s="191"/>
     </row>
@@ -15887,8 +19046,8 @@
       <c r="R14" s="187">
         <v>0.03</v>
       </c>
-      <c r="S14" s="152" t="s">
-        <v>380</v>
+      <c r="S14" s="138" t="s">
+        <v>382</v>
       </c>
       <c r="T14" s="201">
         <f>E13*R13/12</f>
@@ -15901,7 +19060,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="C15" s="134">
         <v>42733</v>
@@ -15938,8 +19097,8 @@
       <c r="R15" s="187">
         <v>0.03</v>
       </c>
-      <c r="S15" s="152" t="s">
-        <v>380</v>
+      <c r="S15" s="138" t="s">
+        <v>382</v>
       </c>
       <c r="T15" s="191"/>
     </row>
@@ -15949,17 +19108,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>300</v>
+        <v>484</v>
       </c>
       <c r="C16" s="134">
-        <v>42556</v>
+        <v>42741</v>
       </c>
       <c r="D16" s="134">
-        <v>42740</v>
+        <v>42922</v>
       </c>
       <c r="E16" s="136"/>
       <c r="F16" s="135">
-        <v>89000</v>
+        <v>93000</v>
       </c>
       <c r="G16" s="136"/>
       <c r="H16" s="134"/>
@@ -15968,7 +19127,7 @@
       <c r="K16" s="130"/>
       <c r="L16" s="130">
         <f t="shared" si="4"/>
-        <v>89000</v>
+        <v>93000</v>
       </c>
       <c r="M16" s="135"/>
       <c r="N16" s="135"/>
@@ -15978,7 +19137,7 @@
       </c>
       <c r="P16" s="137">
         <f t="shared" si="6"/>
-        <v>229.91666666666666</v>
+        <v>240.25</v>
       </c>
       <c r="Q16" s="129">
         <v>42696</v>
@@ -16144,12 +19303,12 @@
       </c>
       <c r="B20" s="133"/>
       <c r="C20" s="162">
-        <v>42717</v>
+        <v>42754</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="164"/>
       <c r="F20" s="163">
-        <v>50400</v>
+        <v>51100</v>
       </c>
       <c r="G20" s="164"/>
       <c r="H20" s="162"/>
@@ -16158,7 +19317,7 @@
       <c r="K20" s="131"/>
       <c r="L20" s="130">
         <f t="shared" si="4"/>
-        <v>50400</v>
+        <v>51100</v>
       </c>
       <c r="M20" s="163"/>
       <c r="N20" s="164"/>
@@ -16190,10 +19349,10 @@
       <c r="S21" s="152"/>
     </row>
     <row r="22" spans="1:20" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="235" t="s">
+      <c r="A22" s="252" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="235"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="165"/>
       <c r="D22" s="165"/>
       <c r="E22" s="140">
@@ -16202,7 +19361,7 @@
       </c>
       <c r="F22" s="141">
         <f>SUM(F10:F21)</f>
-        <v>964900</v>
+        <v>969600</v>
       </c>
       <c r="G22" s="140">
         <f>SUM(G4:G16)</f>
@@ -16223,7 +19382,7 @@
       </c>
       <c r="L22" s="141">
         <f>SUM(L10:L21)</f>
-        <v>964900</v>
+        <v>969600</v>
       </c>
       <c r="M22" s="141">
         <f>SUM(M4:M14)</f>
@@ -16236,7 +19395,7 @@
       </c>
       <c r="P22" s="141">
         <f>SUM(P10:P21)</f>
-        <v>2362.4583333333335</v>
+        <v>2372.791666666667</v>
       </c>
       <c r="Q22" s="166"/>
       <c r="R22" s="167"/>
@@ -16257,12 +19416,13 @@
         <v>46253</v>
       </c>
       <c r="E23" s="150">
-        <v>966640000</v>
+        <f>'01-17'!K28</f>
+        <v>958300000</v>
       </c>
       <c r="F23" s="137"/>
       <c r="G23" s="150"/>
       <c r="H23" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I23" s="150">
         <v>8340000</v>
@@ -16270,12 +19430,12 @@
       <c r="J23" s="137"/>
       <c r="K23" s="150">
         <f t="shared" ref="K23:K37" si="7">E23-I23</f>
-        <v>958300000</v>
+        <v>949960000</v>
       </c>
       <c r="L23" s="137"/>
       <c r="M23" s="150">
         <f>IF((LEFT(B23,4)="1402"),E23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
-        <v>7491460</v>
+        <v>8145550</v>
       </c>
       <c r="N23" s="137"/>
       <c r="O23" s="137">
@@ -16287,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R23" s="188">
         <v>0.09</v>
@@ -16311,12 +19471,13 @@
         <v>46253</v>
       </c>
       <c r="E24" s="150">
-        <v>1933320000</v>
+        <f>'01-17'!K29</f>
+        <v>1916650000</v>
       </c>
       <c r="F24" s="137"/>
       <c r="G24" s="150"/>
       <c r="H24" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I24" s="150">
         <v>16670000</v>
@@ -16324,12 +19485,12 @@
       <c r="J24" s="137"/>
       <c r="K24" s="150">
         <f t="shared" si="7"/>
-        <v>1916650000</v>
+        <v>1899980000</v>
       </c>
       <c r="L24" s="137"/>
       <c r="M24" s="150">
         <f t="shared" ref="M24:M36" si="10">IF((LEFT(B24,4)="1402"),E24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
-        <v>16433220</v>
+        <v>16291525</v>
       </c>
       <c r="N24" s="137"/>
       <c r="O24" s="137">
@@ -16341,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R24" s="188">
         <v>0.09</v>
@@ -16364,13 +19525,14 @@
       <c r="D25" s="149">
         <v>46253</v>
       </c>
-      <c r="E25" s="172">
-        <v>1546640000</v>
+      <c r="E25" s="150">
+        <f>'01-17'!K30</f>
+        <v>1533300000</v>
       </c>
       <c r="F25" s="173"/>
       <c r="G25" s="172"/>
       <c r="H25" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I25" s="172">
         <v>13340000</v>
@@ -16378,12 +19540,12 @@
       <c r="J25" s="173"/>
       <c r="K25" s="150">
         <f t="shared" si="7"/>
-        <v>1533300000</v>
+        <v>1519960000</v>
       </c>
       <c r="L25" s="173"/>
       <c r="M25" s="150">
         <f t="shared" si="10"/>
-        <v>13146440</v>
+        <v>13033050</v>
       </c>
       <c r="N25" s="173"/>
       <c r="O25" s="137">
@@ -16395,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R25" s="188">
         <v>0.09</v>
@@ -16418,13 +19580,14 @@
       <c r="D26" s="149">
         <v>46253</v>
       </c>
-      <c r="E26" s="172">
-        <v>1475000000</v>
+      <c r="E26" s="150">
+        <f>'01-17'!K31</f>
+        <v>1462500000</v>
       </c>
       <c r="F26" s="173"/>
       <c r="G26" s="172"/>
       <c r="H26" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I26" s="172">
         <v>12500000</v>
@@ -16432,12 +19595,12 @@
       <c r="J26" s="173"/>
       <c r="K26" s="150">
         <f t="shared" si="7"/>
-        <v>1462500000</v>
+        <v>1450000000</v>
       </c>
       <c r="L26" s="173"/>
       <c r="M26" s="150">
         <f t="shared" si="10"/>
-        <v>12537500</v>
+        <v>12431250</v>
       </c>
       <c r="N26" s="173"/>
       <c r="O26" s="137">
@@ -16449,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R26" s="188">
         <v>0.09</v>
@@ -16472,13 +19635,14 @@
       <c r="D27" s="149">
         <v>46253</v>
       </c>
-      <c r="E27" s="172">
-        <v>966680000</v>
+      <c r="E27" s="150">
+        <f>'01-17'!K32</f>
+        <v>958350000</v>
       </c>
       <c r="F27" s="173"/>
       <c r="G27" s="172"/>
       <c r="H27" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I27" s="172">
         <v>8330000</v>
@@ -16486,12 +19650,12 @@
       <c r="J27" s="173"/>
       <c r="K27" s="172">
         <f t="shared" si="7"/>
-        <v>958350000</v>
+        <v>950020000</v>
       </c>
       <c r="L27" s="173"/>
       <c r="M27" s="150">
         <f t="shared" si="10"/>
-        <v>8216780</v>
+        <v>8145975</v>
       </c>
       <c r="N27" s="173"/>
       <c r="O27" s="137">
@@ -16503,7 +19667,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R27" s="188">
         <v>0.09</v>
@@ -16526,13 +19690,14 @@
       <c r="D28" s="149">
         <v>46253</v>
       </c>
-      <c r="E28" s="172">
-        <v>1450000000</v>
+      <c r="E28" s="150">
+        <f>'01-17'!K33</f>
+        <v>1437500000</v>
       </c>
       <c r="F28" s="173"/>
       <c r="G28" s="172"/>
       <c r="H28" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I28" s="172">
         <v>12500000</v>
@@ -16540,12 +19705,12 @@
       <c r="J28" s="173"/>
       <c r="K28" s="172">
         <f t="shared" si="7"/>
-        <v>1437500000</v>
+        <v>1425000000</v>
       </c>
       <c r="L28" s="173"/>
       <c r="M28" s="150">
         <f t="shared" si="10"/>
-        <v>12325000</v>
+        <v>7546875</v>
       </c>
       <c r="N28" s="173"/>
       <c r="O28" s="137">
@@ -16557,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R28" s="188">
         <v>0.09</v>
@@ -16580,13 +19745,14 @@
       <c r="D29" s="149">
         <v>46253</v>
       </c>
-      <c r="E29" s="172">
-        <v>1933320000</v>
+      <c r="E29" s="150">
+        <f>'01-17'!K34</f>
+        <v>1916650000</v>
       </c>
       <c r="F29" s="173"/>
       <c r="G29" s="172"/>
       <c r="H29" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I29" s="172">
         <v>16670000</v>
@@ -16594,12 +19760,12 @@
       <c r="J29" s="173"/>
       <c r="K29" s="172">
         <f t="shared" si="7"/>
-        <v>1916650000</v>
+        <v>1899980000</v>
       </c>
       <c r="L29" s="173"/>
       <c r="M29" s="150">
         <f t="shared" si="10"/>
-        <v>16433220</v>
+        <v>16291525</v>
       </c>
       <c r="N29" s="173"/>
       <c r="O29" s="137">
@@ -16611,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R29" s="188">
         <v>0.09</v>
@@ -16634,13 +19800,14 @@
       <c r="D30" s="149">
         <v>46253</v>
       </c>
-      <c r="E30" s="172">
-        <v>1353320000</v>
+      <c r="E30" s="150">
+        <f>'01-17'!K35</f>
+        <v>1341650000</v>
       </c>
       <c r="F30" s="173"/>
       <c r="G30" s="172"/>
       <c r="H30" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I30" s="172">
         <v>11670000</v>
@@ -16648,12 +19815,12 @@
       <c r="J30" s="173"/>
       <c r="K30" s="172">
         <f t="shared" si="7"/>
-        <v>1341650000</v>
+        <v>1329980000</v>
       </c>
       <c r="L30" s="173"/>
       <c r="M30" s="150">
         <f t="shared" si="10"/>
-        <v>11503220</v>
+        <v>11404025</v>
       </c>
       <c r="N30" s="173"/>
       <c r="O30" s="137">
@@ -16665,7 +19832,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R30" s="188">
         <v>0.09</v>
@@ -16688,13 +19855,14 @@
       <c r="D31" s="149">
         <v>46253</v>
       </c>
-      <c r="E31" s="172">
-        <v>1450000000</v>
+      <c r="E31" s="150">
+        <f>'01-17'!K36</f>
+        <v>1437500000</v>
       </c>
       <c r="F31" s="173"/>
       <c r="G31" s="172"/>
       <c r="H31" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I31" s="172">
         <v>12500000</v>
@@ -16702,12 +19870,12 @@
       <c r="J31" s="173"/>
       <c r="K31" s="172">
         <f t="shared" si="7"/>
-        <v>1437500000</v>
+        <v>1425000000</v>
       </c>
       <c r="L31" s="173"/>
       <c r="M31" s="150">
         <f t="shared" si="10"/>
-        <v>12325000</v>
+        <v>12218750</v>
       </c>
       <c r="N31" s="173"/>
       <c r="O31" s="137">
@@ -16719,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R31" s="188">
         <v>0.09</v>
@@ -16742,13 +19910,14 @@
       <c r="D32" s="149">
         <v>46253</v>
       </c>
-      <c r="E32" s="172">
-        <v>1450000000</v>
+      <c r="E32" s="150">
+        <f>'01-17'!K37</f>
+        <v>1437500000</v>
       </c>
       <c r="F32" s="173"/>
       <c r="G32" s="172"/>
       <c r="H32" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I32" s="172">
         <v>12500000</v>
@@ -16756,12 +19925,12 @@
       <c r="J32" s="173"/>
       <c r="K32" s="172">
         <f t="shared" si="7"/>
-        <v>1437500000</v>
+        <v>1425000000</v>
       </c>
       <c r="L32" s="173"/>
       <c r="M32" s="150">
         <f t="shared" si="10"/>
-        <v>12325000</v>
+        <v>12218750</v>
       </c>
       <c r="N32" s="173"/>
       <c r="O32" s="137">
@@ -16773,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R32" s="188">
         <v>0.09</v>
@@ -16796,13 +19965,14 @@
       <c r="D33" s="149">
         <v>46253</v>
       </c>
-      <c r="E33" s="172">
-        <v>1450000000</v>
+      <c r="E33" s="150">
+        <f>'01-17'!K38</f>
+        <v>1437500000</v>
       </c>
       <c r="F33" s="173"/>
       <c r="G33" s="172"/>
       <c r="H33" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I33" s="172">
         <v>12500000</v>
@@ -16810,12 +19980,12 @@
       <c r="J33" s="173"/>
       <c r="K33" s="172">
         <f t="shared" si="7"/>
-        <v>1437500000</v>
+        <v>1425000000</v>
       </c>
       <c r="L33" s="173"/>
       <c r="M33" s="150">
         <f t="shared" si="10"/>
-        <v>12325000</v>
+        <v>12218750</v>
       </c>
       <c r="N33" s="173"/>
       <c r="O33" s="137">
@@ -16827,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R33" s="188">
         <v>0.09</v>
@@ -16850,13 +20020,14 @@
       <c r="D34" s="149">
         <v>46253</v>
       </c>
-      <c r="E34" s="172">
-        <v>1450000000</v>
+      <c r="E34" s="150">
+        <f>'01-17'!K39</f>
+        <v>1437500000</v>
       </c>
       <c r="F34" s="173"/>
       <c r="G34" s="172"/>
       <c r="H34" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I34" s="172">
         <v>12500000</v>
@@ -16864,12 +20035,12 @@
       <c r="J34" s="173"/>
       <c r="K34" s="172">
         <f t="shared" si="7"/>
-        <v>1437500000</v>
+        <v>1425000000</v>
       </c>
       <c r="L34" s="173"/>
       <c r="M34" s="150">
         <f t="shared" si="10"/>
-        <v>12325000</v>
+        <v>12218750</v>
       </c>
       <c r="N34" s="173"/>
       <c r="O34" s="137">
@@ -16881,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R34" s="188">
         <v>0.09</v>
@@ -16904,13 +20075,14 @@
       <c r="D35" s="149">
         <v>46253</v>
       </c>
-      <c r="E35" s="172">
-        <v>966640000</v>
+      <c r="E35" s="150">
+        <f>'01-17'!K40</f>
+        <v>958310000</v>
       </c>
       <c r="F35" s="173"/>
       <c r="G35" s="172"/>
       <c r="H35" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I35" s="172">
         <v>8330000</v>
@@ -16918,12 +20090,12 @@
       <c r="J35" s="173"/>
       <c r="K35" s="172">
         <f t="shared" si="7"/>
-        <v>958310000</v>
+        <v>949980000</v>
       </c>
       <c r="L35" s="173"/>
       <c r="M35" s="150">
         <f t="shared" si="10"/>
-        <v>8216440</v>
+        <v>8145635</v>
       </c>
       <c r="N35" s="173"/>
       <c r="O35" s="137">
@@ -16935,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R35" s="188">
         <v>0.09</v>
@@ -16958,13 +20130,14 @@
       <c r="D36" s="149">
         <v>46253</v>
       </c>
-      <c r="E36" s="172">
-        <v>966640000</v>
+      <c r="E36" s="150">
+        <f>'01-17'!K41</f>
+        <v>958310000</v>
       </c>
       <c r="F36" s="173"/>
       <c r="G36" s="172"/>
       <c r="H36" s="149">
-        <v>42754</v>
+        <v>42785</v>
       </c>
       <c r="I36" s="172">
         <v>8330000</v>
@@ -16972,12 +20145,12 @@
       <c r="J36" s="173"/>
       <c r="K36" s="172">
         <f t="shared" si="7"/>
-        <v>958310000</v>
+        <v>949980000</v>
       </c>
       <c r="L36" s="173"/>
       <c r="M36" s="150">
         <f t="shared" si="10"/>
-        <v>8941420</v>
+        <v>8145635</v>
       </c>
       <c r="N36" s="173"/>
       <c r="O36" s="137">
@@ -16989,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="189">
-        <v>42632</v>
+        <v>42785</v>
       </c>
       <c r="R36" s="188">
         <v>0.09</v>
@@ -17004,7 +20177,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C37" s="171">
         <v>42730</v>
@@ -17032,14 +20205,14 @@
       <c r="N37" s="173"/>
       <c r="O37" s="137">
         <f t="shared" si="11"/>
-        <v>181.25</v>
+        <v>205.41666666666666</v>
       </c>
       <c r="P37" s="137">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q37" s="189">
-        <v>42628</v>
+        <v>42785</v>
       </c>
       <c r="R37" s="188">
         <v>2.5000000000000001E-2</v>
@@ -17089,15 +20262,15 @@
       <c r="S39" s="138"/>
     </row>
     <row r="40" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="252" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="235"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="165"/>
       <c r="D40" s="165"/>
       <c r="E40" s="140">
         <f>SUM(E23:E39)</f>
-        <v>19358200000</v>
+        <v>19191520000</v>
       </c>
       <c r="F40" s="141">
         <f>SUM(F23:F39)</f>
@@ -17118,7 +20291,7 @@
       </c>
       <c r="K40" s="140">
         <f t="shared" si="12"/>
-        <v>19191520000</v>
+        <v>19024840000</v>
       </c>
       <c r="L40" s="141">
         <f t="shared" si="12"/>
@@ -17126,7 +20299,7 @@
       </c>
       <c r="M40" s="140">
         <f t="shared" si="12"/>
-        <v>164544700</v>
+        <v>158456045</v>
       </c>
       <c r="N40" s="141">
         <f t="shared" si="12"/>
@@ -17134,7 +20307,7 @@
       </c>
       <c r="O40" s="141">
         <f t="shared" si="12"/>
-        <v>181.25</v>
+        <v>205.41666666666666</v>
       </c>
       <c r="P40" s="141">
         <f t="shared" si="12"/>
@@ -17182,6 +20355,11 @@
   </sheetData>
   <autoFilter ref="A3:S22"/>
   <mergeCells count="12">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -17189,1981 +20367,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:T54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2:B3"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23:H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="174" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="175" customWidth="1"/>
-    <col min="3" max="4" width="8.28515625" style="176" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="177" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="181" customWidth="1"/>
-    <col min="7" max="7" width="8" style="177" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="179" customWidth="1"/>
-    <col min="9" max="9" width="11" style="180" customWidth="1"/>
-    <col min="10" max="10" width="10" style="180" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="177" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="181" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="182" customWidth="1"/>
-    <col min="14" max="14" width="10" style="182" customWidth="1"/>
-    <col min="15" max="15" width="9" style="182" customWidth="1"/>
-    <col min="16" max="16" width="9" style="183" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="184" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="184" customWidth="1"/>
-    <col min="19" max="19" width="15" style="174" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="175" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="175"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="121" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="111"/>
-      <c r="B1" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="111"/>
-    </row>
-    <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="236" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="236" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="237" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="242" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="243" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="243"/>
-      <c r="M2" s="239" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="239"/>
-      <c r="O2" s="239"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="240" t="s">
-        <v>266</v>
-      </c>
-      <c r="S2" s="236" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="236"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="123" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="186" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>271</v>
-      </c>
-      <c r="I3" s="210" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="210" t="s">
-        <v>272</v>
-      </c>
-      <c r="K3" s="211" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="125" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="208" t="s">
-        <v>273</v>
-      </c>
-      <c r="N3" s="208" t="s">
-        <v>274</v>
-      </c>
-      <c r="O3" s="127" t="s">
-        <v>275</v>
-      </c>
-      <c r="P3" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q3" s="209" t="s">
-        <v>276</v>
-      </c>
-      <c r="R3" s="240"/>
-      <c r="S3" s="236"/>
-    </row>
-    <row r="4" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="145">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="149">
-        <v>42552</v>
-      </c>
-      <c r="D4" s="149">
-        <v>42736</v>
-      </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137">
-        <v>43000</v>
-      </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131">
-        <f>F4-J4</f>
-        <v>43000</v>
-      </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137">
-        <f>IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
-        <v>92.569444444444443</v>
-      </c>
-      <c r="P4" s="137">
-        <f>IF((LEFT(B4,4)="1025"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH($O$1)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="129">
-        <v>42690</v>
-      </c>
-      <c r="R4" s="188">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S4" s="152" t="s">
-        <v>277</v>
-      </c>
-      <c r="T4" s="132"/>
-    </row>
-    <row r="5" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="145">
-        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="149">
-        <v>42586</v>
-      </c>
-      <c r="D5" s="149">
-        <v>42770</v>
-      </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137">
-        <v>52300</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131">
-        <f>F5-J5</f>
-        <v>52300</v>
-      </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137">
-        <f t="shared" ref="O5:O7" si="1">IF((LEFT(B5,4)="1402"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH(Q5)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
-        <v>112.59027777777777</v>
-      </c>
-      <c r="P5" s="137">
-        <f t="shared" ref="P5:P7" si="2">IF((LEFT(B5,4)="1025"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH($O$1)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="129">
-        <v>42690</v>
-      </c>
-      <c r="R5" s="188">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S5" s="152" t="s">
-        <v>278</v>
-      </c>
-      <c r="T5" s="132"/>
-    </row>
-    <row r="6" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="145">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" s="149">
-        <v>42718</v>
-      </c>
-      <c r="D6" s="149">
-        <v>42900</v>
-      </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137">
-        <v>93000</v>
-      </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131">
-        <f>F6-J6</f>
-        <v>93000</v>
-      </c>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137">
-        <f t="shared" si="1"/>
-        <v>200.20833333333334</v>
-      </c>
-      <c r="P6" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="129">
-        <v>42690</v>
-      </c>
-      <c r="R6" s="188">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S6" s="152" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="145">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" s="149">
-        <v>42710</v>
-      </c>
-      <c r="D7" s="149">
-        <v>42892</v>
-      </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137">
-        <v>70500</v>
-      </c>
-      <c r="G7" s="150"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131">
-        <f>F7-J7</f>
-        <v>70500</v>
-      </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137">
-        <f t="shared" si="1"/>
-        <v>151.77083333333334</v>
-      </c>
-      <c r="P7" s="137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="129">
-        <v>42690</v>
-      </c>
-      <c r="R7" s="188">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S7" s="152" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="160"/>
-    </row>
-    <row r="9" spans="1:20" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="241" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141">
-        <f>SUM(F4:F8)</f>
-        <v>258800</v>
-      </c>
-      <c r="G9" s="140">
-        <f>SUM(G4:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141">
-        <f>SUM(J4:J8)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="140"/>
-      <c r="L9" s="141">
-        <f>SUM(L4:L8)</f>
-        <v>258800</v>
-      </c>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140">
-        <f>SUM(N4:N6)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="141">
-        <f>SUM(O4:O8)</f>
-        <v>557.13888888888891</v>
-      </c>
-      <c r="P9" s="141">
-        <f>SUM(P4:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="132"/>
-    </row>
-    <row r="10" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="145">
-        <f t="shared" ref="A10:A20" si="3">ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="134">
-        <v>42689</v>
-      </c>
-      <c r="D10" s="134">
-        <v>42870</v>
-      </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="135">
-        <v>89000</v>
-      </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="130">
-        <f t="shared" ref="L10:L20" si="4">F10-J10</f>
-        <v>89000</v>
-      </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="137">
-        <f t="shared" ref="O10:O19" si="5">IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,IF(MONTH(C10)=(MONTH(Q10)-1),DAY(C10),16)),Q10,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="137">
-        <f>IF((LEFT(B10,4)="1025"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,DAY(Q10)),Q10,"d")/360,0)</f>
-        <v>229.91666666666666</v>
-      </c>
-      <c r="Q10" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R10" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="152" t="s">
-        <v>380</v>
-      </c>
-      <c r="T10" s="190"/>
-    </row>
-    <row r="11" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="145">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="134">
-        <v>42684</v>
-      </c>
-      <c r="D11" s="134">
-        <v>42865</v>
-      </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="135">
-        <v>82000</v>
-      </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="130">
-        <f t="shared" si="4"/>
-        <v>82000</v>
-      </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="137">
-        <f t="shared" ref="P11:P19" si="6">IF((LEFT(B11,4)="1025"),F11*R11*DATEDIF(DATE(YEAR(Q11),MONTH(Q11)-1,DAY(Q11)),Q11,"d")/360,0)</f>
-        <v>211.83333333333334</v>
-      </c>
-      <c r="Q11" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R11" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S11" s="152" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="145">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="B12" s="133" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="134">
-        <v>42660</v>
-      </c>
-      <c r="D12" s="134">
-        <v>42842</v>
-      </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="135">
-        <v>96000</v>
-      </c>
-      <c r="G12" s="136"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="130">
-        <f t="shared" si="4"/>
-        <v>96000</v>
-      </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="137">
-        <f>IF((LEFT(B12,4)="1025"),F12*R12*DATEDIF(DATE(YEAR(Q12),MONTH(Q12)-1,DAY(Q12)),Q12,"d")/360,0)</f>
-        <v>248</v>
-      </c>
-      <c r="Q12" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R12" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S12" s="152" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="145">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B13" s="133" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="134">
-        <v>42649</v>
-      </c>
-      <c r="D13" s="134">
-        <v>42831</v>
-      </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="135">
-        <v>96000</v>
-      </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="130">
-        <f t="shared" si="4"/>
-        <v>96000</v>
-      </c>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="137">
-        <f t="shared" si="6"/>
-        <v>248</v>
-      </c>
-      <c r="Q13" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R13" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S13" s="152" t="s">
-        <v>381</v>
-      </c>
-      <c r="T13" s="191"/>
-    </row>
-    <row r="14" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="145">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="133" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" s="134">
-        <v>42718</v>
-      </c>
-      <c r="D14" s="134">
-        <v>42900</v>
-      </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="135">
-        <v>137000</v>
-      </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130">
-        <f t="shared" si="4"/>
-        <v>137000</v>
-      </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="137">
-        <f t="shared" si="6"/>
-        <v>353.91666666666669</v>
-      </c>
-      <c r="Q14" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R14" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S14" s="138" t="s">
-        <v>382</v>
-      </c>
-      <c r="T14" s="201">
-        <f>E13*R13/12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="145">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" s="134">
-        <v>42733</v>
-      </c>
-      <c r="D15" s="134">
-        <v>42915</v>
-      </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="135">
-        <v>85000</v>
-      </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130">
-        <f t="shared" si="4"/>
-        <v>85000</v>
-      </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="137">
-        <f t="shared" si="6"/>
-        <v>219.58333333333334</v>
-      </c>
-      <c r="Q15" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R15" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S15" s="138" t="s">
-        <v>382</v>
-      </c>
-      <c r="T15" s="191"/>
-    </row>
-    <row r="16" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="145">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="133" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="134">
-        <v>42556</v>
-      </c>
-      <c r="D16" s="134">
-        <v>42740</v>
-      </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="135">
-        <v>89000</v>
-      </c>
-      <c r="G16" s="136"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130">
-        <f t="shared" si="4"/>
-        <v>89000</v>
-      </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="137">
-        <f t="shared" si="6"/>
-        <v>229.91666666666666</v>
-      </c>
-      <c r="Q16" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R16" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S16" s="138" t="s">
-        <v>382</v>
-      </c>
-      <c r="T16" s="191"/>
-    </row>
-    <row r="17" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="145">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="162">
-        <v>42600</v>
-      </c>
-      <c r="D17" s="134">
-        <v>42784</v>
-      </c>
-      <c r="E17" s="136"/>
-      <c r="F17" s="163">
-        <v>63000</v>
-      </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130">
-        <f t="shared" si="4"/>
-        <v>63000</v>
-      </c>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="137">
-        <f t="shared" si="6"/>
-        <v>162.75</v>
-      </c>
-      <c r="Q17" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R17" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S17" s="152" t="s">
-        <v>380</v>
-      </c>
-      <c r="T17" s="191"/>
-    </row>
-    <row r="18" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="145">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="162">
-        <v>42612</v>
-      </c>
-      <c r="D18" s="134">
-        <v>42794</v>
-      </c>
-      <c r="E18" s="164"/>
-      <c r="F18" s="163">
-        <v>89500</v>
-      </c>
-      <c r="G18" s="136"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130">
-        <f t="shared" si="4"/>
-        <v>89500</v>
-      </c>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="137">
-        <f t="shared" si="6"/>
-        <v>231.20833333333334</v>
-      </c>
-      <c r="Q18" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R18" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S18" s="152" t="s">
-        <v>380</v>
-      </c>
-      <c r="T18" s="191"/>
-    </row>
-    <row r="19" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="145">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="162">
-        <v>42626</v>
-      </c>
-      <c r="D19" s="134">
-        <v>42807</v>
-      </c>
-      <c r="E19" s="164"/>
-      <c r="F19" s="163">
-        <v>88000</v>
-      </c>
-      <c r="G19" s="136"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="130">
-        <f t="shared" si="4"/>
-        <v>88000</v>
-      </c>
-      <c r="M19" s="163"/>
-      <c r="N19" s="164">
-        <f>P19*G19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="137">
-        <f t="shared" si="6"/>
-        <v>227.33333333333334</v>
-      </c>
-      <c r="Q19" s="129">
-        <v>42696</v>
-      </c>
-      <c r="R19" s="187">
-        <v>0.03</v>
-      </c>
-      <c r="S19" s="152" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A20" s="145">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="162">
-        <v>42717</v>
-      </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="163">
-        <v>50400</v>
-      </c>
-      <c r="G20" s="164"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="130">
-        <f t="shared" si="4"/>
-        <v>50400</v>
-      </c>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="152"/>
-    </row>
-    <row r="21" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="152"/>
-    </row>
-    <row r="22" spans="1:20" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="235" t="s">
-        <v>305</v>
-      </c>
-      <c r="B22" s="235"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="140">
-        <f>SUM(E4:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="141">
-        <f>SUM(F10:F21)</f>
-        <v>964900</v>
-      </c>
-      <c r="G22" s="140">
-        <f>SUM(G4:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="141">
-        <f>SUM(I10:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="141">
-        <f>SUM(J10:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="141">
-        <f>SUM(K10:K21)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="141">
-        <f>SUM(L10:L21)</f>
-        <v>964900</v>
-      </c>
-      <c r="M22" s="141">
-        <f>SUM(M4:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141">
-        <f>SUM(O10:O21)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="141">
-        <f>SUM(P10:P21)</f>
-        <v>2362.4583333333335</v>
-      </c>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="143"/>
-    </row>
-    <row r="23" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A23" s="145">
-        <f>ROW()-22</f>
-        <v>1</v>
-      </c>
-      <c r="B23" s="148" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="149">
-        <v>41870</v>
-      </c>
-      <c r="D23" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E23" s="150">
-        <f>'01-17'!K23</f>
-        <v>958300000</v>
-      </c>
-      <c r="F23" s="137"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I23" s="150">
-        <v>8340000</v>
-      </c>
-      <c r="J23" s="137"/>
-      <c r="K23" s="150">
-        <f t="shared" ref="K23:K37" si="7">E23-I23</f>
-        <v>949960000</v>
-      </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="150">
-        <f>IF((LEFT(B23,4)="1402"),E23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
-        <v>7426825</v>
-      </c>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137">
-        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="137">
-        <f t="shared" ref="P23:P37" si="8">IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R23" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S23" s="170" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="145">
-        <f t="shared" ref="A24:A37" si="9">ROW()-22</f>
-        <v>2</v>
-      </c>
-      <c r="B24" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="149">
-        <v>41905</v>
-      </c>
-      <c r="D24" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E24" s="150">
-        <f>'01-17'!K24</f>
-        <v>1916650000</v>
-      </c>
-      <c r="F24" s="137"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I24" s="150">
-        <v>16670000</v>
-      </c>
-      <c r="J24" s="137"/>
-      <c r="K24" s="150">
-        <f t="shared" si="7"/>
-        <v>1899980000</v>
-      </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="150">
-        <f t="shared" ref="M24:M36" si="10">IF((LEFT(B24,4)="1402"),E24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
-        <v>16291525</v>
-      </c>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137">
-        <f t="shared" ref="O24:O37" si="11">IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R24" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S24" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="145">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="B25" s="148" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="171">
-        <v>41934</v>
-      </c>
-      <c r="D25" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E25" s="150">
-        <f>'01-17'!K25</f>
-        <v>1533300000</v>
-      </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I25" s="172">
-        <v>13340000</v>
-      </c>
-      <c r="J25" s="173"/>
-      <c r="K25" s="150">
-        <f t="shared" si="7"/>
-        <v>1519960000</v>
-      </c>
-      <c r="L25" s="173"/>
-      <c r="M25" s="150">
-        <f t="shared" si="10"/>
-        <v>13033050</v>
-      </c>
-      <c r="N25" s="173"/>
-      <c r="O25" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R25" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S25" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="145">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B26" s="148" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="171">
-        <v>41963</v>
-      </c>
-      <c r="D26" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E26" s="150">
-        <f>'01-17'!K26</f>
-        <v>1462500000</v>
-      </c>
-      <c r="F26" s="173"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I26" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J26" s="173"/>
-      <c r="K26" s="150">
-        <f t="shared" si="7"/>
-        <v>1450000000</v>
-      </c>
-      <c r="L26" s="173"/>
-      <c r="M26" s="150">
-        <f t="shared" si="10"/>
-        <v>12431250</v>
-      </c>
-      <c r="N26" s="173"/>
-      <c r="O26" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R26" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S26" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="145">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B27" s="148" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="171">
-        <v>41984</v>
-      </c>
-      <c r="D27" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E27" s="150">
-        <f>'01-17'!K27</f>
-        <v>958350000</v>
-      </c>
-      <c r="F27" s="173"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I27" s="172">
-        <v>8330000</v>
-      </c>
-      <c r="J27" s="173"/>
-      <c r="K27" s="172">
-        <f t="shared" si="7"/>
-        <v>950020000</v>
-      </c>
-      <c r="L27" s="173"/>
-      <c r="M27" s="150">
-        <f t="shared" si="10"/>
-        <v>8145975</v>
-      </c>
-      <c r="N27" s="173"/>
-      <c r="O27" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R27" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S27" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="145">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="B28" s="148" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="171">
-        <v>42033</v>
-      </c>
-      <c r="D28" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E28" s="150">
-        <f>'01-17'!K28</f>
-        <v>1437500000</v>
-      </c>
-      <c r="F28" s="173"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I28" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J28" s="173"/>
-      <c r="K28" s="172">
-        <f t="shared" si="7"/>
-        <v>1425000000</v>
-      </c>
-      <c r="L28" s="173"/>
-      <c r="M28" s="150">
-        <f t="shared" si="10"/>
-        <v>12218750</v>
-      </c>
-      <c r="N28" s="173"/>
-      <c r="O28" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R28" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S28" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="145">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="B29" s="148" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="171">
-        <v>42088</v>
-      </c>
-      <c r="D29" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E29" s="150">
-        <f>'01-17'!K29</f>
-        <v>1916650000</v>
-      </c>
-      <c r="F29" s="173"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I29" s="172">
-        <v>16670000</v>
-      </c>
-      <c r="J29" s="173"/>
-      <c r="K29" s="172">
-        <f t="shared" si="7"/>
-        <v>1899980000</v>
-      </c>
-      <c r="L29" s="173"/>
-      <c r="M29" s="150">
-        <f t="shared" si="10"/>
-        <v>16291525</v>
-      </c>
-      <c r="N29" s="173"/>
-      <c r="O29" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R29" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S29" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="145">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="B30" s="148" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="171">
-        <v>42114</v>
-      </c>
-      <c r="D30" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E30" s="150">
-        <f>'01-17'!K30</f>
-        <v>1341650000</v>
-      </c>
-      <c r="F30" s="173"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I30" s="172">
-        <v>11670000</v>
-      </c>
-      <c r="J30" s="173"/>
-      <c r="K30" s="172">
-        <f t="shared" si="7"/>
-        <v>1329980000</v>
-      </c>
-      <c r="L30" s="173"/>
-      <c r="M30" s="150">
-        <f t="shared" si="10"/>
-        <v>11404025</v>
-      </c>
-      <c r="N30" s="173"/>
-      <c r="O30" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R30" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S30" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="145">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="B31" s="148" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" s="171">
-        <v>42138</v>
-      </c>
-      <c r="D31" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E31" s="150">
-        <f>'01-17'!K31</f>
-        <v>1437500000</v>
-      </c>
-      <c r="F31" s="173"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I31" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J31" s="173"/>
-      <c r="K31" s="172">
-        <f t="shared" si="7"/>
-        <v>1425000000</v>
-      </c>
-      <c r="L31" s="173"/>
-      <c r="M31" s="150">
-        <f t="shared" si="10"/>
-        <v>12218750</v>
-      </c>
-      <c r="N31" s="173"/>
-      <c r="O31" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R31" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S31" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="145">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="B32" s="148" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="171">
-        <v>42164</v>
-      </c>
-      <c r="D32" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E32" s="150">
-        <f>'01-17'!K32</f>
-        <v>1437500000</v>
-      </c>
-      <c r="F32" s="173"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I32" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J32" s="173"/>
-      <c r="K32" s="172">
-        <f t="shared" si="7"/>
-        <v>1425000000</v>
-      </c>
-      <c r="L32" s="173"/>
-      <c r="M32" s="150">
-        <f t="shared" si="10"/>
-        <v>12218750</v>
-      </c>
-      <c r="N32" s="173"/>
-      <c r="O32" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R32" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S32" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="145">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="B33" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="C33" s="171">
-        <v>42187</v>
-      </c>
-      <c r="D33" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E33" s="150">
-        <f>'01-17'!K33</f>
-        <v>1437500000</v>
-      </c>
-      <c r="F33" s="173"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I33" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J33" s="173"/>
-      <c r="K33" s="172">
-        <f t="shared" si="7"/>
-        <v>1425000000</v>
-      </c>
-      <c r="L33" s="173"/>
-      <c r="M33" s="150">
-        <f t="shared" si="10"/>
-        <v>12218750</v>
-      </c>
-      <c r="N33" s="173"/>
-      <c r="O33" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R33" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S33" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="145">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="B34" s="148" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="171">
-        <v>42195</v>
-      </c>
-      <c r="D34" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E34" s="150">
-        <f>'01-17'!K34</f>
-        <v>1437500000</v>
-      </c>
-      <c r="F34" s="173"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I34" s="172">
-        <v>12500000</v>
-      </c>
-      <c r="J34" s="173"/>
-      <c r="K34" s="172">
-        <f t="shared" si="7"/>
-        <v>1425000000</v>
-      </c>
-      <c r="L34" s="173"/>
-      <c r="M34" s="150">
-        <f t="shared" si="10"/>
-        <v>12218750</v>
-      </c>
-      <c r="N34" s="173"/>
-      <c r="O34" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R34" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S34" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="145">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="B35" s="148" t="s">
-        <v>293</v>
-      </c>
-      <c r="C35" s="171">
-        <v>42215</v>
-      </c>
-      <c r="D35" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E35" s="150">
-        <f>'01-17'!K35</f>
-        <v>958310000</v>
-      </c>
-      <c r="F35" s="173"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I35" s="172">
-        <v>8330000</v>
-      </c>
-      <c r="J35" s="173"/>
-      <c r="K35" s="172">
-        <f t="shared" si="7"/>
-        <v>949980000</v>
-      </c>
-      <c r="L35" s="173"/>
-      <c r="M35" s="150">
-        <f t="shared" si="10"/>
-        <v>8145635</v>
-      </c>
-      <c r="N35" s="173"/>
-      <c r="O35" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R35" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S35" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="145">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="B36" s="148" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="171">
-        <v>42229</v>
-      </c>
-      <c r="D36" s="149">
-        <v>46253</v>
-      </c>
-      <c r="E36" s="150">
-        <f>'01-17'!K36</f>
-        <v>958310000</v>
-      </c>
-      <c r="F36" s="173"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="149">
-        <v>42419</v>
-      </c>
-      <c r="I36" s="172">
-        <v>8330000</v>
-      </c>
-      <c r="J36" s="173"/>
-      <c r="K36" s="172">
-        <f t="shared" si="7"/>
-        <v>949980000</v>
-      </c>
-      <c r="L36" s="173"/>
-      <c r="M36" s="150">
-        <f t="shared" si="10"/>
-        <v>8864367.5</v>
-      </c>
-      <c r="N36" s="173"/>
-      <c r="O36" s="137">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="189">
-        <v>42632</v>
-      </c>
-      <c r="R36" s="188">
-        <v>0.09</v>
-      </c>
-      <c r="S36" s="152" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="145">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="B37" s="148" t="s">
-        <v>430</v>
-      </c>
-      <c r="C37" s="171">
-        <v>42730</v>
-      </c>
-      <c r="D37" s="171">
-        <v>42851</v>
-      </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="173">
-        <v>87000</v>
-      </c>
-      <c r="G37" s="172"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="172">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="173">
-        <f>F37</f>
-        <v>87000</v>
-      </c>
-      <c r="M37" s="150"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="137">
-        <f t="shared" si="11"/>
-        <v>181.25</v>
-      </c>
-      <c r="P37" s="137">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="189">
-        <v>42628</v>
-      </c>
-      <c r="R37" s="188">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S37" s="152"/>
-    </row>
-    <row r="38" spans="1:19" s="147" customFormat="1" ht="17.25" hidden="1" customHeight="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="169"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="152"/>
-    </row>
-    <row r="39" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="161"/>
-      <c r="S39" s="138"/>
-    </row>
-    <row r="40" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="235" t="s">
-        <v>295</v>
-      </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="140">
-        <f>SUM(E23:E39)</f>
-        <v>19191520000</v>
-      </c>
-      <c r="F40" s="141">
-        <f>SUM(F23:F39)</f>
-        <v>87000</v>
-      </c>
-      <c r="G40" s="140">
-        <f>SUM(G23:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="141"/>
-      <c r="I40" s="140">
-        <f t="shared" ref="I40:P40" si="12">SUM(I23:I39)</f>
-        <v>166680000</v>
-      </c>
-      <c r="J40" s="141">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="140">
-        <f t="shared" si="12"/>
-        <v>19024840000</v>
-      </c>
-      <c r="L40" s="141">
-        <f t="shared" si="12"/>
-        <v>87000</v>
-      </c>
-      <c r="M40" s="140">
-        <f t="shared" si="12"/>
-        <v>163127927.5</v>
-      </c>
-      <c r="N40" s="141">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="141">
-        <f t="shared" si="12"/>
-        <v>181.25</v>
-      </c>
-      <c r="P40" s="141">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="167"/>
-      <c r="S40" s="143"/>
-    </row>
-    <row r="41" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F41" s="178"/>
-    </row>
-    <row r="42" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F42" s="175"/>
-    </row>
-    <row r="43" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F43" s="175"/>
-    </row>
-    <row r="44" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F44" s="175"/>
-    </row>
-    <row r="46" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F46" s="178"/>
-    </row>
-    <row r="54" spans="1:19" s="183" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A54" s="174"/>
-      <c r="B54" s="175"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="181"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="181"/>
-      <c r="M54" s="185"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="185"/>
-      <c r="Q54" s="184"/>
-      <c r="R54" s="184"/>
-      <c r="S54" s="174"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A3:S22"/>
-  <mergeCells count="12">
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -28,11 +28,11 @@
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'02-17'!$A$3:$S$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$227</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$213</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39784))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$213</definedName>
+    <definedName name="DS">TH!$A$4:$Q$226</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39797))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$226</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - EIB'!$A$1:$P$32</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="505">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2101,6 +2101,24 @@
   </si>
   <si>
     <t>1402LDS201700049</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T01/2017</t>
+  </si>
+  <si>
+    <t>117.00000.4257</t>
+  </si>
+  <si>
+    <t>CTY TNHH THƯƠNG MẠI VÀ DỊCH VỤ MAI PHƯƠNG HUY</t>
+  </si>
+  <si>
+    <t>0040 9362.0001</t>
+  </si>
+  <si>
+    <t>NH Đông Á - CN Phường Cầu Kho</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền máy photocopy</t>
   </si>
 </sst>
 </file>
@@ -3988,14 +4006,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R213"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G189" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="N201" sqref="N201"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P209" sqref="P209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4206,7 +4223,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B213" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B170" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -12956,7 +12973,7 @@
         <v/>
       </c>
       <c r="B186" s="62">
-        <f t="shared" ref="B186:B208" si="13">IF(C186&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B186:B195" si="13">IF(C186&lt;&gt;"",ROW()-3,"")</f>
         <v>183</v>
       </c>
       <c r="C186" s="62" t="s">
@@ -13426,7 +13443,7 @@
         <v/>
       </c>
       <c r="B196" s="62">
-        <f t="shared" ref="B196:B204" si="14">IF(C196&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B196:B226" si="14">IF(C196&lt;&gt;"",ROW()-3,"")</f>
         <v>193</v>
       </c>
       <c r="C196" s="62" t="s">
@@ -13652,7 +13669,7 @@
       <c r="Q200" s="92"/>
       <c r="R200" s="202" t="str">
         <f>IF(AND(C200="pv",D200='UNC - PV'!$Q$2,LEFT(E200,1)="u",'UNC - PV'!$O$2="vnđ",TH!P200&lt;&gt;""),"p",IF(AND(C200="pv",D200='UNC - PV'!$Q$2,LEFT(E200,1)="u",'UNC - PV'!$O$2="usd",TH!O200&lt;&gt;""),"p1",IF(AND(C200="pv",D200='LC - PV'!$P$2,LEFT(E200,1)="l"),"p2",IF(AND(LEFT(C200,3)="EIB",D200='UNC - EIB'!$T$2,LEFT(E200,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P200&lt;&gt;""),"e",IF(AND(LEFT(C200,3)="EIB",D200='UNC - EIB'!$T$2,LEFT(E200,1)="U",'UNC - EIB'!$R$2="usd",TH!O200&lt;&gt;""),"e1",IF(AND(LEFT(C200,3)="EIB",D200='LC - EIB'!$S$2,LEFT(E200,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:18" ht="18.75" customHeight="1">
@@ -13699,13 +13716,13 @@
       <c r="Q201" s="92"/>
       <c r="R201" s="202" t="str">
         <f>IF(AND(C201="pv",D201='UNC - PV'!$Q$2,LEFT(E201,1)="u",'UNC - PV'!$O$2="vnđ",TH!P201&lt;&gt;""),"p",IF(AND(C201="pv",D201='UNC - PV'!$Q$2,LEFT(E201,1)="u",'UNC - PV'!$O$2="usd",TH!O201&lt;&gt;""),"p1",IF(AND(C201="pv",D201='LC - PV'!$P$2,LEFT(E201,1)="l"),"p2",IF(AND(LEFT(C201,3)="EIB",D201='UNC - EIB'!$T$2,LEFT(E201,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P201&lt;&gt;""),"e",IF(AND(LEFT(C201,3)="EIB",D201='UNC - EIB'!$T$2,LEFT(E201,1)="U",'UNC - EIB'!$R$2="usd",TH!O201&lt;&gt;""),"e1",IF(AND(LEFT(C201,3)="EIB",D201='LC - EIB'!$S$2,LEFT(E201,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="202" spans="1:18" ht="18.75" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B202" s="62">
         <f t="shared" si="14"/>
@@ -13747,7 +13764,7 @@
       <c r="Q202" s="92"/>
       <c r="R202" s="202" t="str">
         <f>IF(AND(C202="pv",D202='UNC - PV'!$Q$2,LEFT(E202,1)="u",'UNC - PV'!$O$2="vnđ",TH!P202&lt;&gt;""),"p",IF(AND(C202="pv",D202='UNC - PV'!$Q$2,LEFT(E202,1)="u",'UNC - PV'!$O$2="usd",TH!O202&lt;&gt;""),"p1",IF(AND(C202="pv",D202='LC - PV'!$P$2,LEFT(E202,1)="l"),"p2",IF(AND(LEFT(C202,3)="EIB",D202='UNC - EIB'!$T$2,LEFT(E202,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P202&lt;&gt;""),"e",IF(AND(LEFT(C202,3)="EIB",D202='UNC - EIB'!$T$2,LEFT(E202,1)="U",'UNC - EIB'!$R$2="usd",TH!O202&lt;&gt;""),"e1",IF(AND(LEFT(C202,3)="EIB",D202='LC - EIB'!$S$2,LEFT(E202,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:18" ht="18.75" customHeight="1">
@@ -13755,24 +13772,42 @@
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B203" s="62" t="str">
+      <c r="B203" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C203" s="62"/>
-      <c r="D203" s="67"/>
-      <c r="E203" s="65"/>
-      <c r="F203" s="64"/>
-      <c r="G203" s="64"/>
-      <c r="H203" s="64"/>
-      <c r="I203" s="65"/>
+        <v>200</v>
+      </c>
+      <c r="C203" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D203" s="67">
+        <v>42807</v>
+      </c>
+      <c r="E203" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G203" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="H203" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I203" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J203" s="66"/>
       <c r="K203" s="67"/>
       <c r="L203" s="65"/>
       <c r="M203" s="65"/>
-      <c r="N203" s="64"/>
+      <c r="N203" s="64" t="s">
+        <v>499</v>
+      </c>
       <c r="O203" s="68"/>
-      <c r="P203" s="69"/>
+      <c r="P203" s="69">
+        <v>5735000</v>
+      </c>
       <c r="Q203" s="92"/>
       <c r="R203" s="202" t="str">
         <f>IF(AND(C203="pv",D203='UNC - PV'!$Q$2,LEFT(E203,1)="u",'UNC - PV'!$O$2="vnđ",TH!P203&lt;&gt;""),"p",IF(AND(C203="pv",D203='UNC - PV'!$Q$2,LEFT(E203,1)="u",'UNC - PV'!$O$2="usd",TH!O203&lt;&gt;""),"p1",IF(AND(C203="pv",D203='LC - PV'!$P$2,LEFT(E203,1)="l"),"p2",IF(AND(LEFT(C203,3)="EIB",D203='UNC - EIB'!$T$2,LEFT(E203,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P203&lt;&gt;""),"e",IF(AND(LEFT(C203,3)="EIB",D203='UNC - EIB'!$T$2,LEFT(E203,1)="U",'UNC - EIB'!$R$2="usd",TH!O203&lt;&gt;""),"e1",IF(AND(LEFT(C203,3)="EIB",D203='LC - EIB'!$S$2,LEFT(E203,1)="l"),"e2",""))))))</f>
@@ -13784,24 +13819,42 @@
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B204" s="62" t="str">
+      <c r="B204" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C204" s="62"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="65"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="65"/>
+        <v>201</v>
+      </c>
+      <c r="C204" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D204" s="67">
+        <v>42807</v>
+      </c>
+      <c r="E204" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G204" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H204" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I204" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J204" s="66"/>
       <c r="K204" s="67"/>
       <c r="L204" s="65"/>
       <c r="M204" s="65"/>
-      <c r="N204" s="64"/>
+      <c r="N204" s="64" t="s">
+        <v>499</v>
+      </c>
       <c r="O204" s="68"/>
-      <c r="P204" s="69"/>
+      <c r="P204" s="69">
+        <v>950000</v>
+      </c>
       <c r="Q204" s="92"/>
       <c r="R204" s="202" t="str">
         <f>IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="vnđ",TH!P204&lt;&gt;""),"p",IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="usd",TH!O204&lt;&gt;""),"p1",IF(AND(C204="pv",D204='LC - PV'!$P$2,LEFT(E204,1)="l"),"p2",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P204&lt;&gt;""),"e",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="U",'UNC - EIB'!$R$2="usd",TH!O204&lt;&gt;""),"e1",IF(AND(LEFT(C204,3)="EIB",D204='LC - EIB'!$S$2,LEFT(E204,1)="l"),"e2",""))))))</f>
@@ -13813,28 +13866,46 @@
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B205" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C205" s="62"/>
-      <c r="D205" s="67"/>
-      <c r="E205" s="65"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="65"/>
+      <c r="B205" s="62">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="C205" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D205" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E205" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G205" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H205" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="I205" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="J205" s="66"/>
       <c r="K205" s="67"/>
       <c r="L205" s="65"/>
       <c r="M205" s="65"/>
-      <c r="N205" s="64"/>
+      <c r="N205" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="O205" s="68"/>
-      <c r="P205" s="69"/>
+      <c r="P205" s="69">
+        <v>146107151</v>
+      </c>
       <c r="Q205" s="92"/>
       <c r="R205" s="202" t="str">
         <f>IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="vnđ",TH!P205&lt;&gt;""),"p",IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="usd",TH!O205&lt;&gt;""),"p1",IF(AND(C205="pv",D205='LC - PV'!$P$2,LEFT(E205,1)="l"),"p2",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P205&lt;&gt;""),"e",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="U",'UNC - EIB'!$R$2="usd",TH!O205&lt;&gt;""),"e1",IF(AND(LEFT(C205,3)="EIB",D205='LC - EIB'!$S$2,LEFT(E205,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="206" spans="1:18" ht="18.75" customHeight="1">
@@ -13842,28 +13913,46 @@
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B206" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C206" s="62"/>
-      <c r="D206" s="67"/>
-      <c r="E206" s="65"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="65"/>
+      <c r="B206" s="62">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="C206" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D206" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E206" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G206" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="H206" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="I206" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J206" s="66"/>
       <c r="K206" s="67"/>
       <c r="L206" s="65"/>
       <c r="M206" s="65"/>
-      <c r="N206" s="64"/>
+      <c r="N206" s="64" t="s">
+        <v>364</v>
+      </c>
       <c r="O206" s="68"/>
-      <c r="P206" s="69"/>
+      <c r="P206" s="69">
+        <v>35661417</v>
+      </c>
       <c r="Q206" s="92"/>
       <c r="R206" s="202" t="str">
         <f>IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="vnđ",TH!P206&lt;&gt;""),"p",IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="usd",TH!O206&lt;&gt;""),"p1",IF(AND(C206="pv",D206='LC - PV'!$P$2,LEFT(E206,1)="l"),"p2",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P206&lt;&gt;""),"e",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="U",'UNC - EIB'!$R$2="usd",TH!O206&lt;&gt;""),"e1",IF(AND(LEFT(C206,3)="EIB",D206='LC - EIB'!$S$2,LEFT(E206,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="207" spans="1:18" ht="18.75" customHeight="1">
@@ -13871,28 +13960,46 @@
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B207" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C207" s="62"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="64"/>
-      <c r="G207" s="64"/>
-      <c r="H207" s="64"/>
-      <c r="I207" s="65"/>
+      <c r="B207" s="62">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="C207" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D207" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E207" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G207" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H207" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I207" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J207" s="66"/>
       <c r="K207" s="67"/>
       <c r="L207" s="65"/>
       <c r="M207" s="65"/>
-      <c r="N207" s="64"/>
+      <c r="N207" s="64" t="s">
+        <v>172</v>
+      </c>
       <c r="O207" s="68"/>
-      <c r="P207" s="69"/>
+      <c r="P207" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q207" s="92"/>
       <c r="R207" s="202" t="str">
         <f>IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="vnđ",TH!P207&lt;&gt;""),"p",IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="usd",TH!O207&lt;&gt;""),"p1",IF(AND(C207="pv",D207='LC - PV'!$P$2,LEFT(E207,1)="l"),"p2",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P207&lt;&gt;""),"e",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="U",'UNC - EIB'!$R$2="usd",TH!O207&lt;&gt;""),"e1",IF(AND(LEFT(C207,3)="EIB",D207='LC - EIB'!$S$2,LEFT(E207,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="208" spans="1:18" ht="18.75" customHeight="1">
@@ -13900,57 +14007,93 @@
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B208" s="62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="C208" s="62"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="64"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="64"/>
-      <c r="I208" s="65"/>
+      <c r="B208" s="62">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="C208" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E208" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F208" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G208" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H208" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I208" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J208" s="66"/>
       <c r="K208" s="67"/>
       <c r="L208" s="65"/>
       <c r="M208" s="65"/>
-      <c r="N208" s="64"/>
+      <c r="N208" s="64" t="s">
+        <v>95</v>
+      </c>
       <c r="O208" s="68"/>
-      <c r="P208" s="69"/>
+      <c r="P208" s="69">
+        <v>40000000</v>
+      </c>
       <c r="Q208" s="92"/>
       <c r="R208" s="202" t="str">
         <f>IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="vnđ",TH!P208&lt;&gt;""),"p",IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="usd",TH!O208&lt;&gt;""),"p1",IF(AND(C208="pv",D208='LC - PV'!$P$2,LEFT(E208,1)="l"),"p2",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P208&lt;&gt;""),"e",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="U",'UNC - EIB'!$R$2="usd",TH!O208&lt;&gt;""),"e1",IF(AND(LEFT(C208,3)="EIB",D208='LC - EIB'!$S$2,LEFT(E208,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="209" spans="1:18" ht="18.75" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B209" s="62" t="str">
-        <f t="shared" ref="B209" si="15">IF(C209&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C209" s="62"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="65"/>
+        <v>x1</v>
+      </c>
+      <c r="B209" s="62">
+        <f t="shared" si="14"/>
+        <v>206</v>
+      </c>
+      <c r="C209" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D209" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E209" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="F209" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G209" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H209" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I209" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J209" s="66"/>
       <c r="K209" s="67"/>
       <c r="L209" s="65"/>
       <c r="M209" s="65"/>
-      <c r="N209" s="64"/>
+      <c r="N209" s="64" t="s">
+        <v>489</v>
+      </c>
       <c r="O209" s="68"/>
-      <c r="P209" s="69"/>
+      <c r="P209" s="69">
+        <v>150000000</v>
+      </c>
       <c r="Q209" s="92"/>
       <c r="R209" s="202" t="str">
         <f>IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="vnđ",TH!P209&lt;&gt;""),"p",IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="usd",TH!O209&lt;&gt;""),"p1",IF(AND(C209="pv",D209='LC - PV'!$P$2,LEFT(E209,1)="l"),"p2",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P209&lt;&gt;""),"e",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="U",'UNC - EIB'!$R$2="usd",TH!O209&lt;&gt;""),"e1",IF(AND(LEFT(C209,3)="EIB",D209='LC - EIB'!$S$2,LEFT(E209,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="18.75" customHeight="1">
@@ -13958,28 +14101,46 @@
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B210" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C210" s="62"/>
-      <c r="D210" s="67"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="64"/>
-      <c r="I210" s="65"/>
+      <c r="B210" s="62">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="C210" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D210" s="67">
+        <v>42808</v>
+      </c>
+      <c r="E210" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="F210" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="G210" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="H210" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="I210" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J210" s="66"/>
       <c r="K210" s="67"/>
       <c r="L210" s="65"/>
       <c r="M210" s="65"/>
-      <c r="N210" s="64"/>
+      <c r="N210" s="64" t="s">
+        <v>504</v>
+      </c>
       <c r="O210" s="68"/>
-      <c r="P210" s="69"/>
+      <c r="P210" s="69">
+        <v>21000000</v>
+      </c>
       <c r="Q210" s="92"/>
       <c r="R210" s="202" t="str">
         <f>IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="vnđ",TH!P210&lt;&gt;""),"p",IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="usd",TH!O210&lt;&gt;""),"p1",IF(AND(C210="pv",D210='LC - PV'!$P$2,LEFT(E210,1)="l"),"p2",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P210&lt;&gt;""),"e",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="U",'UNC - EIB'!$R$2="usd",TH!O210&lt;&gt;""),"e1",IF(AND(LEFT(C210,3)="EIB",D210='LC - EIB'!$S$2,LEFT(E210,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="211" spans="1:18" ht="18.75" customHeight="1">
@@ -13988,7 +14149,7 @@
         <v/>
       </c>
       <c r="B211" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C211" s="62"/>
@@ -14017,7 +14178,7 @@
         <v/>
       </c>
       <c r="B212" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C212" s="62"/>
@@ -14046,7 +14207,7 @@
         <v/>
       </c>
       <c r="B213" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C213" s="62"/>
@@ -14069,8 +14230,385 @@
         <v/>
       </c>
     </row>
+    <row r="214" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A214" s="55" t="str">
+        <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B214" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C214" s="62"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="64"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="64"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="66"/>
+      <c r="K214" s="67"/>
+      <c r="L214" s="65"/>
+      <c r="M214" s="65"/>
+      <c r="N214" s="64"/>
+      <c r="O214" s="68"/>
+      <c r="P214" s="69"/>
+      <c r="Q214" s="92"/>
+      <c r="R214" s="202" t="str">
+        <f>IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="vnđ",TH!P214&lt;&gt;""),"p",IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="usd",TH!O214&lt;&gt;""),"p1",IF(AND(C214="pv",D214='LC - PV'!$P$2,LEFT(E214,1)="l"),"p2",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P214&lt;&gt;""),"e",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="U",'UNC - EIB'!$R$2="usd",TH!O214&lt;&gt;""),"e1",IF(AND(LEFT(C214,3)="EIB",D214='LC - EIB'!$S$2,LEFT(E214,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A215" s="55" t="str">
+        <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B215" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C215" s="62"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="65"/>
+      <c r="F215" s="64"/>
+      <c r="G215" s="64"/>
+      <c r="H215" s="64"/>
+      <c r="I215" s="65"/>
+      <c r="J215" s="66"/>
+      <c r="K215" s="67"/>
+      <c r="L215" s="65"/>
+      <c r="M215" s="65"/>
+      <c r="N215" s="64"/>
+      <c r="O215" s="68"/>
+      <c r="P215" s="69"/>
+      <c r="Q215" s="92"/>
+      <c r="R215" s="202" t="str">
+        <f>IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="vnđ",TH!P215&lt;&gt;""),"p",IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="usd",TH!O215&lt;&gt;""),"p1",IF(AND(C215="pv",D215='LC - PV'!$P$2,LEFT(E215,1)="l"),"p2",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P215&lt;&gt;""),"e",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="U",'UNC - EIB'!$R$2="usd",TH!O215&lt;&gt;""),"e1",IF(AND(LEFT(C215,3)="EIB",D215='LC - EIB'!$S$2,LEFT(E215,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A216" s="55" t="str">
+        <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B216" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C216" s="62"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="65"/>
+      <c r="F216" s="64"/>
+      <c r="G216" s="64"/>
+      <c r="H216" s="64"/>
+      <c r="I216" s="65"/>
+      <c r="J216" s="66"/>
+      <c r="K216" s="67"/>
+      <c r="L216" s="65"/>
+      <c r="M216" s="65"/>
+      <c r="N216" s="64"/>
+      <c r="O216" s="68"/>
+      <c r="P216" s="69"/>
+      <c r="Q216" s="92"/>
+      <c r="R216" s="202" t="str">
+        <f>IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="vnđ",TH!P216&lt;&gt;""),"p",IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="usd",TH!O216&lt;&gt;""),"p1",IF(AND(C216="pv",D216='LC - PV'!$P$2,LEFT(E216,1)="l"),"p2",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P216&lt;&gt;""),"e",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="U",'UNC - EIB'!$R$2="usd",TH!O216&lt;&gt;""),"e1",IF(AND(LEFT(C216,3)="EIB",D216='LC - EIB'!$S$2,LEFT(E216,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A217" s="55" t="str">
+        <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B217" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C217" s="62"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="64"/>
+      <c r="G217" s="64"/>
+      <c r="H217" s="64"/>
+      <c r="I217" s="65"/>
+      <c r="J217" s="66"/>
+      <c r="K217" s="67"/>
+      <c r="L217" s="65"/>
+      <c r="M217" s="65"/>
+      <c r="N217" s="64"/>
+      <c r="O217" s="68"/>
+      <c r="P217" s="69"/>
+      <c r="Q217" s="92"/>
+      <c r="R217" s="202" t="str">
+        <f>IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="vnđ",TH!P217&lt;&gt;""),"p",IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="usd",TH!O217&lt;&gt;""),"p1",IF(AND(C217="pv",D217='LC - PV'!$P$2,LEFT(E217,1)="l"),"p2",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P217&lt;&gt;""),"e",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="U",'UNC - EIB'!$R$2="usd",TH!O217&lt;&gt;""),"e1",IF(AND(LEFT(C217,3)="EIB",D217='LC - EIB'!$S$2,LEFT(E217,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A218" s="55" t="str">
+        <f>IF(AND(C218="pv",E218='UNC - PV'!$S$2,D218='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C218,3)="eib",E218='UNC - EIB'!$V$2,D218='UNC - EIB'!$T$2),"x1",IF(AND(C218="pv",E218='LC - PV'!$R$2,D218='LC - PV'!$P$2),"x2",IF(AND(LEFT(C218,3)="eib",E218='LC - EIB'!$U$2,D218='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B218" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C218" s="62"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="65"/>
+      <c r="F218" s="64"/>
+      <c r="G218" s="64"/>
+      <c r="H218" s="64"/>
+      <c r="I218" s="65"/>
+      <c r="J218" s="66"/>
+      <c r="K218" s="67"/>
+      <c r="L218" s="65"/>
+      <c r="M218" s="65"/>
+      <c r="N218" s="64"/>
+      <c r="O218" s="68"/>
+      <c r="P218" s="69"/>
+      <c r="Q218" s="92"/>
+      <c r="R218" s="202" t="str">
+        <f>IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="vnđ",TH!P218&lt;&gt;""),"p",IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="usd",TH!O218&lt;&gt;""),"p1",IF(AND(C218="pv",D218='LC - PV'!$P$2,LEFT(E218,1)="l"),"p2",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P218&lt;&gt;""),"e",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="U",'UNC - EIB'!$R$2="usd",TH!O218&lt;&gt;""),"e1",IF(AND(LEFT(C218,3)="EIB",D218='LC - EIB'!$S$2,LEFT(E218,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A219" s="55" t="str">
+        <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B219" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C219" s="62"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="65"/>
+      <c r="F219" s="64"/>
+      <c r="G219" s="64"/>
+      <c r="H219" s="64"/>
+      <c r="I219" s="65"/>
+      <c r="J219" s="66"/>
+      <c r="K219" s="67"/>
+      <c r="L219" s="65"/>
+      <c r="M219" s="65"/>
+      <c r="N219" s="64"/>
+      <c r="O219" s="68"/>
+      <c r="P219" s="69"/>
+      <c r="Q219" s="92"/>
+      <c r="R219" s="202" t="str">
+        <f>IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="vnđ",TH!P219&lt;&gt;""),"p",IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="usd",TH!O219&lt;&gt;""),"p1",IF(AND(C219="pv",D219='LC - PV'!$P$2,LEFT(E219,1)="l"),"p2",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P219&lt;&gt;""),"e",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="U",'UNC - EIB'!$R$2="usd",TH!O219&lt;&gt;""),"e1",IF(AND(LEFT(C219,3)="EIB",D219='LC - EIB'!$S$2,LEFT(E219,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A220" s="55" t="str">
+        <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B220" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C220" s="62"/>
+      <c r="D220" s="67"/>
+      <c r="E220" s="65"/>
+      <c r="F220" s="64"/>
+      <c r="G220" s="64"/>
+      <c r="H220" s="64"/>
+      <c r="I220" s="65"/>
+      <c r="J220" s="66"/>
+      <c r="K220" s="67"/>
+      <c r="L220" s="65"/>
+      <c r="M220" s="65"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="68"/>
+      <c r="P220" s="69"/>
+      <c r="Q220" s="92"/>
+      <c r="R220" s="202" t="str">
+        <f>IF(AND(C220="pv",D220='UNC - PV'!$Q$2,LEFT(E220,1)="u",'UNC - PV'!$O$2="vnđ",TH!P220&lt;&gt;""),"p",IF(AND(C220="pv",D220='UNC - PV'!$Q$2,LEFT(E220,1)="u",'UNC - PV'!$O$2="usd",TH!O220&lt;&gt;""),"p1",IF(AND(C220="pv",D220='LC - PV'!$P$2,LEFT(E220,1)="l"),"p2",IF(AND(LEFT(C220,3)="EIB",D220='UNC - EIB'!$T$2,LEFT(E220,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P220&lt;&gt;""),"e",IF(AND(LEFT(C220,3)="EIB",D220='UNC - EIB'!$T$2,LEFT(E220,1)="U",'UNC - EIB'!$R$2="usd",TH!O220&lt;&gt;""),"e1",IF(AND(LEFT(C220,3)="EIB",D220='LC - EIB'!$S$2,LEFT(E220,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A221" s="55" t="str">
+        <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B221" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C221" s="62"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="65"/>
+      <c r="F221" s="64"/>
+      <c r="G221" s="64"/>
+      <c r="H221" s="64"/>
+      <c r="I221" s="65"/>
+      <c r="J221" s="66"/>
+      <c r="K221" s="67"/>
+      <c r="L221" s="65"/>
+      <c r="M221" s="65"/>
+      <c r="N221" s="64"/>
+      <c r="O221" s="68"/>
+      <c r="P221" s="69"/>
+      <c r="Q221" s="92"/>
+      <c r="R221" s="202" t="str">
+        <f>IF(AND(C221="pv",D221='UNC - PV'!$Q$2,LEFT(E221,1)="u",'UNC - PV'!$O$2="vnđ",TH!P221&lt;&gt;""),"p",IF(AND(C221="pv",D221='UNC - PV'!$Q$2,LEFT(E221,1)="u",'UNC - PV'!$O$2="usd",TH!O221&lt;&gt;""),"p1",IF(AND(C221="pv",D221='LC - PV'!$P$2,LEFT(E221,1)="l"),"p2",IF(AND(LEFT(C221,3)="EIB",D221='UNC - EIB'!$T$2,LEFT(E221,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P221&lt;&gt;""),"e",IF(AND(LEFT(C221,3)="EIB",D221='UNC - EIB'!$T$2,LEFT(E221,1)="U",'UNC - EIB'!$R$2="usd",TH!O221&lt;&gt;""),"e1",IF(AND(LEFT(C221,3)="EIB",D221='LC - EIB'!$S$2,LEFT(E221,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A222" s="55" t="str">
+        <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B222" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C222" s="62"/>
+      <c r="D222" s="67"/>
+      <c r="E222" s="65"/>
+      <c r="F222" s="64"/>
+      <c r="G222" s="64"/>
+      <c r="H222" s="64"/>
+      <c r="I222" s="65"/>
+      <c r="J222" s="66"/>
+      <c r="K222" s="67"/>
+      <c r="L222" s="65"/>
+      <c r="M222" s="65"/>
+      <c r="N222" s="64"/>
+      <c r="O222" s="68"/>
+      <c r="P222" s="69"/>
+      <c r="Q222" s="92"/>
+      <c r="R222" s="202" t="str">
+        <f>IF(AND(C222="pv",D222='UNC - PV'!$Q$2,LEFT(E222,1)="u",'UNC - PV'!$O$2="vnđ",TH!P222&lt;&gt;""),"p",IF(AND(C222="pv",D222='UNC - PV'!$Q$2,LEFT(E222,1)="u",'UNC - PV'!$O$2="usd",TH!O222&lt;&gt;""),"p1",IF(AND(C222="pv",D222='LC - PV'!$P$2,LEFT(E222,1)="l"),"p2",IF(AND(LEFT(C222,3)="EIB",D222='UNC - EIB'!$T$2,LEFT(E222,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P222&lt;&gt;""),"e",IF(AND(LEFT(C222,3)="EIB",D222='UNC - EIB'!$T$2,LEFT(E222,1)="U",'UNC - EIB'!$R$2="usd",TH!O222&lt;&gt;""),"e1",IF(AND(LEFT(C222,3)="EIB",D222='LC - EIB'!$S$2,LEFT(E222,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A223" s="55" t="str">
+        <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B223" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C223" s="62"/>
+      <c r="D223" s="67"/>
+      <c r="E223" s="65"/>
+      <c r="F223" s="64"/>
+      <c r="G223" s="64"/>
+      <c r="H223" s="64"/>
+      <c r="I223" s="65"/>
+      <c r="J223" s="66"/>
+      <c r="K223" s="67"/>
+      <c r="L223" s="65"/>
+      <c r="M223" s="65"/>
+      <c r="N223" s="64"/>
+      <c r="O223" s="68"/>
+      <c r="P223" s="69"/>
+      <c r="Q223" s="92"/>
+      <c r="R223" s="202" t="str">
+        <f>IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="vnđ",TH!P223&lt;&gt;""),"p",IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="usd",TH!O223&lt;&gt;""),"p1",IF(AND(C223="pv",D223='LC - PV'!$P$2,LEFT(E223,1)="l"),"p2",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P223&lt;&gt;""),"e",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="U",'UNC - EIB'!$R$2="usd",TH!O223&lt;&gt;""),"e1",IF(AND(LEFT(C223,3)="EIB",D223='LC - EIB'!$S$2,LEFT(E223,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A224" s="55" t="str">
+        <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B224" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C224" s="62"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="65"/>
+      <c r="F224" s="64"/>
+      <c r="G224" s="64"/>
+      <c r="H224" s="64"/>
+      <c r="I224" s="65"/>
+      <c r="J224" s="66"/>
+      <c r="K224" s="67"/>
+      <c r="L224" s="65"/>
+      <c r="M224" s="65"/>
+      <c r="N224" s="64"/>
+      <c r="O224" s="68"/>
+      <c r="P224" s="69"/>
+      <c r="Q224" s="92"/>
+      <c r="R224" s="202" t="str">
+        <f>IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="vnđ",TH!P224&lt;&gt;""),"p",IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="usd",TH!O224&lt;&gt;""),"p1",IF(AND(C224="pv",D224='LC - PV'!$P$2,LEFT(E224,1)="l"),"p2",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P224&lt;&gt;""),"e",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="U",'UNC - EIB'!$R$2="usd",TH!O224&lt;&gt;""),"e1",IF(AND(LEFT(C224,3)="EIB",D224='LC - EIB'!$S$2,LEFT(E224,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A225" s="55" t="str">
+        <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B225" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C225" s="62"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="64"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="64"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="66"/>
+      <c r="K225" s="67"/>
+      <c r="L225" s="65"/>
+      <c r="M225" s="65"/>
+      <c r="N225" s="64"/>
+      <c r="O225" s="68"/>
+      <c r="P225" s="69"/>
+      <c r="Q225" s="92"/>
+      <c r="R225" s="202" t="str">
+        <f>IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="vnđ",TH!P225&lt;&gt;""),"p",IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="usd",TH!O225&lt;&gt;""),"p1",IF(AND(C225="pv",D225='LC - PV'!$P$2,LEFT(E225,1)="l"),"p2",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P225&lt;&gt;""),"e",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="U",'UNC - EIB'!$R$2="usd",TH!O225&lt;&gt;""),"e1",IF(AND(LEFT(C225,3)="EIB",D225='LC - EIB'!$S$2,LEFT(E225,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A226" s="55" t="str">
+        <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B226" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C226" s="62"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="64"/>
+      <c r="G226" s="64"/>
+      <c r="H226" s="64"/>
+      <c r="I226" s="65"/>
+      <c r="J226" s="66"/>
+      <c r="K226" s="67"/>
+      <c r="L226" s="65"/>
+      <c r="M226" s="65"/>
+      <c r="N226" s="64"/>
+      <c r="O226" s="68"/>
+      <c r="P226" s="69"/>
+      <c r="Q226" s="92"/>
+      <c r="R226" s="202" t="str">
+        <f>IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="vnđ",TH!P226&lt;&gt;""),"p",IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="usd",TH!O226&lt;&gt;""),"p1",IF(AND(C226="pv",D226='LC - PV'!$P$2,LEFT(E226,1)="l"),"p2",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P226&lt;&gt;""),"e",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="U",'UNC - EIB'!$R$2="usd",TH!O226&lt;&gt;""),"e1",IF(AND(LEFT(C226,3)="EIB",D226='LC - EIB'!$S$2,LEFT(E226,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X214"/>
+  <autoFilter ref="B3:X227"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14080,7 +14618,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C213">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C226">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14096,7 +14634,7 @@
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
@@ -14148,7 +14686,7 @@
         <v>27</v>
       </c>
       <c r="T2" s="10">
-        <v>42793</v>
+        <v>42808</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
@@ -14247,7 +14785,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>CTY CP GIẢI PHÁP THANH TOÁN ĐIỆN LỰC VÀ VIỄN THÔNG</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -14266,7 +14804,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>6801 0000 318 995</v>
+        <v>053 100 250 3669</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -14297,7 +14835,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>BIDV – CHI NHÁNH LONG AN</v>
+        <v>Vietcombank – CN Đông Sài Gòn</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -14327,7 +14865,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>LONG AN</v>
+        <v>TPHCM</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -14356,7 +14894,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn mươi lăm triệu, bốn trăm tám mươi bảy ngàn, chín trăm bảy mươi đồng.</v>
+        <v>Một trăm năm mươi triệu đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -14397,7 +14935,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>45487970</v>
+        <v>150000000</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -14412,7 +14950,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>MKH: PB06030022841- Tiền điện kỳ 3/T1 &amp; kỳ 1,2/T2 năm 2017</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>

--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="509">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2119,6 +2120,18 @@
   </si>
   <si>
     <t>Thanh toán tiền máy photocopy</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SÀI GÒN TRUNG TÍN</t>
+  </si>
+  <si>
+    <t>101 103 679</t>
+  </si>
+  <si>
+    <t>NH Á Châu - CN Lê Ngô Cát</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền nhiệt kế tự ghi</t>
   </si>
 </sst>
 </file>
@@ -3716,6 +3729,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="uniBase"/>
+      <sheetName val="vniBase"/>
+      <sheetName val="abcBase"/>
+      <sheetName val="Ufunctions"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="VND"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4003,16 +4038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G192" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P209" sqref="P209"/>
+      <selection pane="bottomRight" activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4168,7 +4203,7 @@
       <c r="Q3" s="234"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4217,7 +4252,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4266,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4315,7 +4350,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4364,7 +4399,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4413,7 +4448,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4462,7 +4497,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4511,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4609,7 +4644,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4658,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4707,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4756,7 +4791,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4854,7 +4889,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4903,7 +4938,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4952,7 +4987,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5001,7 +5036,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5100,7 +5135,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5149,7 +5184,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5198,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5247,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5296,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5345,7 +5380,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5688,7 +5723,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5786,7 +5821,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5835,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5884,7 +5919,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5933,7 +5968,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5982,7 +6017,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A41" s="55" t="str">
         <f>IF(AND(C41="pv",E41='UNC - PV'!$S$2,D41='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C41,3)="eib",E41='UNC - EIB'!$V$2,D41='UNC - EIB'!$T$2),"x1",IF(AND(C41="pv",E41='LC - PV'!$R$2,D41='LC - PV'!$P$2),"x2",IF(AND(LEFT(C41,3)="eib",E41='LC - EIB'!$U$2,D41='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6031,7 +6066,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A42" s="55" t="str">
         <f>IF(AND(C42="pv",E42='UNC - PV'!$S$2,D42='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C42,3)="eib",E42='UNC - EIB'!$V$2,D42='UNC - EIB'!$T$2),"x1",IF(AND(C42="pv",E42='LC - PV'!$R$2,D42='LC - PV'!$P$2),"x2",IF(AND(LEFT(C42,3)="eib",E42='LC - EIB'!$U$2,D42='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6080,7 +6115,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6129,7 +6164,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6178,7 +6213,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6325,7 +6360,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6423,7 +6458,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6472,7 +6507,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6521,7 +6556,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6570,7 +6605,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6619,7 +6654,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6668,7 +6703,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6766,7 +6801,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6815,7 +6850,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6864,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A59" s="55" t="str">
         <f>IF(AND(C59="pv",E59='UNC - PV'!$S$2,D59='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C59,3)="eib",E59='UNC - EIB'!$V$2,D59='UNC - EIB'!$T$2),"x1",IF(AND(C59="pv",E59='LC - PV'!$R$2,D59='LC - PV'!$P$2),"x2",IF(AND(LEFT(C59,3)="eib",E59='LC - EIB'!$U$2,D59='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6913,7 +6948,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6962,7 +6997,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7061,7 +7096,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7110,7 +7145,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7159,7 +7194,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="18.75" customHeight="1">
+    <row r="65" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7208,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
+    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7258,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
+    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7308,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="18.75" customHeight="1">
+    <row r="68" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7357,7 +7392,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18.75" customHeight="1">
+    <row r="69" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7406,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="18.75" customHeight="1">
+    <row r="70" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7455,7 +7490,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18.75" customHeight="1">
+    <row r="71" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7847,7 +7882,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75" customHeight="1">
+    <row r="79" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7945,7 +7980,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18.75" customHeight="1">
+    <row r="81" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7994,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18.75" customHeight="1">
+    <row r="82" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8043,7 +8078,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18.75" customHeight="1">
+    <row r="83" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8092,7 +8127,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75" customHeight="1">
+    <row r="84" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8141,7 +8176,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="18.75" customHeight="1">
+    <row r="85" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8239,7 +8274,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="18.75" customHeight="1">
+    <row r="87" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8288,7 +8323,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="18.75" customHeight="1">
+    <row r="88" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8337,7 +8372,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75" customHeight="1">
+    <row r="89" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8386,7 +8421,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75" customHeight="1">
+    <row r="90" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8435,7 +8470,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75" customHeight="1">
+    <row r="91" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8534,7 +8569,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18.75" customHeight="1">
+    <row r="93" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8583,7 +8618,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="18.75" customHeight="1">
+    <row r="94" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8632,7 +8667,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="18.75" customHeight="1">
+    <row r="95" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A95" s="55" t="str">
         <f>IF(AND(C95="pv",E95='UNC - PV'!$S$2,D95='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C95,3)="eib",E95='UNC - EIB'!$V$2,D95='UNC - EIB'!$T$2),"x1",IF(AND(C95="pv",E95='LC - PV'!$R$2,D95='LC - PV'!$P$2),"x2",IF(AND(LEFT(C95,3)="eib",E95='LC - EIB'!$U$2,D95='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8681,7 +8716,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="18.75" customHeight="1">
+    <row r="96" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A96" s="55" t="str">
         <f>IF(AND(C96="pv",E96='UNC - PV'!$S$2,D96='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C96,3)="eib",E96='UNC - EIB'!$V$2,D96='UNC - EIB'!$T$2),"x1",IF(AND(C96="pv",E96='LC - PV'!$R$2,D96='LC - PV'!$P$2),"x2",IF(AND(LEFT(C96,3)="eib",E96='LC - EIB'!$U$2,D96='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8731,7 +8766,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="18.75" customHeight="1">
+    <row r="97" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A97" s="55" t="str">
         <f>IF(AND(C97="pv",E97='UNC - PV'!$S$2,D97='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C97,3)="eib",E97='UNC - EIB'!$V$2,D97='UNC - EIB'!$T$2),"x1",IF(AND(C97="pv",E97='LC - PV'!$R$2,D97='LC - PV'!$P$2),"x2",IF(AND(LEFT(C97,3)="eib",E97='LC - EIB'!$U$2,D97='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8878,7 +8913,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="18.75" customHeight="1">
+    <row r="100" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8927,7 +8962,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="18.75" customHeight="1">
+    <row r="101" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A101" s="55" t="str">
         <f>IF(AND(C101="pv",E101='UNC - PV'!$S$2,D101='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C101,3)="eib",E101='UNC - EIB'!$V$2,D101='UNC - EIB'!$T$2),"x1",IF(AND(C101="pv",E101='LC - PV'!$R$2,D101='LC - PV'!$P$2),"x2",IF(AND(LEFT(C101,3)="eib",E101='LC - EIB'!$U$2,D101='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8976,7 +9011,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="18.75" customHeight="1">
+    <row r="102" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A102" s="55" t="str">
         <f>IF(AND(C102="pv",E102='UNC - PV'!$S$2,D102='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C102,3)="eib",E102='UNC - EIB'!$V$2,D102='UNC - EIB'!$T$2),"x1",IF(AND(C102="pv",E102='LC - PV'!$R$2,D102='LC - PV'!$P$2),"x2",IF(AND(LEFT(C102,3)="eib",E102='LC - EIB'!$U$2,D102='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9025,7 +9060,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="18.75" customHeight="1">
+    <row r="103" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9074,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="18.75" customHeight="1">
+    <row r="104" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A104" s="55" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9123,7 +9158,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="18.75" customHeight="1">
+    <row r="105" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9221,7 +9256,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="18.75" customHeight="1">
+    <row r="107" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A107" s="55" t="str">
         <f>IF(AND(C107="pv",E107='UNC - PV'!$S$2,D107='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C107,3)="eib",E107='UNC - EIB'!$V$2,D107='UNC - EIB'!$T$2),"x1",IF(AND(C107="pv",E107='LC - PV'!$R$2,D107='LC - PV'!$P$2),"x2",IF(AND(LEFT(C107,3)="eib",E107='LC - EIB'!$U$2,D107='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9270,7 +9305,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="18.75" customHeight="1">
+    <row r="108" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9319,7 +9354,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="18.75" customHeight="1">
+    <row r="109" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A109" s="55" t="str">
         <f>IF(AND(C109="pv",E109='UNC - PV'!$S$2,D109='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C109,3)="eib",E109='UNC - EIB'!$V$2,D109='UNC - EIB'!$T$2),"x1",IF(AND(C109="pv",E109='LC - PV'!$R$2,D109='LC - PV'!$P$2),"x2",IF(AND(LEFT(C109,3)="eib",E109='LC - EIB'!$U$2,D109='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9368,7 +9403,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="18.75" customHeight="1">
+    <row r="110" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A110" s="55" t="str">
         <f>IF(AND(C110="pv",E110='UNC - PV'!$S$2,D110='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C110,3)="eib",E110='UNC - EIB'!$V$2,D110='UNC - EIB'!$T$2),"x1",IF(AND(C110="pv",E110='LC - PV'!$R$2,D110='LC - PV'!$P$2),"x2",IF(AND(LEFT(C110,3)="eib",E110='LC - EIB'!$U$2,D110='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9417,7 +9452,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="18.75" customHeight="1">
+    <row r="111" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A111" s="55" t="str">
         <f>IF(AND(C111="pv",E111='UNC - PV'!$S$2,D111='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C111,3)="eib",E111='UNC - EIB'!$V$2,D111='UNC - EIB'!$T$2),"x1",IF(AND(C111="pv",E111='LC - PV'!$R$2,D111='LC - PV'!$P$2),"x2",IF(AND(LEFT(C111,3)="eib",E111='LC - EIB'!$U$2,D111='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9466,7 +9501,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="18.75" customHeight="1">
+    <row r="112" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A112" s="55" t="str">
         <f>IF(AND(C112="pv",E112='UNC - PV'!$S$2,D112='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C112,3)="eib",E112='UNC - EIB'!$V$2,D112='UNC - EIB'!$T$2),"x1",IF(AND(C112="pv",E112='LC - PV'!$R$2,D112='LC - PV'!$P$2),"x2",IF(AND(LEFT(C112,3)="eib",E112='LC - EIB'!$U$2,D112='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9515,7 +9550,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="18.75" customHeight="1">
+    <row r="113" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9564,7 +9599,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="18.75" customHeight="1">
+    <row r="114" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9613,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="18.75" customHeight="1">
+    <row r="115" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9662,7 +9697,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="18.75" customHeight="1">
+    <row r="116" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9711,7 +9746,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="18.75" customHeight="1">
+    <row r="117" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A117" s="55" t="str">
         <f>IF(AND(C117="pv",E117='UNC - PV'!$S$2,D117='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C117,3)="eib",E117='UNC - EIB'!$V$2,D117='UNC - EIB'!$T$2),"x1",IF(AND(C117="pv",E117='LC - PV'!$R$2,D117='LC - PV'!$P$2),"x2",IF(AND(LEFT(C117,3)="eib",E117='LC - EIB'!$U$2,D117='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9760,7 +9795,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="18.75" customHeight="1">
+    <row r="118" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A118" s="55" t="str">
         <f>IF(AND(C118="pv",E118='UNC - PV'!$S$2,D118='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C118,3)="eib",E118='UNC - EIB'!$V$2,D118='UNC - EIB'!$T$2),"x1",IF(AND(C118="pv",E118='LC - PV'!$R$2,D118='LC - PV'!$P$2),"x2",IF(AND(LEFT(C118,3)="eib",E118='LC - EIB'!$U$2,D118='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9809,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="18.75" customHeight="1">
+    <row r="119" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A119" s="55" t="str">
         <f>IF(AND(C119="pv",E119='UNC - PV'!$S$2,D119='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C119,3)="eib",E119='UNC - EIB'!$V$2,D119='UNC - EIB'!$T$2),"x1",IF(AND(C119="pv",E119='LC - PV'!$R$2,D119='LC - PV'!$P$2),"x2",IF(AND(LEFT(C119,3)="eib",E119='LC - EIB'!$U$2,D119='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9858,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="18.75" customHeight="1">
+    <row r="120" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A120" s="55" t="str">
         <f>IF(AND(C120="pv",E120='UNC - PV'!$S$2,D120='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C120,3)="eib",E120='UNC - EIB'!$V$2,D120='UNC - EIB'!$T$2),"x1",IF(AND(C120="pv",E120='LC - PV'!$R$2,D120='LC - PV'!$P$2),"x2",IF(AND(LEFT(C120,3)="eib",E120='LC - EIB'!$U$2,D120='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9957,7 +9992,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="18.75" customHeight="1">
+    <row r="122" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A122" s="55" t="str">
         <f>IF(AND(C122="pv",E122='UNC - PV'!$S$2,D122='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C122,3)="eib",E122='UNC - EIB'!$V$2,D122='UNC - EIB'!$T$2),"x1",IF(AND(C122="pv",E122='LC - PV'!$R$2,D122='LC - PV'!$P$2),"x2",IF(AND(LEFT(C122,3)="eib",E122='LC - EIB'!$U$2,D122='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10004,7 +10039,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="18.75" customHeight="1">
+    <row r="123" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A123" s="55" t="str">
         <f>IF(AND(C123="pv",E123='UNC - PV'!$S$2,D123='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C123,3)="eib",E123='UNC - EIB'!$V$2,D123='UNC - EIB'!$T$2),"x1",IF(AND(C123="pv",E123='LC - PV'!$R$2,D123='LC - PV'!$P$2),"x2",IF(AND(LEFT(C123,3)="eib",E123='LC - EIB'!$U$2,D123='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10051,7 +10086,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="18.75" customHeight="1">
+    <row r="124" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A124" s="55" t="str">
         <f>IF(AND(C124="pv",E124='UNC - PV'!$S$2,D124='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C124,3)="eib",E124='UNC - EIB'!$V$2,D124='UNC - EIB'!$T$2),"x1",IF(AND(C124="pv",E124='LC - PV'!$R$2,D124='LC - PV'!$P$2),"x2",IF(AND(LEFT(C124,3)="eib",E124='LC - EIB'!$U$2,D124='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10098,7 +10133,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="18.75" customHeight="1">
+    <row r="125" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10145,7 +10180,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="18.75" customHeight="1">
+    <row r="126" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10192,7 +10227,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="18.75" customHeight="1">
+    <row r="127" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A127" s="55" t="str">
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10333,7 +10368,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="18.75" customHeight="1">
+    <row r="130" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A130" s="55" t="str">
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10380,7 +10415,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="18.75" customHeight="1">
+    <row r="131" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10427,7 +10462,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="18.75" customHeight="1">
+    <row r="132" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10474,7 +10509,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="18.75" customHeight="1">
+    <row r="133" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10521,7 +10556,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="18.75" customHeight="1">
+    <row r="134" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10568,7 +10603,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="18.75" customHeight="1">
+    <row r="135" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10662,7 +10697,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="18.75" customHeight="1">
+    <row r="137" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10709,7 +10744,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="18.75" customHeight="1">
+    <row r="138" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10756,7 +10791,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="18.75" customHeight="1">
+    <row r="139" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10803,7 +10838,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="18.75" customHeight="1">
+    <row r="140" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10850,7 +10885,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="18.75" customHeight="1">
+    <row r="141" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10897,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="18.75" customHeight="1">
+    <row r="142" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A142" s="55" t="str">
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10944,7 +10979,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="18.75" customHeight="1">
+    <row r="143" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A143" s="55" t="str">
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10991,7 +11026,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="18.75" customHeight="1">
+    <row r="144" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A144" s="55" t="str">
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11038,7 +11073,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="18.75" customHeight="1">
+    <row r="145" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A145" s="55" t="str">
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11085,7 +11120,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="18.75" customHeight="1">
+    <row r="146" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11132,7 +11167,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="18.75" customHeight="1">
+    <row r="147" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A147" s="55" t="str">
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11179,7 +11214,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="18.75" customHeight="1">
+    <row r="148" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11226,7 +11261,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="18.75" customHeight="1">
+    <row r="149" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A149" s="55" t="str">
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11273,7 +11308,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="18.75" customHeight="1">
+    <row r="150" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11320,7 +11355,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="18.75" customHeight="1">
+    <row r="151" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A151" s="55" t="str">
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11414,7 +11449,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="18.75" customHeight="1">
+    <row r="153" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A153" s="55" t="str">
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11461,7 +11496,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="18.75" customHeight="1">
+    <row r="154" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11650,7 +11685,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="18.75" customHeight="1">
+    <row r="158" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A158" s="55" t="str">
         <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11697,7 +11732,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="18.75" customHeight="1">
+    <row r="159" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A159" s="55" t="str">
         <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11744,7 +11779,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="18.75" customHeight="1">
+    <row r="160" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A160" s="55" t="str">
         <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11838,7 +11873,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="18.75" customHeight="1">
+    <row r="162" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A162" s="55" t="str">
         <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11885,7 +11920,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="18.75" customHeight="1">
+    <row r="163" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A163" s="55" t="str">
         <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11932,7 +11967,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="18.75" customHeight="1">
+    <row r="164" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A164" s="55" t="str">
         <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11979,7 +12014,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="18.75" customHeight="1">
+    <row r="165" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A165" s="55" t="str">
         <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12026,7 +12061,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="18.75" customHeight="1">
+    <row r="166" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A166" s="55" t="str">
         <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12073,7 +12108,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="18.75" customHeight="1">
+    <row r="167" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A167" s="55" t="str">
         <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12120,7 +12155,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="18.75" customHeight="1">
+    <row r="168" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A168" s="55" t="str">
         <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12167,7 +12202,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="18.75" customHeight="1">
+    <row r="169" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A169" s="55" t="str">
         <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12215,7 +12250,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="18.75" customHeight="1">
+    <row r="170" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A170" s="55" t="str">
         <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12262,7 +12297,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="18.75" customHeight="1">
+    <row r="171" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A171" s="55" t="str">
         <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12450,7 +12485,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="18.75" customHeight="1">
+    <row r="175" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12497,7 +12532,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="18.75" customHeight="1">
+    <row r="176" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A176" s="55" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12544,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="18.75" customHeight="1">
+    <row r="177" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A177" s="55" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12591,7 +12626,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="18.75" customHeight="1">
+    <row r="178" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A178" s="55" t="str">
         <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12638,7 +12673,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="18.75" customHeight="1">
+    <row r="179" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12685,7 +12720,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="18.75" customHeight="1">
+    <row r="180" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A180" s="55" t="str">
         <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12732,7 +12767,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="18.75" customHeight="1">
+    <row r="181" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A181" s="55" t="str">
         <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12779,7 +12814,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="18.75" customHeight="1">
+    <row r="182" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A182" s="55" t="str">
         <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13061,7 +13096,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="18.75" customHeight="1">
+    <row r="188" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A188" s="55" t="str">
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13108,7 +13143,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="18.75" customHeight="1">
+    <row r="189" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A189" s="55" t="str">
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13155,7 +13190,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="18.75" customHeight="1">
+    <row r="190" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A190" s="55" t="str">
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13202,7 +13237,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="18.75" customHeight="1">
+    <row r="191" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A191" s="55" t="str">
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13249,7 +13284,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="18.75" customHeight="1">
+    <row r="192" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A192" s="55" t="str">
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13296,7 +13331,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="18.75" customHeight="1">
+    <row r="193" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A193" s="55" t="str">
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13437,7 +13472,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="18.75" customHeight="1">
+    <row r="196" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A196" s="55" t="str">
         <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13484,7 +13519,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="18.75" customHeight="1">
+    <row r="197" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13531,10 +13566,10 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="18.75" customHeight="1">
+    <row r="198" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B198" s="62">
         <f t="shared" si="14"/>
@@ -13575,10 +13610,10 @@
       <c r="Q198" s="92"/>
       <c r="R198" s="202" t="str">
         <f>IF(AND(C198="pv",D198='UNC - PV'!$Q$2,LEFT(E198,1)="u",'UNC - PV'!$O$2="vnđ",TH!P198&lt;&gt;""),"p",IF(AND(C198="pv",D198='UNC - PV'!$Q$2,LEFT(E198,1)="u",'UNC - PV'!$O$2="usd",TH!O198&lt;&gt;""),"p1",IF(AND(C198="pv",D198='LC - PV'!$P$2,LEFT(E198,1)="l"),"p2",IF(AND(LEFT(C198,3)="EIB",D198='UNC - EIB'!$T$2,LEFT(E198,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P198&lt;&gt;""),"e",IF(AND(LEFT(C198,3)="EIB",D198='UNC - EIB'!$T$2,LEFT(E198,1)="U",'UNC - EIB'!$R$2="usd",TH!O198&lt;&gt;""),"e1",IF(AND(LEFT(C198,3)="EIB",D198='LC - EIB'!$S$2,LEFT(E198,1)="l"),"e2",""))))))</f>
-        <v>p1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A199" s="55" t="str">
         <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13625,7 +13660,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="18.75" customHeight="1">
+    <row r="200" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A200" s="55" t="str">
         <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13719,7 +13754,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="18.75" customHeight="1">
+    <row r="202" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13767,7 +13802,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="18.75" customHeight="1">
+    <row r="203" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A203" s="55" t="str">
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13814,7 +13849,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="18.75" customHeight="1">
+    <row r="204" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A204" s="55" t="str">
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13861,7 +13896,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="18.75" customHeight="1">
+    <row r="205" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A205" s="55" t="str">
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13905,10 +13940,10 @@
       <c r="Q205" s="92"/>
       <c r="R205" s="202" t="str">
         <f>IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="vnđ",TH!P205&lt;&gt;""),"p",IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="usd",TH!O205&lt;&gt;""),"p1",IF(AND(C205="pv",D205='LC - PV'!$P$2,LEFT(E205,1)="l"),"p2",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P205&lt;&gt;""),"e",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="U",'UNC - EIB'!$R$2="usd",TH!O205&lt;&gt;""),"e1",IF(AND(LEFT(C205,3)="EIB",D205='LC - EIB'!$S$2,LEFT(E205,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A206" s="55" t="str">
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13952,10 +13987,10 @@
       <c r="Q206" s="92"/>
       <c r="R206" s="202" t="str">
         <f>IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="vnđ",TH!P206&lt;&gt;""),"p",IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="usd",TH!O206&lt;&gt;""),"p1",IF(AND(C206="pv",D206='LC - PV'!$P$2,LEFT(E206,1)="l"),"p2",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P206&lt;&gt;""),"e",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="U",'UNC - EIB'!$R$2="usd",TH!O206&lt;&gt;""),"e1",IF(AND(LEFT(C206,3)="EIB",D206='LC - EIB'!$S$2,LEFT(E206,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A207" s="55" t="str">
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13999,10 +14034,10 @@
       <c r="Q207" s="92"/>
       <c r="R207" s="202" t="str">
         <f>IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="vnđ",TH!P207&lt;&gt;""),"p",IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="usd",TH!O207&lt;&gt;""),"p1",IF(AND(C207="pv",D207='LC - PV'!$P$2,LEFT(E207,1)="l"),"p2",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P207&lt;&gt;""),"e",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="U",'UNC - EIB'!$R$2="usd",TH!O207&lt;&gt;""),"e1",IF(AND(LEFT(C207,3)="EIB",D207='LC - EIB'!$S$2,LEFT(E207,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A208" s="55" t="str">
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14046,13 +14081,13 @@
       <c r="Q208" s="92"/>
       <c r="R208" s="202" t="str">
         <f>IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="vnđ",TH!P208&lt;&gt;""),"p",IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="usd",TH!O208&lt;&gt;""),"p1",IF(AND(C208="pv",D208='LC - PV'!$P$2,LEFT(E208,1)="l"),"p2",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P208&lt;&gt;""),"e",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="U",'UNC - EIB'!$R$2="usd",TH!O208&lt;&gt;""),"e1",IF(AND(LEFT(C208,3)="EIB",D208='LC - EIB'!$S$2,LEFT(E208,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B209" s="62">
         <f t="shared" si="14"/>
@@ -14093,10 +14128,10 @@
       <c r="Q209" s="92"/>
       <c r="R209" s="202" t="str">
         <f>IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="vnđ",TH!P209&lt;&gt;""),"p",IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="usd",TH!O209&lt;&gt;""),"p1",IF(AND(C209="pv",D209='LC - PV'!$P$2,LEFT(E209,1)="l"),"p2",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P209&lt;&gt;""),"e",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="U",'UNC - EIB'!$R$2="usd",TH!O209&lt;&gt;""),"e1",IF(AND(LEFT(C209,3)="EIB",D209='LC - EIB'!$S$2,LEFT(E209,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A210" s="55" t="str">
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14140,36 +14175,54 @@
       <c r="Q210" s="92"/>
       <c r="R210" s="202" t="str">
         <f>IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="vnđ",TH!P210&lt;&gt;""),"p",IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="usd",TH!O210&lt;&gt;""),"p1",IF(AND(C210="pv",D210='LC - PV'!$P$2,LEFT(E210,1)="l"),"p2",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P210&lt;&gt;""),"e",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="U",'UNC - EIB'!$R$2="usd",TH!O210&lt;&gt;""),"e1",IF(AND(LEFT(C210,3)="EIB",D210='LC - EIB'!$S$2,LEFT(E210,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A211" s="55" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B211" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B211" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C211" s="62"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="64"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="64"/>
-      <c r="I211" s="65"/>
+        <v>208</v>
+      </c>
+      <c r="C211" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D211" s="67">
+        <v>42815</v>
+      </c>
+      <c r="E211" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="G211" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H211" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="I211" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J211" s="66"/>
       <c r="K211" s="67"/>
       <c r="L211" s="65"/>
       <c r="M211" s="65"/>
-      <c r="N211" s="64"/>
+      <c r="N211" s="64" t="s">
+        <v>187</v>
+      </c>
       <c r="O211" s="68"/>
-      <c r="P211" s="69"/>
+      <c r="P211" s="69">
+        <v>29375000</v>
+      </c>
       <c r="Q211" s="92"/>
       <c r="R211" s="202" t="str">
         <f>IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="vnđ",TH!P211&lt;&gt;""),"p",IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="usd",TH!O211&lt;&gt;""),"p1",IF(AND(C211="pv",D211='LC - PV'!$P$2,LEFT(E211,1)="l"),"p2",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P211&lt;&gt;""),"e",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="U",'UNC - EIB'!$R$2="usd",TH!O211&lt;&gt;""),"e1",IF(AND(LEFT(C211,3)="EIB",D211='LC - EIB'!$S$2,LEFT(E211,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="18.75" customHeight="1">
@@ -14177,24 +14230,42 @@
         <f>IF(AND(C212="pv",E212='UNC - PV'!$S$2,D212='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C212,3)="eib",E212='UNC - EIB'!$V$2,D212='UNC - EIB'!$T$2),"x1",IF(AND(C212="pv",E212='LC - PV'!$R$2,D212='LC - PV'!$P$2),"x2",IF(AND(LEFT(C212,3)="eib",E212='LC - EIB'!$U$2,D212='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B212" s="62" t="str">
+      <c r="B212" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C212" s="62"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="65"/>
+        <v>209</v>
+      </c>
+      <c r="C212" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D212" s="67">
+        <v>42815</v>
+      </c>
+      <c r="E212" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="H212" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="I212" s="99" t="s">
+        <v>156</v>
+      </c>
       <c r="J212" s="66"/>
       <c r="K212" s="67"/>
       <c r="L212" s="65"/>
       <c r="M212" s="65"/>
-      <c r="N212" s="64"/>
+      <c r="N212" s="64" t="s">
+        <v>354</v>
+      </c>
       <c r="O212" s="68"/>
-      <c r="P212" s="69"/>
+      <c r="P212" s="69">
+        <v>51000000</v>
+      </c>
       <c r="Q212" s="92"/>
       <c r="R212" s="202" t="str">
         <f>IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="vnđ",TH!P212&lt;&gt;""),"p",IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="usd",TH!O212&lt;&gt;""),"p1",IF(AND(C212="pv",D212='LC - PV'!$P$2,LEFT(E212,1)="l"),"p2",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P212&lt;&gt;""),"e",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="U",'UNC - EIB'!$R$2="usd",TH!O212&lt;&gt;""),"e1",IF(AND(LEFT(C212,3)="EIB",D212='LC - EIB'!$S$2,LEFT(E212,1)="l"),"e2",""))))))</f>
@@ -14206,89 +14277,142 @@
         <f>IF(AND(C213="pv",E213='UNC - PV'!$S$2,D213='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C213,3)="eib",E213='UNC - EIB'!$V$2,D213='UNC - EIB'!$T$2),"x1",IF(AND(C213="pv",E213='LC - PV'!$R$2,D213='LC - PV'!$P$2),"x2",IF(AND(LEFT(C213,3)="eib",E213='LC - EIB'!$U$2,D213='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B213" s="62" t="str">
+      <c r="B213" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C213" s="62"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="65"/>
+        <v>210</v>
+      </c>
+      <c r="C213" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" s="67">
+        <v>42815</v>
+      </c>
+      <c r="E213" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G213" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="H213" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="I213" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J213" s="66"/>
       <c r="K213" s="67"/>
       <c r="L213" s="65"/>
       <c r="M213" s="65"/>
-      <c r="N213" s="64"/>
+      <c r="N213" s="64" t="s">
+        <v>508</v>
+      </c>
       <c r="O213" s="68"/>
-      <c r="P213" s="69"/>
+      <c r="P213" s="69">
+        <v>27115000</v>
+      </c>
       <c r="Q213" s="92"/>
       <c r="R213" s="202" t="str">
         <f>IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="vnđ",TH!P213&lt;&gt;""),"p",IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="usd",TH!O213&lt;&gt;""),"p1",IF(AND(C213="pv",D213='LC - PV'!$P$2,LEFT(E213,1)="l"),"p2",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P213&lt;&gt;""),"e",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="U",'UNC - EIB'!$R$2="usd",TH!O213&lt;&gt;""),"e1",IF(AND(LEFT(C213,3)="EIB",D213='LC - EIB'!$S$2,LEFT(E213,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="18.75" customHeight="1">
+    <row r="214" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A214" s="55" t="str">
         <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B214" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C214" s="62"/>
-      <c r="D214" s="67"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="65"/>
+      <c r="B214" s="62">
+        <v>211</v>
+      </c>
+      <c r="C214" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D214" s="67">
+        <v>42816</v>
+      </c>
+      <c r="E214" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="F214" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G214" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H214" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I214" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J214" s="66"/>
       <c r="K214" s="67"/>
       <c r="L214" s="65"/>
       <c r="M214" s="65"/>
-      <c r="N214" s="64"/>
+      <c r="N214" s="64" t="s">
+        <v>131</v>
+      </c>
       <c r="O214" s="68"/>
-      <c r="P214" s="69"/>
+      <c r="P214" s="69">
+        <v>15000000</v>
+      </c>
       <c r="Q214" s="92"/>
       <c r="R214" s="202" t="str">
         <f>IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="vnđ",TH!P214&lt;&gt;""),"p",IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="usd",TH!O214&lt;&gt;""),"p1",IF(AND(C214="pv",D214='LC - PV'!$P$2,LEFT(E214,1)="l"),"p2",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P214&lt;&gt;""),"e",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="U",'UNC - EIB'!$R$2="usd",TH!O214&lt;&gt;""),"e1",IF(AND(LEFT(C214,3)="EIB",D214='LC - EIB'!$S$2,LEFT(E214,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="18.75" customHeight="1">
+    <row r="215" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A215" s="55" t="str">
         <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B215" s="62" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B215" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C215" s="62"/>
-      <c r="D215" s="67"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-      <c r="I215" s="65"/>
+        <v>212</v>
+      </c>
+      <c r="C215" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D215" s="67">
+        <v>42821</v>
+      </c>
+      <c r="E215" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G215" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H215" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I215" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J215" s="66"/>
       <c r="K215" s="67"/>
       <c r="L215" s="65"/>
       <c r="M215" s="65"/>
-      <c r="N215" s="64"/>
+      <c r="N215" s="64" t="s">
+        <v>131</v>
+      </c>
       <c r="O215" s="68"/>
-      <c r="P215" s="69"/>
+      <c r="P215" s="69">
+        <v>270000000</v>
+      </c>
       <c r="Q215" s="92"/>
       <c r="R215" s="202" t="str">
         <f>IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="vnđ",TH!P215&lt;&gt;""),"p",IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="usd",TH!O215&lt;&gt;""),"p1",IF(AND(C215="pv",D215='LC - PV'!$P$2,LEFT(E215,1)="l"),"p2",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P215&lt;&gt;""),"e",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="U",'UNC - EIB'!$R$2="usd",TH!O215&lt;&gt;""),"e1",IF(AND(LEFT(C215,3)="EIB",D215='LC - EIB'!$S$2,LEFT(E215,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="18.75" customHeight="1">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A216" s="55" t="str">
         <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14317,7 +14441,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="18.75" customHeight="1">
+    <row r="217" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A217" s="55" t="str">
         <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14346,7 +14470,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="18.75" customHeight="1">
+    <row r="218" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A218" s="55" t="str">
         <f>IF(AND(C218="pv",E218='UNC - PV'!$S$2,D218='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C218,3)="eib",E218='UNC - EIB'!$V$2,D218='UNC - EIB'!$T$2),"x1",IF(AND(C218="pv",E218='LC - PV'!$R$2,D218='LC - PV'!$P$2),"x2",IF(AND(LEFT(C218,3)="eib",E218='LC - EIB'!$U$2,D218='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14375,7 +14499,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="18.75" customHeight="1">
+    <row r="219" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A219" s="55" t="str">
         <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14404,7 +14528,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="18.75" customHeight="1">
+    <row r="220" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A220" s="55" t="str">
         <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14433,7 +14557,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="18.75" customHeight="1">
+    <row r="221" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A221" s="55" t="str">
         <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14462,7 +14586,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="18.75" customHeight="1">
+    <row r="222" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14491,7 +14615,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="18.75" customHeight="1">
+    <row r="223" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14520,7 +14644,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="18.75" customHeight="1">
+    <row r="224" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A224" s="55" t="str">
         <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14549,7 +14673,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="18.75" customHeight="1">
+    <row r="225" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A225" s="55" t="str">
         <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14578,7 +14702,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="18.75" customHeight="1">
+    <row r="226" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A226" s="55" t="str">
         <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14607,8 +14731,15 @@
         <v/>
       </c>
     </row>
+    <row r="227" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X227"/>
+  <autoFilter ref="B3:X227">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EIB-TV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14634,7 +14765,7 @@
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
@@ -14686,11 +14817,11 @@
         <v>27</v>
       </c>
       <c r="T2" s="10">
-        <v>42808</v>
+        <v>42821</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -14785,7 +14916,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -14804,7 +14935,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>053 100 250 3669</v>
+        <v>1402 148 5100 7445</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -14835,7 +14966,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn</v>
+        <v>Eximbank - CN Q4</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -14894,7 +15025,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Một trăm năm mươi triệu đồng.</v>
+        <v>Hai trăm bảy mươi triệu đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -14935,7 +15066,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>150000000</v>
+        <v>270000000</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -14950,7 +15081,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Ứng vốn</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -15088,7 +15219,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15118,16 +15249,16 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p1</v>
+        <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="10">
-        <v>42793</v>
+        <v>42815</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -15141,8 +15272,8 @@
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
-        <f>IF($O$2="USD"," 3    7    0    0    0   0    0    0    6    0    7    2"," 0    0    0    0    0   0   0    0   6   0    7    2")</f>
-        <v xml:space="preserve"> 3    7    0    0    0   0    0    0    6    0    7    2</v>
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0   0   2    6    8    6    1    5")</f>
+        <v xml:space="preserve"> 1    0    7    0    0   0   2    6    8    6    1    5</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -15151,25 +15282,25 @@
     <row r="8" spans="1:19" ht="21" customHeight="1">
       <c r="F8" s="242">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>450000</v>
+        <v>29375000</v>
       </c>
       <c r="G8" s="242"/>
       <c r="K8" s="7" t="str">
         <f>IF(O2="vnđ","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="L8" s="7" t="str">
         <f>IF(O2="usd","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
-      <c r="F9" s="7" t="str">
-        <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn trăm năm mươi ngàn đô la mỹ.</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" customHeight="1">
+      <c r="F9" s="7" t="e">
+        <f ca="1">[2]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
@@ -15177,13 +15308,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển NT</v>
+        <v>Thanh toán tiền chlorine dioxide - Hải Trung Anh</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="21" customHeight="1">
       <c r="F13" s="203" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CTY TNHH THƯƠNG MẠI DỊCH VỤ HẢI TRUNG ANH</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -15194,13 +15325,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1402 148 5100 9479</v>
+        <v>1403 148 5101 7230</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Eximbank - CN Q4, TPHCM</v>
+        <v>EXIMBANK - CN Quận 7, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -15294,9 +15425,9 @@
       </c>
     </row>
     <row r="9" spans="5:18" ht="17.25" customHeight="1">
-      <c r="F9" s="1" t="str">
-        <f>[1]!VND(E8,TRUE)</f>
-        <v>Error: Đối số của hàm không hợp lệ.</v>
+      <c r="F9" s="1" t="e">
+        <f ca="1">[2]!VND(E8,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="5:18" ht="19.5" customHeight="1"/>
@@ -15649,9 +15780,9 @@
         <v>60</v>
       </c>
       <c r="B21" s="34"/>
-      <c r="C21" s="52" t="str">
-        <f>[1]!VND(O23,TRUE)</f>
-        <v>Error: Đối số của hàm không hợp lệ.</v>
+      <c r="C21" s="52" t="e">
+        <f ca="1">[2]!VND(O23,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>

--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2145" windowWidth="21840" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="2325" windowWidth="21840" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -16,30 +16,34 @@
     <sheet name="U&amp;P" sheetId="8" r:id="rId7"/>
     <sheet name="01-17" sheetId="16" r:id="rId8"/>
     <sheet name="02-17" sheetId="17" r:id="rId9"/>
+    <sheet name="05-17" sheetId="19" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'02-17'!$A$3:$S$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'05-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$261</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$226</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39797))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$226</definedName>
+    <definedName name="DS">TH!$A$4:$Q$260</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39831))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$260</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - EIB'!$A$1:$P$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV'!$A$1:$M$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'01-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'02-17'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'05-17'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -92,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="537">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2132,6 +2136,90 @@
   </si>
   <si>
     <t>Thanh toán tiền nhiệt kế tự ghi</t>
+  </si>
+  <si>
+    <t>ĐIỆN LỰC ĐỨC HÒA</t>
+  </si>
+  <si>
+    <t>1681 000 228 089</t>
+  </si>
+  <si>
+    <t>ABBANK - PGD Đức Hòa</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 2&amp;3 tháng 03 năm 2017</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T03/2017</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền nước, phí CSHT  T12 &amp; T1 năm 2017 - Hải Sơn</t>
+  </si>
+  <si>
+    <t>Thanh toán phí để duy trì sử dụng MSMV 893 52265 cho năm 2017</t>
+  </si>
+  <si>
+    <t>PB16010048099 - Thanh toán tiền điện kỳ 1/T4 năm 2017</t>
+  </si>
+  <si>
+    <t>CTY TNHH TM XNK VẬN TẢI VĨNH PHÁT</t>
+  </si>
+  <si>
+    <t>Vietcombank - CN Phú Thọ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1&amp;2 tháng 04 năm 2017</t>
+  </si>
+  <si>
+    <t>LD1704739145</t>
+  </si>
+  <si>
+    <t>LD1704744432</t>
+  </si>
+  <si>
+    <t>LD1704746192</t>
+  </si>
+  <si>
+    <t>LD1704746915</t>
+  </si>
+  <si>
+    <t>LD1705333863</t>
+  </si>
+  <si>
+    <t>LD1706237120</t>
+  </si>
+  <si>
+    <t>LD1709377557</t>
+  </si>
+  <si>
+    <t>LD1711070103</t>
+  </si>
+  <si>
+    <t>LD1711600272</t>
+  </si>
+  <si>
+    <t>LD1711703018</t>
+  </si>
+  <si>
+    <t>LD1711890070</t>
+  </si>
+  <si>
+    <t>140314851017230</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 04 năm 2017</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T04/2017</t>
+  </si>
+  <si>
+    <t>LD1712863382</t>
+  </si>
+  <si>
+    <t>LD1714283137</t>
+  </si>
+  <si>
+    <t>LD1713228461</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +3046,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3572,6 +3660,25 @@
     <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="44" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3623,25 +3730,25 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="50" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="46" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4038,16 +4145,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R227"/>
+  <dimension ref="A1:R260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G230" sqref="G230"/>
+      <selection pane="bottomRight" activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4059,7 +4166,7 @@
     <col min="5" max="5" width="7.5703125" style="56" customWidth="1"/>
     <col min="6" max="6" width="49.28515625" style="57" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="57" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="56" customWidth="1"/>
     <col min="10" max="10" width="11" style="56" customWidth="1"/>
     <col min="11" max="12" width="8.42578125" style="56" customWidth="1"/>
@@ -4127,39 +4234,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="239" t="s">
+      <c r="B2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="236" t="s">
+      <c r="C2" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="236" t="s">
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="231" t="s">
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="245"/>
+      <c r="N2" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="235" t="s">
+      <c r="O2" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="P2" s="242"/>
+      <c r="Q2" s="240" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="232"/>
+      <c r="B3" s="239"/>
       <c r="C3" s="60" t="s">
         <v>12</v>
       </c>
@@ -4193,17 +4300,17 @@
       <c r="M3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="232"/>
+      <c r="N3" s="239"/>
       <c r="O3" s="61" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="234"/>
+      <c r="Q3" s="241"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4252,7 +4359,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4301,7 +4408,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4350,7 +4457,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4399,7 +4506,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4448,7 +4555,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4497,7 +4604,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4546,7 +4653,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4644,7 +4751,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4693,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4742,7 +4849,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4791,7 +4898,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4889,7 +4996,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4938,7 +5045,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4987,7 +5094,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5036,7 +5143,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5135,7 +5242,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5184,7 +5291,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5233,7 +5340,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5282,7 +5389,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5331,7 +5438,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5380,7 +5487,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5723,7 +5830,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5821,7 +5928,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5870,7 +5977,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5919,7 +6026,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5968,7 +6075,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6017,7 +6124,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" customHeight="1">
       <c r="A41" s="55" t="str">
         <f>IF(AND(C41="pv",E41='UNC - PV'!$S$2,D41='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C41,3)="eib",E41='UNC - EIB'!$V$2,D41='UNC - EIB'!$T$2),"x1",IF(AND(C41="pv",E41='LC - PV'!$R$2,D41='LC - PV'!$P$2),"x2",IF(AND(LEFT(C41,3)="eib",E41='LC - EIB'!$U$2,D41='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6066,7 +6173,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" customHeight="1">
       <c r="A42" s="55" t="str">
         <f>IF(AND(C42="pv",E42='UNC - PV'!$S$2,D42='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C42,3)="eib",E42='UNC - EIB'!$V$2,D42='UNC - EIB'!$T$2),"x1",IF(AND(C42="pv",E42='LC - PV'!$R$2,D42='LC - PV'!$P$2),"x2",IF(AND(LEFT(C42,3)="eib",E42='LC - EIB'!$U$2,D42='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6115,7 +6222,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6164,7 +6271,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6213,7 +6320,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6360,7 +6467,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:18" ht="18.75" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6458,7 +6565,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6507,7 +6614,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6556,7 +6663,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6605,7 +6712,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6654,7 +6761,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:18" ht="18.75" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6703,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6801,7 +6908,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:18" ht="18.75" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6850,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6899,7 +7006,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" customHeight="1">
       <c r="A59" s="55" t="str">
         <f>IF(AND(C59="pv",E59='UNC - PV'!$S$2,D59='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C59,3)="eib",E59='UNC - EIB'!$V$2,D59='UNC - EIB'!$T$2),"x1",IF(AND(C59="pv",E59='LC - PV'!$R$2,D59='LC - PV'!$P$2),"x2",IF(AND(LEFT(C59,3)="eib",E59='LC - EIB'!$U$2,D59='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6948,7 +7055,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6997,7 +7104,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7096,7 +7203,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7145,7 +7252,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7194,7 +7301,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="65" spans="1:18" ht="18.75" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7243,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7293,7 +7400,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7343,7 +7450,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="68" spans="1:18" ht="18.75" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7392,7 +7499,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:18" ht="18.75" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7441,7 +7548,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:18" ht="18.75" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7490,7 +7597,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="71" spans="1:18" ht="18.75" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7882,7 +7989,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:18" ht="18.75" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7980,7 +8087,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:18" ht="18.75" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8029,7 +8136,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:18" ht="18.75" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8078,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:18" ht="18.75" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8127,7 +8234,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="84" spans="1:18" ht="18.75" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8176,7 +8283,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:18" ht="18.75" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8274,7 +8381,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:18" ht="18.75" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8323,7 +8430,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" ht="18.75" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8372,7 +8479,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" ht="18.75" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8421,7 +8528,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" ht="18.75" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8470,7 +8577,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" ht="18.75" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8569,7 +8676,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:18" ht="18.75" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8618,7 +8725,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:18" ht="18.75" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8667,7 +8774,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="95" spans="1:18" ht="18.75" customHeight="1">
       <c r="A95" s="55" t="str">
         <f>IF(AND(C95="pv",E95='UNC - PV'!$S$2,D95='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C95,3)="eib",E95='UNC - EIB'!$V$2,D95='UNC - EIB'!$T$2),"x1",IF(AND(C95="pv",E95='LC - PV'!$R$2,D95='LC - PV'!$P$2),"x2",IF(AND(LEFT(C95,3)="eib",E95='LC - EIB'!$U$2,D95='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8716,7 +8823,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="96" spans="1:18" ht="18.75" customHeight="1">
       <c r="A96" s="55" t="str">
         <f>IF(AND(C96="pv",E96='UNC - PV'!$S$2,D96='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C96,3)="eib",E96='UNC - EIB'!$V$2,D96='UNC - EIB'!$T$2),"x1",IF(AND(C96="pv",E96='LC - PV'!$R$2,D96='LC - PV'!$P$2),"x2",IF(AND(LEFT(C96,3)="eib",E96='LC - EIB'!$U$2,D96='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8766,7 +8873,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="97" spans="1:18" ht="18.75" customHeight="1">
       <c r="A97" s="55" t="str">
         <f>IF(AND(C97="pv",E97='UNC - PV'!$S$2,D97='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C97,3)="eib",E97='UNC - EIB'!$V$2,D97='UNC - EIB'!$T$2),"x1",IF(AND(C97="pv",E97='LC - PV'!$R$2,D97='LC - PV'!$P$2),"x2",IF(AND(LEFT(C97,3)="eib",E97='LC - EIB'!$U$2,D97='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8913,7 +9020,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:18" ht="18.75" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8962,7 +9069,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="101" spans="1:18" ht="18.75" customHeight="1">
       <c r="A101" s="55" t="str">
         <f>IF(AND(C101="pv",E101='UNC - PV'!$S$2,D101='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C101,3)="eib",E101='UNC - EIB'!$V$2,D101='UNC - EIB'!$T$2),"x1",IF(AND(C101="pv",E101='LC - PV'!$R$2,D101='LC - PV'!$P$2),"x2",IF(AND(LEFT(C101,3)="eib",E101='LC - EIB'!$U$2,D101='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9011,7 +9118,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" ht="18.75" customHeight="1">
       <c r="A102" s="55" t="str">
         <f>IF(AND(C102="pv",E102='UNC - PV'!$S$2,D102='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C102,3)="eib",E102='UNC - EIB'!$V$2,D102='UNC - EIB'!$T$2),"x1",IF(AND(C102="pv",E102='LC - PV'!$R$2,D102='LC - PV'!$P$2),"x2",IF(AND(LEFT(C102,3)="eib",E102='LC - EIB'!$U$2,D102='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9060,7 +9167,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" ht="18.75" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9109,7 +9216,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:18" ht="18.75" customHeight="1">
       <c r="A104" s="55" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9158,7 +9265,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:18" ht="18.75" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9256,7 +9363,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:18" ht="18.75" customHeight="1">
       <c r="A107" s="55" t="str">
         <f>IF(AND(C107="pv",E107='UNC - PV'!$S$2,D107='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C107,3)="eib",E107='UNC - EIB'!$V$2,D107='UNC - EIB'!$T$2),"x1",IF(AND(C107="pv",E107='LC - PV'!$R$2,D107='LC - PV'!$P$2),"x2",IF(AND(LEFT(C107,3)="eib",E107='LC - EIB'!$U$2,D107='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9305,7 +9412,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:18" ht="18.75" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9354,7 +9461,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:18" ht="18.75" customHeight="1">
       <c r="A109" s="55" t="str">
         <f>IF(AND(C109="pv",E109='UNC - PV'!$S$2,D109='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C109,3)="eib",E109='UNC - EIB'!$V$2,D109='UNC - EIB'!$T$2),"x1",IF(AND(C109="pv",E109='LC - PV'!$R$2,D109='LC - PV'!$P$2),"x2",IF(AND(LEFT(C109,3)="eib",E109='LC - EIB'!$U$2,D109='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9403,7 +9510,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:18" ht="18.75" customHeight="1">
       <c r="A110" s="55" t="str">
         <f>IF(AND(C110="pv",E110='UNC - PV'!$S$2,D110='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C110,3)="eib",E110='UNC - EIB'!$V$2,D110='UNC - EIB'!$T$2),"x1",IF(AND(C110="pv",E110='LC - PV'!$R$2,D110='LC - PV'!$P$2),"x2",IF(AND(LEFT(C110,3)="eib",E110='LC - EIB'!$U$2,D110='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9452,7 +9559,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:18" ht="18.75" customHeight="1">
       <c r="A111" s="55" t="str">
         <f>IF(AND(C111="pv",E111='UNC - PV'!$S$2,D111='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C111,3)="eib",E111='UNC - EIB'!$V$2,D111='UNC - EIB'!$T$2),"x1",IF(AND(C111="pv",E111='LC - PV'!$R$2,D111='LC - PV'!$P$2),"x2",IF(AND(LEFT(C111,3)="eib",E111='LC - EIB'!$U$2,D111='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9501,7 +9608,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:18" ht="18.75" customHeight="1">
       <c r="A112" s="55" t="str">
         <f>IF(AND(C112="pv",E112='UNC - PV'!$S$2,D112='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C112,3)="eib",E112='UNC - EIB'!$V$2,D112='UNC - EIB'!$T$2),"x1",IF(AND(C112="pv",E112='LC - PV'!$R$2,D112='LC - PV'!$P$2),"x2",IF(AND(LEFT(C112,3)="eib",E112='LC - EIB'!$U$2,D112='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9550,7 +9657,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:18" ht="18.75" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9599,7 +9706,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:18" ht="18.75" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9648,7 +9755,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:18" ht="18.75" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9697,7 +9804,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:18" ht="18.75" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9746,7 +9853,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:18" ht="18.75" customHeight="1">
       <c r="A117" s="55" t="str">
         <f>IF(AND(C117="pv",E117='UNC - PV'!$S$2,D117='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C117,3)="eib",E117='UNC - EIB'!$V$2,D117='UNC - EIB'!$T$2),"x1",IF(AND(C117="pv",E117='LC - PV'!$R$2,D117='LC - PV'!$P$2),"x2",IF(AND(LEFT(C117,3)="eib",E117='LC - EIB'!$U$2,D117='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9795,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:18" ht="18.75" customHeight="1">
       <c r="A118" s="55" t="str">
         <f>IF(AND(C118="pv",E118='UNC - PV'!$S$2,D118='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C118,3)="eib",E118='UNC - EIB'!$V$2,D118='UNC - EIB'!$T$2),"x1",IF(AND(C118="pv",E118='LC - PV'!$R$2,D118='LC - PV'!$P$2),"x2",IF(AND(LEFT(C118,3)="eib",E118='LC - EIB'!$U$2,D118='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9844,7 +9951,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:18" ht="18.75" customHeight="1">
       <c r="A119" s="55" t="str">
         <f>IF(AND(C119="pv",E119='UNC - PV'!$S$2,D119='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C119,3)="eib",E119='UNC - EIB'!$V$2,D119='UNC - EIB'!$T$2),"x1",IF(AND(C119="pv",E119='LC - PV'!$R$2,D119='LC - PV'!$P$2),"x2",IF(AND(LEFT(C119,3)="eib",E119='LC - EIB'!$U$2,D119='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9893,7 +10000,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:18" ht="18.75" customHeight="1">
       <c r="A120" s="55" t="str">
         <f>IF(AND(C120="pv",E120='UNC - PV'!$S$2,D120='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C120,3)="eib",E120='UNC - EIB'!$V$2,D120='UNC - EIB'!$T$2),"x1",IF(AND(C120="pv",E120='LC - PV'!$R$2,D120='LC - PV'!$P$2),"x2",IF(AND(LEFT(C120,3)="eib",E120='LC - EIB'!$U$2,D120='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9992,7 +10099,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:18" ht="18.75" customHeight="1">
       <c r="A122" s="55" t="str">
         <f>IF(AND(C122="pv",E122='UNC - PV'!$S$2,D122='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C122,3)="eib",E122='UNC - EIB'!$V$2,D122='UNC - EIB'!$T$2),"x1",IF(AND(C122="pv",E122='LC - PV'!$R$2,D122='LC - PV'!$P$2),"x2",IF(AND(LEFT(C122,3)="eib",E122='LC - EIB'!$U$2,D122='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10039,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:18" ht="18.75" customHeight="1">
       <c r="A123" s="55" t="str">
         <f>IF(AND(C123="pv",E123='UNC - PV'!$S$2,D123='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C123,3)="eib",E123='UNC - EIB'!$V$2,D123='UNC - EIB'!$T$2),"x1",IF(AND(C123="pv",E123='LC - PV'!$R$2,D123='LC - PV'!$P$2),"x2",IF(AND(LEFT(C123,3)="eib",E123='LC - EIB'!$U$2,D123='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10086,7 +10193,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:18" ht="18.75" customHeight="1">
       <c r="A124" s="55" t="str">
         <f>IF(AND(C124="pv",E124='UNC - PV'!$S$2,D124='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C124,3)="eib",E124='UNC - EIB'!$V$2,D124='UNC - EIB'!$T$2),"x1",IF(AND(C124="pv",E124='LC - PV'!$R$2,D124='LC - PV'!$P$2),"x2",IF(AND(LEFT(C124,3)="eib",E124='LC - EIB'!$U$2,D124='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10133,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:18" ht="18.75" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10180,7 +10287,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:18" ht="18.75" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10227,7 +10334,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:18" ht="18.75" customHeight="1">
       <c r="A127" s="55" t="str">
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10368,7 +10475,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:18" ht="18.75" customHeight="1">
       <c r="A130" s="55" t="str">
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10415,7 +10522,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:18" ht="18.75" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10462,7 +10569,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:18" ht="18.75" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10509,7 +10616,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:18" ht="18.75" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10556,7 +10663,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:18" ht="18.75" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10603,7 +10710,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:18" ht="18.75" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10697,7 +10804,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:18" ht="18.75" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10744,7 +10851,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:18" ht="18.75" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10791,7 +10898,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="139" spans="1:18" ht="18.75" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10838,7 +10945,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="140" spans="1:18" ht="18.75" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10885,7 +10992,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:18" ht="18.75" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10932,7 +11039,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:18" ht="18.75" customHeight="1">
       <c r="A142" s="55" t="str">
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10979,7 +11086,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:18" ht="18.75" customHeight="1">
       <c r="A143" s="55" t="str">
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11026,7 +11133,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="144" spans="1:18" ht="18.75" customHeight="1">
       <c r="A144" s="55" t="str">
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11073,7 +11180,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:18" ht="18.75" customHeight="1">
       <c r="A145" s="55" t="str">
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11120,7 +11227,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:18" ht="18.75" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11167,7 +11274,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:18" ht="18.75" customHeight="1">
       <c r="A147" s="55" t="str">
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11214,7 +11321,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:18" ht="18.75" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11261,7 +11368,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:18" ht="18.75" customHeight="1">
       <c r="A149" s="55" t="str">
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11308,7 +11415,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:18" ht="18.75" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11355,7 +11462,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:18" ht="18.75" customHeight="1">
       <c r="A151" s="55" t="str">
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11449,7 +11556,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="153" spans="1:18" ht="18.75" customHeight="1">
       <c r="A153" s="55" t="str">
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11496,7 +11603,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="154" spans="1:18" ht="18.75" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11685,7 +11792,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="158" spans="1:18" ht="18.75" customHeight="1">
       <c r="A158" s="55" t="str">
         <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11732,7 +11839,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="159" spans="1:18" ht="18.75" customHeight="1">
       <c r="A159" s="55" t="str">
         <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11779,7 +11886,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:18" ht="18.75" customHeight="1">
       <c r="A160" s="55" t="str">
         <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11873,7 +11980,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:18" ht="18.75" customHeight="1">
       <c r="A162" s="55" t="str">
         <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11920,7 +12027,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="163" spans="1:18" ht="18.75" customHeight="1">
       <c r="A163" s="55" t="str">
         <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11967,7 +12074,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:18" ht="18.75" customHeight="1">
       <c r="A164" s="55" t="str">
         <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12014,7 +12121,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:18" ht="18.75" customHeight="1">
       <c r="A165" s="55" t="str">
         <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12061,7 +12168,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:18" ht="18.75" customHeight="1">
       <c r="A166" s="55" t="str">
         <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12108,7 +12215,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:18" ht="18.75" customHeight="1">
       <c r="A167" s="55" t="str">
         <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12155,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:18" ht="18.75" customHeight="1">
       <c r="A168" s="55" t="str">
         <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12202,7 +12309,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="169" spans="1:18" ht="18.75" customHeight="1">
       <c r="A169" s="55" t="str">
         <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12250,7 +12357,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:18" ht="18.75" customHeight="1">
       <c r="A170" s="55" t="str">
         <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12297,7 +12404,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="171" spans="1:18" ht="18.75" customHeight="1">
       <c r="A171" s="55" t="str">
         <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12485,7 +12592,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="175" spans="1:18" ht="18.75" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12532,7 +12639,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="176" spans="1:18" ht="18.75" customHeight="1">
       <c r="A176" s="55" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12579,7 +12686,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:18" ht="18.75" customHeight="1">
       <c r="A177" s="55" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12626,7 +12733,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="178" spans="1:18" ht="18.75" customHeight="1">
       <c r="A178" s="55" t="str">
         <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12673,7 +12780,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:18" ht="18.75" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12720,7 +12827,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:18" ht="18.75" customHeight="1">
       <c r="A180" s="55" t="str">
         <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12767,7 +12874,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:18" ht="18.75" customHeight="1">
       <c r="A181" s="55" t="str">
         <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12814,7 +12921,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="182" spans="1:18" ht="18.75" customHeight="1">
       <c r="A182" s="55" t="str">
         <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13096,7 +13203,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="188" spans="1:18" ht="18.75" customHeight="1">
       <c r="A188" s="55" t="str">
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13143,7 +13250,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="189" spans="1:18" ht="18.75" customHeight="1">
       <c r="A189" s="55" t="str">
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13190,7 +13297,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="190" spans="1:18" ht="18.75" customHeight="1">
       <c r="A190" s="55" t="str">
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13237,7 +13344,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="191" spans="1:18" ht="18.75" customHeight="1">
       <c r="A191" s="55" t="str">
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13284,7 +13391,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:18" ht="18.75" customHeight="1">
       <c r="A192" s="55" t="str">
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13331,7 +13438,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="193" spans="1:18" ht="18.75" customHeight="1">
       <c r="A193" s="55" t="str">
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13472,13 +13579,13 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="196" spans="1:18" ht="18.75" customHeight="1">
       <c r="A196" s="55" t="str">
         <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B196" s="62">
-        <f t="shared" ref="B196:B226" si="14">IF(C196&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B196:B260" si="14">IF(C196&lt;&gt;"",ROW()-3,"")</f>
         <v>193</v>
       </c>
       <c r="C196" s="62" t="s">
@@ -13519,7 +13626,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="197" spans="1:18" ht="18.75" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13566,7 +13673,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="198" spans="1:18" ht="18.75" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13613,7 +13720,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="199" spans="1:18" ht="18.75" customHeight="1">
       <c r="A199" s="55" t="str">
         <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13660,7 +13767,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:18" ht="18.75" customHeight="1">
       <c r="A200" s="55" t="str">
         <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13754,7 +13861,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="202" spans="1:18" ht="18.75" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13802,7 +13909,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="203" spans="1:18" ht="18.75" customHeight="1">
       <c r="A203" s="55" t="str">
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13849,7 +13956,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:18" ht="18.75" customHeight="1">
       <c r="A204" s="55" t="str">
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13896,7 +14003,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:18" ht="18.75" customHeight="1">
       <c r="A205" s="55" t="str">
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13943,7 +14050,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:18" ht="18.75" customHeight="1">
       <c r="A206" s="55" t="str">
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13990,7 +14097,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="207" spans="1:18" ht="18.75" customHeight="1">
       <c r="A207" s="55" t="str">
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14037,7 +14144,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="208" spans="1:18" ht="18.75" customHeight="1">
       <c r="A208" s="55" t="str">
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14084,7 +14191,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="209" spans="1:18" ht="18.75" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14131,7 +14238,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="210" spans="1:18" ht="18.75" customHeight="1">
       <c r="A210" s="55" t="str">
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14178,10 +14285,10 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="211" spans="1:18" ht="18.75" customHeight="1">
       <c r="A211" s="55" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B211" s="62">
         <f t="shared" si="14"/>
@@ -14222,7 +14329,7 @@
       <c r="Q211" s="92"/>
       <c r="R211" s="202" t="str">
         <f>IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="vnđ",TH!P211&lt;&gt;""),"p",IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="usd",TH!O211&lt;&gt;""),"p1",IF(AND(C211="pv",D211='LC - PV'!$P$2,LEFT(E211,1)="l"),"p2",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P211&lt;&gt;""),"e",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="U",'UNC - EIB'!$R$2="usd",TH!O211&lt;&gt;""),"e1",IF(AND(LEFT(C211,3)="EIB",D211='LC - EIB'!$S$2,LEFT(E211,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="212" spans="1:18" ht="18.75" customHeight="1">
@@ -14319,7 +14426,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="214" spans="1:18" ht="18.75" customHeight="1">
       <c r="A214" s="55" t="str">
         <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14365,10 +14472,10 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="215" spans="1:18" ht="18.75" customHeight="1">
       <c r="A215" s="55" t="str">
         <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B215" s="62">
         <f t="shared" si="14"/>
@@ -14409,337 +14516,1877 @@
       <c r="Q215" s="92"/>
       <c r="R215" s="202" t="str">
         <f>IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="vnđ",TH!P215&lt;&gt;""),"p",IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="usd",TH!O215&lt;&gt;""),"p1",IF(AND(C215="pv",D215='LC - PV'!$P$2,LEFT(E215,1)="l"),"p2",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P215&lt;&gt;""),"e",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="U",'UNC - EIB'!$R$2="usd",TH!O215&lt;&gt;""),"e1",IF(AND(LEFT(C215,3)="EIB",D215='LC - EIB'!$S$2,LEFT(E215,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="18.75" customHeight="1">
       <c r="A216" s="55" t="str">
         <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B216" s="62" t="str">
+      <c r="B216" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C216" s="62"/>
-      <c r="D216" s="67"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="65"/>
+        <v>213</v>
+      </c>
+      <c r="C216" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D216" s="67">
+        <v>42825</v>
+      </c>
+      <c r="E216" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="G216" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="H216" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="I216" s="65" t="s">
+        <v>324</v>
+      </c>
       <c r="J216" s="66"/>
       <c r="K216" s="67"/>
       <c r="L216" s="65"/>
       <c r="M216" s="65"/>
-      <c r="N216" s="64"/>
+      <c r="N216" s="64" t="s">
+        <v>320</v>
+      </c>
       <c r="O216" s="68"/>
-      <c r="P216" s="69"/>
+      <c r="P216" s="69">
+        <v>65615943</v>
+      </c>
       <c r="Q216" s="92"/>
       <c r="R216" s="202" t="str">
         <f>IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="vnđ",TH!P216&lt;&gt;""),"p",IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="usd",TH!O216&lt;&gt;""),"p1",IF(AND(C216="pv",D216='LC - PV'!$P$2,LEFT(E216,1)="l"),"p2",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P216&lt;&gt;""),"e",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="U",'UNC - EIB'!$R$2="usd",TH!O216&lt;&gt;""),"e1",IF(AND(LEFT(C216,3)="EIB",D216='LC - EIB'!$S$2,LEFT(E216,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:18" ht="18.75" customHeight="1">
       <c r="A217" s="55" t="str">
         <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B217" s="62" t="str">
+      <c r="B217" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C217" s="62"/>
-      <c r="D217" s="67"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="64"/>
-      <c r="G217" s="64"/>
-      <c r="H217" s="64"/>
-      <c r="I217" s="65"/>
+        <v>214</v>
+      </c>
+      <c r="C217" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D217" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E217" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="G217" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="H217" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="I217" s="65" t="s">
+        <v>386</v>
+      </c>
       <c r="J217" s="66"/>
       <c r="K217" s="67"/>
       <c r="L217" s="65"/>
       <c r="M217" s="65"/>
-      <c r="N217" s="64"/>
+      <c r="N217" s="96" t="s">
+        <v>387</v>
+      </c>
       <c r="O217" s="68"/>
-      <c r="P217" s="69"/>
+      <c r="P217" s="231">
+        <v>1419444000</v>
+      </c>
       <c r="Q217" s="92"/>
       <c r="R217" s="202" t="str">
         <f>IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="vnđ",TH!P217&lt;&gt;""),"p",IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="usd",TH!O217&lt;&gt;""),"p1",IF(AND(C217="pv",D217='LC - PV'!$P$2,LEFT(E217,1)="l"),"p2",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P217&lt;&gt;""),"e",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="U",'UNC - EIB'!$R$2="usd",TH!O217&lt;&gt;""),"e1",IF(AND(LEFT(C217,3)="EIB",D217='LC - EIB'!$S$2,LEFT(E217,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="218" spans="1:18" ht="18.75" customHeight="1">
       <c r="A218" s="55" t="str">
         <f>IF(AND(C218="pv",E218='UNC - PV'!$S$2,D218='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C218,3)="eib",E218='UNC - EIB'!$V$2,D218='UNC - EIB'!$T$2),"x1",IF(AND(C218="pv",E218='LC - PV'!$R$2,D218='LC - PV'!$P$2),"x2",IF(AND(LEFT(C218,3)="eib",E218='LC - EIB'!$U$2,D218='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B218" s="62" t="str">
+      <c r="B218" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C218" s="62"/>
-      <c r="D218" s="67"/>
-      <c r="E218" s="65"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
-      <c r="H218" s="64"/>
-      <c r="I218" s="65"/>
+        <v>215</v>
+      </c>
+      <c r="C218" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D218" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E218" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G218" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="H218" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="I218" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="J218" s="66"/>
       <c r="K218" s="67"/>
       <c r="L218" s="65"/>
       <c r="M218" s="65"/>
-      <c r="N218" s="64"/>
+      <c r="N218" s="64" t="s">
+        <v>512</v>
+      </c>
       <c r="O218" s="68"/>
-      <c r="P218" s="69"/>
+      <c r="P218" s="69">
+        <f>17034600+19583190</f>
+        <v>36617790</v>
+      </c>
       <c r="Q218" s="92"/>
       <c r="R218" s="202" t="str">
         <f>IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="vnđ",TH!P218&lt;&gt;""),"p",IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="usd",TH!O218&lt;&gt;""),"p1",IF(AND(C218="pv",D218='LC - PV'!$P$2,LEFT(E218,1)="l"),"p2",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P218&lt;&gt;""),"e",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="U",'UNC - EIB'!$R$2="usd",TH!O218&lt;&gt;""),"e1",IF(AND(LEFT(C218,3)="EIB",D218='LC - EIB'!$S$2,LEFT(E218,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:18" ht="18.75" customHeight="1">
       <c r="A219" s="55" t="str">
         <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B219" s="62" t="str">
+      <c r="B219" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C219" s="62"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="65"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="65"/>
+        <v>216</v>
+      </c>
+      <c r="C219" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D219" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E219" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F219" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G219" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="H219" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I219" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J219" s="66"/>
       <c r="K219" s="67"/>
       <c r="L219" s="65"/>
       <c r="M219" s="65"/>
-      <c r="N219" s="64"/>
+      <c r="N219" s="64" t="s">
+        <v>513</v>
+      </c>
       <c r="O219" s="68"/>
-      <c r="P219" s="69"/>
+      <c r="P219" s="69">
+        <v>3395000</v>
+      </c>
       <c r="Q219" s="92"/>
       <c r="R219" s="202" t="str">
         <f>IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="vnđ",TH!P219&lt;&gt;""),"p",IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="usd",TH!O219&lt;&gt;""),"p1",IF(AND(C219="pv",D219='LC - PV'!$P$2,LEFT(E219,1)="l"),"p2",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P219&lt;&gt;""),"e",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="U",'UNC - EIB'!$R$2="usd",TH!O219&lt;&gt;""),"e1",IF(AND(LEFT(C219,3)="EIB",D219='LC - EIB'!$S$2,LEFT(E219,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:18" ht="18.75" customHeight="1">
       <c r="A220" s="55" t="str">
         <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B220" s="62" t="str">
+      <c r="B220" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C220" s="62"/>
-      <c r="D220" s="67"/>
-      <c r="E220" s="65"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="65"/>
-      <c r="J220" s="66"/>
-      <c r="K220" s="67"/>
-      <c r="L220" s="65"/>
-      <c r="M220" s="65"/>
-      <c r="N220" s="64"/>
+        <v>217</v>
+      </c>
+      <c r="C220" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D220" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E220" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F220" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G220" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I220" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J220" s="72"/>
+      <c r="K220" s="63"/>
+      <c r="L220" s="62"/>
+      <c r="M220" s="62"/>
+      <c r="N220" s="70" t="s">
+        <v>514</v>
+      </c>
       <c r="O220" s="68"/>
-      <c r="P220" s="69"/>
+      <c r="P220" s="69">
+        <f>18091316</f>
+        <v>18091316</v>
+      </c>
       <c r="Q220" s="92"/>
       <c r="R220" s="202" t="str">
         <f>IF(AND(C220="pv",D220='UNC - PV'!$Q$2,LEFT(E220,1)="u",'UNC - PV'!$O$2="vnđ",TH!P220&lt;&gt;""),"p",IF(AND(C220="pv",D220='UNC - PV'!$Q$2,LEFT(E220,1)="u",'UNC - PV'!$O$2="usd",TH!O220&lt;&gt;""),"p1",IF(AND(C220="pv",D220='LC - PV'!$P$2,LEFT(E220,1)="l"),"p2",IF(AND(LEFT(C220,3)="EIB",D220='UNC - EIB'!$T$2,LEFT(E220,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P220&lt;&gt;""),"e",IF(AND(LEFT(C220,3)="EIB",D220='UNC - EIB'!$T$2,LEFT(E220,1)="U",'UNC - EIB'!$R$2="usd",TH!O220&lt;&gt;""),"e1",IF(AND(LEFT(C220,3)="EIB",D220='LC - EIB'!$S$2,LEFT(E220,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="221" spans="1:18" ht="18.75" customHeight="1">
       <c r="A221" s="55" t="str">
         <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B221" s="62" t="str">
+      <c r="B221" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C221" s="62"/>
-      <c r="D221" s="67"/>
-      <c r="E221" s="65"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="64"/>
-      <c r="H221" s="64"/>
-      <c r="I221" s="65"/>
+        <v>218</v>
+      </c>
+      <c r="C221" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D221" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E221" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="F221" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="G221" s="71" t="s">
+        <v>531</v>
+      </c>
+      <c r="H221" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="I221" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J221" s="66"/>
       <c r="K221" s="67"/>
       <c r="L221" s="65"/>
       <c r="M221" s="65"/>
-      <c r="N221" s="64"/>
+      <c r="N221" s="64" t="s">
+        <v>187</v>
+      </c>
       <c r="O221" s="68"/>
-      <c r="P221" s="69"/>
+      <c r="P221" s="69">
+        <v>35250000</v>
+      </c>
       <c r="Q221" s="92"/>
       <c r="R221" s="202" t="str">
         <f>IF(AND(C221="pv",D221='UNC - PV'!$Q$2,LEFT(E221,1)="u",'UNC - PV'!$O$2="vnđ",TH!P221&lt;&gt;""),"p",IF(AND(C221="pv",D221='UNC - PV'!$Q$2,LEFT(E221,1)="u",'UNC - PV'!$O$2="usd",TH!O221&lt;&gt;""),"p1",IF(AND(C221="pv",D221='LC - PV'!$P$2,LEFT(E221,1)="l"),"p2",IF(AND(LEFT(C221,3)="EIB",D221='UNC - EIB'!$T$2,LEFT(E221,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P221&lt;&gt;""),"e",IF(AND(LEFT(C221,3)="EIB",D221='UNC - EIB'!$T$2,LEFT(E221,1)="U",'UNC - EIB'!$R$2="usd",TH!O221&lt;&gt;""),"e1",IF(AND(LEFT(C221,3)="EIB",D221='LC - EIB'!$S$2,LEFT(E221,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:18" ht="18.75" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B222" s="62" t="str">
+      <c r="B222" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C222" s="62"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="65"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="65"/>
+        <v>219</v>
+      </c>
+      <c r="C222" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D222" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E222" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="F222" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G222" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H222" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I222" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J222" s="66"/>
       <c r="K222" s="67"/>
       <c r="L222" s="65"/>
       <c r="M222" s="65"/>
-      <c r="N222" s="64"/>
+      <c r="N222" s="64" t="s">
+        <v>489</v>
+      </c>
       <c r="O222" s="68"/>
-      <c r="P222" s="69"/>
+      <c r="P222" s="69">
+        <v>150000000</v>
+      </c>
       <c r="Q222" s="92"/>
       <c r="R222" s="202" t="str">
         <f>IF(AND(C222="pv",D222='UNC - PV'!$Q$2,LEFT(E222,1)="u",'UNC - PV'!$O$2="vnđ",TH!P222&lt;&gt;""),"p",IF(AND(C222="pv",D222='UNC - PV'!$Q$2,LEFT(E222,1)="u",'UNC - PV'!$O$2="usd",TH!O222&lt;&gt;""),"p1",IF(AND(C222="pv",D222='LC - PV'!$P$2,LEFT(E222,1)="l"),"p2",IF(AND(LEFT(C222,3)="EIB",D222='UNC - EIB'!$T$2,LEFT(E222,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P222&lt;&gt;""),"e",IF(AND(LEFT(C222,3)="EIB",D222='UNC - EIB'!$T$2,LEFT(E222,1)="U",'UNC - EIB'!$R$2="usd",TH!O222&lt;&gt;""),"e1",IF(AND(LEFT(C222,3)="EIB",D222='LC - EIB'!$S$2,LEFT(E222,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:18" ht="18.75" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B223" s="62" t="str">
+      <c r="B223" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C223" s="62"/>
-      <c r="D223" s="67"/>
-      <c r="E223" s="65"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="64"/>
-      <c r="H223" s="64"/>
-      <c r="I223" s="65"/>
-      <c r="J223" s="66"/>
-      <c r="K223" s="67"/>
-      <c r="L223" s="65"/>
-      <c r="M223" s="65"/>
-      <c r="N223" s="64"/>
+        <v>220</v>
+      </c>
+      <c r="C223" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D223" s="67">
+        <v>42828</v>
+      </c>
+      <c r="E223" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="F223" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="G223" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="H223" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="I223" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="J223" s="97"/>
+      <c r="K223" s="98"/>
+      <c r="L223" s="99"/>
+      <c r="M223" s="99"/>
+      <c r="N223" s="96" t="s">
+        <v>152</v>
+      </c>
       <c r="O223" s="68"/>
-      <c r="P223" s="69"/>
+      <c r="P223" s="69">
+        <v>63205400</v>
+      </c>
       <c r="Q223" s="92"/>
       <c r="R223" s="202" t="str">
         <f>IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="vnđ",TH!P223&lt;&gt;""),"p",IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="usd",TH!O223&lt;&gt;""),"p1",IF(AND(C223="pv",D223='LC - PV'!$P$2,LEFT(E223,1)="l"),"p2",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P223&lt;&gt;""),"e",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="U",'UNC - EIB'!$R$2="usd",TH!O223&lt;&gt;""),"e1",IF(AND(LEFT(C223,3)="EIB",D223='LC - EIB'!$S$2,LEFT(E223,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="224" spans="1:18" ht="18.75" customHeight="1">
       <c r="A224" s="55" t="str">
         <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B224" s="62" t="str">
+      <c r="B224" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C224" s="62"/>
-      <c r="D224" s="67"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="65"/>
+        <v>221</v>
+      </c>
+      <c r="C224" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D224" s="67">
+        <v>42844</v>
+      </c>
+      <c r="E224" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="G224" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="H224" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="I224" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J224" s="66"/>
       <c r="K224" s="67"/>
       <c r="L224" s="65"/>
       <c r="M224" s="65"/>
-      <c r="N224" s="64"/>
+      <c r="N224" s="64" t="s">
+        <v>172</v>
+      </c>
       <c r="O224" s="68"/>
-      <c r="P224" s="69"/>
+      <c r="P224" s="69">
+        <v>108275774</v>
+      </c>
       <c r="Q224" s="92"/>
       <c r="R224" s="202" t="str">
         <f>IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="vnđ",TH!P224&lt;&gt;""),"p",IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="usd",TH!O224&lt;&gt;""),"p1",IF(AND(C224="pv",D224='LC - PV'!$P$2,LEFT(E224,1)="l"),"p2",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P224&lt;&gt;""),"e",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="U",'UNC - EIB'!$R$2="usd",TH!O224&lt;&gt;""),"e1",IF(AND(LEFT(C224,3)="EIB",D224='LC - EIB'!$S$2,LEFT(E224,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="225" spans="1:18" ht="18.75" customHeight="1">
       <c r="A225" s="55" t="str">
         <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B225" s="62" t="str">
+      <c r="B225" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C225" s="62"/>
-      <c r="D225" s="67"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
-      <c r="I225" s="65"/>
+        <v>222</v>
+      </c>
+      <c r="C225" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D225" s="67">
+        <v>42845</v>
+      </c>
+      <c r="E225" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="G225" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="H225" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="I225" s="65" t="s">
+        <v>386</v>
+      </c>
       <c r="J225" s="66"/>
       <c r="K225" s="67"/>
       <c r="L225" s="65"/>
       <c r="M225" s="65"/>
-      <c r="N225" s="64"/>
+      <c r="N225" s="96" t="s">
+        <v>387</v>
+      </c>
       <c r="O225" s="68"/>
-      <c r="P225" s="69"/>
+      <c r="P225" s="69">
+        <v>1419444000</v>
+      </c>
       <c r="Q225" s="92"/>
       <c r="R225" s="202" t="str">
         <f>IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="vnđ",TH!P225&lt;&gt;""),"p",IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="usd",TH!O225&lt;&gt;""),"p1",IF(AND(C225="pv",D225='LC - PV'!$P$2,LEFT(E225,1)="l"),"p2",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P225&lt;&gt;""),"e",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="U",'UNC - EIB'!$R$2="usd",TH!O225&lt;&gt;""),"e1",IF(AND(LEFT(C225,3)="EIB",D225='LC - EIB'!$S$2,LEFT(E225,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:18" ht="18.75" customHeight="1">
       <c r="A226" s="55" t="str">
         <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B226" s="62" t="str">
+      <c r="B226" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C226" s="62"/>
-      <c r="D226" s="67"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="64"/>
-      <c r="H226" s="64"/>
-      <c r="I226" s="65"/>
+        <v>223</v>
+      </c>
+      <c r="C226" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D226" s="67">
+        <v>42845</v>
+      </c>
+      <c r="E226" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="G226" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="H226" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="I226" s="65" t="s">
+        <v>386</v>
+      </c>
       <c r="J226" s="66"/>
       <c r="K226" s="67"/>
       <c r="L226" s="65"/>
       <c r="M226" s="65"/>
-      <c r="N226" s="64"/>
+      <c r="N226" s="64" t="s">
+        <v>387</v>
+      </c>
       <c r="O226" s="68"/>
-      <c r="P226" s="69"/>
+      <c r="P226" s="69">
+        <v>1653600000</v>
+      </c>
       <c r="Q226" s="92"/>
       <c r="R226" s="202" t="str">
         <f>IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="vnđ",TH!P226&lt;&gt;""),"p",IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="usd",TH!O226&lt;&gt;""),"p1",IF(AND(C226="pv",D226='LC - PV'!$P$2,LEFT(E226,1)="l"),"p2",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P226&lt;&gt;""),"e",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="U",'UNC - EIB'!$R$2="usd",TH!O226&lt;&gt;""),"e1",IF(AND(LEFT(C226,3)="EIB",D226='LC - EIB'!$S$2,LEFT(E226,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
+    <row r="227" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A227" s="55" t="str">
+        <f>IF(AND(C227="pv",E227='UNC - PV'!$S$2,D227='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C227,3)="eib",E227='UNC - EIB'!$V$2,D227='UNC - EIB'!$T$2),"x1",IF(AND(C227="pv",E227='LC - PV'!$R$2,D227='LC - PV'!$P$2),"x2",IF(AND(LEFT(C227,3)="eib",E227='LC - EIB'!$U$2,D227='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B227" s="62">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="C227" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D227" s="67">
+        <v>42846</v>
+      </c>
+      <c r="E227" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G227" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H227" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I227" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J227" s="66"/>
+      <c r="K227" s="67"/>
+      <c r="L227" s="65"/>
+      <c r="M227" s="65"/>
+      <c r="N227" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="O227" s="68"/>
+      <c r="P227" s="69">
+        <v>250000000</v>
+      </c>
+      <c r="Q227" s="92"/>
+      <c r="R227" s="202" t="str">
+        <f>IF(AND(C227="pv",D227='UNC - PV'!$Q$2,LEFT(E227,1)="u",'UNC - PV'!$O$2="vnđ",TH!P227&lt;&gt;""),"p",IF(AND(C227="pv",D227='UNC - PV'!$Q$2,LEFT(E227,1)="u",'UNC - PV'!$O$2="usd",TH!O227&lt;&gt;""),"p1",IF(AND(C227="pv",D227='LC - PV'!$P$2,LEFT(E227,1)="l"),"p2",IF(AND(LEFT(C227,3)="EIB",D227='UNC - EIB'!$T$2,LEFT(E227,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P227&lt;&gt;""),"e",IF(AND(LEFT(C227,3)="EIB",D227='UNC - EIB'!$T$2,LEFT(E227,1)="U",'UNC - EIB'!$R$2="usd",TH!O227&lt;&gt;""),"e1",IF(AND(LEFT(C227,3)="EIB",D227='LC - EIB'!$S$2,LEFT(E227,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A228" s="55" t="str">
+        <f>IF(AND(C228="pv",E228='UNC - PV'!$S$2,D228='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C228,3)="eib",E228='UNC - EIB'!$V$2,D228='UNC - EIB'!$T$2),"x1",IF(AND(C228="pv",E228='LC - PV'!$R$2,D228='LC - PV'!$P$2),"x2",IF(AND(LEFT(C228,3)="eib",E228='LC - EIB'!$U$2,D228='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B228" s="62">
+        <f>IF(C228&lt;&gt;"",ROW()-3,"")</f>
+        <v>225</v>
+      </c>
+      <c r="C228" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D228" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E228" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G228" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H228" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I228" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J228" s="66"/>
+      <c r="K228" s="67"/>
+      <c r="L228" s="65"/>
+      <c r="M228" s="65"/>
+      <c r="N228" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="O228" s="68"/>
+      <c r="P228" s="69">
+        <v>100000000</v>
+      </c>
+      <c r="Q228" s="92"/>
+      <c r="R228" s="202" t="str">
+        <f>IF(AND(C228="pv",D228='UNC - PV'!$Q$2,LEFT(E228,1)="u",'UNC - PV'!$O$2="vnđ",TH!P228&lt;&gt;""),"p",IF(AND(C228="pv",D228='UNC - PV'!$Q$2,LEFT(E228,1)="u",'UNC - PV'!$O$2="usd",TH!O228&lt;&gt;""),"p1",IF(AND(C228="pv",D228='LC - PV'!$P$2,LEFT(E228,1)="l"),"p2",IF(AND(LEFT(C228,3)="EIB",D228='UNC - EIB'!$T$2,LEFT(E228,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P228&lt;&gt;""),"e",IF(AND(LEFT(C228,3)="EIB",D228='UNC - EIB'!$T$2,LEFT(E228,1)="U",'UNC - EIB'!$R$2="usd",TH!O228&lt;&gt;""),"e1",IF(AND(LEFT(C228,3)="EIB",D228='LC - EIB'!$S$2,LEFT(E228,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A229" s="55" t="str">
+        <f>IF(AND(C229="pv",E229='UNC - PV'!$S$2,D229='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C229,3)="eib",E229='UNC - EIB'!$V$2,D229='UNC - EIB'!$T$2),"x1",IF(AND(C229="pv",E229='LC - PV'!$R$2,D229='LC - PV'!$P$2),"x2",IF(AND(LEFT(C229,3)="eib",E229='LC - EIB'!$U$2,D229='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B229" s="62">
+        <f t="shared" si="14"/>
+        <v>226</v>
+      </c>
+      <c r="C229" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D229" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E229" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G229" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H229" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I229" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J229" s="66"/>
+      <c r="K229" s="67"/>
+      <c r="L229" s="65"/>
+      <c r="M229" s="65"/>
+      <c r="N229" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="O229" s="68"/>
+      <c r="P229" s="69">
+        <v>150000000</v>
+      </c>
+      <c r="Q229" s="92"/>
+      <c r="R229" s="202" t="str">
+        <f>IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="vnđ",TH!P229&lt;&gt;""),"p",IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="usd",TH!O229&lt;&gt;""),"p1",IF(AND(C229="pv",D229='LC - PV'!$P$2,LEFT(E229,1)="l"),"p2",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P229&lt;&gt;""),"e",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="U",'UNC - EIB'!$R$2="usd",TH!O229&lt;&gt;""),"e1",IF(AND(LEFT(C229,3)="EIB",D229='LC - EIB'!$S$2,LEFT(E229,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A230" s="55" t="str">
+        <f>IF(AND(C230="pv",E230='UNC - PV'!$S$2,D230='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C230,3)="eib",E230='UNC - EIB'!$V$2,D230='UNC - EIB'!$T$2),"x1",IF(AND(C230="pv",E230='LC - PV'!$R$2,D230='LC - PV'!$P$2),"x2",IF(AND(LEFT(C230,3)="eib",E230='LC - EIB'!$U$2,D230='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B230" s="62">
+        <f t="shared" si="14"/>
+        <v>227</v>
+      </c>
+      <c r="C230" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D230" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E230" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G230" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="H230" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="I230" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J230" s="66"/>
+      <c r="K230" s="67"/>
+      <c r="L230" s="65"/>
+      <c r="M230" s="65"/>
+      <c r="N230" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="O230" s="68"/>
+      <c r="P230" s="69">
+        <v>50000000</v>
+      </c>
+      <c r="Q230" s="92"/>
+      <c r="R230" s="202" t="str">
+        <f>IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="vnđ",TH!P230&lt;&gt;""),"p",IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="usd",TH!O230&lt;&gt;""),"p1",IF(AND(C230="pv",D230='LC - PV'!$P$2,LEFT(E230,1)="l"),"p2",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P230&lt;&gt;""),"e",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="U",'UNC - EIB'!$R$2="usd",TH!O230&lt;&gt;""),"e1",IF(AND(LEFT(C230,3)="EIB",D230='LC - EIB'!$S$2,LEFT(E230,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A231" s="55" t="str">
+        <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B231" s="62">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="C231" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D231" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E231" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G231" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H231" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I231" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J231" s="66"/>
+      <c r="K231" s="67"/>
+      <c r="L231" s="65"/>
+      <c r="M231" s="65"/>
+      <c r="N231" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="O231" s="68"/>
+      <c r="P231" s="69">
+        <v>1500000</v>
+      </c>
+      <c r="Q231" s="92"/>
+      <c r="R231" s="202" t="str">
+        <f>IF(AND(C231="pv",D231='UNC - PV'!$Q$2,LEFT(E231,1)="u",'UNC - PV'!$O$2="vnđ",TH!P231&lt;&gt;""),"p",IF(AND(C231="pv",D231='UNC - PV'!$Q$2,LEFT(E231,1)="u",'UNC - PV'!$O$2="usd",TH!O231&lt;&gt;""),"p1",IF(AND(C231="pv",D231='LC - PV'!$P$2,LEFT(E231,1)="l"),"p2",IF(AND(LEFT(C231,3)="EIB",D231='UNC - EIB'!$T$2,LEFT(E231,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P231&lt;&gt;""),"e",IF(AND(LEFT(C231,3)="EIB",D231='UNC - EIB'!$T$2,LEFT(E231,1)="U",'UNC - EIB'!$R$2="usd",TH!O231&lt;&gt;""),"e1",IF(AND(LEFT(C231,3)="EIB",D231='LC - EIB'!$S$2,LEFT(E231,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A232" s="55" t="str">
+        <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B232" s="62">
+        <f t="shared" ref="B232:B240" si="15">IF(C232&lt;&gt;"",ROW()-3,"")</f>
+        <v>229</v>
+      </c>
+      <c r="C232" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D232" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E232" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="F232" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G232" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="H232" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I232" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J232" s="66"/>
+      <c r="K232" s="67"/>
+      <c r="L232" s="65"/>
+      <c r="M232" s="65"/>
+      <c r="N232" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="O232" s="68"/>
+      <c r="P232" s="69">
+        <v>8090000</v>
+      </c>
+      <c r="Q232" s="92"/>
+      <c r="R232" s="202" t="str">
+        <f>IF(AND(C232="pv",D232='UNC - PV'!$Q$2,LEFT(E232,1)="u",'UNC - PV'!$O$2="vnđ",TH!P232&lt;&gt;""),"p",IF(AND(C232="pv",D232='UNC - PV'!$Q$2,LEFT(E232,1)="u",'UNC - PV'!$O$2="usd",TH!O232&lt;&gt;""),"p1",IF(AND(C232="pv",D232='LC - PV'!$P$2,LEFT(E232,1)="l"),"p2",IF(AND(LEFT(C232,3)="EIB",D232='UNC - EIB'!$T$2,LEFT(E232,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P232&lt;&gt;""),"e",IF(AND(LEFT(C232,3)="EIB",D232='UNC - EIB'!$T$2,LEFT(E232,1)="U",'UNC - EIB'!$R$2="usd",TH!O232&lt;&gt;""),"e1",IF(AND(LEFT(C232,3)="EIB",D232='LC - EIB'!$S$2,LEFT(E232,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A233" s="55" t="str">
+        <f>IF(AND(C233="pv",E233='UNC - PV'!$S$2,D233='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C233,3)="eib",E233='UNC - EIB'!$V$2,D233='UNC - EIB'!$T$2),"x1",IF(AND(C233="pv",E233='LC - PV'!$R$2,D233='LC - PV'!$P$2),"x2",IF(AND(LEFT(C233,3)="eib",E233='LC - EIB'!$U$2,D233='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B233" s="62">
+        <f t="shared" si="15"/>
+        <v>230</v>
+      </c>
+      <c r="C233" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D233" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E233" s="192" t="s">
+        <v>83</v>
+      </c>
+      <c r="F233" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G233" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H233" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I233" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J233" s="66"/>
+      <c r="K233" s="67"/>
+      <c r="L233" s="65"/>
+      <c r="M233" s="65"/>
+      <c r="N233" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="O233" s="68"/>
+      <c r="P233" s="69">
+        <v>2050000</v>
+      </c>
+      <c r="Q233" s="92"/>
+      <c r="R233" s="202" t="str">
+        <f>IF(AND(C233="pv",D233='UNC - PV'!$Q$2,LEFT(E233,1)="u",'UNC - PV'!$O$2="vnđ",TH!P233&lt;&gt;""),"p",IF(AND(C233="pv",D233='UNC - PV'!$Q$2,LEFT(E233,1)="u",'UNC - PV'!$O$2="usd",TH!O233&lt;&gt;""),"p1",IF(AND(C233="pv",D233='LC - PV'!$P$2,LEFT(E233,1)="l"),"p2",IF(AND(LEFT(C233,3)="EIB",D233='UNC - EIB'!$T$2,LEFT(E233,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P233&lt;&gt;""),"e",IF(AND(LEFT(C233,3)="EIB",D233='UNC - EIB'!$T$2,LEFT(E233,1)="U",'UNC - EIB'!$R$2="usd",TH!O233&lt;&gt;""),"e1",IF(AND(LEFT(C233,3)="EIB",D233='LC - EIB'!$S$2,LEFT(E233,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A234" s="55" t="str">
+        <f>IF(AND(C234="pv",E234='UNC - PV'!$S$2,D234='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C234,3)="eib",E234='UNC - EIB'!$V$2,D234='UNC - EIB'!$T$2),"x1",IF(AND(C234="pv",E234='LC - PV'!$R$2,D234='LC - PV'!$P$2),"x2",IF(AND(LEFT(C234,3)="eib",E234='LC - EIB'!$U$2,D234='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B234" s="62">
+        <f t="shared" si="15"/>
+        <v>231</v>
+      </c>
+      <c r="C234" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D234" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E234" s="192" t="s">
+        <v>167</v>
+      </c>
+      <c r="F234" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G234" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="H234" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="I234" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" s="66"/>
+      <c r="K234" s="67"/>
+      <c r="L234" s="65"/>
+      <c r="M234" s="65"/>
+      <c r="N234" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O234" s="68"/>
+      <c r="P234" s="69">
+        <f>22975810+26980470</f>
+        <v>49956280</v>
+      </c>
+      <c r="Q234" s="92"/>
+      <c r="R234" s="202" t="str">
+        <f>IF(AND(C234="pv",D234='UNC - PV'!$Q$2,LEFT(E234,1)="u",'UNC - PV'!$O$2="vnđ",TH!P234&lt;&gt;""),"p",IF(AND(C234="pv",D234='UNC - PV'!$Q$2,LEFT(E234,1)="u",'UNC - PV'!$O$2="usd",TH!O234&lt;&gt;""),"p1",IF(AND(C234="pv",D234='LC - PV'!$P$2,LEFT(E234,1)="l"),"p2",IF(AND(LEFT(C234,3)="EIB",D234='UNC - EIB'!$T$2,LEFT(E234,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P234&lt;&gt;""),"e",IF(AND(LEFT(C234,3)="EIB",D234='UNC - EIB'!$T$2,LEFT(E234,1)="U",'UNC - EIB'!$R$2="usd",TH!O234&lt;&gt;""),"e1",IF(AND(LEFT(C234,3)="EIB",D234='LC - EIB'!$S$2,LEFT(E234,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A235" s="55" t="str">
+        <f>IF(AND(C235="pv",E235='UNC - PV'!$S$2,D235='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C235,3)="eib",E235='UNC - EIB'!$V$2,D235='UNC - EIB'!$T$2),"x1",IF(AND(C235="pv",E235='LC - PV'!$R$2,D235='LC - PV'!$P$2),"x2",IF(AND(LEFT(C235,3)="eib",E235='LC - EIB'!$U$2,D235='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B235" s="62">
+        <f t="shared" si="15"/>
+        <v>232</v>
+      </c>
+      <c r="C235" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D235" s="67">
+        <v>42853</v>
+      </c>
+      <c r="E235" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="F235" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G235" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="H235" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I235" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="J235" s="66"/>
+      <c r="K235" s="67"/>
+      <c r="L235" s="65"/>
+      <c r="M235" s="65"/>
+      <c r="N235" s="104" t="s">
+        <v>516</v>
+      </c>
+      <c r="O235" s="68"/>
+      <c r="P235" s="69">
+        <f>46438480+41345810</f>
+        <v>87784290</v>
+      </c>
+      <c r="Q235" s="92"/>
+      <c r="R235" s="202" t="str">
+        <f>IF(AND(C235="pv",D235='UNC - PV'!$Q$2,LEFT(E235,1)="u",'UNC - PV'!$O$2="vnđ",TH!P235&lt;&gt;""),"p",IF(AND(C235="pv",D235='UNC - PV'!$Q$2,LEFT(E235,1)="u",'UNC - PV'!$O$2="usd",TH!O235&lt;&gt;""),"p1",IF(AND(C235="pv",D235='LC - PV'!$P$2,LEFT(E235,1)="l"),"p2",IF(AND(LEFT(C235,3)="EIB",D235='UNC - EIB'!$T$2,LEFT(E235,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P235&lt;&gt;""),"e",IF(AND(LEFT(C235,3)="EIB",D235='UNC - EIB'!$T$2,LEFT(E235,1)="U",'UNC - EIB'!$R$2="usd",TH!O235&lt;&gt;""),"e1",IF(AND(LEFT(C235,3)="EIB",D235='LC - EIB'!$S$2,LEFT(E235,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A236" s="55" t="str">
+        <f>IF(AND(C236="pv",E236='UNC - PV'!$S$2,D236='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C236,3)="eib",E236='UNC - EIB'!$V$2,D236='UNC - EIB'!$T$2),"x1",IF(AND(C236="pv",E236='LC - PV'!$R$2,D236='LC - PV'!$P$2),"x2",IF(AND(LEFT(C236,3)="eib",E236='LC - EIB'!$U$2,D236='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B236" s="62">
+        <f t="shared" si="15"/>
+        <v>233</v>
+      </c>
+      <c r="C236" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D236" s="67">
+        <v>42846</v>
+      </c>
+      <c r="E236" s="192" t="s">
+        <v>227</v>
+      </c>
+      <c r="F236" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G236" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="H236" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I236" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="J236" s="66"/>
+      <c r="K236" s="67"/>
+      <c r="L236" s="65"/>
+      <c r="M236" s="65"/>
+      <c r="N236" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="O236" s="68"/>
+      <c r="P236" s="69">
+        <v>98187720</v>
+      </c>
+      <c r="Q236" s="92"/>
+      <c r="R236" s="202" t="str">
+        <f>IF(AND(C236="pv",D236='UNC - PV'!$Q$2,LEFT(E236,1)="u",'UNC - PV'!$O$2="vnđ",TH!P236&lt;&gt;""),"p",IF(AND(C236="pv",D236='UNC - PV'!$Q$2,LEFT(E236,1)="u",'UNC - PV'!$O$2="usd",TH!O236&lt;&gt;""),"p1",IF(AND(C236="pv",D236='LC - PV'!$P$2,LEFT(E236,1)="l"),"p2",IF(AND(LEFT(C236,3)="EIB",D236='UNC - EIB'!$T$2,LEFT(E236,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P236&lt;&gt;""),"e",IF(AND(LEFT(C236,3)="EIB",D236='UNC - EIB'!$T$2,LEFT(E236,1)="U",'UNC - EIB'!$R$2="usd",TH!O236&lt;&gt;""),"e1",IF(AND(LEFT(C236,3)="EIB",D236='LC - EIB'!$S$2,LEFT(E236,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A237" s="55" t="str">
+        <f>IF(AND(C237="pv",E237='UNC - PV'!$S$2,D237='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C237,3)="eib",E237='UNC - EIB'!$V$2,D237='UNC - EIB'!$T$2),"x1",IF(AND(C237="pv",E237='LC - PV'!$R$2,D237='LC - PV'!$P$2),"x2",IF(AND(LEFT(C237,3)="eib",E237='LC - EIB'!$U$2,D237='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B237" s="62">
+        <f t="shared" si="15"/>
+        <v>234</v>
+      </c>
+      <c r="C237" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D237" s="67">
+        <v>42851</v>
+      </c>
+      <c r="E237" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="G237" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="H237" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="I237" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J237" s="66"/>
+      <c r="K237" s="67"/>
+      <c r="L237" s="65"/>
+      <c r="M237" s="65"/>
+      <c r="N237" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="O237" s="68"/>
+      <c r="P237" s="69">
+        <v>2186691000</v>
+      </c>
+      <c r="Q237" s="92"/>
+      <c r="R237" s="202" t="str">
+        <f>IF(AND(C237="pv",D237='UNC - PV'!$Q$2,LEFT(E237,1)="u",'UNC - PV'!$O$2="vnđ",TH!P237&lt;&gt;""),"p",IF(AND(C237="pv",D237='UNC - PV'!$Q$2,LEFT(E237,1)="u",'UNC - PV'!$O$2="usd",TH!O237&lt;&gt;""),"p1",IF(AND(C237="pv",D237='LC - PV'!$P$2,LEFT(E237,1)="l"),"p2",IF(AND(LEFT(C237,3)="EIB",D237='UNC - EIB'!$T$2,LEFT(E237,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P237&lt;&gt;""),"e",IF(AND(LEFT(C237,3)="EIB",D237='UNC - EIB'!$T$2,LEFT(E237,1)="U",'UNC - EIB'!$R$2="usd",TH!O237&lt;&gt;""),"e1",IF(AND(LEFT(C237,3)="EIB",D237='LC - EIB'!$S$2,LEFT(E237,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A238" s="55" t="str">
+        <f>IF(AND(C238="pv",E238='UNC - PV'!$S$2,D238='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C238,3)="eib",E238='UNC - EIB'!$V$2,D238='UNC - EIB'!$T$2),"x1",IF(AND(C238="pv",E238='LC - PV'!$R$2,D238='LC - PV'!$P$2),"x2",IF(AND(LEFT(C238,3)="eib",E238='LC - EIB'!$U$2,D238='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B238" s="62">
+        <f t="shared" si="15"/>
+        <v>235</v>
+      </c>
+      <c r="C238" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D238" s="67">
+        <v>42859</v>
+      </c>
+      <c r="E238" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G238" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H238" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I238" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J238" s="66"/>
+      <c r="K238" s="67"/>
+      <c r="L238" s="65"/>
+      <c r="M238" s="65"/>
+      <c r="N238" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="O238" s="68"/>
+      <c r="P238" s="69">
+        <v>645000000</v>
+      </c>
+      <c r="Q238" s="92"/>
+      <c r="R238" s="202" t="str">
+        <f>IF(AND(C238="pv",D238='UNC - PV'!$Q$2,LEFT(E238,1)="u",'UNC - PV'!$O$2="vnđ",TH!P238&lt;&gt;""),"p",IF(AND(C238="pv",D238='UNC - PV'!$Q$2,LEFT(E238,1)="u",'UNC - PV'!$O$2="usd",TH!O238&lt;&gt;""),"p1",IF(AND(C238="pv",D238='LC - PV'!$P$2,LEFT(E238,1)="l"),"p2",IF(AND(LEFT(C238,3)="EIB",D238='UNC - EIB'!$T$2,LEFT(E238,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P238&lt;&gt;""),"e",IF(AND(LEFT(C238,3)="EIB",D238='UNC - EIB'!$T$2,LEFT(E238,1)="U",'UNC - EIB'!$R$2="usd",TH!O238&lt;&gt;""),"e1",IF(AND(LEFT(C238,3)="EIB",D238='LC - EIB'!$S$2,LEFT(E238,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A239" s="55" t="str">
+        <f>IF(AND(C239="pv",E239='UNC - PV'!$S$2,D239='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C239,3)="eib",E239='UNC - EIB'!$V$2,D239='UNC - EIB'!$T$2),"x1",IF(AND(C239="pv",E239='LC - PV'!$R$2,D239='LC - PV'!$P$2),"x2",IF(AND(LEFT(C239,3)="eib",E239='LC - EIB'!$U$2,D239='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B239" s="62">
+        <f t="shared" si="15"/>
+        <v>236</v>
+      </c>
+      <c r="C239" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D239" s="67">
+        <v>42863</v>
+      </c>
+      <c r="E239" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G239" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H239" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I239" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J239" s="66"/>
+      <c r="K239" s="67"/>
+      <c r="L239" s="65"/>
+      <c r="M239" s="65"/>
+      <c r="N239" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="O239" s="68"/>
+      <c r="P239" s="69">
+        <v>4600000000</v>
+      </c>
+      <c r="Q239" s="92"/>
+      <c r="R239" s="202" t="str">
+        <f>IF(AND(C239="pv",D239='UNC - PV'!$Q$2,LEFT(E239,1)="u",'UNC - PV'!$O$2="vnđ",TH!P239&lt;&gt;""),"p",IF(AND(C239="pv",D239='UNC - PV'!$Q$2,LEFT(E239,1)="u",'UNC - PV'!$O$2="usd",TH!O239&lt;&gt;""),"p1",IF(AND(C239="pv",D239='LC - PV'!$P$2,LEFT(E239,1)="l"),"p2",IF(AND(LEFT(C239,3)="EIB",D239='UNC - EIB'!$T$2,LEFT(E239,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P239&lt;&gt;""),"e",IF(AND(LEFT(C239,3)="EIB",D239='UNC - EIB'!$T$2,LEFT(E239,1)="U",'UNC - EIB'!$R$2="usd",TH!O239&lt;&gt;""),"e1",IF(AND(LEFT(C239,3)="EIB",D239='LC - EIB'!$S$2,LEFT(E239,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A240" s="55" t="str">
+        <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B240" s="62">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+      <c r="C240" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D240" s="67">
+        <v>42870</v>
+      </c>
+      <c r="E240" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G240" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="H240" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I240" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J240" s="97"/>
+      <c r="K240" s="67"/>
+      <c r="L240" s="65"/>
+      <c r="M240" s="65"/>
+      <c r="N240" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O240" s="68">
+        <v>355800</v>
+      </c>
+      <c r="P240" s="69"/>
+      <c r="Q240" s="92"/>
+      <c r="R240" s="202" t="str">
+        <f>IF(AND(C240="pv",D240='UNC - PV'!$Q$2,LEFT(E240,1)="u",'UNC - PV'!$O$2="vnđ",TH!P240&lt;&gt;""),"p",IF(AND(C240="pv",D240='UNC - PV'!$Q$2,LEFT(E240,1)="u",'UNC - PV'!$O$2="usd",TH!O240&lt;&gt;""),"p1",IF(AND(C240="pv",D240='LC - PV'!$P$2,LEFT(E240,1)="l"),"p2",IF(AND(LEFT(C240,3)="EIB",D240='UNC - EIB'!$T$2,LEFT(E240,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P240&lt;&gt;""),"e",IF(AND(LEFT(C240,3)="EIB",D240='UNC - EIB'!$T$2,LEFT(E240,1)="U",'UNC - EIB'!$R$2="usd",TH!O240&lt;&gt;""),"e1",IF(AND(LEFT(C240,3)="EIB",D240='LC - EIB'!$S$2,LEFT(E240,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A241" s="55" t="str">
+        <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x1</v>
+      </c>
+      <c r="B241" s="62">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="C241" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D241" s="67">
+        <v>42870</v>
+      </c>
+      <c r="E241" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G241" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H241" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I241" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J241" s="66"/>
+      <c r="K241" s="67"/>
+      <c r="L241" s="65"/>
+      <c r="M241" s="65"/>
+      <c r="N241" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="O241" s="68"/>
+      <c r="P241" s="69">
+        <v>9980000000</v>
+      </c>
+      <c r="Q241" s="92"/>
+      <c r="R241" s="202" t="str">
+        <f>IF(AND(C241="pv",D241='UNC - PV'!$Q$2,LEFT(E241,1)="u",'UNC - PV'!$O$2="vnđ",TH!P241&lt;&gt;""),"p",IF(AND(C241="pv",D241='UNC - PV'!$Q$2,LEFT(E241,1)="u",'UNC - PV'!$O$2="usd",TH!O241&lt;&gt;""),"p1",IF(AND(C241="pv",D241='LC - PV'!$P$2,LEFT(E241,1)="l"),"p2",IF(AND(LEFT(C241,3)="EIB",D241='UNC - EIB'!$T$2,LEFT(E241,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P241&lt;&gt;""),"e",IF(AND(LEFT(C241,3)="EIB",D241='UNC - EIB'!$T$2,LEFT(E241,1)="U",'UNC - EIB'!$R$2="usd",TH!O241&lt;&gt;""),"e1",IF(AND(LEFT(C241,3)="EIB",D241='LC - EIB'!$S$2,LEFT(E241,1)="l"),"e2",""))))))</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A242" s="55" t="str">
+        <f>IF(AND(C242="pv",E242='UNC - PV'!$S$2,D242='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C242,3)="eib",E242='UNC - EIB'!$V$2,D242='UNC - EIB'!$T$2),"x1",IF(AND(C242="pv",E242='LC - PV'!$R$2,D242='LC - PV'!$P$2),"x2",IF(AND(LEFT(C242,3)="eib",E242='LC - EIB'!$U$2,D242='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B242" s="62">
+        <f t="shared" si="14"/>
+        <v>239</v>
+      </c>
+      <c r="C242" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D242" s="67">
+        <v>42878</v>
+      </c>
+      <c r="E242" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G242" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H242" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I242" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J242" s="66"/>
+      <c r="K242" s="67"/>
+      <c r="L242" s="65"/>
+      <c r="M242" s="65"/>
+      <c r="N242" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="O242" s="68"/>
+      <c r="P242" s="69">
+        <v>300000000</v>
+      </c>
+      <c r="Q242" s="92"/>
+      <c r="R242" s="202" t="str">
+        <f>IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="vnđ",TH!P242&lt;&gt;""),"p",IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="usd",TH!O242&lt;&gt;""),"p1",IF(AND(C242="pv",D242='LC - PV'!$P$2,LEFT(E242,1)="l"),"p2",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P242&lt;&gt;""),"e",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="U",'UNC - EIB'!$R$2="usd",TH!O242&lt;&gt;""),"e1",IF(AND(LEFT(C242,3)="EIB",D242='LC - EIB'!$S$2,LEFT(E242,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A243" s="55" t="str">
+        <f>IF(AND(C243="pv",E243='UNC - PV'!$S$2,D243='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C243,3)="eib",E243='UNC - EIB'!$V$2,D243='UNC - EIB'!$T$2),"x1",IF(AND(C243="pv",E243='LC - PV'!$R$2,D243='LC - PV'!$P$2),"x2",IF(AND(LEFT(C243,3)="eib",E243='LC - EIB'!$U$2,D243='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B243" s="62">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="C243" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D243" s="67">
+        <v>42878</v>
+      </c>
+      <c r="E243" s="192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G243" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="H243" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="I243" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J243" s="66"/>
+      <c r="K243" s="67"/>
+      <c r="L243" s="65"/>
+      <c r="M243" s="65"/>
+      <c r="N243" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="O243" s="68"/>
+      <c r="P243" s="69">
+        <v>31328330</v>
+      </c>
+      <c r="Q243" s="92"/>
+      <c r="R243" s="202" t="str">
+        <f>IF(AND(C243="pv",D243='UNC - PV'!$Q$2,LEFT(E243,1)="u",'UNC - PV'!$O$2="vnđ",TH!P243&lt;&gt;""),"p",IF(AND(C243="pv",D243='UNC - PV'!$Q$2,LEFT(E243,1)="u",'UNC - PV'!$O$2="usd",TH!O243&lt;&gt;""),"p1",IF(AND(C243="pv",D243='LC - PV'!$P$2,LEFT(E243,1)="l"),"p2",IF(AND(LEFT(C243,3)="EIB",D243='UNC - EIB'!$T$2,LEFT(E243,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P243&lt;&gt;""),"e",IF(AND(LEFT(C243,3)="EIB",D243='UNC - EIB'!$T$2,LEFT(E243,1)="U",'UNC - EIB'!$R$2="usd",TH!O243&lt;&gt;""),"e1",IF(AND(LEFT(C243,3)="EIB",D243='LC - EIB'!$S$2,LEFT(E243,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A244" s="55" t="str">
+        <f>IF(AND(C244="pv",E244='UNC - PV'!$S$2,D244='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C244,3)="eib",E244='UNC - EIB'!$V$2,D244='UNC - EIB'!$T$2),"x1",IF(AND(C244="pv",E244='LC - PV'!$R$2,D244='LC - PV'!$P$2),"x2",IF(AND(LEFT(C244,3)="eib",E244='LC - EIB'!$U$2,D244='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B244" s="62">
+        <f t="shared" si="14"/>
+        <v>241</v>
+      </c>
+      <c r="C244" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D244" s="67">
+        <v>42878</v>
+      </c>
+      <c r="E244" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G244" s="71" t="s">
+        <v>500</v>
+      </c>
+      <c r="H244" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="I244" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J244" s="66"/>
+      <c r="K244" s="67"/>
+      <c r="L244" s="65"/>
+      <c r="M244" s="65"/>
+      <c r="N244" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="O244" s="68"/>
+      <c r="P244" s="69">
+        <v>4895000</v>
+      </c>
+      <c r="Q244" s="92"/>
+      <c r="R244" s="202" t="str">
+        <f>IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="vnđ",TH!P244&lt;&gt;""),"p",IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="usd",TH!O244&lt;&gt;""),"p1",IF(AND(C244="pv",D244='LC - PV'!$P$2,LEFT(E244,1)="l"),"p2",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P244&lt;&gt;""),"e",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="U",'UNC - EIB'!$R$2="usd",TH!O244&lt;&gt;""),"e1",IF(AND(LEFT(C244,3)="EIB",D244='LC - EIB'!$S$2,LEFT(E244,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A245" s="55" t="str">
+        <f>IF(AND(C245="pv",E245='UNC - PV'!$S$2,D245='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C245,3)="eib",E245='UNC - EIB'!$V$2,D245='UNC - EIB'!$T$2),"x1",IF(AND(C245="pv",E245='LC - PV'!$R$2,D245='LC - PV'!$P$2),"x2",IF(AND(LEFT(C245,3)="eib",E245='LC - EIB'!$U$2,D245='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B245" s="62">
+        <f t="shared" si="14"/>
+        <v>242</v>
+      </c>
+      <c r="C245" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D245" s="67">
+        <v>42878</v>
+      </c>
+      <c r="E245" s="192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G245" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H245" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I245" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J245" s="66"/>
+      <c r="K245" s="67"/>
+      <c r="L245" s="65"/>
+      <c r="M245" s="65"/>
+      <c r="N245" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="O245" s="68"/>
+      <c r="P245" s="69">
+        <v>1200000</v>
+      </c>
+      <c r="Q245" s="92"/>
+      <c r="R245" s="202" t="str">
+        <f>IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="vnđ",TH!P245&lt;&gt;""),"p",IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="usd",TH!O245&lt;&gt;""),"p1",IF(AND(C245="pv",D245='LC - PV'!$P$2,LEFT(E245,1)="l"),"p2",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P245&lt;&gt;""),"e",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="U",'UNC - EIB'!$R$2="usd",TH!O245&lt;&gt;""),"e1",IF(AND(LEFT(C245,3)="EIB",D245='LC - EIB'!$S$2,LEFT(E245,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A246" s="55" t="str">
+        <f>IF(AND(C246="pv",E246='UNC - PV'!$S$2,D246='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C246,3)="eib",E246='UNC - EIB'!$V$2,D246='UNC - EIB'!$T$2),"x1",IF(AND(C246="pv",E246='LC - PV'!$R$2,D246='LC - PV'!$P$2),"x2",IF(AND(LEFT(C246,3)="eib",E246='LC - EIB'!$U$2,D246='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B246" s="62">
+        <v>243</v>
+      </c>
+      <c r="C246" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D246" s="67">
+        <v>42892</v>
+      </c>
+      <c r="E246" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G246" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H246" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I246" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="J246" s="66"/>
+      <c r="K246" s="67"/>
+      <c r="L246" s="65"/>
+      <c r="M246" s="65"/>
+      <c r="N246" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="O246" s="68"/>
+      <c r="P246" s="69">
+        <v>6780000000</v>
+      </c>
+      <c r="Q246" s="92"/>
+      <c r="R246" s="202" t="str">
+        <f>IF(AND(C246="pv",D246='UNC - PV'!$Q$2,LEFT(E246,1)="u",'UNC - PV'!$O$2="vnđ",TH!P246&lt;&gt;""),"p",IF(AND(C246="pv",D246='UNC - PV'!$Q$2,LEFT(E246,1)="u",'UNC - PV'!$O$2="usd",TH!O246&lt;&gt;""),"p1",IF(AND(C246="pv",D246='LC - PV'!$P$2,LEFT(E246,1)="l"),"p2",IF(AND(LEFT(C246,3)="EIB",D246='UNC - EIB'!$T$2,LEFT(E246,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P246&lt;&gt;""),"e",IF(AND(LEFT(C246,3)="EIB",D246='UNC - EIB'!$T$2,LEFT(E246,1)="U",'UNC - EIB'!$R$2="usd",TH!O246&lt;&gt;""),"e1",IF(AND(LEFT(C246,3)="EIB",D246='LC - EIB'!$S$2,LEFT(E246,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A247" s="55" t="str">
+        <f>IF(AND(C247="pv",E247='UNC - PV'!$S$2,D247='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C247,3)="eib",E247='UNC - EIB'!$V$2,D247='UNC - EIB'!$T$2),"x1",IF(AND(C247="pv",E247='LC - PV'!$R$2,D247='LC - PV'!$P$2),"x2",IF(AND(LEFT(C247,3)="eib",E247='LC - EIB'!$U$2,D247='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B247" s="62" t="str">
+        <f t="shared" ref="B247:B250" si="16">IF(C247&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C247" s="62"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="65"/>
+      <c r="F247" s="64"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
+      <c r="I247" s="65"/>
+      <c r="J247" s="66"/>
+      <c r="K247" s="67"/>
+      <c r="L247" s="65"/>
+      <c r="M247" s="65"/>
+      <c r="N247" s="64"/>
+      <c r="O247" s="68"/>
+      <c r="P247" s="69"/>
+      <c r="Q247" s="92"/>
+      <c r="R247" s="202" t="str">
+        <f>IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="vnđ",TH!P247&lt;&gt;""),"p",IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="usd",TH!O247&lt;&gt;""),"p1",IF(AND(C247="pv",D247='LC - PV'!$P$2,LEFT(E247,1)="l"),"p2",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P247&lt;&gt;""),"e",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="U",'UNC - EIB'!$R$2="usd",TH!O247&lt;&gt;""),"e1",IF(AND(LEFT(C247,3)="EIB",D247='LC - EIB'!$S$2,LEFT(E247,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A248" s="55" t="str">
+        <f>IF(AND(C248="pv",E248='UNC - PV'!$S$2,D248='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C248,3)="eib",E248='UNC - EIB'!$V$2,D248='UNC - EIB'!$T$2),"x1",IF(AND(C248="pv",E248='LC - PV'!$R$2,D248='LC - PV'!$P$2),"x2",IF(AND(LEFT(C248,3)="eib",E248='LC - EIB'!$U$2,D248='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B248" s="62" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="C248" s="62"/>
+      <c r="D248" s="67"/>
+      <c r="E248" s="65"/>
+      <c r="F248" s="64"/>
+      <c r="G248" s="64"/>
+      <c r="H248" s="64"/>
+      <c r="I248" s="65"/>
+      <c r="J248" s="66"/>
+      <c r="K248" s="67"/>
+      <c r="L248" s="65"/>
+      <c r="M248" s="65"/>
+      <c r="N248" s="64"/>
+      <c r="O248" s="68"/>
+      <c r="P248" s="69"/>
+      <c r="Q248" s="92"/>
+      <c r="R248" s="202" t="str">
+        <f>IF(AND(C248="pv",D248='UNC - PV'!$Q$2,LEFT(E248,1)="u",'UNC - PV'!$O$2="vnđ",TH!P248&lt;&gt;""),"p",IF(AND(C248="pv",D248='UNC - PV'!$Q$2,LEFT(E248,1)="u",'UNC - PV'!$O$2="usd",TH!O248&lt;&gt;""),"p1",IF(AND(C248="pv",D248='LC - PV'!$P$2,LEFT(E248,1)="l"),"p2",IF(AND(LEFT(C248,3)="EIB",D248='UNC - EIB'!$T$2,LEFT(E248,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P248&lt;&gt;""),"e",IF(AND(LEFT(C248,3)="EIB",D248='UNC - EIB'!$T$2,LEFT(E248,1)="U",'UNC - EIB'!$R$2="usd",TH!O248&lt;&gt;""),"e1",IF(AND(LEFT(C248,3)="EIB",D248='LC - EIB'!$S$2,LEFT(E248,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A249" s="55" t="str">
+        <f>IF(AND(C249="pv",E249='UNC - PV'!$S$2,D249='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C249,3)="eib",E249='UNC - EIB'!$V$2,D249='UNC - EIB'!$T$2),"x1",IF(AND(C249="pv",E249='LC - PV'!$R$2,D249='LC - PV'!$P$2),"x2",IF(AND(LEFT(C249,3)="eib",E249='LC - EIB'!$U$2,D249='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B249" s="62" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="C249" s="62"/>
+      <c r="D249" s="67"/>
+      <c r="E249" s="65"/>
+      <c r="F249" s="64"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="64"/>
+      <c r="I249" s="65"/>
+      <c r="J249" s="66"/>
+      <c r="K249" s="67"/>
+      <c r="L249" s="65"/>
+      <c r="M249" s="65"/>
+      <c r="N249" s="64"/>
+      <c r="O249" s="68"/>
+      <c r="P249" s="69"/>
+      <c r="Q249" s="92"/>
+      <c r="R249" s="202" t="str">
+        <f>IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="vnđ",TH!P249&lt;&gt;""),"p",IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="usd",TH!O249&lt;&gt;""),"p1",IF(AND(C249="pv",D249='LC - PV'!$P$2,LEFT(E249,1)="l"),"p2",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P249&lt;&gt;""),"e",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="U",'UNC - EIB'!$R$2="usd",TH!O249&lt;&gt;""),"e1",IF(AND(LEFT(C249,3)="EIB",D249='LC - EIB'!$S$2,LEFT(E249,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A250" s="55" t="str">
+        <f>IF(AND(C250="pv",E250='UNC - PV'!$S$2,D250='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C250,3)="eib",E250='UNC - EIB'!$V$2,D250='UNC - EIB'!$T$2),"x1",IF(AND(C250="pv",E250='LC - PV'!$R$2,D250='LC - PV'!$P$2),"x2",IF(AND(LEFT(C250,3)="eib",E250='LC - EIB'!$U$2,D250='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B250" s="62" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="C250" s="62"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="65"/>
+      <c r="F250" s="64"/>
+      <c r="G250" s="64"/>
+      <c r="H250" s="64"/>
+      <c r="I250" s="65"/>
+      <c r="J250" s="66"/>
+      <c r="K250" s="67"/>
+      <c r="L250" s="65"/>
+      <c r="M250" s="65"/>
+      <c r="N250" s="64"/>
+      <c r="O250" s="68"/>
+      <c r="P250" s="69"/>
+      <c r="Q250" s="92"/>
+      <c r="R250" s="202" t="str">
+        <f>IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="vnđ",TH!P250&lt;&gt;""),"p",IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="usd",TH!O250&lt;&gt;""),"p1",IF(AND(C250="pv",D250='LC - PV'!$P$2,LEFT(E250,1)="l"),"p2",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P250&lt;&gt;""),"e",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="U",'UNC - EIB'!$R$2="usd",TH!O250&lt;&gt;""),"e1",IF(AND(LEFT(C250,3)="EIB",D250='LC - EIB'!$S$2,LEFT(E250,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A251" s="55" t="str">
+        <f>IF(AND(C251="pv",E251='UNC - PV'!$S$2,D251='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C251,3)="eib",E251='UNC - EIB'!$V$2,D251='UNC - EIB'!$T$2),"x1",IF(AND(C251="pv",E251='LC - PV'!$R$2,D251='LC - PV'!$P$2),"x2",IF(AND(LEFT(C251,3)="eib",E251='LC - EIB'!$U$2,D251='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B251" s="62" t="str">
+        <f t="shared" ref="B251:B255" si="17">IF(C251&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C251" s="62"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="65"/>
+      <c r="F251" s="64"/>
+      <c r="G251" s="64"/>
+      <c r="H251" s="64"/>
+      <c r="I251" s="65"/>
+      <c r="J251" s="66"/>
+      <c r="K251" s="67"/>
+      <c r="L251" s="65"/>
+      <c r="M251" s="65"/>
+      <c r="N251" s="64"/>
+      <c r="O251" s="68"/>
+      <c r="P251" s="69"/>
+      <c r="Q251" s="92"/>
+      <c r="R251" s="202" t="str">
+        <f>IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="vnđ",TH!P251&lt;&gt;""),"p",IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="usd",TH!O251&lt;&gt;""),"p1",IF(AND(C251="pv",D251='LC - PV'!$P$2,LEFT(E251,1)="l"),"p2",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P251&lt;&gt;""),"e",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="U",'UNC - EIB'!$R$2="usd",TH!O251&lt;&gt;""),"e1",IF(AND(LEFT(C251,3)="EIB",D251='LC - EIB'!$S$2,LEFT(E251,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A252" s="55" t="str">
+        <f>IF(AND(C252="pv",E252='UNC - PV'!$S$2,D252='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C252,3)="eib",E252='UNC - EIB'!$V$2,D252='UNC - EIB'!$T$2),"x1",IF(AND(C252="pv",E252='LC - PV'!$R$2,D252='LC - PV'!$P$2),"x2",IF(AND(LEFT(C252,3)="eib",E252='LC - EIB'!$U$2,D252='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B252" s="62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C252" s="62"/>
+      <c r="D252" s="67"/>
+      <c r="E252" s="65"/>
+      <c r="F252" s="64"/>
+      <c r="G252" s="64"/>
+      <c r="H252" s="64"/>
+      <c r="I252" s="65"/>
+      <c r="J252" s="66"/>
+      <c r="K252" s="67"/>
+      <c r="L252" s="65"/>
+      <c r="M252" s="65"/>
+      <c r="N252" s="64"/>
+      <c r="O252" s="68"/>
+      <c r="P252" s="69"/>
+      <c r="Q252" s="92"/>
+      <c r="R252" s="202" t="str">
+        <f>IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="vnđ",TH!P252&lt;&gt;""),"p",IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="usd",TH!O252&lt;&gt;""),"p1",IF(AND(C252="pv",D252='LC - PV'!$P$2,LEFT(E252,1)="l"),"p2",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P252&lt;&gt;""),"e",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="U",'UNC - EIB'!$R$2="usd",TH!O252&lt;&gt;""),"e1",IF(AND(LEFT(C252,3)="EIB",D252='LC - EIB'!$S$2,LEFT(E252,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A253" s="55" t="str">
+        <f>IF(AND(C253="pv",E253='UNC - PV'!$S$2,D253='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C253,3)="eib",E253='UNC - EIB'!$V$2,D253='UNC - EIB'!$T$2),"x1",IF(AND(C253="pv",E253='LC - PV'!$R$2,D253='LC - PV'!$P$2),"x2",IF(AND(LEFT(C253,3)="eib",E253='LC - EIB'!$U$2,D253='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B253" s="62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C253" s="62"/>
+      <c r="D253" s="67"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="64"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="64"/>
+      <c r="I253" s="65"/>
+      <c r="J253" s="66"/>
+      <c r="K253" s="67"/>
+      <c r="L253" s="65"/>
+      <c r="M253" s="65"/>
+      <c r="N253" s="64"/>
+      <c r="O253" s="68"/>
+      <c r="P253" s="69"/>
+      <c r="Q253" s="92"/>
+      <c r="R253" s="202" t="str">
+        <f>IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="vnđ",TH!P253&lt;&gt;""),"p",IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="usd",TH!O253&lt;&gt;""),"p1",IF(AND(C253="pv",D253='LC - PV'!$P$2,LEFT(E253,1)="l"),"p2",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P253&lt;&gt;""),"e",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="U",'UNC - EIB'!$R$2="usd",TH!O253&lt;&gt;""),"e1",IF(AND(LEFT(C253,3)="EIB",D253='LC - EIB'!$S$2,LEFT(E253,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A254" s="55" t="str">
+        <f>IF(AND(C254="pv",E254='UNC - PV'!$S$2,D254='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C254,3)="eib",E254='UNC - EIB'!$V$2,D254='UNC - EIB'!$T$2),"x1",IF(AND(C254="pv",E254='LC - PV'!$R$2,D254='LC - PV'!$P$2),"x2",IF(AND(LEFT(C254,3)="eib",E254='LC - EIB'!$U$2,D254='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B254" s="62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C254" s="62"/>
+      <c r="D254" s="67"/>
+      <c r="E254" s="65"/>
+      <c r="F254" s="64"/>
+      <c r="G254" s="64"/>
+      <c r="H254" s="64"/>
+      <c r="I254" s="65"/>
+      <c r="J254" s="66"/>
+      <c r="K254" s="67"/>
+      <c r="L254" s="65"/>
+      <c r="M254" s="65"/>
+      <c r="N254" s="64"/>
+      <c r="O254" s="68"/>
+      <c r="P254" s="69"/>
+      <c r="Q254" s="92"/>
+      <c r="R254" s="202" t="str">
+        <f>IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="vnđ",TH!P254&lt;&gt;""),"p",IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="usd",TH!O254&lt;&gt;""),"p1",IF(AND(C254="pv",D254='LC - PV'!$P$2,LEFT(E254,1)="l"),"p2",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P254&lt;&gt;""),"e",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="U",'UNC - EIB'!$R$2="usd",TH!O254&lt;&gt;""),"e1",IF(AND(LEFT(C254,3)="EIB",D254='LC - EIB'!$S$2,LEFT(E254,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A255" s="55" t="str">
+        <f>IF(AND(C255="pv",E255='UNC - PV'!$S$2,D255='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C255,3)="eib",E255='UNC - EIB'!$V$2,D255='UNC - EIB'!$T$2),"x1",IF(AND(C255="pv",E255='LC - PV'!$R$2,D255='LC - PV'!$P$2),"x2",IF(AND(LEFT(C255,3)="eib",E255='LC - EIB'!$U$2,D255='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B255" s="62" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="C255" s="62"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="65"/>
+      <c r="F255" s="64"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
+      <c r="I255" s="65"/>
+      <c r="J255" s="66"/>
+      <c r="K255" s="67"/>
+      <c r="L255" s="65"/>
+      <c r="M255" s="65"/>
+      <c r="N255" s="64"/>
+      <c r="O255" s="68"/>
+      <c r="P255" s="69"/>
+      <c r="Q255" s="92"/>
+      <c r="R255" s="202" t="str">
+        <f>IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="vnđ",TH!P255&lt;&gt;""),"p",IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="usd",TH!O255&lt;&gt;""),"p1",IF(AND(C255="pv",D255='LC - PV'!$P$2,LEFT(E255,1)="l"),"p2",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P255&lt;&gt;""),"e",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="U",'UNC - EIB'!$R$2="usd",TH!O255&lt;&gt;""),"e1",IF(AND(LEFT(C255,3)="EIB",D255='LC - EIB'!$S$2,LEFT(E255,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A256" s="55" t="str">
+        <f>IF(AND(C256="pv",E256='UNC - PV'!$S$2,D256='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C256,3)="eib",E256='UNC - EIB'!$V$2,D256='UNC - EIB'!$T$2),"x1",IF(AND(C256="pv",E256='LC - PV'!$R$2,D256='LC - PV'!$P$2),"x2",IF(AND(LEFT(C256,3)="eib",E256='LC - EIB'!$U$2,D256='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B256" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C256" s="62"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="65"/>
+      <c r="F256" s="64"/>
+      <c r="G256" s="64"/>
+      <c r="H256" s="64"/>
+      <c r="I256" s="65"/>
+      <c r="J256" s="66"/>
+      <c r="K256" s="67"/>
+      <c r="L256" s="65"/>
+      <c r="M256" s="65"/>
+      <c r="N256" s="64"/>
+      <c r="O256" s="68"/>
+      <c r="P256" s="69"/>
+      <c r="Q256" s="92"/>
+      <c r="R256" s="202" t="str">
+        <f>IF(AND(C256="pv",D256='UNC - PV'!$Q$2,LEFT(E256,1)="u",'UNC - PV'!$O$2="vnđ",TH!P256&lt;&gt;""),"p",IF(AND(C256="pv",D256='UNC - PV'!$Q$2,LEFT(E256,1)="u",'UNC - PV'!$O$2="usd",TH!O256&lt;&gt;""),"p1",IF(AND(C256="pv",D256='LC - PV'!$P$2,LEFT(E256,1)="l"),"p2",IF(AND(LEFT(C256,3)="EIB",D256='UNC - EIB'!$T$2,LEFT(E256,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P256&lt;&gt;""),"e",IF(AND(LEFT(C256,3)="EIB",D256='UNC - EIB'!$T$2,LEFT(E256,1)="U",'UNC - EIB'!$R$2="usd",TH!O256&lt;&gt;""),"e1",IF(AND(LEFT(C256,3)="EIB",D256='LC - EIB'!$S$2,LEFT(E256,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A257" s="55" t="str">
+        <f>IF(AND(C257="pv",E257='UNC - PV'!$S$2,D257='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C257,3)="eib",E257='UNC - EIB'!$V$2,D257='UNC - EIB'!$T$2),"x1",IF(AND(C257="pv",E257='LC - PV'!$R$2,D257='LC - PV'!$P$2),"x2",IF(AND(LEFT(C257,3)="eib",E257='LC - EIB'!$U$2,D257='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B257" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C257" s="62"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="65"/>
+      <c r="F257" s="64"/>
+      <c r="G257" s="64"/>
+      <c r="H257" s="64"/>
+      <c r="I257" s="65"/>
+      <c r="J257" s="66"/>
+      <c r="K257" s="67"/>
+      <c r="L257" s="65"/>
+      <c r="M257" s="65"/>
+      <c r="N257" s="64"/>
+      <c r="O257" s="68"/>
+      <c r="P257" s="69"/>
+      <c r="Q257" s="92"/>
+      <c r="R257" s="202" t="str">
+        <f>IF(AND(C257="pv",D257='UNC - PV'!$Q$2,LEFT(E257,1)="u",'UNC - PV'!$O$2="vnđ",TH!P257&lt;&gt;""),"p",IF(AND(C257="pv",D257='UNC - PV'!$Q$2,LEFT(E257,1)="u",'UNC - PV'!$O$2="usd",TH!O257&lt;&gt;""),"p1",IF(AND(C257="pv",D257='LC - PV'!$P$2,LEFT(E257,1)="l"),"p2",IF(AND(LEFT(C257,3)="EIB",D257='UNC - EIB'!$T$2,LEFT(E257,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P257&lt;&gt;""),"e",IF(AND(LEFT(C257,3)="EIB",D257='UNC - EIB'!$T$2,LEFT(E257,1)="U",'UNC - EIB'!$R$2="usd",TH!O257&lt;&gt;""),"e1",IF(AND(LEFT(C257,3)="EIB",D257='LC - EIB'!$S$2,LEFT(E257,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A258" s="55" t="str">
+        <f>IF(AND(C258="pv",E258='UNC - PV'!$S$2,D258='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C258,3)="eib",E258='UNC - EIB'!$V$2,D258='UNC - EIB'!$T$2),"x1",IF(AND(C258="pv",E258='LC - PV'!$R$2,D258='LC - PV'!$P$2),"x2",IF(AND(LEFT(C258,3)="eib",E258='LC - EIB'!$U$2,D258='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B258" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C258" s="62"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="65"/>
+      <c r="F258" s="64"/>
+      <c r="G258" s="64"/>
+      <c r="H258" s="64"/>
+      <c r="I258" s="65"/>
+      <c r="J258" s="66"/>
+      <c r="K258" s="67"/>
+      <c r="L258" s="65"/>
+      <c r="M258" s="65"/>
+      <c r="N258" s="64"/>
+      <c r="O258" s="68"/>
+      <c r="P258" s="69"/>
+      <c r="Q258" s="92"/>
+      <c r="R258" s="202" t="str">
+        <f>IF(AND(C258="pv",D258='UNC - PV'!$Q$2,LEFT(E258,1)="u",'UNC - PV'!$O$2="vnđ",TH!P258&lt;&gt;""),"p",IF(AND(C258="pv",D258='UNC - PV'!$Q$2,LEFT(E258,1)="u",'UNC - PV'!$O$2="usd",TH!O258&lt;&gt;""),"p1",IF(AND(C258="pv",D258='LC - PV'!$P$2,LEFT(E258,1)="l"),"p2",IF(AND(LEFT(C258,3)="EIB",D258='UNC - EIB'!$T$2,LEFT(E258,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P258&lt;&gt;""),"e",IF(AND(LEFT(C258,3)="EIB",D258='UNC - EIB'!$T$2,LEFT(E258,1)="U",'UNC - EIB'!$R$2="usd",TH!O258&lt;&gt;""),"e1",IF(AND(LEFT(C258,3)="EIB",D258='LC - EIB'!$S$2,LEFT(E258,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A259" s="55" t="str">
+        <f>IF(AND(C259="pv",E259='UNC - PV'!$S$2,D259='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C259,3)="eib",E259='UNC - EIB'!$V$2,D259='UNC - EIB'!$T$2),"x1",IF(AND(C259="pv",E259='LC - PV'!$R$2,D259='LC - PV'!$P$2),"x2",IF(AND(LEFT(C259,3)="eib",E259='LC - EIB'!$U$2,D259='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B259" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C259" s="62"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="65"/>
+      <c r="F259" s="64"/>
+      <c r="G259" s="64"/>
+      <c r="H259" s="64"/>
+      <c r="I259" s="65"/>
+      <c r="J259" s="66"/>
+      <c r="K259" s="67"/>
+      <c r="L259" s="65"/>
+      <c r="M259" s="65"/>
+      <c r="N259" s="64"/>
+      <c r="O259" s="68"/>
+      <c r="P259" s="69"/>
+      <c r="Q259" s="92"/>
+      <c r="R259" s="202" t="str">
+        <f>IF(AND(C259="pv",D259='UNC - PV'!$Q$2,LEFT(E259,1)="u",'UNC - PV'!$O$2="vnđ",TH!P259&lt;&gt;""),"p",IF(AND(C259="pv",D259='UNC - PV'!$Q$2,LEFT(E259,1)="u",'UNC - PV'!$O$2="usd",TH!O259&lt;&gt;""),"p1",IF(AND(C259="pv",D259='LC - PV'!$P$2,LEFT(E259,1)="l"),"p2",IF(AND(LEFT(C259,3)="EIB",D259='UNC - EIB'!$T$2,LEFT(E259,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P259&lt;&gt;""),"e",IF(AND(LEFT(C259,3)="EIB",D259='UNC - EIB'!$T$2,LEFT(E259,1)="U",'UNC - EIB'!$R$2="usd",TH!O259&lt;&gt;""),"e1",IF(AND(LEFT(C259,3)="EIB",D259='LC - EIB'!$S$2,LEFT(E259,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A260" s="55" t="str">
+        <f>IF(AND(C260="pv",E260='UNC - PV'!$S$2,D260='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C260,3)="eib",E260='UNC - EIB'!$V$2,D260='UNC - EIB'!$T$2),"x1",IF(AND(C260="pv",E260='LC - PV'!$R$2,D260='LC - PV'!$P$2),"x2",IF(AND(LEFT(C260,3)="eib",E260='LC - EIB'!$U$2,D260='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B260" s="62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="C260" s="62"/>
+      <c r="D260" s="67"/>
+      <c r="E260" s="65"/>
+      <c r="F260" s="64"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="64"/>
+      <c r="I260" s="65"/>
+      <c r="J260" s="66"/>
+      <c r="K260" s="67"/>
+      <c r="L260" s="65"/>
+      <c r="M260" s="65"/>
+      <c r="N260" s="64"/>
+      <c r="O260" s="68"/>
+      <c r="P260" s="69"/>
+      <c r="Q260" s="92"/>
+      <c r="R260" s="202" t="str">
+        <f>IF(AND(C260="pv",D260='UNC - PV'!$Q$2,LEFT(E260,1)="u",'UNC - PV'!$O$2="vnđ",TH!P260&lt;&gt;""),"p",IF(AND(C260="pv",D260='UNC - PV'!$Q$2,LEFT(E260,1)="u",'UNC - PV'!$O$2="usd",TH!O260&lt;&gt;""),"p1",IF(AND(C260="pv",D260='LC - PV'!$P$2,LEFT(E260,1)="l"),"p2",IF(AND(LEFT(C260,3)="EIB",D260='UNC - EIB'!$T$2,LEFT(E260,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P260&lt;&gt;""),"e",IF(AND(LEFT(C260,3)="EIB",D260='UNC - EIB'!$T$2,LEFT(E260,1)="U",'UNC - EIB'!$R$2="usd",TH!O260&lt;&gt;""),"e1",IF(AND(LEFT(C260,3)="EIB",D260='LC - EIB'!$S$2,LEFT(E260,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X227">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EIB-TV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:X261"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14749,12 +16396,1863 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C226">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C260">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="174" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="175" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="177" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="181" customWidth="1"/>
+    <col min="7" max="7" width="8" style="177" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="179" customWidth="1"/>
+    <col min="9" max="9" width="11" style="180" customWidth="1"/>
+    <col min="10" max="10" width="10" style="180" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="177" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="181" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="182" customWidth="1"/>
+    <col min="14" max="14" width="10" style="182" customWidth="1"/>
+    <col min="15" max="15" width="9" style="182" customWidth="1"/>
+    <col min="16" max="16" width="9" style="183" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="184" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="184" customWidth="1"/>
+    <col min="19" max="19" width="15" style="174" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="175" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="121" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="257" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="257"/>
+      <c r="E2" s="258" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="264" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="259" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="259"/>
+      <c r="M2" s="262" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="263" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" s="256" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="186" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="235" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="235" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="232" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="233" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="234" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q3" s="234" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="263"/>
+      <c r="S3" s="256"/>
+    </row>
+    <row r="4" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="145">
+        <f t="shared" ref="A4:A17" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="134">
+        <v>42863</v>
+      </c>
+      <c r="D4" s="134">
+        <v>43047</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="135">
+        <v>82000</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="130">
+        <f t="shared" ref="L4:L16" si="1">F4-J4</f>
+        <v>82000</v>
+      </c>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="137">
+        <f t="shared" ref="O4:O16" si="2">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="137">
+        <f t="shared" ref="P4:P16" si="3">IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>256.25</v>
+      </c>
+      <c r="Q4" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R4" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S4" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T4" s="190"/>
+    </row>
+    <row r="5" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="145">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="134">
+        <v>42867</v>
+      </c>
+      <c r="D5" s="134">
+        <v>43051</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="135">
+        <v>89000</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="130">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="137">
+        <f t="shared" si="3"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q5" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R5" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S5" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="145">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D6" s="134">
+        <v>42982</v>
+      </c>
+      <c r="E6" s="136"/>
+      <c r="F6" s="135">
+        <v>87500</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130">
+        <f t="shared" si="1"/>
+        <v>87500</v>
+      </c>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="137">
+        <f t="shared" si="3"/>
+        <v>218.75</v>
+      </c>
+      <c r="Q6" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R6" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T6" s="191"/>
+    </row>
+    <row r="7" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="145">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D7" s="134">
+        <v>42900</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="135">
+        <v>137000</v>
+      </c>
+      <c r="G7" s="136"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130">
+        <f t="shared" si="1"/>
+        <v>137000</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="137">
+        <f t="shared" si="3"/>
+        <v>342.5</v>
+      </c>
+      <c r="Q7" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R7" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T7" s="191"/>
+    </row>
+    <row r="8" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="145">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D8" s="134">
+        <v>42915</v>
+      </c>
+      <c r="E8" s="136"/>
+      <c r="F8" s="135">
+        <v>85000</v>
+      </c>
+      <c r="G8" s="136"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="137">
+        <f t="shared" si="3"/>
+        <v>212.5</v>
+      </c>
+      <c r="Q8" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R8" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T8" s="201">
+        <f>E7*R7/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="145">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D9" s="134">
+        <v>42922</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="135">
+        <v>93000</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130">
+        <f t="shared" si="1"/>
+        <v>93000</v>
+      </c>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="137">
+        <f t="shared" si="3"/>
+        <v>232.5</v>
+      </c>
+      <c r="Q9" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R9" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T9" s="191"/>
+    </row>
+    <row r="10" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="145">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D10" s="134">
+        <v>42955</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="163">
+        <v>63000</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="130">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="137">
+        <f t="shared" si="3"/>
+        <v>157.5</v>
+      </c>
+      <c r="Q10" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R10" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="145">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D11" s="134">
+        <v>42969</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="163">
+        <v>83500</v>
+      </c>
+      <c r="G11" s="136"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130">
+        <f t="shared" si="1"/>
+        <v>83500</v>
+      </c>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="137">
+        <f t="shared" si="3"/>
+        <v>208.75</v>
+      </c>
+      <c r="Q11" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R11" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S11" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T11" s="191"/>
+    </row>
+    <row r="12" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="145">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="162">
+        <v>42828</v>
+      </c>
+      <c r="D12" s="134">
+        <v>43011</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="163">
+        <v>96000</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="130">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164">
+        <f>P12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="137">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="Q12" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R12" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S12" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="145">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="162">
+        <v>42845</v>
+      </c>
+      <c r="D13" s="134">
+        <v>43028</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="163">
+        <v>273000</v>
+      </c>
+      <c r="G13" s="164"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="130">
+        <f t="shared" si="1"/>
+        <v>273000</v>
+      </c>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="137">
+        <f t="shared" si="3"/>
+        <v>853.125</v>
+      </c>
+      <c r="Q13" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R13" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S13" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="145">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="162">
+        <v>42851</v>
+      </c>
+      <c r="D14" s="134">
+        <v>43034</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="164"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q14" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R14" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S14" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="145">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="162">
+        <v>42852</v>
+      </c>
+      <c r="D15" s="134">
+        <v>43035</v>
+      </c>
+      <c r="E15" s="164"/>
+      <c r="F15" s="163">
+        <v>110000</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="130">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="137">
+        <f t="shared" si="3"/>
+        <v>343.75</v>
+      </c>
+      <c r="Q15" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R15" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S15" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="145">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="162">
+        <v>42853</v>
+      </c>
+      <c r="D16" s="134">
+        <v>43036</v>
+      </c>
+      <c r="E16" s="164"/>
+      <c r="F16" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G16" s="164"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q16" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R16" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S16" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="145">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="162">
+        <v>42877</v>
+      </c>
+      <c r="D17" s="134">
+        <v>42904</v>
+      </c>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163">
+        <v>41000</v>
+      </c>
+      <c r="G17" s="164"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="130">
+        <f t="shared" ref="L17" si="4">F17-J17</f>
+        <v>41000</v>
+      </c>
+      <c r="M17" s="163"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="137">
+        <f t="shared" ref="O17" si="5">IF((LEFT(B17,4)="1402"),F17*R17*DATEDIF(DATE(YEAR(Q17),MONTH(Q17)-1,IF(MONTH(C17)=(MONTH(Q17)-1),DAY(C17),16)),Q17,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="137">
+        <f t="shared" ref="P17" si="6">IF((LEFT(B17,4)="ld17"),F17*R17*DATEDIF(DATE(YEAR(Q17),MONTH(Q17)-1,DAY(Q17)),Q17,"d")/360,0)</f>
+        <v>128.125</v>
+      </c>
+      <c r="Q17" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R17" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S17" s="152"/>
+    </row>
+    <row r="18" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="152"/>
+    </row>
+    <row r="19" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="255" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="255"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="140">
+        <f>SUM(E4:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <f>SUM(F4:F18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="G19" s="140">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="139"/>
+      <c r="I19" s="141">
+        <f>SUM(I4:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="141">
+        <f>SUM(J4:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="141">
+        <f>SUM(K4:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="141">
+        <f>SUM(L4:L18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="M19" s="141">
+        <f>SUM(M4:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141">
+        <f>SUM(O4:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="141">
+        <f>SUM(P4:P18)</f>
+        <v>3781.875</v>
+      </c>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="143"/>
+    </row>
+    <row r="20" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="145">
+        <f>ROW()-19</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="149">
+        <v>41870</v>
+      </c>
+      <c r="D20" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E20" s="150">
+        <v>933280000</v>
+      </c>
+      <c r="F20" s="137"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I20" s="150">
+        <v>8340000</v>
+      </c>
+      <c r="J20" s="137"/>
+      <c r="K20" s="150">
+        <f t="shared" ref="K20:K34" si="7">E20-I20</f>
+        <v>924940000</v>
+      </c>
+      <c r="L20" s="137"/>
+      <c r="M20" s="150">
+        <f>IF((LEFT(B20,4)="1402"),E20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>7699560</v>
+      </c>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="137">
+        <f t="shared" ref="P20:P34" si="8">IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="189">
+        <f>H20</f>
+        <v>42874</v>
+      </c>
+      <c r="R20" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S20" s="170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="145">
+        <f t="shared" ref="A21:A34" si="9">ROW()-19</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="149">
+        <v>41905</v>
+      </c>
+      <c r="D21" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E21" s="150">
+        <v>1866640000</v>
+      </c>
+      <c r="F21" s="137"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I21" s="150">
+        <v>16670000</v>
+      </c>
+      <c r="J21" s="137"/>
+      <c r="K21" s="150">
+        <f t="shared" si="7"/>
+        <v>1849970000</v>
+      </c>
+      <c r="L21" s="137"/>
+      <c r="M21" s="150">
+        <f t="shared" ref="M21:M33" si="10">IF((LEFT(B21,4)="1402"),E21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>15399780</v>
+      </c>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137">
+        <f t="shared" ref="O21:O34" si="11">IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="189">
+        <f t="shared" ref="Q21:Q33" si="12">H21</f>
+        <v>42874</v>
+      </c>
+      <c r="R21" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S21" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="145">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="171">
+        <v>41934</v>
+      </c>
+      <c r="D22" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="150">
+        <v>1493280000</v>
+      </c>
+      <c r="F22" s="173"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I22" s="172">
+        <v>13340000</v>
+      </c>
+      <c r="J22" s="173"/>
+      <c r="K22" s="150">
+        <f t="shared" si="7"/>
+        <v>1479940000</v>
+      </c>
+      <c r="L22" s="173"/>
+      <c r="M22" s="150">
+        <f t="shared" si="10"/>
+        <v>12319560</v>
+      </c>
+      <c r="N22" s="173"/>
+      <c r="O22" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R22" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S22" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="145">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="171">
+        <v>41963</v>
+      </c>
+      <c r="D23" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I23" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J23" s="173"/>
+      <c r="K23" s="150">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L23" s="173"/>
+      <c r="M23" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N23" s="173"/>
+      <c r="O23" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R23" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="145">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="171">
+        <v>41984</v>
+      </c>
+      <c r="D24" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="150">
+        <v>933360000</v>
+      </c>
+      <c r="F24" s="173"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I24" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J24" s="173"/>
+      <c r="K24" s="172">
+        <f t="shared" si="7"/>
+        <v>925030000</v>
+      </c>
+      <c r="L24" s="173"/>
+      <c r="M24" s="150">
+        <f t="shared" si="10"/>
+        <v>7700220</v>
+      </c>
+      <c r="N24" s="173"/>
+      <c r="O24" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R24" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S24" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="145">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="171">
+        <v>42033</v>
+      </c>
+      <c r="D25" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F25" s="173"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I25" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="173"/>
+      <c r="K25" s="172">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L25" s="173"/>
+      <c r="M25" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N25" s="173"/>
+      <c r="O25" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R25" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S25" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="145">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="171">
+        <v>42088</v>
+      </c>
+      <c r="D26" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="150">
+        <v>1866640000</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I26" s="172">
+        <v>16670000</v>
+      </c>
+      <c r="J26" s="173"/>
+      <c r="K26" s="172">
+        <f t="shared" si="7"/>
+        <v>1849970000</v>
+      </c>
+      <c r="L26" s="173"/>
+      <c r="M26" s="150">
+        <f t="shared" si="10"/>
+        <v>15399780</v>
+      </c>
+      <c r="N26" s="173"/>
+      <c r="O26" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R26" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S26" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="145">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="171">
+        <v>42114</v>
+      </c>
+      <c r="D27" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="150">
+        <v>1306640000</v>
+      </c>
+      <c r="F27" s="173"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I27" s="172">
+        <v>11670000</v>
+      </c>
+      <c r="J27" s="173"/>
+      <c r="K27" s="172">
+        <f t="shared" si="7"/>
+        <v>1294970000</v>
+      </c>
+      <c r="L27" s="173"/>
+      <c r="M27" s="150">
+        <f t="shared" si="10"/>
+        <v>9473140</v>
+      </c>
+      <c r="N27" s="173"/>
+      <c r="O27" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R27" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="145">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="171">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F28" s="173"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I28" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="173"/>
+      <c r="K28" s="172">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L28" s="173"/>
+      <c r="M28" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N28" s="173"/>
+      <c r="O28" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R28" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S28" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="145">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="171">
+        <v>42164</v>
+      </c>
+      <c r="D29" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F29" s="173"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I29" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="173"/>
+      <c r="K29" s="172">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L29" s="173"/>
+      <c r="M29" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N29" s="173"/>
+      <c r="O29" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R29" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S29" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="145">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="171">
+        <v>42187</v>
+      </c>
+      <c r="D30" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F30" s="173"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I30" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="173"/>
+      <c r="K30" s="172">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L30" s="173"/>
+      <c r="M30" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N30" s="173"/>
+      <c r="O30" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R30" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S30" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="145">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="171">
+        <v>42195</v>
+      </c>
+      <c r="D31" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="150">
+        <v>1400000000</v>
+      </c>
+      <c r="F31" s="173"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I31" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="173"/>
+      <c r="K31" s="172">
+        <f t="shared" si="7"/>
+        <v>1387500000</v>
+      </c>
+      <c r="L31" s="173"/>
+      <c r="M31" s="150">
+        <f t="shared" si="10"/>
+        <v>11550000</v>
+      </c>
+      <c r="N31" s="173"/>
+      <c r="O31" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R31" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S31" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="145">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="171">
+        <v>42215</v>
+      </c>
+      <c r="D32" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="150">
+        <v>933280000</v>
+      </c>
+      <c r="F32" s="173"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I32" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="173"/>
+      <c r="K32" s="172">
+        <f t="shared" si="7"/>
+        <v>924950000</v>
+      </c>
+      <c r="L32" s="173"/>
+      <c r="M32" s="150">
+        <f t="shared" si="10"/>
+        <v>7699560</v>
+      </c>
+      <c r="N32" s="173"/>
+      <c r="O32" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R32" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S32" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="145">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="171">
+        <v>42229</v>
+      </c>
+      <c r="D33" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="150">
+        <v>933280000</v>
+      </c>
+      <c r="F33" s="173"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I33" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J33" s="173"/>
+      <c r="K33" s="172">
+        <f t="shared" si="7"/>
+        <v>924950000</v>
+      </c>
+      <c r="L33" s="173"/>
+      <c r="M33" s="150">
+        <f t="shared" si="10"/>
+        <v>7699560</v>
+      </c>
+      <c r="N33" s="173"/>
+      <c r="O33" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="189">
+        <f t="shared" si="12"/>
+        <v>42874</v>
+      </c>
+      <c r="R33" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S33" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="145">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="148" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="171">
+        <v>42730</v>
+      </c>
+      <c r="D34" s="171">
+        <v>42851</v>
+      </c>
+      <c r="E34" s="172"/>
+      <c r="F34" s="173">
+        <v>87000</v>
+      </c>
+      <c r="G34" s="172"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="172">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="173">
+        <f>F34</f>
+        <v>87000</v>
+      </c>
+      <c r="M34" s="150"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="137">
+        <f t="shared" si="11"/>
+        <v>181.25</v>
+      </c>
+      <c r="P34" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="189">
+        <v>42871</v>
+      </c>
+      <c r="R34" s="188">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="128"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="138"/>
+    </row>
+    <row r="36" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="255" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="255"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="140">
+        <f>SUM(E20:E35)</f>
+        <v>18666400000</v>
+      </c>
+      <c r="F36" s="141">
+        <f>SUM(F20:F35)</f>
+        <v>87000</v>
+      </c>
+      <c r="G36" s="140">
+        <f>SUM(G20:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="141"/>
+      <c r="I36" s="140">
+        <f t="shared" ref="I36:P36" si="13">SUM(I20:I35)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J36" s="141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="140">
+        <f t="shared" si="13"/>
+        <v>18499720000</v>
+      </c>
+      <c r="L36" s="141">
+        <f t="shared" si="13"/>
+        <v>87000</v>
+      </c>
+      <c r="M36" s="140">
+        <f t="shared" si="13"/>
+        <v>152691160</v>
+      </c>
+      <c r="N36" s="141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="141">
+        <f t="shared" si="13"/>
+        <v>181.25</v>
+      </c>
+      <c r="P36" s="141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="143"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F37" s="178"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F38" s="175"/>
+      <c r="K38" s="237"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F39" s="175"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="175"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="178"/>
+    </row>
+    <row r="50" spans="1:19" s="183" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="174"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="185"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="185"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="174"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S19"/>
+  <sortState ref="A4:T17">
+    <sortCondition ref="D4:D17"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -14767,7 +18265,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14817,11 +18315,11 @@
         <v>27</v>
       </c>
       <c r="T2" s="10">
-        <v>42821</v>
+        <v>42870</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -15025,7 +18523,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai trăm bảy mươi triệu đồng.</v>
+        <v>Chín tỷ, chín trăm tám mươi triệu đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -15037,10 +18535,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="240" t="s">
+      <c r="N20" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="240"/>
+      <c r="O20" s="247"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -15054,10 +18552,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="241" t="s">
+      <c r="N21" s="248" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="241"/>
+      <c r="O21" s="248"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -15066,7 +18564,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>270000000</v>
+        <v>9980000000</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -15081,7 +18579,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>Ứng vốn</v>
+        <v>Thanh toán tiền hàng</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -15219,30 +18717,30 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="18" max="18" width="4.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="6" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -15258,11 +18756,11 @@
         <v>27</v>
       </c>
       <c r="Q2" s="10">
-        <v>42815</v>
+        <v>42878</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -15272,19 +18770,19 @@
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
-        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0   0   2    6    8    6    1    5")</f>
-        <v xml:space="preserve"> 1    0    7    0    0   0   2    6    8    6    1    5</v>
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0    0   2    6    8    6    1    5")</f>
+        <v xml:space="preserve"> 1    0    7    0    0    0   2    6    8    6    1    5</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
-      <c r="F8" s="242">
+    <row r="8" spans="1:19" ht="19.5" customHeight="1">
+      <c r="F8" s="249">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>29375000</v>
-      </c>
-      <c r="G8" s="242"/>
+        <v>1200000</v>
+      </c>
+      <c r="G8" s="249"/>
       <c r="K8" s="7" t="str">
         <f>IF(O2="vnđ","x","")</f>
         <v>x</v>
@@ -15295,9 +18793,9 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
-      <c r="F9" s="7" t="e">
-        <f ca="1">[2]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>#NAME?</v>
+      <c r="F9" s="7" t="str">
+        <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Một triệu, hai trăm ngàn đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1">
@@ -15308,30 +18806,30 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán tiền chlorine dioxide - Hải Trung Anh</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1">
+        <v>Thanh toán phí kiểm nghiệm T04/2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="22.5" customHeight="1">
       <c r="F13" s="203" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH THƯƠNG MẠI DỊCH VỤ HẢI TRUNG ANH</v>
+        <v>TRUNG TÂM CHẤT LƯỢNG NÔNG LÂM THUỶ SẢN VÙNG 4</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="16" spans="1:19" ht="21" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1403 148 5101 7230</v>
+        <v>3511.0.1053950</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>EXIMBANK - CN Quận 7, TPHCM</v>
+        <v>KHO BẠC NHÀ NƯỚC QUẬN 1, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -15348,7 +18846,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="98" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
   </headerFooter>
@@ -15414,11 +18912,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="242" t="e">
+      <c r="E8" s="249" t="e">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="242"/>
+      <c r="F8" s="249"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -15728,11 +19226,11 @@
         <v>112</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="246" t="e">
+      <c r="L17" s="253" t="e">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="246"/>
+      <c r="M17" s="253"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -15794,11 +19292,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="243" t="s">
+      <c r="N21" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="251"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -15813,11 +19311,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="245" t="s">
+      <c r="N22" s="252" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="241"/>
-      <c r="P22" s="241"/>
+      <c r="O22" s="248"/>
+      <c r="P22" s="248"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -16031,36 +19529,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E2" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="247" t="s">
+      <c r="G2" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H2" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J2" s="247" t="s">
+      <c r="J2" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="247"/>
-      <c r="C3" s="247"/>
+      <c r="A3" s="254"/>
+      <c r="C3" s="254"/>
       <c r="E3" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="247"/>
+      <c r="G3" s="254"/>
       <c r="H3" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J3" s="247"/>
+      <c r="J3" s="254"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="211" t="s">
@@ -16104,36 +19602,36 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="247" t="s">
+      <c r="C7" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E7" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G7" s="247" t="s">
+      <c r="G7" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H7" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J7" s="247" t="s">
+      <c r="J7" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="247"/>
-      <c r="C8" s="247"/>
+      <c r="A8" s="254"/>
+      <c r="C8" s="254"/>
       <c r="E8" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="247"/>
+      <c r="G8" s="254"/>
       <c r="H8" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J8" s="247"/>
+      <c r="J8" s="254"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="211" t="s">
@@ -16177,36 +19675,36 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="247" t="s">
+      <c r="C12" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E12" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G12" s="247" t="s">
+      <c r="G12" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H12" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J12" s="247" t="s">
+      <c r="J12" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A13" s="247"/>
-      <c r="C13" s="247"/>
+      <c r="A13" s="254"/>
+      <c r="C13" s="254"/>
       <c r="E13" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G13" s="247"/>
+      <c r="G13" s="254"/>
       <c r="H13" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J13" s="247"/>
+      <c r="J13" s="254"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="211" t="s">
@@ -16250,36 +19748,36 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="247" t="s">
+      <c r="A17" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C17" s="247" t="s">
+      <c r="C17" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E17" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G17" s="247" t="s">
+      <c r="G17" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H17" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J17" s="247" t="s">
+      <c r="J17" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A18" s="247"/>
-      <c r="C18" s="247"/>
+      <c r="A18" s="254"/>
+      <c r="C18" s="254"/>
       <c r="E18" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G18" s="247"/>
+      <c r="G18" s="254"/>
       <c r="H18" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J18" s="247"/>
+      <c r="J18" s="254"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A19" s="211" t="s">
@@ -16323,36 +19821,36 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A22" s="247" t="s">
+      <c r="A22" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="247" t="s">
+      <c r="C22" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E22" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G22" s="247" t="s">
+      <c r="G22" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J22" s="247" t="s">
+      <c r="J22" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A23" s="247"/>
-      <c r="C23" s="247"/>
+      <c r="A23" s="254"/>
+      <c r="C23" s="254"/>
       <c r="E23" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G23" s="247"/>
+      <c r="G23" s="254"/>
       <c r="H23" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J23" s="247"/>
+      <c r="J23" s="254"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A24" s="211" t="s">
@@ -16396,36 +19894,36 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="247" t="s">
+      <c r="A27" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C27" s="247" t="s">
+      <c r="C27" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E27" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G27" s="247" t="s">
+      <c r="G27" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H27" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J27" s="247" t="s">
+      <c r="J27" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="247"/>
-      <c r="C28" s="247"/>
+      <c r="A28" s="254"/>
+      <c r="C28" s="254"/>
       <c r="E28" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G28" s="247"/>
+      <c r="G28" s="254"/>
       <c r="H28" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J28" s="247"/>
+      <c r="J28" s="254"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="211" t="s">
@@ -16469,36 +19967,36 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A32" s="247" t="s">
+      <c r="A32" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C32" s="247" t="s">
+      <c r="C32" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E32" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G32" s="247" t="s">
+      <c r="G32" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J32" s="247" t="s">
+      <c r="J32" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A33" s="247"/>
-      <c r="C33" s="247"/>
+      <c r="A33" s="254"/>
+      <c r="C33" s="254"/>
       <c r="E33" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G33" s="247"/>
+      <c r="G33" s="254"/>
       <c r="H33" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J33" s="247"/>
+      <c r="J33" s="254"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A34" s="211" t="s">
@@ -16542,36 +20040,36 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A37" s="247" t="s">
+      <c r="A37" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C37" s="247" t="s">
+      <c r="C37" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E37" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G37" s="247" t="s">
+      <c r="G37" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H37" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J37" s="247" t="s">
+      <c r="J37" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A38" s="247"/>
-      <c r="C38" s="247"/>
+      <c r="A38" s="254"/>
+      <c r="C38" s="254"/>
       <c r="E38" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G38" s="247"/>
+      <c r="G38" s="254"/>
       <c r="H38" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J38" s="247"/>
+      <c r="J38" s="254"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="211" t="s">
@@ -16615,36 +20113,36 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A42" s="247" t="s">
+      <c r="A42" s="254" t="s">
         <v>435</v>
       </c>
-      <c r="C42" s="247" t="s">
+      <c r="C42" s="254" t="s">
         <v>431</v>
       </c>
       <c r="E42" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G42" s="247" t="s">
+      <c r="G42" s="254" t="s">
         <v>435</v>
       </c>
       <c r="H42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J42" s="247" t="s">
+      <c r="J42" s="254" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A43" s="247"/>
-      <c r="C43" s="247"/>
+      <c r="A43" s="254"/>
+      <c r="C43" s="254"/>
       <c r="E43" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G43" s="247"/>
+      <c r="G43" s="254"/>
       <c r="H43" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J43" s="247"/>
+      <c r="J43" s="254"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A44" s="211" t="s">
@@ -16668,21 +20166,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="G2:G3"/>
@@ -16699,11 +20187,21 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.13" top="0.42" bottom="0.16" header="0.35" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16950,7 +20448,7 @@
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -17003,46 +20501,46 @@
       <c r="R1" s="111"/>
     </row>
     <row r="2" spans="1:19" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="256" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="256" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="257" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="254" t="s">
+      <c r="D2" s="257"/>
+      <c r="E2" s="258" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="248" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248" t="s">
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248" t="s">
+      <c r="L2" s="259"/>
+      <c r="M2" s="259" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="249" t="s">
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="260" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="250" t="s">
+      <c r="R2" s="256" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="250"/>
-      <c r="B3" s="250"/>
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -17085,8 +20583,8 @@
       <c r="P3" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="249"/>
-      <c r="R3" s="250"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="256"/>
     </row>
     <row r="4" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="128">
@@ -17293,10 +20791,10 @@
       <c r="R8" s="225"/>
     </row>
     <row r="9" spans="1:19" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="261" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="251"/>
+      <c r="B9" s="261"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="140"/>
@@ -18100,10 +21598,10 @@
       <c r="R26" s="138"/>
     </row>
     <row r="27" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="252" t="s">
+      <c r="A27" s="255" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="252"/>
+      <c r="B27" s="255"/>
       <c r="C27" s="165"/>
       <c r="D27" s="165"/>
       <c r="E27" s="140">
@@ -18978,10 +22476,10 @@
       <c r="R43" s="138"/>
     </row>
     <row r="44" spans="1:18" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="252" t="s">
+      <c r="A44" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="252"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="165"/>
       <c r="D44" s="165"/>
       <c r="E44" s="140">
@@ -19054,11 +22552,6 @@
     <sortCondition ref="C10:C25"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -19066,6 +22559,11 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19137,47 +22635,47 @@
       <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="256" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="256" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="257" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="254" t="s">
+      <c r="D2" s="257"/>
+      <c r="E2" s="258" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="257" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="264" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="248" t="s">
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="259" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="248"/>
-      <c r="M2" s="255" t="s">
+      <c r="L2" s="259"/>
+      <c r="M2" s="262" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="256" t="s">
+      <c r="N2" s="262"/>
+      <c r="O2" s="262"/>
+      <c r="P2" s="262"/>
+      <c r="Q2" s="262"/>
+      <c r="R2" s="263" t="s">
         <v>266</v>
       </c>
-      <c r="S2" s="250" t="s">
+      <c r="S2" s="256" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="250"/>
-      <c r="B3" s="250"/>
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -19223,8 +22721,8 @@
       <c r="Q3" s="205" t="s">
         <v>276</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="250"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="256"/>
     </row>
     <row r="4" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -19438,10 +22936,10 @@
       <c r="S8" s="160"/>
     </row>
     <row r="9" spans="1:20" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="261" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="251"/>
+      <c r="B9" s="261"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="140"/>
@@ -20018,10 +23516,10 @@
       <c r="S21" s="152"/>
     </row>
     <row r="22" spans="1:20" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="252" t="s">
+      <c r="A22" s="255" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="252"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="165"/>
       <c r="D22" s="165"/>
       <c r="E22" s="140">
@@ -20931,10 +24429,10 @@
       <c r="S39" s="138"/>
     </row>
     <row r="40" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="252" t="s">
+      <c r="A40" s="255" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="252"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="165"/>
       <c r="D40" s="165"/>
       <c r="E40" s="140">
@@ -21024,11 +24522,6 @@
   </sheetData>
   <autoFilter ref="A3:S22"/>
   <mergeCells count="12">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -21036,6 +24529,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -17,21 +17,27 @@
     <sheet name="01-17" sheetId="16" r:id="rId8"/>
     <sheet name="02-17" sheetId="17" r:id="rId9"/>
     <sheet name="05-17" sheetId="19" r:id="rId10"/>
+    <sheet name="06-17" sheetId="20" r:id="rId11"/>
+    <sheet name="07-17" sheetId="21" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="9" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="10" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="11" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'02-17'!$A$3:$S$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'05-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'06-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'07-17'!$A$3:$S$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$261</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
     <definedName name="DS">TH!$A$4:$Q$260</definedName>
@@ -44,6 +50,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'01-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'02-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'05-17'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'06-17'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="11">'07-17'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -96,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="544">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2220,6 +2228,27 @@
   </si>
   <si>
     <t>LD1713228461</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 05 năm 2017</t>
+  </si>
+  <si>
+    <t>1402LDS201700777</t>
+  </si>
+  <si>
+    <t>125 759 122</t>
+  </si>
+  <si>
+    <t>VPBANK - PGD Bùi Hữu Nghĩa</t>
+  </si>
+  <si>
+    <t>Chuyển USD</t>
+  </si>
+  <si>
+    <t>Sacombank - CN Trung Tâm</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền BH của HĐ: 17-99-11-020303-0026380</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3075,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3679,6 +3708,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3711,6 +3752,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4145,16 +4189,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R260"/>
+  <dimension ref="A1:R261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G223" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F228" sqref="F228"/>
+      <selection pane="bottomRight" activeCell="N247" sqref="N247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4164,7 +4208,7 @@
     <col min="3" max="3" width="7.85546875" style="56" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="56" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="56" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="57" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="57" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="57" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="56" customWidth="1"/>
@@ -4172,7 +4216,7 @@
     <col min="11" max="12" width="8.42578125" style="56" customWidth="1"/>
     <col min="13" max="13" width="7" style="56" customWidth="1"/>
     <col min="14" max="14" width="21.140625" style="57" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="57" customWidth="1"/>
     <col min="16" max="16" width="14" style="57" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="93"/>
     <col min="18" max="18" width="4.42578125" style="202" customWidth="1"/>
@@ -4234,39 +4278,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="243" t="s">
+      <c r="C2" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="244"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="243" t="s">
+      <c r="D2" s="248"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="242" t="s">
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="242"/>
-      <c r="Q2" s="240" t="s">
+      <c r="P2" s="246"/>
+      <c r="Q2" s="244" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="239"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="60" t="s">
         <v>12</v>
       </c>
@@ -4300,17 +4344,17 @@
       <c r="M3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="239"/>
+      <c r="N3" s="243"/>
       <c r="O3" s="61" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="241"/>
+      <c r="Q3" s="245"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4359,7 +4403,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4408,7 +4452,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4457,7 +4501,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4506,7 +4550,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4555,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4604,7 +4648,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4653,7 +4697,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4702,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4751,7 +4795,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" s="89" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4800,7 +4844,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4849,7 +4893,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4898,7 +4942,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4947,7 +4991,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4996,7 +5040,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5045,7 +5089,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5094,7 +5138,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5143,7 +5187,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5192,7 +5236,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5242,7 +5286,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5291,7 +5335,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5340,7 +5384,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5389,7 +5433,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5438,7 +5482,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5487,7 +5531,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5536,7 +5580,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A29" s="55" t="str">
         <f>IF(AND(C29="pv",E29='UNC - PV'!$S$2,D29='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C29,3)="eib",E29='UNC - EIB'!$V$2,D29='UNC - EIB'!$T$2),"x1",IF(AND(C29="pv",E29='LC - PV'!$R$2,D29='LC - PV'!$P$2),"x2",IF(AND(LEFT(C29,3)="eib",E29='LC - EIB'!$U$2,D29='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5585,7 +5629,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A30" s="55" t="str">
         <f>IF(AND(C30="pv",E30='UNC - PV'!$S$2,D30='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C30,3)="eib",E30='UNC - EIB'!$V$2,D30='UNC - EIB'!$T$2),"x1",IF(AND(C30="pv",E30='LC - PV'!$R$2,D30='LC - PV'!$P$2),"x2",IF(AND(LEFT(C30,3)="eib",E30='LC - EIB'!$U$2,D30='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5634,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="55" t="str">
         <f>IF(AND(C31="pv",E31='UNC - PV'!$S$2,D31='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C31,3)="eib",E31='UNC - EIB'!$V$2,D31='UNC - EIB'!$T$2),"x1",IF(AND(C31="pv",E31='LC - PV'!$R$2,D31='LC - PV'!$P$2),"x2",IF(AND(LEFT(C31,3)="eib",E31='LC - EIB'!$U$2,D31='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5683,7 +5727,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18.75" customHeight="1">
+    <row r="32" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A32" s="55" t="str">
         <f>IF(AND(C32="pv",E32='UNC - PV'!$S$2,D32='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C32,3)="eib",E32='UNC - EIB'!$V$2,D32='UNC - EIB'!$T$2),"x1",IF(AND(C32="pv",E32='LC - PV'!$R$2,D32='LC - PV'!$P$2),"x2",IF(AND(LEFT(C32,3)="eib",E32='LC - EIB'!$U$2,D32='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5732,7 +5776,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18.75" customHeight="1">
+    <row r="33" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A33" s="55" t="str">
         <f>IF(AND(C33="pv",E33='UNC - PV'!$S$2,D33='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C33,3)="eib",E33='UNC - EIB'!$V$2,D33='UNC - EIB'!$T$2),"x1",IF(AND(C33="pv",E33='LC - PV'!$R$2,D33='LC - PV'!$P$2),"x2",IF(AND(LEFT(C33,3)="eib",E33='LC - EIB'!$U$2,D33='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5781,7 +5825,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="18.75" customHeight="1">
+    <row r="34" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A34" s="55" t="str">
         <f>IF(AND(C34="pv",E34='UNC - PV'!$S$2,D34='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C34,3)="eib",E34='UNC - EIB'!$V$2,D34='UNC - EIB'!$T$2),"x1",IF(AND(C34="pv",E34='LC - PV'!$R$2,D34='LC - PV'!$P$2),"x2",IF(AND(LEFT(C34,3)="eib",E34='LC - EIB'!$U$2,D34='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5830,7 +5874,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5879,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1">
+    <row r="36" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A36" s="55" t="str">
         <f>IF(AND(C36="pv",E36='UNC - PV'!$S$2,D36='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C36,3)="eib",E36='UNC - EIB'!$V$2,D36='UNC - EIB'!$T$2),"x1",IF(AND(C36="pv",E36='LC - PV'!$R$2,D36='LC - PV'!$P$2),"x2",IF(AND(LEFT(C36,3)="eib",E36='LC - EIB'!$U$2,D36='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5928,7 +5972,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5977,7 +6021,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6026,7 +6070,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6075,7 +6119,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6124,7 +6168,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A41" s="55" t="str">
         <f>IF(AND(C41="pv",E41='UNC - PV'!$S$2,D41='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C41,3)="eib",E41='UNC - EIB'!$V$2,D41='UNC - EIB'!$T$2),"x1",IF(AND(C41="pv",E41='LC - PV'!$R$2,D41='LC - PV'!$P$2),"x2",IF(AND(LEFT(C41,3)="eib",E41='LC - EIB'!$U$2,D41='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6173,7 +6217,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A42" s="55" t="str">
         <f>IF(AND(C42="pv",E42='UNC - PV'!$S$2,D42='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C42,3)="eib",E42='UNC - EIB'!$V$2,D42='UNC - EIB'!$T$2),"x1",IF(AND(C42="pv",E42='LC - PV'!$R$2,D42='LC - PV'!$P$2),"x2",IF(AND(LEFT(C42,3)="eib",E42='LC - EIB'!$U$2,D42='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6222,7 +6266,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6271,7 +6315,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6320,7 +6364,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6369,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A46" s="55" t="str">
         <f>IF(AND(C46="pv",E46='UNC - PV'!$S$2,D46='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C46,3)="eib",E46='UNC - EIB'!$V$2,D46='UNC - EIB'!$T$2),"x1",IF(AND(C46="pv",E46='LC - PV'!$R$2,D46='LC - PV'!$P$2),"x2",IF(AND(LEFT(C46,3)="eib",E46='LC - EIB'!$U$2,D46='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6418,7 +6462,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A47" s="55" t="str">
         <f>IF(AND(C47="pv",E47='UNC - PV'!$S$2,D47='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C47,3)="eib",E47='UNC - EIB'!$V$2,D47='UNC - EIB'!$T$2),"x1",IF(AND(C47="pv",E47='LC - PV'!$R$2,D47='LC - PV'!$P$2),"x2",IF(AND(LEFT(C47,3)="eib",E47='LC - EIB'!$U$2,D47='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6467,7 +6511,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6516,7 +6560,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18.75" customHeight="1">
+    <row r="49" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A49" s="55" t="str">
         <f>IF(AND(C49="pv",E49='UNC - PV'!$S$2,D49='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C49,3)="eib",E49='UNC - EIB'!$V$2,D49='UNC - EIB'!$T$2),"x1",IF(AND(C49="pv",E49='LC - PV'!$R$2,D49='LC - PV'!$P$2),"x2",IF(AND(LEFT(C49,3)="eib",E49='LC - EIB'!$U$2,D49='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6565,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6614,7 +6658,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6663,7 +6707,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6712,7 +6756,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6761,7 +6805,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6810,7 +6854,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6859,7 +6903,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="18.75" customHeight="1">
+    <row r="56" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A56" s="55" t="str">
         <f>IF(AND(C56="pv",E56='UNC - PV'!$S$2,D56='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C56,3)="eib",E56='UNC - EIB'!$V$2,D56='UNC - EIB'!$T$2),"x1",IF(AND(C56="pv",E56='LC - PV'!$R$2,D56='LC - PV'!$P$2),"x2",IF(AND(LEFT(C56,3)="eib",E56='LC - EIB'!$U$2,D56='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6908,7 +6952,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6957,7 +7001,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7006,7 +7050,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A59" s="55" t="str">
         <f>IF(AND(C59="pv",E59='UNC - PV'!$S$2,D59='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C59,3)="eib",E59='UNC - EIB'!$V$2,D59='UNC - EIB'!$T$2),"x1",IF(AND(C59="pv",E59='LC - PV'!$R$2,D59='LC - PV'!$P$2),"x2",IF(AND(LEFT(C59,3)="eib",E59='LC - EIB'!$U$2,D59='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7055,7 +7099,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7104,7 +7148,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7153,7 +7197,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7203,7 +7247,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7252,7 +7296,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7301,7 +7345,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="18.75" customHeight="1">
+    <row r="65" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7350,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
+    <row r="66" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7400,7 +7444,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" customHeight="1">
+    <row r="67" spans="1:18" s="200" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7450,7 +7494,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="18.75" customHeight="1">
+    <row r="68" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7499,7 +7543,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18.75" customHeight="1">
+    <row r="69" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7548,7 +7592,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="18.75" customHeight="1">
+    <row r="70" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7597,7 +7641,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18.75" customHeight="1">
+    <row r="71" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7646,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="18.75" customHeight="1">
+    <row r="72" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A72" s="55" t="str">
         <f>IF(AND(C72="pv",E72='UNC - PV'!$S$2,D72='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C72,3)="eib",E72='UNC - EIB'!$V$2,D72='UNC - EIB'!$T$2),"x1",IF(AND(C72="pv",E72='LC - PV'!$R$2,D72='LC - PV'!$P$2),"x2",IF(AND(LEFT(C72,3)="eib",E72='LC - EIB'!$U$2,D72='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7695,7 +7739,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="18.75" customHeight="1">
+    <row r="73" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A73" s="55" t="str">
         <f>IF(AND(C73="pv",E73='UNC - PV'!$S$2,D73='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C73,3)="eib",E73='UNC - EIB'!$V$2,D73='UNC - EIB'!$T$2),"x1",IF(AND(C73="pv",E73='LC - PV'!$R$2,D73='LC - PV'!$P$2),"x2",IF(AND(LEFT(C73,3)="eib",E73='LC - EIB'!$U$2,D73='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7744,7 +7788,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="18.75" customHeight="1">
+    <row r="74" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A74" s="55" t="str">
         <f>IF(AND(C74="pv",E74='UNC - PV'!$S$2,D74='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C74,3)="eib",E74='UNC - EIB'!$V$2,D74='UNC - EIB'!$T$2),"x1",IF(AND(C74="pv",E74='LC - PV'!$R$2,D74='LC - PV'!$P$2),"x2",IF(AND(LEFT(C74,3)="eib",E74='LC - EIB'!$U$2,D74='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7793,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="18.75" customHeight="1">
+    <row r="75" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A75" s="55" t="str">
         <f>IF(AND(C75="pv",E75='UNC - PV'!$S$2,D75='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C75,3)="eib",E75='UNC - EIB'!$V$2,D75='UNC - EIB'!$T$2),"x1",IF(AND(C75="pv",E75='LC - PV'!$R$2,D75='LC - PV'!$P$2),"x2",IF(AND(LEFT(C75,3)="eib",E75='LC - EIB'!$U$2,D75='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7842,7 +7886,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="18.75" customHeight="1">
+    <row r="76" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A76" s="55" t="str">
         <f>IF(AND(C76="pv",E76='UNC - PV'!$S$2,D76='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C76,3)="eib",E76='UNC - EIB'!$V$2,D76='UNC - EIB'!$T$2),"x1",IF(AND(C76="pv",E76='LC - PV'!$R$2,D76='LC - PV'!$P$2),"x2",IF(AND(LEFT(C76,3)="eib",E76='LC - EIB'!$U$2,D76='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7891,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="18.75" customHeight="1">
+    <row r="77" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A77" s="55" t="str">
         <f>IF(AND(C77="pv",E77='UNC - PV'!$S$2,D77='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C77,3)="eib",E77='UNC - EIB'!$V$2,D77='UNC - EIB'!$T$2),"x1",IF(AND(C77="pv",E77='LC - PV'!$R$2,D77='LC - PV'!$P$2),"x2",IF(AND(LEFT(C77,3)="eib",E77='LC - EIB'!$U$2,D77='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7940,7 +7984,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="18.75" customHeight="1">
+    <row r="78" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A78" s="55" t="str">
         <f>IF(AND(C78="pv",E78='UNC - PV'!$S$2,D78='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C78,3)="eib",E78='UNC - EIB'!$V$2,D78='UNC - EIB'!$T$2),"x1",IF(AND(C78="pv",E78='LC - PV'!$R$2,D78='LC - PV'!$P$2),"x2",IF(AND(LEFT(C78,3)="eib",E78='LC - EIB'!$U$2,D78='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7989,7 +8033,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75" customHeight="1">
+    <row r="79" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8038,7 +8082,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18.75" customHeight="1">
+    <row r="80" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A80" s="55" t="str">
         <f>IF(AND(C80="pv",E80='UNC - PV'!$S$2,D80='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C80,3)="eib",E80='UNC - EIB'!$V$2,D80='UNC - EIB'!$T$2),"x1",IF(AND(C80="pv",E80='LC - PV'!$R$2,D80='LC - PV'!$P$2),"x2",IF(AND(LEFT(C80,3)="eib",E80='LC - EIB'!$U$2,D80='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8087,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18.75" customHeight="1">
+    <row r="81" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8136,7 +8180,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18.75" customHeight="1">
+    <row r="82" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8185,7 +8229,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18.75" customHeight="1">
+    <row r="83" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8234,7 +8278,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75" customHeight="1">
+    <row r="84" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8283,7 +8327,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="18.75" customHeight="1">
+    <row r="85" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8332,7 +8376,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="18.75" customHeight="1">
+    <row r="86" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A86" s="55" t="str">
         <f>IF(AND(C86="pv",E86='UNC - PV'!$S$2,D86='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C86,3)="eib",E86='UNC - EIB'!$V$2,D86='UNC - EIB'!$T$2),"x1",IF(AND(C86="pv",E86='LC - PV'!$R$2,D86='LC - PV'!$P$2),"x2",IF(AND(LEFT(C86,3)="eib",E86='LC - EIB'!$U$2,D86='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8381,7 +8425,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="18.75" customHeight="1">
+    <row r="87" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8430,7 +8474,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="18.75" customHeight="1">
+    <row r="88" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8479,7 +8523,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75" customHeight="1">
+    <row r="89" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8528,7 +8572,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75" customHeight="1">
+    <row r="90" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8577,7 +8621,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75" customHeight="1">
+    <row r="91" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8626,7 +8670,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="18.75" customHeight="1">
+    <row r="92" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A92" s="55" t="str">
         <f>IF(AND(C92="pv",E92='UNC - PV'!$S$2,D92='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C92,3)="eib",E92='UNC - EIB'!$V$2,D92='UNC - EIB'!$T$2),"x1",IF(AND(C92="pv",E92='LC - PV'!$R$2,D92='LC - PV'!$P$2),"x2",IF(AND(LEFT(C92,3)="eib",E92='LC - EIB'!$U$2,D92='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8676,7 +8720,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18.75" customHeight="1">
+    <row r="93" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8725,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="18.75" customHeight="1">
+    <row r="94" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8774,7 +8818,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="18.75" customHeight="1">
+    <row r="95" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A95" s="55" t="str">
         <f>IF(AND(C95="pv",E95='UNC - PV'!$S$2,D95='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C95,3)="eib",E95='UNC - EIB'!$V$2,D95='UNC - EIB'!$T$2),"x1",IF(AND(C95="pv",E95='LC - PV'!$R$2,D95='LC - PV'!$P$2),"x2",IF(AND(LEFT(C95,3)="eib",E95='LC - EIB'!$U$2,D95='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8823,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="18.75" customHeight="1">
+    <row r="96" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A96" s="55" t="str">
         <f>IF(AND(C96="pv",E96='UNC - PV'!$S$2,D96='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C96,3)="eib",E96='UNC - EIB'!$V$2,D96='UNC - EIB'!$T$2),"x1",IF(AND(C96="pv",E96='LC - PV'!$R$2,D96='LC - PV'!$P$2),"x2",IF(AND(LEFT(C96,3)="eib",E96='LC - EIB'!$U$2,D96='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8873,7 +8917,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="18.75" customHeight="1">
+    <row r="97" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A97" s="55" t="str">
         <f>IF(AND(C97="pv",E97='UNC - PV'!$S$2,D97='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C97,3)="eib",E97='UNC - EIB'!$V$2,D97='UNC - EIB'!$T$2),"x1",IF(AND(C97="pv",E97='LC - PV'!$R$2,D97='LC - PV'!$P$2),"x2",IF(AND(LEFT(C97,3)="eib",E97='LC - EIB'!$U$2,D97='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8922,7 +8966,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="18.75" customHeight="1">
+    <row r="98" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A98" s="55" t="str">
         <f>IF(AND(C98="pv",E98='UNC - PV'!$S$2,D98='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C98,3)="eib",E98='UNC - EIB'!$V$2,D98='UNC - EIB'!$T$2),"x1",IF(AND(C98="pv",E98='LC - PV'!$R$2,D98='LC - PV'!$P$2),"x2",IF(AND(LEFT(C98,3)="eib",E98='LC - EIB'!$U$2,D98='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8971,7 +9015,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="18.75" customHeight="1">
+    <row r="99" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A99" s="55" t="str">
         <f>IF(AND(C99="pv",E99='UNC - PV'!$S$2,D99='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C99,3)="eib",E99='UNC - EIB'!$V$2,D99='UNC - EIB'!$T$2),"x1",IF(AND(C99="pv",E99='LC - PV'!$R$2,D99='LC - PV'!$P$2),"x2",IF(AND(LEFT(C99,3)="eib",E99='LC - EIB'!$U$2,D99='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9020,7 +9064,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="18.75" customHeight="1">
+    <row r="100" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9069,7 +9113,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="18.75" customHeight="1">
+    <row r="101" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A101" s="55" t="str">
         <f>IF(AND(C101="pv",E101='UNC - PV'!$S$2,D101='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C101,3)="eib",E101='UNC - EIB'!$V$2,D101='UNC - EIB'!$T$2),"x1",IF(AND(C101="pv",E101='LC - PV'!$R$2,D101='LC - PV'!$P$2),"x2",IF(AND(LEFT(C101,3)="eib",E101='LC - EIB'!$U$2,D101='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9118,7 +9162,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="18.75" customHeight="1">
+    <row r="102" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A102" s="55" t="str">
         <f>IF(AND(C102="pv",E102='UNC - PV'!$S$2,D102='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C102,3)="eib",E102='UNC - EIB'!$V$2,D102='UNC - EIB'!$T$2),"x1",IF(AND(C102="pv",E102='LC - PV'!$R$2,D102='LC - PV'!$P$2),"x2",IF(AND(LEFT(C102,3)="eib",E102='LC - EIB'!$U$2,D102='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9167,7 +9211,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="18.75" customHeight="1">
+    <row r="103" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9216,7 +9260,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="18.75" customHeight="1">
+    <row r="104" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A104" s="55" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9265,7 +9309,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="18.75" customHeight="1">
+    <row r="105" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9314,7 +9358,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="18.75" customHeight="1">
+    <row r="106" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A106" s="55" t="str">
         <f>IF(AND(C106="pv",E106='UNC - PV'!$S$2,D106='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C106,3)="eib",E106='UNC - EIB'!$V$2,D106='UNC - EIB'!$T$2),"x1",IF(AND(C106="pv",E106='LC - PV'!$R$2,D106='LC - PV'!$P$2),"x2",IF(AND(LEFT(C106,3)="eib",E106='LC - EIB'!$U$2,D106='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9363,7 +9407,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="18.75" customHeight="1">
+    <row r="107" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A107" s="55" t="str">
         <f>IF(AND(C107="pv",E107='UNC - PV'!$S$2,D107='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C107,3)="eib",E107='UNC - EIB'!$V$2,D107='UNC - EIB'!$T$2),"x1",IF(AND(C107="pv",E107='LC - PV'!$R$2,D107='LC - PV'!$P$2),"x2",IF(AND(LEFT(C107,3)="eib",E107='LC - EIB'!$U$2,D107='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9412,7 +9456,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="18.75" customHeight="1">
+    <row r="108" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9461,7 +9505,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="18.75" customHeight="1">
+    <row r="109" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A109" s="55" t="str">
         <f>IF(AND(C109="pv",E109='UNC - PV'!$S$2,D109='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C109,3)="eib",E109='UNC - EIB'!$V$2,D109='UNC - EIB'!$T$2),"x1",IF(AND(C109="pv",E109='LC - PV'!$R$2,D109='LC - PV'!$P$2),"x2",IF(AND(LEFT(C109,3)="eib",E109='LC - EIB'!$U$2,D109='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9510,7 +9554,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="18.75" customHeight="1">
+    <row r="110" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A110" s="55" t="str">
         <f>IF(AND(C110="pv",E110='UNC - PV'!$S$2,D110='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C110,3)="eib",E110='UNC - EIB'!$V$2,D110='UNC - EIB'!$T$2),"x1",IF(AND(C110="pv",E110='LC - PV'!$R$2,D110='LC - PV'!$P$2),"x2",IF(AND(LEFT(C110,3)="eib",E110='LC - EIB'!$U$2,D110='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9559,7 +9603,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="18.75" customHeight="1">
+    <row r="111" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A111" s="55" t="str">
         <f>IF(AND(C111="pv",E111='UNC - PV'!$S$2,D111='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C111,3)="eib",E111='UNC - EIB'!$V$2,D111='UNC - EIB'!$T$2),"x1",IF(AND(C111="pv",E111='LC - PV'!$R$2,D111='LC - PV'!$P$2),"x2",IF(AND(LEFT(C111,3)="eib",E111='LC - EIB'!$U$2,D111='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9608,7 +9652,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="18.75" customHeight="1">
+    <row r="112" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A112" s="55" t="str">
         <f>IF(AND(C112="pv",E112='UNC - PV'!$S$2,D112='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C112,3)="eib",E112='UNC - EIB'!$V$2,D112='UNC - EIB'!$T$2),"x1",IF(AND(C112="pv",E112='LC - PV'!$R$2,D112='LC - PV'!$P$2),"x2",IF(AND(LEFT(C112,3)="eib",E112='LC - EIB'!$U$2,D112='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9657,7 +9701,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="18.75" customHeight="1">
+    <row r="113" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9706,7 +9750,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="18.75" customHeight="1">
+    <row r="114" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9755,7 +9799,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="18.75" customHeight="1">
+    <row r="115" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9804,7 +9848,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="18.75" customHeight="1">
+    <row r="116" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9853,7 +9897,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="18.75" customHeight="1">
+    <row r="117" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A117" s="55" t="str">
         <f>IF(AND(C117="pv",E117='UNC - PV'!$S$2,D117='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C117,3)="eib",E117='UNC - EIB'!$V$2,D117='UNC - EIB'!$T$2),"x1",IF(AND(C117="pv",E117='LC - PV'!$R$2,D117='LC - PV'!$P$2),"x2",IF(AND(LEFT(C117,3)="eib",E117='LC - EIB'!$U$2,D117='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9902,7 +9946,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="18.75" customHeight="1">
+    <row r="118" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A118" s="55" t="str">
         <f>IF(AND(C118="pv",E118='UNC - PV'!$S$2,D118='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C118,3)="eib",E118='UNC - EIB'!$V$2,D118='UNC - EIB'!$T$2),"x1",IF(AND(C118="pv",E118='LC - PV'!$R$2,D118='LC - PV'!$P$2),"x2",IF(AND(LEFT(C118,3)="eib",E118='LC - EIB'!$U$2,D118='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9951,7 +9995,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="18.75" customHeight="1">
+    <row r="119" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A119" s="55" t="str">
         <f>IF(AND(C119="pv",E119='UNC - PV'!$S$2,D119='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C119,3)="eib",E119='UNC - EIB'!$V$2,D119='UNC - EIB'!$T$2),"x1",IF(AND(C119="pv",E119='LC - PV'!$R$2,D119='LC - PV'!$P$2),"x2",IF(AND(LEFT(C119,3)="eib",E119='LC - EIB'!$U$2,D119='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10000,7 +10044,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="18.75" customHeight="1">
+    <row r="120" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A120" s="55" t="str">
         <f>IF(AND(C120="pv",E120='UNC - PV'!$S$2,D120='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C120,3)="eib",E120='UNC - EIB'!$V$2,D120='UNC - EIB'!$T$2),"x1",IF(AND(C120="pv",E120='LC - PV'!$R$2,D120='LC - PV'!$P$2),"x2",IF(AND(LEFT(C120,3)="eib",E120='LC - EIB'!$U$2,D120='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10049,7 +10093,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="18.75" customHeight="1">
+    <row r="121" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A121" s="55" t="str">
         <f>IF(AND(C121="pv",E121='UNC - PV'!$S$2,D121='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C121,3)="eib",E121='UNC - EIB'!$V$2,D121='UNC - EIB'!$T$2),"x1",IF(AND(C121="pv",E121='LC - PV'!$R$2,D121='LC - PV'!$P$2),"x2",IF(AND(LEFT(C121,3)="eib",E121='LC - EIB'!$U$2,D121='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10099,7 +10143,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="18.75" customHeight="1">
+    <row r="122" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A122" s="55" t="str">
         <f>IF(AND(C122="pv",E122='UNC - PV'!$S$2,D122='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C122,3)="eib",E122='UNC - EIB'!$V$2,D122='UNC - EIB'!$T$2),"x1",IF(AND(C122="pv",E122='LC - PV'!$R$2,D122='LC - PV'!$P$2),"x2",IF(AND(LEFT(C122,3)="eib",E122='LC - EIB'!$U$2,D122='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10146,7 +10190,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="18.75" customHeight="1">
+    <row r="123" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A123" s="55" t="str">
         <f>IF(AND(C123="pv",E123='UNC - PV'!$S$2,D123='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C123,3)="eib",E123='UNC - EIB'!$V$2,D123='UNC - EIB'!$T$2),"x1",IF(AND(C123="pv",E123='LC - PV'!$R$2,D123='LC - PV'!$P$2),"x2",IF(AND(LEFT(C123,3)="eib",E123='LC - EIB'!$U$2,D123='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10193,7 +10237,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="18.75" customHeight="1">
+    <row r="124" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A124" s="55" t="str">
         <f>IF(AND(C124="pv",E124='UNC - PV'!$S$2,D124='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C124,3)="eib",E124='UNC - EIB'!$V$2,D124='UNC - EIB'!$T$2),"x1",IF(AND(C124="pv",E124='LC - PV'!$R$2,D124='LC - PV'!$P$2),"x2",IF(AND(LEFT(C124,3)="eib",E124='LC - EIB'!$U$2,D124='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10240,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="18.75" customHeight="1">
+    <row r="125" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10287,7 +10331,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="18.75" customHeight="1">
+    <row r="126" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10334,7 +10378,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="18.75" customHeight="1">
+    <row r="127" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A127" s="55" t="str">
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10381,7 +10425,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="18.75" customHeight="1">
+    <row r="128" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A128" s="55" t="str">
         <f>IF(AND(C128="pv",E128='UNC - PV'!$S$2,D128='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C128,3)="eib",E128='UNC - EIB'!$V$2,D128='UNC - EIB'!$T$2),"x1",IF(AND(C128="pv",E128='LC - PV'!$R$2,D128='LC - PV'!$P$2),"x2",IF(AND(LEFT(C128,3)="eib",E128='LC - EIB'!$U$2,D128='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10428,7 +10472,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="18.75" customHeight="1">
+    <row r="129" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A129" s="55" t="str">
         <f>IF(AND(C129="pv",E129='UNC - PV'!$S$2,D129='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C129,3)="eib",E129='UNC - EIB'!$V$2,D129='UNC - EIB'!$T$2),"x1",IF(AND(C129="pv",E129='LC - PV'!$R$2,D129='LC - PV'!$P$2),"x2",IF(AND(LEFT(C129,3)="eib",E129='LC - EIB'!$U$2,D129='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10475,7 +10519,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="18.75" customHeight="1">
+    <row r="130" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A130" s="55" t="str">
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10522,7 +10566,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="18.75" customHeight="1">
+    <row r="131" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10569,7 +10613,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="18.75" customHeight="1">
+    <row r="132" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10616,7 +10660,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="18.75" customHeight="1">
+    <row r="133" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10663,7 +10707,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="18.75" customHeight="1">
+    <row r="134" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10710,7 +10754,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="18.75" customHeight="1">
+    <row r="135" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10757,7 +10801,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="18.75" customHeight="1">
+    <row r="136" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A136" s="55" t="str">
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10804,7 +10848,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="18.75" customHeight="1">
+    <row r="137" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10851,7 +10895,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="18.75" customHeight="1">
+    <row r="138" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10898,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="18.75" customHeight="1">
+    <row r="139" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10945,7 +10989,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="18.75" customHeight="1">
+    <row r="140" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10992,7 +11036,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="18.75" customHeight="1">
+    <row r="141" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11039,7 +11083,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="18.75" customHeight="1">
+    <row r="142" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A142" s="55" t="str">
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11086,7 +11130,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="18.75" customHeight="1">
+    <row r="143" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A143" s="55" t="str">
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11133,7 +11177,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="18.75" customHeight="1">
+    <row r="144" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A144" s="55" t="str">
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11180,7 +11224,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="18.75" customHeight="1">
+    <row r="145" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A145" s="55" t="str">
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11227,7 +11271,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="18.75" customHeight="1">
+    <row r="146" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11274,7 +11318,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="18.75" customHeight="1">
+    <row r="147" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A147" s="55" t="str">
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11321,7 +11365,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="18.75" customHeight="1">
+    <row r="148" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11368,7 +11412,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="18.75" customHeight="1">
+    <row r="149" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A149" s="55" t="str">
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11415,7 +11459,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="18.75" customHeight="1">
+    <row r="150" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11462,7 +11506,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="18.75" customHeight="1">
+    <row r="151" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A151" s="55" t="str">
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11509,7 +11553,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="18.75" customHeight="1">
+    <row r="152" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A152" s="55" t="str">
         <f>IF(AND(C152="pv",E152='UNC - PV'!$S$2,D152='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C152,3)="eib",E152='UNC - EIB'!$V$2,D152='UNC - EIB'!$T$2),"x1",IF(AND(C152="pv",E152='LC - PV'!$R$2,D152='LC - PV'!$P$2),"x2",IF(AND(LEFT(C152,3)="eib",E152='LC - EIB'!$U$2,D152='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11556,7 +11600,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="18.75" customHeight="1">
+    <row r="153" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A153" s="55" t="str">
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11603,7 +11647,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="18.75" customHeight="1">
+    <row r="154" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11650,7 +11694,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="18.75" customHeight="1">
+    <row r="155" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A155" s="55" t="str">
         <f>IF(AND(C155="pv",E155='UNC - PV'!$S$2,D155='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C155,3)="eib",E155='UNC - EIB'!$V$2,D155='UNC - EIB'!$T$2),"x1",IF(AND(C155="pv",E155='LC - PV'!$R$2,D155='LC - PV'!$P$2),"x2",IF(AND(LEFT(C155,3)="eib",E155='LC - EIB'!$U$2,D155='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11697,7 +11741,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="18.75" customHeight="1">
+    <row r="156" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A156" s="55" t="str">
         <f>IF(AND(C156="pv",E156='UNC - PV'!$S$2,D156='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C156,3)="eib",E156='UNC - EIB'!$V$2,D156='UNC - EIB'!$T$2),"x1",IF(AND(C156="pv",E156='LC - PV'!$R$2,D156='LC - PV'!$P$2),"x2",IF(AND(LEFT(C156,3)="eib",E156='LC - EIB'!$U$2,D156='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11744,7 +11788,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="18.75" customHeight="1">
+    <row r="157" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A157" s="55" t="str">
         <f>IF(AND(C157="pv",E157='UNC - PV'!$S$2,D157='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C157,3)="eib",E157='UNC - EIB'!$V$2,D157='UNC - EIB'!$T$2),"x1",IF(AND(C157="pv",E157='LC - PV'!$R$2,D157='LC - PV'!$P$2),"x2",IF(AND(LEFT(C157,3)="eib",E157='LC - EIB'!$U$2,D157='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11792,7 +11836,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="18.75" customHeight="1">
+    <row r="158" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A158" s="55" t="str">
         <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11839,7 +11883,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="18.75" customHeight="1">
+    <row r="159" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A159" s="55" t="str">
         <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11886,7 +11930,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="18.75" customHeight="1">
+    <row r="160" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A160" s="55" t="str">
         <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11933,7 +11977,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="18.75" customHeight="1">
+    <row r="161" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A161" s="55" t="str">
         <f>IF(AND(C161="pv",E161='UNC - PV'!$S$2,D161='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C161,3)="eib",E161='UNC - EIB'!$V$2,D161='UNC - EIB'!$T$2),"x1",IF(AND(C161="pv",E161='LC - PV'!$R$2,D161='LC - PV'!$P$2),"x2",IF(AND(LEFT(C161,3)="eib",E161='LC - EIB'!$U$2,D161='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11980,7 +12024,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="18.75" customHeight="1">
+    <row r="162" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A162" s="55" t="str">
         <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12027,7 +12071,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="18.75" customHeight="1">
+    <row r="163" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A163" s="55" t="str">
         <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12074,7 +12118,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="18.75" customHeight="1">
+    <row r="164" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A164" s="55" t="str">
         <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12121,7 +12165,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="18.75" customHeight="1">
+    <row r="165" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A165" s="55" t="str">
         <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12168,7 +12212,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="18.75" customHeight="1">
+    <row r="166" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A166" s="55" t="str">
         <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12215,7 +12259,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="18.75" customHeight="1">
+    <row r="167" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A167" s="55" t="str">
         <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12262,7 +12306,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="18.75" customHeight="1">
+    <row r="168" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A168" s="55" t="str">
         <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12309,7 +12353,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="18.75" customHeight="1">
+    <row r="169" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A169" s="55" t="str">
         <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12357,7 +12401,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="18.75" customHeight="1">
+    <row r="170" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A170" s="55" t="str">
         <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12404,7 +12448,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="18.75" customHeight="1">
+    <row r="171" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A171" s="55" t="str">
         <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12451,7 +12495,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="18.75" customHeight="1">
+    <row r="172" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A172" s="55" t="str">
         <f>IF(AND(C172="pv",E172='UNC - PV'!$S$2,D172='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C172,3)="eib",E172='UNC - EIB'!$V$2,D172='UNC - EIB'!$T$2),"x1",IF(AND(C172="pv",E172='LC - PV'!$R$2,D172='LC - PV'!$P$2),"x2",IF(AND(LEFT(C172,3)="eib",E172='LC - EIB'!$U$2,D172='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12498,7 +12542,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="18.75" customHeight="1">
+    <row r="173" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A173" s="55" t="str">
         <f>IF(AND(C173="pv",E173='UNC - PV'!$S$2,D173='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C173,3)="eib",E173='UNC - EIB'!$V$2,D173='UNC - EIB'!$T$2),"x1",IF(AND(C173="pv",E173='LC - PV'!$R$2,D173='LC - PV'!$P$2),"x2",IF(AND(LEFT(C173,3)="eib",E173='LC - EIB'!$U$2,D173='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12545,7 +12589,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="18.75" customHeight="1">
+    <row r="174" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A174" s="55" t="str">
         <f>IF(AND(C174="pv",E174='UNC - PV'!$S$2,D174='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C174,3)="eib",E174='UNC - EIB'!$V$2,D174='UNC - EIB'!$T$2),"x1",IF(AND(C174="pv",E174='LC - PV'!$R$2,D174='LC - PV'!$P$2),"x2",IF(AND(LEFT(C174,3)="eib",E174='LC - EIB'!$U$2,D174='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12592,7 +12636,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="18.75" customHeight="1">
+    <row r="175" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12639,7 +12683,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="18.75" customHeight="1">
+    <row r="176" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A176" s="55" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12686,7 +12730,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="18.75" customHeight="1">
+    <row r="177" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A177" s="55" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12733,7 +12777,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="18.75" customHeight="1">
+    <row r="178" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A178" s="55" t="str">
         <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12780,7 +12824,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="18.75" customHeight="1">
+    <row r="179" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12827,7 +12871,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="18.75" customHeight="1">
+    <row r="180" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A180" s="55" t="str">
         <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12874,7 +12918,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="18.75" customHeight="1">
+    <row r="181" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A181" s="55" t="str">
         <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12921,7 +12965,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="18.75" customHeight="1">
+    <row r="182" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A182" s="55" t="str">
         <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12968,7 +13012,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="18.75" customHeight="1">
+    <row r="183" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A183" s="55" t="str">
         <f>IF(AND(C183="pv",E183='UNC - PV'!$S$2,D183='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C183,3)="eib",E183='UNC - EIB'!$V$2,D183='UNC - EIB'!$T$2),"x1",IF(AND(C183="pv",E183='LC - PV'!$R$2,D183='LC - PV'!$P$2),"x2",IF(AND(LEFT(C183,3)="eib",E183='LC - EIB'!$U$2,D183='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13015,7 +13059,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="18.75" customHeight="1">
+    <row r="184" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A184" s="55" t="str">
         <f>IF(AND(C184="pv",E184='UNC - PV'!$S$2,D184='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C184,3)="eib",E184='UNC - EIB'!$V$2,D184='UNC - EIB'!$T$2),"x1",IF(AND(C184="pv",E184='LC - PV'!$R$2,D184='LC - PV'!$P$2),"x2",IF(AND(LEFT(C184,3)="eib",E184='LC - EIB'!$U$2,D184='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13062,7 +13106,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="18.75" customHeight="1">
+    <row r="185" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A185" s="55" t="str">
         <f>IF(AND(C185="pv",E185='UNC - PV'!$S$2,D185='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C185,3)="eib",E185='UNC - EIB'!$V$2,D185='UNC - EIB'!$T$2),"x1",IF(AND(C185="pv",E185='LC - PV'!$R$2,D185='LC - PV'!$P$2),"x2",IF(AND(LEFT(C185,3)="eib",E185='LC - EIB'!$U$2,D185='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13109,7 +13153,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="18.75" customHeight="1">
+    <row r="186" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A186" s="55" t="str">
         <f>IF(AND(C186="pv",E186='UNC - PV'!$S$2,D186='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C186,3)="eib",E186='UNC - EIB'!$V$2,D186='UNC - EIB'!$T$2),"x1",IF(AND(C186="pv",E186='LC - PV'!$R$2,D186='LC - PV'!$P$2),"x2",IF(AND(LEFT(C186,3)="eib",E186='LC - EIB'!$U$2,D186='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13156,7 +13200,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="18.75" customHeight="1">
+    <row r="187" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A187" s="55" t="str">
         <f>IF(AND(C187="pv",E187='UNC - PV'!$S$2,D187='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C187,3)="eib",E187='UNC - EIB'!$V$2,D187='UNC - EIB'!$T$2),"x1",IF(AND(C187="pv",E187='LC - PV'!$R$2,D187='LC - PV'!$P$2),"x2",IF(AND(LEFT(C187,3)="eib",E187='LC - EIB'!$U$2,D187='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13203,7 +13247,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="18.75" customHeight="1">
+    <row r="188" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A188" s="55" t="str">
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13250,7 +13294,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="18.75" customHeight="1">
+    <row r="189" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A189" s="55" t="str">
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13297,7 +13341,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="18.75" customHeight="1">
+    <row r="190" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A190" s="55" t="str">
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13344,7 +13388,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="18.75" customHeight="1">
+    <row r="191" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A191" s="55" t="str">
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13391,7 +13435,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="18.75" customHeight="1">
+    <row r="192" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A192" s="55" t="str">
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13438,7 +13482,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="18.75" customHeight="1">
+    <row r="193" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A193" s="55" t="str">
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13485,7 +13529,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="18.75" customHeight="1">
+    <row r="194" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A194" s="55" t="str">
         <f>IF(AND(C194="pv",E194='UNC - PV'!$S$2,D194='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C194,3)="eib",E194='UNC - EIB'!$V$2,D194='UNC - EIB'!$T$2),"x1",IF(AND(C194="pv",E194='LC - PV'!$R$2,D194='LC - PV'!$P$2),"x2",IF(AND(LEFT(C194,3)="eib",E194='LC - EIB'!$U$2,D194='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13532,7 +13576,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="18.75" customHeight="1">
+    <row r="195" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A195" s="55" t="str">
         <f>IF(AND(C195="pv",E195='UNC - PV'!$S$2,D195='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C195,3)="eib",E195='UNC - EIB'!$V$2,D195='UNC - EIB'!$T$2),"x1",IF(AND(C195="pv",E195='LC - PV'!$R$2,D195='LC - PV'!$P$2),"x2",IF(AND(LEFT(C195,3)="eib",E195='LC - EIB'!$U$2,D195='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13579,7 +13623,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="18.75" customHeight="1">
+    <row r="196" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A196" s="55" t="str">
         <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13626,7 +13670,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="18.75" customHeight="1">
+    <row r="197" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13673,7 +13717,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="18.75" customHeight="1">
+    <row r="198" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13720,7 +13764,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="18.75" customHeight="1">
+    <row r="199" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A199" s="55" t="str">
         <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13767,7 +13811,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="18.75" customHeight="1">
+    <row r="200" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A200" s="55" t="str">
         <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13814,7 +13858,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="18.75" customHeight="1">
+    <row r="201" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A201" s="55" t="str">
         <f>IF(AND(C201="pv",E201='UNC - PV'!$S$2,D201='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C201,3)="eib",E201='UNC - EIB'!$V$2,D201='UNC - EIB'!$T$2),"x1",IF(AND(C201="pv",E201='LC - PV'!$R$2,D201='LC - PV'!$P$2),"x2",IF(AND(LEFT(C201,3)="eib",E201='LC - EIB'!$U$2,D201='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13861,7 +13905,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="18.75" customHeight="1">
+    <row r="202" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13909,7 +13953,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="18.75" customHeight="1">
+    <row r="203" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A203" s="55" t="str">
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13956,7 +14000,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="18.75" customHeight="1">
+    <row r="204" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A204" s="55" t="str">
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14003,7 +14047,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="18.75" customHeight="1">
+    <row r="205" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A205" s="55" t="str">
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14050,7 +14094,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="18.75" customHeight="1">
+    <row r="206" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A206" s="55" t="str">
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14097,7 +14141,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="18.75" customHeight="1">
+    <row r="207" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A207" s="55" t="str">
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14144,7 +14188,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="18.75" customHeight="1">
+    <row r="208" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A208" s="55" t="str">
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14191,7 +14235,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="18.75" customHeight="1">
+    <row r="209" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14238,7 +14282,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="18.75" customHeight="1">
+    <row r="210" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A210" s="55" t="str">
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14285,7 +14329,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="18.75" customHeight="1">
+    <row r="211" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A211" s="55" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14332,7 +14376,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="18.75" customHeight="1">
+    <row r="212" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A212" s="55" t="str">
         <f>IF(AND(C212="pv",E212='UNC - PV'!$S$2,D212='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C212,3)="eib",E212='UNC - EIB'!$V$2,D212='UNC - EIB'!$T$2),"x1",IF(AND(C212="pv",E212='LC - PV'!$R$2,D212='LC - PV'!$P$2),"x2",IF(AND(LEFT(C212,3)="eib",E212='LC - EIB'!$U$2,D212='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14379,7 +14423,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="18.75" customHeight="1">
+    <row r="213" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A213" s="55" t="str">
         <f>IF(AND(C213="pv",E213='UNC - PV'!$S$2,D213='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C213,3)="eib",E213='UNC - EIB'!$V$2,D213='UNC - EIB'!$T$2),"x1",IF(AND(C213="pv",E213='LC - PV'!$R$2,D213='LC - PV'!$P$2),"x2",IF(AND(LEFT(C213,3)="eib",E213='LC - EIB'!$U$2,D213='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14426,7 +14470,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="18.75" customHeight="1">
+    <row r="214" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A214" s="55" t="str">
         <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14472,7 +14516,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="18.75" customHeight="1">
+    <row r="215" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A215" s="55" t="str">
         <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14519,7 +14563,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="18.75" customHeight="1">
+    <row r="216" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A216" s="55" t="str">
         <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14566,7 +14610,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="18.75" customHeight="1">
+    <row r="217" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A217" s="55" t="str">
         <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14661,7 +14705,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="18.75" customHeight="1">
+    <row r="219" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A219" s="55" t="str">
         <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14708,7 +14752,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="18.75" customHeight="1">
+    <row r="220" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A220" s="55" t="str">
         <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14756,7 +14800,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="18.75" customHeight="1">
+    <row r="221" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A221" s="55" t="str">
         <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14803,7 +14847,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="18.75" customHeight="1">
+    <row r="222" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14850,7 +14894,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="18.75" customHeight="1">
+    <row r="223" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14897,7 +14941,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="18.75" customHeight="1">
+    <row r="224" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A224" s="55" t="str">
         <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14944,7 +14988,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="18.75" customHeight="1">
+    <row r="225" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A225" s="55" t="str">
         <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14991,7 +15035,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="18.75" customHeight="1">
+    <row r="226" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A226" s="55" t="str">
         <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15038,7 +15082,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="18.75" customHeight="1">
+    <row r="227" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A227" s="55" t="str">
         <f>IF(AND(C227="pv",E227='UNC - PV'!$S$2,D227='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C227,3)="eib",E227='UNC - EIB'!$V$2,D227='UNC - EIB'!$T$2),"x1",IF(AND(C227="pv",E227='LC - PV'!$R$2,D227='LC - PV'!$P$2),"x2",IF(AND(LEFT(C227,3)="eib",E227='LC - EIB'!$U$2,D227='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15085,7 +15129,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="18.75" customHeight="1">
+    <row r="228" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A228" s="55" t="str">
         <f>IF(AND(C228="pv",E228='UNC - PV'!$S$2,D228='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C228,3)="eib",E228='UNC - EIB'!$V$2,D228='UNC - EIB'!$T$2),"x1",IF(AND(C228="pv",E228='LC - PV'!$R$2,D228='LC - PV'!$P$2),"x2",IF(AND(LEFT(C228,3)="eib",E228='LC - EIB'!$U$2,D228='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15132,7 +15176,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="18.75" customHeight="1">
+    <row r="229" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A229" s="55" t="str">
         <f>IF(AND(C229="pv",E229='UNC - PV'!$S$2,D229='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C229,3)="eib",E229='UNC - EIB'!$V$2,D229='UNC - EIB'!$T$2),"x1",IF(AND(C229="pv",E229='LC - PV'!$R$2,D229='LC - PV'!$P$2),"x2",IF(AND(LEFT(C229,3)="eib",E229='LC - EIB'!$U$2,D229='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15179,7 +15223,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="18.75" customHeight="1">
+    <row r="230" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A230" s="55" t="str">
         <f>IF(AND(C230="pv",E230='UNC - PV'!$S$2,D230='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C230,3)="eib",E230='UNC - EIB'!$V$2,D230='UNC - EIB'!$T$2),"x1",IF(AND(C230="pv",E230='LC - PV'!$R$2,D230='LC - PV'!$P$2),"x2",IF(AND(LEFT(C230,3)="eib",E230='LC - EIB'!$U$2,D230='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15226,7 +15270,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="18.75" customHeight="1">
+    <row r="231" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A231" s="55" t="str">
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15273,7 +15317,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="18.75" customHeight="1">
+    <row r="232" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A232" s="55" t="str">
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15320,7 +15364,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="18.75" customHeight="1">
+    <row r="233" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A233" s="55" t="str">
         <f>IF(AND(C233="pv",E233='UNC - PV'!$S$2,D233='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C233,3)="eib",E233='UNC - EIB'!$V$2,D233='UNC - EIB'!$T$2),"x1",IF(AND(C233="pv",E233='LC - PV'!$R$2,D233='LC - PV'!$P$2),"x2",IF(AND(LEFT(C233,3)="eib",E233='LC - EIB'!$U$2,D233='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15415,7 +15459,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="18.75" customHeight="1">
+    <row r="235" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A235" s="55" t="str">
         <f>IF(AND(C235="pv",E235='UNC - PV'!$S$2,D235='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C235,3)="eib",E235='UNC - EIB'!$V$2,D235='UNC - EIB'!$T$2),"x1",IF(AND(C235="pv",E235='LC - PV'!$R$2,D235='LC - PV'!$P$2),"x2",IF(AND(LEFT(C235,3)="eib",E235='LC - EIB'!$U$2,D235='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15463,7 +15507,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="18.75" customHeight="1">
+    <row r="236" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A236" s="55" t="str">
         <f>IF(AND(C236="pv",E236='UNC - PV'!$S$2,D236='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C236,3)="eib",E236='UNC - EIB'!$V$2,D236='UNC - EIB'!$T$2),"x1",IF(AND(C236="pv",E236='LC - PV'!$R$2,D236='LC - PV'!$P$2),"x2",IF(AND(LEFT(C236,3)="eib",E236='LC - EIB'!$U$2,D236='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15510,7 +15554,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="18.75" customHeight="1">
+    <row r="237" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A237" s="55" t="str">
         <f>IF(AND(C237="pv",E237='UNC - PV'!$S$2,D237='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C237,3)="eib",E237='UNC - EIB'!$V$2,D237='UNC - EIB'!$T$2),"x1",IF(AND(C237="pv",E237='LC - PV'!$R$2,D237='LC - PV'!$P$2),"x2",IF(AND(LEFT(C237,3)="eib",E237='LC - EIB'!$U$2,D237='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15557,7 +15601,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="18.75" customHeight="1">
+    <row r="238" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A238" s="55" t="str">
         <f>IF(AND(C238="pv",E238='UNC - PV'!$S$2,D238='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C238,3)="eib",E238='UNC - EIB'!$V$2,D238='UNC - EIB'!$T$2),"x1",IF(AND(C238="pv",E238='LC - PV'!$R$2,D238='LC - PV'!$P$2),"x2",IF(AND(LEFT(C238,3)="eib",E238='LC - EIB'!$U$2,D238='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15604,7 +15648,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="18.75" customHeight="1">
+    <row r="239" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A239" s="55" t="str">
         <f>IF(AND(C239="pv",E239='UNC - PV'!$S$2,D239='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C239,3)="eib",E239='UNC - EIB'!$V$2,D239='UNC - EIB'!$T$2),"x1",IF(AND(C239="pv",E239='LC - PV'!$R$2,D239='LC - PV'!$P$2),"x2",IF(AND(LEFT(C239,3)="eib",E239='LC - EIB'!$U$2,D239='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15651,7 +15695,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="18.75" customHeight="1">
+    <row r="240" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A240" s="55" t="str">
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15698,7 +15742,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="18.75" customHeight="1">
+    <row r="241" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A241" s="55" t="str">
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x1</v>
@@ -15745,7 +15789,7 @@
         <v>e</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="18.75" customHeight="1">
+    <row r="242" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A242" s="55" t="str">
         <f>IF(AND(C242="pv",E242='UNC - PV'!$S$2,D242='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C242,3)="eib",E242='UNC - EIB'!$V$2,D242='UNC - EIB'!$T$2),"x1",IF(AND(C242="pv",E242='LC - PV'!$R$2,D242='LC - PV'!$P$2),"x2",IF(AND(LEFT(C242,3)="eib",E242='LC - EIB'!$U$2,D242='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15789,7 +15833,7 @@
       <c r="Q242" s="92"/>
       <c r="R242" s="202" t="str">
         <f>IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="vnđ",TH!P242&lt;&gt;""),"p",IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="usd",TH!O242&lt;&gt;""),"p1",IF(AND(C242="pv",D242='LC - PV'!$P$2,LEFT(E242,1)="l"),"p2",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P242&lt;&gt;""),"e",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="U",'UNC - EIB'!$R$2="usd",TH!O242&lt;&gt;""),"e1",IF(AND(LEFT(C242,3)="EIB",D242='LC - EIB'!$S$2,LEFT(E242,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="243" spans="1:18" ht="18.75" customHeight="1">
@@ -15836,10 +15880,10 @@
       <c r="Q243" s="92"/>
       <c r="R243" s="202" t="str">
         <f>IF(AND(C243="pv",D243='UNC - PV'!$Q$2,LEFT(E243,1)="u",'UNC - PV'!$O$2="vnđ",TH!P243&lt;&gt;""),"p",IF(AND(C243="pv",D243='UNC - PV'!$Q$2,LEFT(E243,1)="u",'UNC - PV'!$O$2="usd",TH!O243&lt;&gt;""),"p1",IF(AND(C243="pv",D243='LC - PV'!$P$2,LEFT(E243,1)="l"),"p2",IF(AND(LEFT(C243,3)="EIB",D243='UNC - EIB'!$T$2,LEFT(E243,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P243&lt;&gt;""),"e",IF(AND(LEFT(C243,3)="EIB",D243='UNC - EIB'!$T$2,LEFT(E243,1)="U",'UNC - EIB'!$R$2="usd",TH!O243&lt;&gt;""),"e1",IF(AND(LEFT(C243,3)="EIB",D243='LC - EIB'!$S$2,LEFT(E243,1)="l"),"e2",""))))))</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A244" s="55" t="str">
         <f>IF(AND(C244="pv",E244='UNC - PV'!$S$2,D244='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C244,3)="eib",E244='UNC - EIB'!$V$2,D244='UNC - EIB'!$T$2),"x1",IF(AND(C244="pv",E244='LC - PV'!$R$2,D244='LC - PV'!$P$2),"x2",IF(AND(LEFT(C244,3)="eib",E244='LC - EIB'!$U$2,D244='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15883,13 +15927,13 @@
       <c r="Q244" s="92"/>
       <c r="R244" s="202" t="str">
         <f>IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="vnđ",TH!P244&lt;&gt;""),"p",IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="usd",TH!O244&lt;&gt;""),"p1",IF(AND(C244="pv",D244='LC - PV'!$P$2,LEFT(E244,1)="l"),"p2",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P244&lt;&gt;""),"e",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="U",'UNC - EIB'!$R$2="usd",TH!O244&lt;&gt;""),"e1",IF(AND(LEFT(C244,3)="EIB",D244='LC - EIB'!$S$2,LEFT(E244,1)="l"),"e2",""))))))</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A245" s="55" t="str">
         <f>IF(AND(C245="pv",E245='UNC - PV'!$S$2,D245='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C245,3)="eib",E245='UNC - EIB'!$V$2,D245='UNC - EIB'!$T$2),"x1",IF(AND(C245="pv",E245='LC - PV'!$R$2,D245='LC - PV'!$P$2),"x2",IF(AND(LEFT(C245,3)="eib",E245='LC - EIB'!$U$2,D245='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B245" s="62">
         <f t="shared" si="14"/>
@@ -15930,10 +15974,10 @@
       <c r="Q245" s="92"/>
       <c r="R245" s="202" t="str">
         <f>IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="vnđ",TH!P245&lt;&gt;""),"p",IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="usd",TH!O245&lt;&gt;""),"p1",IF(AND(C245="pv",D245='LC - PV'!$P$2,LEFT(E245,1)="l"),"p2",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P245&lt;&gt;""),"e",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="U",'UNC - EIB'!$R$2="usd",TH!O245&lt;&gt;""),"e1",IF(AND(LEFT(C245,3)="EIB",D245='LC - EIB'!$S$2,LEFT(E245,1)="l"),"e2",""))))))</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" ht="18.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A246" s="55" t="str">
         <f>IF(AND(C246="pv",E246='UNC - PV'!$S$2,D246='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C246,3)="eib",E246='UNC - EIB'!$V$2,D246='UNC - EIB'!$T$2),"x1",IF(AND(C246="pv",E246='LC - PV'!$R$2,D246='LC - PV'!$P$2),"x2",IF(AND(LEFT(C246,3)="eib",E246='LC - EIB'!$U$2,D246='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15984,52 +16028,88 @@
         <f>IF(AND(C247="pv",E247='UNC - PV'!$S$2,D247='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C247,3)="eib",E247='UNC - EIB'!$V$2,D247='UNC - EIB'!$T$2),"x1",IF(AND(C247="pv",E247='LC - PV'!$R$2,D247='LC - PV'!$P$2),"x2",IF(AND(LEFT(C247,3)="eib",E247='LC - EIB'!$U$2,D247='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B247" s="62" t="str">
+      <c r="B247" s="62">
         <f t="shared" ref="B247:B250" si="16">IF(C247&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C247" s="62"/>
-      <c r="D247" s="67"/>
-      <c r="E247" s="65"/>
-      <c r="F247" s="64"/>
-      <c r="G247" s="64"/>
-      <c r="H247" s="64"/>
-      <c r="I247" s="65"/>
+        <v>244</v>
+      </c>
+      <c r="C247" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D247" s="67">
+        <v>42900</v>
+      </c>
+      <c r="E247" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F247" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G247" s="71" t="s">
+        <v>510</v>
+      </c>
+      <c r="H247" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="I247" s="65" t="s">
+        <v>33</v>
+      </c>
       <c r="J247" s="66"/>
       <c r="K247" s="67"/>
       <c r="L247" s="65"/>
       <c r="M247" s="65"/>
-      <c r="N247" s="64"/>
+      <c r="N247" s="64" t="s">
+        <v>537</v>
+      </c>
       <c r="O247" s="68"/>
-      <c r="P247" s="69"/>
+      <c r="P247" s="69">
+        <v>33269610</v>
+      </c>
       <c r="Q247" s="92"/>
       <c r="R247" s="202" t="str">
         <f>IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="vnđ",TH!P247&lt;&gt;""),"p",IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="usd",TH!O247&lt;&gt;""),"p1",IF(AND(C247="pv",D247='LC - PV'!$P$2,LEFT(E247,1)="l"),"p2",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P247&lt;&gt;""),"e",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="U",'UNC - EIB'!$R$2="usd",TH!O247&lt;&gt;""),"e1",IF(AND(LEFT(C247,3)="EIB",D247='LC - EIB'!$S$2,LEFT(E247,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="18.75" customHeight="1">
+    <row r="248" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A248" s="55" t="str">
         <f>IF(AND(C248="pv",E248='UNC - PV'!$S$2,D248='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C248,3)="eib",E248='UNC - EIB'!$V$2,D248='UNC - EIB'!$T$2),"x1",IF(AND(C248="pv",E248='LC - PV'!$R$2,D248='LC - PV'!$P$2),"x2",IF(AND(LEFT(C248,3)="eib",E248='LC - EIB'!$U$2,D248='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B248" s="62" t="str">
+      <c r="B248" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C248" s="62"/>
-      <c r="D248" s="67"/>
-      <c r="E248" s="65"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
-      <c r="H248" s="64"/>
-      <c r="I248" s="65"/>
+        <v>245</v>
+      </c>
+      <c r="C248" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D248" s="67">
+        <v>42912</v>
+      </c>
+      <c r="E248" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G248" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="H248" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="I248" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J248" s="66"/>
       <c r="K248" s="67"/>
       <c r="L248" s="65"/>
       <c r="M248" s="65"/>
-      <c r="N248" s="64"/>
-      <c r="O248" s="68"/>
+      <c r="N248" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="O248" s="68">
+        <v>100</v>
+      </c>
       <c r="P248" s="69"/>
       <c r="Q248" s="92"/>
       <c r="R248" s="202" t="str">
@@ -16037,221 +16117,353 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="18.75" customHeight="1">
+    <row r="249" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A249" s="55" t="str">
         <f>IF(AND(C249="pv",E249='UNC - PV'!$S$2,D249='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C249,3)="eib",E249='UNC - EIB'!$V$2,D249='UNC - EIB'!$T$2),"x1",IF(AND(C249="pv",E249='LC - PV'!$R$2,D249='LC - PV'!$P$2),"x2",IF(AND(LEFT(C249,3)="eib",E249='LC - EIB'!$U$2,D249='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B249" s="62" t="str">
+      <c r="B249" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C249" s="62"/>
-      <c r="D249" s="67"/>
-      <c r="E249" s="65"/>
-      <c r="F249" s="64"/>
-      <c r="G249" s="64"/>
-      <c r="H249" s="64"/>
-      <c r="I249" s="65"/>
+        <v>246</v>
+      </c>
+      <c r="C249" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D249" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E249" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G249" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H249" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I249" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J249" s="66"/>
       <c r="K249" s="67"/>
       <c r="L249" s="65"/>
       <c r="M249" s="65"/>
-      <c r="N249" s="64"/>
+      <c r="N249" s="64" t="s">
+        <v>489</v>
+      </c>
       <c r="O249" s="68"/>
-      <c r="P249" s="69"/>
+      <c r="P249" s="69">
+        <v>230000000</v>
+      </c>
       <c r="Q249" s="92"/>
       <c r="R249" s="202" t="str">
         <f>IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="vnđ",TH!P249&lt;&gt;""),"p",IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="usd",TH!O249&lt;&gt;""),"p1",IF(AND(C249="pv",D249='LC - PV'!$P$2,LEFT(E249,1)="l"),"p2",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P249&lt;&gt;""),"e",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="U",'UNC - EIB'!$R$2="usd",TH!O249&lt;&gt;""),"e1",IF(AND(LEFT(C249,3)="EIB",D249='LC - EIB'!$S$2,LEFT(E249,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="18.75" customHeight="1">
+    <row r="250" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A250" s="55" t="str">
         <f>IF(AND(C250="pv",E250='UNC - PV'!$S$2,D250='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C250,3)="eib",E250='UNC - EIB'!$V$2,D250='UNC - EIB'!$T$2),"x1",IF(AND(C250="pv",E250='LC - PV'!$R$2,D250='LC - PV'!$P$2),"x2",IF(AND(LEFT(C250,3)="eib",E250='LC - EIB'!$U$2,D250='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B250" s="62" t="str">
+      <c r="B250" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C250" s="62"/>
-      <c r="D250" s="67"/>
-      <c r="E250" s="65"/>
-      <c r="F250" s="64"/>
-      <c r="G250" s="64"/>
-      <c r="H250" s="64"/>
-      <c r="I250" s="65"/>
+        <v>247</v>
+      </c>
+      <c r="C250" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D250" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E250" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="G250" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="H250" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="I250" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J250" s="66"/>
       <c r="K250" s="67"/>
       <c r="L250" s="65"/>
       <c r="M250" s="65"/>
-      <c r="N250" s="64"/>
+      <c r="N250" s="64" t="s">
+        <v>172</v>
+      </c>
       <c r="O250" s="68"/>
-      <c r="P250" s="69"/>
+      <c r="P250" s="69">
+        <v>177413940</v>
+      </c>
       <c r="Q250" s="92"/>
       <c r="R250" s="202" t="str">
         <f>IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="vnđ",TH!P250&lt;&gt;""),"p",IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="usd",TH!O250&lt;&gt;""),"p1",IF(AND(C250="pv",D250='LC - PV'!$P$2,LEFT(E250,1)="l"),"p2",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P250&lt;&gt;""),"e",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="U",'UNC - EIB'!$R$2="usd",TH!O250&lt;&gt;""),"e1",IF(AND(LEFT(C250,3)="EIB",D250='LC - EIB'!$S$2,LEFT(E250,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="18.75" customHeight="1">
+    <row r="251" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A251" s="55" t="str">
         <f>IF(AND(C251="pv",E251='UNC - PV'!$S$2,D251='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C251,3)="eib",E251='UNC - EIB'!$V$2,D251='UNC - EIB'!$T$2),"x1",IF(AND(C251="pv",E251='LC - PV'!$R$2,D251='LC - PV'!$P$2),"x2",IF(AND(LEFT(C251,3)="eib",E251='LC - EIB'!$U$2,D251='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B251" s="62" t="str">
+      <c r="B251" s="62">
         <f t="shared" ref="B251:B255" si="17">IF(C251&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C251" s="62"/>
-      <c r="D251" s="67"/>
-      <c r="E251" s="65"/>
-      <c r="F251" s="64"/>
-      <c r="G251" s="64"/>
-      <c r="H251" s="64"/>
-      <c r="I251" s="65"/>
+        <v>248</v>
+      </c>
+      <c r="C251" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D251" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E251" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="G251" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="H251" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="I251" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J251" s="66"/>
       <c r="K251" s="67"/>
       <c r="L251" s="65"/>
       <c r="M251" s="65"/>
-      <c r="N251" s="64"/>
+      <c r="N251" s="64" t="s">
+        <v>543</v>
+      </c>
       <c r="O251" s="68"/>
-      <c r="P251" s="69"/>
+      <c r="P251" s="69">
+        <v>20293420</v>
+      </c>
       <c r="Q251" s="92"/>
       <c r="R251" s="202" t="str">
         <f>IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="vnđ",TH!P251&lt;&gt;""),"p",IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="usd",TH!O251&lt;&gt;""),"p1",IF(AND(C251="pv",D251='LC - PV'!$P$2,LEFT(E251,1)="l"),"p2",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P251&lt;&gt;""),"e",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="U",'UNC - EIB'!$R$2="usd",TH!O251&lt;&gt;""),"e1",IF(AND(LEFT(C251,3)="EIB",D251='LC - EIB'!$S$2,LEFT(E251,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="18.75" customHeight="1">
+    <row r="252" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A252" s="55" t="str">
         <f>IF(AND(C252="pv",E252='UNC - PV'!$S$2,D252='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C252,3)="eib",E252='UNC - EIB'!$V$2,D252='UNC - EIB'!$T$2),"x1",IF(AND(C252="pv",E252='LC - PV'!$R$2,D252='LC - PV'!$P$2),"x2",IF(AND(LEFT(C252,3)="eib",E252='LC - EIB'!$U$2,D252='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B252" s="62" t="str">
+      <c r="B252" s="62">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C252" s="62"/>
-      <c r="D252" s="67"/>
-      <c r="E252" s="65"/>
-      <c r="F252" s="64"/>
-      <c r="G252" s="64"/>
-      <c r="H252" s="64"/>
-      <c r="I252" s="65"/>
+        <v>249</v>
+      </c>
+      <c r="C252" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D252" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E252" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F252" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G252" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H252" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I252" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J252" s="66"/>
       <c r="K252" s="67"/>
       <c r="L252" s="65"/>
       <c r="M252" s="65"/>
-      <c r="N252" s="64"/>
+      <c r="N252" s="96" t="s">
+        <v>387</v>
+      </c>
       <c r="O252" s="68"/>
-      <c r="P252" s="69"/>
+      <c r="P252" s="69">
+        <v>250000000</v>
+      </c>
       <c r="Q252" s="92"/>
       <c r="R252" s="202" t="str">
         <f>IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="vnđ",TH!P252&lt;&gt;""),"p",IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="usd",TH!O252&lt;&gt;""),"p1",IF(AND(C252="pv",D252='LC - PV'!$P$2,LEFT(E252,1)="l"),"p2",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P252&lt;&gt;""),"e",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="U",'UNC - EIB'!$R$2="usd",TH!O252&lt;&gt;""),"e1",IF(AND(LEFT(C252,3)="EIB",D252='LC - EIB'!$S$2,LEFT(E252,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="18.75" customHeight="1">
+    <row r="253" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A253" s="55" t="str">
         <f>IF(AND(C253="pv",E253='UNC - PV'!$S$2,D253='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C253,3)="eib",E253='UNC - EIB'!$V$2,D253='UNC - EIB'!$T$2),"x1",IF(AND(C253="pv",E253='LC - PV'!$R$2,D253='LC - PV'!$P$2),"x2",IF(AND(LEFT(C253,3)="eib",E253='LC - EIB'!$U$2,D253='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B253" s="62" t="str">
+      <c r="B253" s="62">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C253" s="62"/>
-      <c r="D253" s="67"/>
-      <c r="E253" s="65"/>
-      <c r="F253" s="64"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="64"/>
-      <c r="I253" s="65"/>
+        <v>250</v>
+      </c>
+      <c r="C253" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D253" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E253" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F253" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G253" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H253" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I253" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J253" s="66"/>
       <c r="K253" s="67"/>
       <c r="L253" s="65"/>
       <c r="M253" s="65"/>
-      <c r="N253" s="64"/>
+      <c r="N253" s="64" t="s">
+        <v>95</v>
+      </c>
       <c r="O253" s="68"/>
-      <c r="P253" s="69"/>
+      <c r="P253" s="69">
+        <v>32030000</v>
+      </c>
       <c r="Q253" s="92"/>
       <c r="R253" s="202" t="str">
         <f>IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="vnđ",TH!P253&lt;&gt;""),"p",IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="usd",TH!O253&lt;&gt;""),"p1",IF(AND(C253="pv",D253='LC - PV'!$P$2,LEFT(E253,1)="l"),"p2",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P253&lt;&gt;""),"e",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="U",'UNC - EIB'!$R$2="usd",TH!O253&lt;&gt;""),"e1",IF(AND(LEFT(C253,3)="EIB",D253='LC - EIB'!$S$2,LEFT(E253,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="18.75" customHeight="1">
+    <row r="254" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A254" s="55" t="str">
         <f>IF(AND(C254="pv",E254='UNC - PV'!$S$2,D254='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C254,3)="eib",E254='UNC - EIB'!$V$2,D254='UNC - EIB'!$T$2),"x1",IF(AND(C254="pv",E254='LC - PV'!$R$2,D254='LC - PV'!$P$2),"x2",IF(AND(LEFT(C254,3)="eib",E254='LC - EIB'!$U$2,D254='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B254" s="62" t="str">
+      <c r="B254" s="62">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C254" s="62"/>
-      <c r="D254" s="67"/>
-      <c r="E254" s="65"/>
-      <c r="F254" s="64"/>
-      <c r="G254" s="64"/>
-      <c r="H254" s="64"/>
-      <c r="I254" s="65"/>
+        <v>251</v>
+      </c>
+      <c r="C254" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D254" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E254" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F254" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G254" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H254" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I254" s="62" t="s">
+        <v>9</v>
+      </c>
       <c r="J254" s="66"/>
       <c r="K254" s="67"/>
       <c r="L254" s="65"/>
       <c r="M254" s="65"/>
-      <c r="N254" s="64"/>
+      <c r="N254" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="O254" s="68"/>
-      <c r="P254" s="69"/>
+      <c r="P254" s="69">
+        <v>60000000</v>
+      </c>
       <c r="Q254" s="92"/>
       <c r="R254" s="202" t="str">
         <f>IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="vnđ",TH!P254&lt;&gt;""),"p",IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="usd",TH!O254&lt;&gt;""),"p1",IF(AND(C254="pv",D254='LC - PV'!$P$2,LEFT(E254,1)="l"),"p2",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P254&lt;&gt;""),"e",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="U",'UNC - EIB'!$R$2="usd",TH!O254&lt;&gt;""),"e1",IF(AND(LEFT(C254,3)="EIB",D254='LC - EIB'!$S$2,LEFT(E254,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="18.75" customHeight="1">
+    <row r="255" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A255" s="55" t="str">
         <f>IF(AND(C255="pv",E255='UNC - PV'!$S$2,D255='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C255,3)="eib",E255='UNC - EIB'!$V$2,D255='UNC - EIB'!$T$2),"x1",IF(AND(C255="pv",E255='LC - PV'!$R$2,D255='LC - PV'!$P$2),"x2",IF(AND(LEFT(C255,3)="eib",E255='LC - EIB'!$U$2,D255='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B255" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B255" s="62">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="C255" s="62"/>
-      <c r="D255" s="67"/>
-      <c r="E255" s="65"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="64"/>
-      <c r="I255" s="65"/>
+        <v>252</v>
+      </c>
+      <c r="C255" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D255" s="67">
+        <v>42915</v>
+      </c>
+      <c r="E255" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G255" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="H255" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="I255" s="94" t="s">
+        <v>9</v>
+      </c>
       <c r="J255" s="66"/>
       <c r="K255" s="67"/>
       <c r="L255" s="65"/>
       <c r="M255" s="65"/>
-      <c r="N255" s="64"/>
-      <c r="O255" s="68"/>
+      <c r="N255" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="O255" s="68">
+        <v>243800</v>
+      </c>
       <c r="P255" s="69"/>
       <c r="Q255" s="92"/>
       <c r="R255" s="202" t="str">
         <f>IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="vnđ",TH!P255&lt;&gt;""),"p",IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="usd",TH!O255&lt;&gt;""),"p1",IF(AND(C255="pv",D255='LC - PV'!$P$2,LEFT(E255,1)="l"),"p2",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P255&lt;&gt;""),"e",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="U",'UNC - EIB'!$R$2="usd",TH!O255&lt;&gt;""),"e1",IF(AND(LEFT(C255,3)="EIB",D255='LC - EIB'!$S$2,LEFT(E255,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:18" ht="18.75" customHeight="1">
+        <v>p1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A256" s="55" t="str">
         <f>IF(AND(C256="pv",E256='UNC - PV'!$S$2,D256='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C256,3)="eib",E256='UNC - EIB'!$V$2,D256='UNC - EIB'!$T$2),"x1",IF(AND(C256="pv",E256='LC - PV'!$R$2,D256='LC - PV'!$P$2),"x2",IF(AND(LEFT(C256,3)="eib",E256='LC - EIB'!$U$2,D256='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B256" s="62" t="str">
+      <c r="B256" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C256" s="62"/>
-      <c r="D256" s="67"/>
-      <c r="E256" s="65"/>
+        <v>253</v>
+      </c>
+      <c r="C256" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D256" s="67">
+        <v>42915</v>
+      </c>
+      <c r="E256" s="65" t="s">
+        <v>22</v>
+      </c>
       <c r="F256" s="64"/>
       <c r="G256" s="64"/>
       <c r="H256" s="64"/>
@@ -16269,7 +16481,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="18.75" customHeight="1">
+    <row r="257" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A257" s="55" t="str">
         <f>IF(AND(C257="pv",E257='UNC - PV'!$S$2,D257='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C257,3)="eib",E257='UNC - EIB'!$V$2,D257='UNC - EIB'!$T$2),"x1",IF(AND(C257="pv",E257='LC - PV'!$R$2,D257='LC - PV'!$P$2),"x2",IF(AND(LEFT(C257,3)="eib",E257='LC - EIB'!$U$2,D257='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16298,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="18.75" customHeight="1">
+    <row r="258" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A258" s="55" t="str">
         <f>IF(AND(C258="pv",E258='UNC - PV'!$S$2,D258='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C258,3)="eib",E258='UNC - EIB'!$V$2,D258='UNC - EIB'!$T$2),"x1",IF(AND(C258="pv",E258='LC - PV'!$R$2,D258='LC - PV'!$P$2),"x2",IF(AND(LEFT(C258,3)="eib",E258='LC - EIB'!$U$2,D258='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16327,7 +16539,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="18.75" customHeight="1">
+    <row r="259" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A259" s="55" t="str">
         <f>IF(AND(C259="pv",E259='UNC - PV'!$S$2,D259='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C259,3)="eib",E259='UNC - EIB'!$V$2,D259='UNC - EIB'!$T$2),"x1",IF(AND(C259="pv",E259='LC - PV'!$R$2,D259='LC - PV'!$P$2),"x2",IF(AND(LEFT(C259,3)="eib",E259='LC - EIB'!$U$2,D259='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16356,7 +16568,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="18.75" customHeight="1">
+    <row r="260" spans="1:18" ht="18.75" hidden="1" customHeight="1">
       <c r="A260" s="55" t="str">
         <f>IF(AND(C260="pv",E260='UNC - PV'!$S$2,D260='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C260,3)="eib",E260='UNC - EIB'!$V$2,D260='UNC - EIB'!$T$2),"x1",IF(AND(C260="pv",E260='LC - PV'!$R$2,D260='LC - PV'!$P$2),"x2",IF(AND(LEFT(C260,3)="eib",E260='LC - EIB'!$U$2,D260='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16385,8 +16597,15 @@
         <v/>
       </c>
     </row>
+    <row r="261" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X261"/>
+  <autoFilter ref="B3:X261">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ĐIỆN LỰC ĐỨC HÒA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -16413,7 +16632,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
@@ -16468,47 +16687,47 @@
       <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="261" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="261" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="262" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258" t="s">
+      <c r="D2" s="262"/>
+      <c r="E2" s="263" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="264" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="269" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="259" t="s">
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="259"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="264"/>
+      <c r="M2" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268" t="s">
         <v>266</v>
       </c>
-      <c r="S2" s="256" t="s">
+      <c r="S2" s="261" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -16554,8 +16773,8 @@
       <c r="Q3" s="234" t="s">
         <v>276</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="256"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="261"/>
     </row>
     <row r="4" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -17247,10 +17466,10 @@
       <c r="S18" s="152"/>
     </row>
     <row r="19" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="255" t="s">
+      <c r="A19" s="260" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="255"/>
+      <c r="B19" s="260"/>
       <c r="C19" s="165"/>
       <c r="D19" s="165"/>
       <c r="E19" s="140">
@@ -18141,10 +18360,10 @@
       <c r="S35" s="138"/>
     </row>
     <row r="36" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="255" t="s">
+      <c r="A36" s="260" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="255"/>
+      <c r="B36" s="260"/>
       <c r="C36" s="165"/>
       <c r="D36" s="165"/>
       <c r="E36" s="140">
@@ -18237,6 +18456,3706 @@
   <sortState ref="A4:T17">
     <sortCondition ref="D4:D17"/>
   </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="174" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="175" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="177" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="181" customWidth="1"/>
+    <col min="7" max="7" width="8" style="177" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="179" customWidth="1"/>
+    <col min="9" max="9" width="11" style="180" customWidth="1"/>
+    <col min="10" max="10" width="10" style="180" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="177" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="181" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="182" customWidth="1"/>
+    <col min="14" max="14" width="10" style="182" customWidth="1"/>
+    <col min="15" max="15" width="9" style="182" customWidth="1"/>
+    <col min="16" max="16" width="9" style="183" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="184" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="184" customWidth="1"/>
+    <col min="19" max="19" width="15" style="174" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="175" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="121" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="261" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="261" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="262" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="269" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="264" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="264"/>
+      <c r="M2" s="267" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" s="261" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="186" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="241" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="241" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="238" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="239" t="s">
+        <v>274</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="240" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q3" s="240" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="268"/>
+      <c r="S3" s="261"/>
+    </row>
+    <row r="4" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="145">
+        <f t="shared" ref="A4:A17" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="134">
+        <v>42863</v>
+      </c>
+      <c r="D4" s="134">
+        <v>43047</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="135">
+        <v>82000</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="130">
+        <f t="shared" ref="L4:L17" si="1">F4-J4</f>
+        <v>82000</v>
+      </c>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="137">
+        <f t="shared" ref="O4:O17" si="2">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="137">
+        <f t="shared" ref="P4:P17" si="3">IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>256.25</v>
+      </c>
+      <c r="Q4" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R4" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S4" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T4" s="190"/>
+    </row>
+    <row r="5" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="145">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="134">
+        <v>42867</v>
+      </c>
+      <c r="D5" s="134">
+        <v>43051</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="135">
+        <v>89000</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="130">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="137">
+        <f t="shared" si="3"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q5" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R5" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S5" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="145">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D6" s="134">
+        <v>42982</v>
+      </c>
+      <c r="E6" s="136"/>
+      <c r="F6" s="135">
+        <v>87500</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130">
+        <f t="shared" si="1"/>
+        <v>87500</v>
+      </c>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="137">
+        <f t="shared" si="3"/>
+        <v>218.75</v>
+      </c>
+      <c r="Q6" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R6" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T6" s="191"/>
+    </row>
+    <row r="7" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="145">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D7" s="134">
+        <v>42900</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="135">
+        <v>137000</v>
+      </c>
+      <c r="G7" s="136"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130">
+        <f t="shared" si="1"/>
+        <v>137000</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="137">
+        <f t="shared" si="3"/>
+        <v>342.5</v>
+      </c>
+      <c r="Q7" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R7" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T7" s="191"/>
+    </row>
+    <row r="8" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="145">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D8" s="134">
+        <v>42915</v>
+      </c>
+      <c r="E8" s="136"/>
+      <c r="F8" s="135">
+        <v>85000</v>
+      </c>
+      <c r="G8" s="136"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="137">
+        <f t="shared" si="3"/>
+        <v>212.5</v>
+      </c>
+      <c r="Q8" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R8" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T8" s="201">
+        <f>E7*R7/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="145">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D9" s="134">
+        <v>42922</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="135">
+        <v>93000</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130">
+        <f t="shared" si="1"/>
+        <v>93000</v>
+      </c>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="137">
+        <f t="shared" si="3"/>
+        <v>232.5</v>
+      </c>
+      <c r="Q9" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R9" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T9" s="191"/>
+    </row>
+    <row r="10" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="145">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D10" s="134">
+        <v>42955</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="163">
+        <v>63000</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="130">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="137">
+        <f t="shared" si="3"/>
+        <v>157.5</v>
+      </c>
+      <c r="Q10" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R10" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="145">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D11" s="134">
+        <v>42969</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="163">
+        <v>83500</v>
+      </c>
+      <c r="G11" s="136"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130">
+        <f t="shared" si="1"/>
+        <v>83500</v>
+      </c>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="137">
+        <f t="shared" si="3"/>
+        <v>208.75</v>
+      </c>
+      <c r="Q11" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R11" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S11" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T11" s="191"/>
+    </row>
+    <row r="12" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="145">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="162">
+        <v>42828</v>
+      </c>
+      <c r="D12" s="134">
+        <v>43011</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="163">
+        <v>96000</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="130">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164">
+        <f>P12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="137">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="Q12" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R12" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S12" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="145">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="162">
+        <v>42845</v>
+      </c>
+      <c r="D13" s="134">
+        <v>43028</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="163">
+        <v>273000</v>
+      </c>
+      <c r="G13" s="164"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="130">
+        <f t="shared" si="1"/>
+        <v>273000</v>
+      </c>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="137">
+        <f t="shared" si="3"/>
+        <v>853.125</v>
+      </c>
+      <c r="Q13" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R13" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S13" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="145">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="162">
+        <v>42851</v>
+      </c>
+      <c r="D14" s="134">
+        <v>43034</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="164"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q14" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R14" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S14" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="145">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="162">
+        <v>42852</v>
+      </c>
+      <c r="D15" s="134">
+        <v>43035</v>
+      </c>
+      <c r="E15" s="164"/>
+      <c r="F15" s="163">
+        <v>110000</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="130">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="137">
+        <f t="shared" si="3"/>
+        <v>343.75</v>
+      </c>
+      <c r="Q15" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R15" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S15" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="145">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="162">
+        <v>42853</v>
+      </c>
+      <c r="D16" s="134">
+        <v>43036</v>
+      </c>
+      <c r="E16" s="164"/>
+      <c r="F16" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G16" s="164"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q16" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R16" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S16" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="145">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="162">
+        <v>42877</v>
+      </c>
+      <c r="D17" s="134">
+        <v>42904</v>
+      </c>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163">
+        <v>41000</v>
+      </c>
+      <c r="G17" s="164"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="130">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+      <c r="M17" s="163"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="137">
+        <f t="shared" si="3"/>
+        <v>128.125</v>
+      </c>
+      <c r="Q17" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R17" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S17" s="152"/>
+    </row>
+    <row r="18" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="152"/>
+    </row>
+    <row r="19" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="260"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="140">
+        <f>SUM(E4:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <f>SUM(F4:F18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="G19" s="140">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="139"/>
+      <c r="I19" s="141">
+        <f>SUM(I4:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="141">
+        <f>SUM(J4:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="141">
+        <f>SUM(K4:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="141">
+        <f>SUM(L4:L18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="M19" s="141">
+        <f>SUM(M4:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141">
+        <f>SUM(O4:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="141">
+        <f>SUM(P4:P18)</f>
+        <v>3781.875</v>
+      </c>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="143"/>
+    </row>
+    <row r="20" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="145">
+        <f>ROW()-19</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="149">
+        <v>41870</v>
+      </c>
+      <c r="D20" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E20" s="150">
+        <v>924940000</v>
+      </c>
+      <c r="F20" s="137"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I20" s="150">
+        <v>8340000</v>
+      </c>
+      <c r="J20" s="137"/>
+      <c r="K20" s="150">
+        <f t="shared" ref="K20:K34" si="4">E20-I20</f>
+        <v>916600000</v>
+      </c>
+      <c r="L20" s="137"/>
+      <c r="M20" s="150">
+        <f>IF((LEFT(B20,4)="1402"),E20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>7630755</v>
+      </c>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="137">
+        <f t="shared" ref="P20:P34" si="5">IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="189">
+        <f>H20</f>
+        <v>42874</v>
+      </c>
+      <c r="R20" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S20" s="170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="145">
+        <f t="shared" ref="A21:A34" si="6">ROW()-19</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="149">
+        <v>41905</v>
+      </c>
+      <c r="D21" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E21" s="150">
+        <v>1849970000</v>
+      </c>
+      <c r="F21" s="137"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I21" s="150">
+        <v>16670000</v>
+      </c>
+      <c r="J21" s="137"/>
+      <c r="K21" s="150">
+        <f t="shared" si="4"/>
+        <v>1833300000</v>
+      </c>
+      <c r="L21" s="137"/>
+      <c r="M21" s="150">
+        <f t="shared" ref="M21:M33" si="7">IF((LEFT(B21,4)="1402"),E21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>15262252.5</v>
+      </c>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137">
+        <f t="shared" ref="O21:O34" si="8">IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="189">
+        <f t="shared" ref="Q21:Q33" si="9">H21</f>
+        <v>42874</v>
+      </c>
+      <c r="R21" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S21" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="145">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="171">
+        <v>41934</v>
+      </c>
+      <c r="D22" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="150">
+        <v>1479940000</v>
+      </c>
+      <c r="F22" s="173"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I22" s="172">
+        <v>13340000</v>
+      </c>
+      <c r="J22" s="173"/>
+      <c r="K22" s="150">
+        <f t="shared" si="4"/>
+        <v>1466600000</v>
+      </c>
+      <c r="L22" s="173"/>
+      <c r="M22" s="150">
+        <f t="shared" si="7"/>
+        <v>12209505</v>
+      </c>
+      <c r="N22" s="173"/>
+      <c r="O22" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R22" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S22" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="145">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="171">
+        <v>41963</v>
+      </c>
+      <c r="D23" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I23" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J23" s="173"/>
+      <c r="K23" s="150">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L23" s="173"/>
+      <c r="M23" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N23" s="173"/>
+      <c r="O23" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R23" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="145">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="171">
+        <v>41984</v>
+      </c>
+      <c r="D24" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="150">
+        <v>925030000</v>
+      </c>
+      <c r="F24" s="173"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I24" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J24" s="173"/>
+      <c r="K24" s="172">
+        <f t="shared" si="4"/>
+        <v>916700000</v>
+      </c>
+      <c r="L24" s="173"/>
+      <c r="M24" s="150">
+        <f t="shared" si="7"/>
+        <v>7631497.5</v>
+      </c>
+      <c r="N24" s="173"/>
+      <c r="O24" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R24" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S24" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="145">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="171">
+        <v>42033</v>
+      </c>
+      <c r="D25" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F25" s="173"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I25" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="173"/>
+      <c r="K25" s="172">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L25" s="173"/>
+      <c r="M25" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N25" s="173"/>
+      <c r="O25" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R25" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S25" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="145">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="171">
+        <v>42088</v>
+      </c>
+      <c r="D26" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="150">
+        <v>1849970000</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I26" s="172">
+        <v>16670000</v>
+      </c>
+      <c r="J26" s="173"/>
+      <c r="K26" s="172">
+        <f t="shared" si="4"/>
+        <v>1833300000</v>
+      </c>
+      <c r="L26" s="173"/>
+      <c r="M26" s="150">
+        <f t="shared" si="7"/>
+        <v>15262252.5</v>
+      </c>
+      <c r="N26" s="173"/>
+      <c r="O26" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R26" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S26" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="145">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="171">
+        <v>42114</v>
+      </c>
+      <c r="D27" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="150">
+        <v>1294970000</v>
+      </c>
+      <c r="F27" s="173"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I27" s="172">
+        <v>11670000</v>
+      </c>
+      <c r="J27" s="173"/>
+      <c r="K27" s="172">
+        <f t="shared" si="4"/>
+        <v>1283300000</v>
+      </c>
+      <c r="L27" s="173"/>
+      <c r="M27" s="150">
+        <f t="shared" si="7"/>
+        <v>9388532.5</v>
+      </c>
+      <c r="N27" s="173"/>
+      <c r="O27" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R27" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="145">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="171">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F28" s="173"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I28" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="173"/>
+      <c r="K28" s="172">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L28" s="173"/>
+      <c r="M28" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N28" s="173"/>
+      <c r="O28" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R28" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S28" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="145">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="171">
+        <v>42164</v>
+      </c>
+      <c r="D29" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F29" s="173"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I29" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="173"/>
+      <c r="K29" s="172">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L29" s="173"/>
+      <c r="M29" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N29" s="173"/>
+      <c r="O29" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R29" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S29" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="145">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="171">
+        <v>42187</v>
+      </c>
+      <c r="D30" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F30" s="173"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I30" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="173"/>
+      <c r="K30" s="172">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L30" s="173"/>
+      <c r="M30" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N30" s="173"/>
+      <c r="O30" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R30" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S30" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="145">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="171">
+        <v>42195</v>
+      </c>
+      <c r="D31" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="150">
+        <v>1387500000</v>
+      </c>
+      <c r="F31" s="173"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I31" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="173"/>
+      <c r="K31" s="172">
+        <f t="shared" si="4"/>
+        <v>1375000000</v>
+      </c>
+      <c r="L31" s="173"/>
+      <c r="M31" s="150">
+        <f t="shared" si="7"/>
+        <v>11446875</v>
+      </c>
+      <c r="N31" s="173"/>
+      <c r="O31" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R31" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S31" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="145">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="171">
+        <v>42215</v>
+      </c>
+      <c r="D32" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="150">
+        <v>924950000</v>
+      </c>
+      <c r="F32" s="173"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I32" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="173"/>
+      <c r="K32" s="172">
+        <f t="shared" si="4"/>
+        <v>916620000</v>
+      </c>
+      <c r="L32" s="173"/>
+      <c r="M32" s="150">
+        <f t="shared" si="7"/>
+        <v>7630837.5</v>
+      </c>
+      <c r="N32" s="173"/>
+      <c r="O32" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R32" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S32" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="145">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="171">
+        <v>42229</v>
+      </c>
+      <c r="D33" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="150">
+        <v>924950000</v>
+      </c>
+      <c r="F33" s="173"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I33" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J33" s="173"/>
+      <c r="K33" s="172">
+        <f t="shared" si="4"/>
+        <v>916620000</v>
+      </c>
+      <c r="L33" s="173"/>
+      <c r="M33" s="150">
+        <f t="shared" si="7"/>
+        <v>7630837.5</v>
+      </c>
+      <c r="N33" s="173"/>
+      <c r="O33" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R33" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S33" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="145">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="148" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="171">
+        <v>42860</v>
+      </c>
+      <c r="D34" s="171">
+        <v>42983</v>
+      </c>
+      <c r="E34" s="172">
+        <v>0</v>
+      </c>
+      <c r="F34" s="173">
+        <v>87000</v>
+      </c>
+      <c r="G34" s="172"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="173">
+        <f>F34</f>
+        <v>87000</v>
+      </c>
+      <c r="M34" s="150"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="137">
+        <f t="shared" si="8"/>
+        <v>181.25</v>
+      </c>
+      <c r="P34" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="189">
+        <v>42871</v>
+      </c>
+      <c r="R34" s="188">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="128"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="138"/>
+    </row>
+    <row r="36" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="260" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="260"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="140">
+        <f>SUM(E20:E35)</f>
+        <v>18499720000</v>
+      </c>
+      <c r="F36" s="141">
+        <f>SUM(F20:F35)</f>
+        <v>87000</v>
+      </c>
+      <c r="G36" s="140">
+        <f>SUM(G20:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="141"/>
+      <c r="I36" s="140">
+        <f t="shared" ref="I36:P36" si="10">SUM(I20:I35)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="140">
+        <f t="shared" si="10"/>
+        <v>18333040000</v>
+      </c>
+      <c r="L36" s="141">
+        <f t="shared" si="10"/>
+        <v>87000</v>
+      </c>
+      <c r="M36" s="140">
+        <f t="shared" si="10"/>
+        <v>151327720</v>
+      </c>
+      <c r="N36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="141">
+        <f t="shared" si="10"/>
+        <v>181.25</v>
+      </c>
+      <c r="P36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="143"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F37" s="178"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F38" s="175"/>
+      <c r="K38" s="237"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F39" s="175"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="175"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="178"/>
+    </row>
+    <row r="50" spans="1:19" s="183" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="174"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="185"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="185"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="174"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S19"/>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="174" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="175" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="176" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="177" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="181" customWidth="1"/>
+    <col min="7" max="7" width="8" style="177" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="179" customWidth="1"/>
+    <col min="9" max="9" width="11" style="180" customWidth="1"/>
+    <col min="10" max="10" width="10" style="180" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="177" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="181" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="182" customWidth="1"/>
+    <col min="14" max="14" width="10" style="182" customWidth="1"/>
+    <col min="15" max="15" width="9" style="182" customWidth="1"/>
+    <col min="16" max="16" width="9" style="183" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="184" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="184" customWidth="1"/>
+    <col min="19" max="19" width="15" style="174" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="175" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="121" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="261" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="261" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="262" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="269" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="264" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="264"/>
+      <c r="M2" s="267" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" s="261" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="186" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="241" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="241" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="238" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="125" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="N3" s="239" t="s">
+        <v>274</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="240" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q3" s="240" t="s">
+        <v>276</v>
+      </c>
+      <c r="R3" s="268"/>
+      <c r="S3" s="261"/>
+    </row>
+    <row r="4" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="145">
+        <f t="shared" ref="A4:A17" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="133" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="134">
+        <v>42863</v>
+      </c>
+      <c r="D4" s="134">
+        <v>43047</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="135">
+        <v>82000</v>
+      </c>
+      <c r="G4" s="136"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="130">
+        <f t="shared" ref="L4:L17" si="1">F4-J4</f>
+        <v>82000</v>
+      </c>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="137">
+        <f t="shared" ref="O4:O17" si="2">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="137">
+        <f t="shared" ref="P4:P17" si="3">IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>256.25</v>
+      </c>
+      <c r="Q4" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R4" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S4" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T4" s="190"/>
+    </row>
+    <row r="5" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="145">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="133" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="134">
+        <v>42867</v>
+      </c>
+      <c r="D5" s="134">
+        <v>43051</v>
+      </c>
+      <c r="E5" s="136"/>
+      <c r="F5" s="135">
+        <v>89000</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="130">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="137">
+        <f t="shared" si="3"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q5" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R5" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S5" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="145">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="133" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D6" s="134">
+        <v>42982</v>
+      </c>
+      <c r="E6" s="136"/>
+      <c r="F6" s="135">
+        <v>87500</v>
+      </c>
+      <c r="G6" s="136"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130">
+        <f t="shared" si="1"/>
+        <v>87500</v>
+      </c>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="137">
+        <f t="shared" si="3"/>
+        <v>218.75</v>
+      </c>
+      <c r="Q6" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R6" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T6" s="191"/>
+    </row>
+    <row r="7" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="145">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="133" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D7" s="134">
+        <v>42900</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="135">
+        <v>137000</v>
+      </c>
+      <c r="G7" s="136"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130">
+        <f t="shared" si="1"/>
+        <v>137000</v>
+      </c>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="137">
+        <f t="shared" si="3"/>
+        <v>342.5</v>
+      </c>
+      <c r="Q7" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R7" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T7" s="191"/>
+    </row>
+    <row r="8" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="145">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="133" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D8" s="134">
+        <v>42915</v>
+      </c>
+      <c r="E8" s="136"/>
+      <c r="F8" s="135">
+        <v>85000</v>
+      </c>
+      <c r="G8" s="136"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130">
+        <f t="shared" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="137">
+        <f t="shared" si="3"/>
+        <v>212.5</v>
+      </c>
+      <c r="Q8" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R8" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S8" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T8" s="201">
+        <f>E7*R7/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="145">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D9" s="134">
+        <v>42922</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="135">
+        <v>93000</v>
+      </c>
+      <c r="G9" s="136"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130">
+        <f t="shared" si="1"/>
+        <v>93000</v>
+      </c>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="137">
+        <f t="shared" si="3"/>
+        <v>232.5</v>
+      </c>
+      <c r="Q9" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R9" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S9" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T9" s="191"/>
+    </row>
+    <row r="10" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="145">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="133" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D10" s="134">
+        <v>42955</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="163">
+        <v>63000</v>
+      </c>
+      <c r="G10" s="136"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="130">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="137">
+        <f t="shared" si="3"/>
+        <v>157.5</v>
+      </c>
+      <c r="Q10" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R10" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="145">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" s="134">
+        <v>42783</v>
+      </c>
+      <c r="D11" s="134">
+        <v>42969</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="163">
+        <v>83500</v>
+      </c>
+      <c r="G11" s="136"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130">
+        <f t="shared" si="1"/>
+        <v>83500</v>
+      </c>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="137">
+        <f t="shared" si="3"/>
+        <v>208.75</v>
+      </c>
+      <c r="Q11" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R11" s="236">
+        <v>0.03</v>
+      </c>
+      <c r="S11" s="152" t="s">
+        <v>380</v>
+      </c>
+      <c r="T11" s="191"/>
+    </row>
+    <row r="12" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="145">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" s="162">
+        <v>42828</v>
+      </c>
+      <c r="D12" s="134">
+        <v>43011</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="163">
+        <v>96000</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="130">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164">
+        <f>P12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="137">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="Q12" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R12" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S12" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="145">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="162">
+        <v>42845</v>
+      </c>
+      <c r="D13" s="134">
+        <v>43028</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="163">
+        <v>273000</v>
+      </c>
+      <c r="G13" s="164"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="130">
+        <f t="shared" si="1"/>
+        <v>273000</v>
+      </c>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="137">
+        <f t="shared" si="3"/>
+        <v>853.125</v>
+      </c>
+      <c r="Q13" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R13" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S13" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="145">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>528</v>
+      </c>
+      <c r="C14" s="162">
+        <v>42851</v>
+      </c>
+      <c r="D14" s="134">
+        <v>43034</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="164"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q14" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R14" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S14" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="145">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="133" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15" s="162">
+        <v>42852</v>
+      </c>
+      <c r="D15" s="134">
+        <v>43035</v>
+      </c>
+      <c r="E15" s="164"/>
+      <c r="F15" s="163">
+        <v>110000</v>
+      </c>
+      <c r="G15" s="164"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="130">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="137">
+        <f t="shared" si="3"/>
+        <v>343.75</v>
+      </c>
+      <c r="Q15" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R15" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S15" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="145">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="133" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="162">
+        <v>42853</v>
+      </c>
+      <c r="D16" s="134">
+        <v>43036</v>
+      </c>
+      <c r="E16" s="164"/>
+      <c r="F16" s="163">
+        <v>40000</v>
+      </c>
+      <c r="G16" s="164"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="130">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="137">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q16" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R16" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S16" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="145">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C17" s="162">
+        <v>42877</v>
+      </c>
+      <c r="D17" s="134">
+        <v>42904</v>
+      </c>
+      <c r="E17" s="164"/>
+      <c r="F17" s="163">
+        <v>41000</v>
+      </c>
+      <c r="G17" s="164"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="130">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+      <c r="M17" s="163"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="137">
+        <f t="shared" si="3"/>
+        <v>128.125</v>
+      </c>
+      <c r="Q17" s="129">
+        <v>42877</v>
+      </c>
+      <c r="R17" s="236">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S17" s="152"/>
+    </row>
+    <row r="18" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="129"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="152"/>
+    </row>
+    <row r="19" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="260" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="260"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="140">
+        <f>SUM(E4:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <f>SUM(F4:F18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="G19" s="140">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="139"/>
+      <c r="I19" s="141">
+        <f>SUM(I4:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="141">
+        <f>SUM(J4:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="141">
+        <f>SUM(K4:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="141">
+        <f>SUM(L4:L18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="M19" s="141">
+        <f>SUM(M4:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141">
+        <f>SUM(O4:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="141">
+        <f>SUM(P4:P18)</f>
+        <v>3781.875</v>
+      </c>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="143"/>
+    </row>
+    <row r="20" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="145">
+        <f>ROW()-19</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="148" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="149">
+        <v>41870</v>
+      </c>
+      <c r="D20" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E20" s="150">
+        <v>916600000</v>
+      </c>
+      <c r="F20" s="137"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I20" s="150">
+        <v>8340000</v>
+      </c>
+      <c r="J20" s="137"/>
+      <c r="K20" s="150">
+        <f t="shared" ref="K20:K34" si="4">E20-I20</f>
+        <v>908260000</v>
+      </c>
+      <c r="L20" s="137"/>
+      <c r="M20" s="150">
+        <f>IF((LEFT(B20,4)="1402"),E20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>7561950</v>
+      </c>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="137">
+        <f t="shared" ref="P20:P34" si="5">IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="189">
+        <f>H20</f>
+        <v>42874</v>
+      </c>
+      <c r="R20" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S20" s="170" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="145">
+        <f t="shared" ref="A21:A34" si="6">ROW()-19</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="149">
+        <v>41905</v>
+      </c>
+      <c r="D21" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E21" s="150">
+        <v>1833300000</v>
+      </c>
+      <c r="F21" s="137"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I21" s="150">
+        <v>16670000</v>
+      </c>
+      <c r="J21" s="137"/>
+      <c r="K21" s="150">
+        <f t="shared" si="4"/>
+        <v>1816630000</v>
+      </c>
+      <c r="L21" s="137"/>
+      <c r="M21" s="150">
+        <f t="shared" ref="M21:M33" si="7">IF((LEFT(B21,4)="1402"),E21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>15124725</v>
+      </c>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137">
+        <f t="shared" ref="O21:O34" si="8">IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="189">
+        <f t="shared" ref="Q21:Q33" si="9">H21</f>
+        <v>42874</v>
+      </c>
+      <c r="R21" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S21" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="145">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="171">
+        <v>41934</v>
+      </c>
+      <c r="D22" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="150">
+        <v>1466600000</v>
+      </c>
+      <c r="F22" s="173"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I22" s="172">
+        <v>13340000</v>
+      </c>
+      <c r="J22" s="173"/>
+      <c r="K22" s="150">
+        <f t="shared" si="4"/>
+        <v>1453260000</v>
+      </c>
+      <c r="L22" s="173"/>
+      <c r="M22" s="150">
+        <f t="shared" si="7"/>
+        <v>12099450</v>
+      </c>
+      <c r="N22" s="173"/>
+      <c r="O22" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R22" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S22" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="145">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="171">
+        <v>41963</v>
+      </c>
+      <c r="D23" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I23" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J23" s="173"/>
+      <c r="K23" s="150">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L23" s="173"/>
+      <c r="M23" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N23" s="173"/>
+      <c r="O23" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R23" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S23" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="145">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="171">
+        <v>41984</v>
+      </c>
+      <c r="D24" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="150">
+        <v>916700000</v>
+      </c>
+      <c r="F24" s="173"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I24" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J24" s="173"/>
+      <c r="K24" s="172">
+        <f t="shared" si="4"/>
+        <v>908370000</v>
+      </c>
+      <c r="L24" s="173"/>
+      <c r="M24" s="150">
+        <f t="shared" si="7"/>
+        <v>7562775</v>
+      </c>
+      <c r="N24" s="173"/>
+      <c r="O24" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R24" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S24" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="145">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="171">
+        <v>42033</v>
+      </c>
+      <c r="D25" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F25" s="173"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I25" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="173"/>
+      <c r="K25" s="172">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L25" s="173"/>
+      <c r="M25" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N25" s="173"/>
+      <c r="O25" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R25" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S25" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="145">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="171">
+        <v>42088</v>
+      </c>
+      <c r="D26" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="150">
+        <v>1833300000</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I26" s="172">
+        <v>16670000</v>
+      </c>
+      <c r="J26" s="173"/>
+      <c r="K26" s="172">
+        <f t="shared" si="4"/>
+        <v>1816630000</v>
+      </c>
+      <c r="L26" s="173"/>
+      <c r="M26" s="150">
+        <f t="shared" si="7"/>
+        <v>15124725</v>
+      </c>
+      <c r="N26" s="173"/>
+      <c r="O26" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R26" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S26" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="145">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="171">
+        <v>42114</v>
+      </c>
+      <c r="D27" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="150">
+        <v>1283300000</v>
+      </c>
+      <c r="F27" s="173"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I27" s="172">
+        <v>11670000</v>
+      </c>
+      <c r="J27" s="173"/>
+      <c r="K27" s="172">
+        <f t="shared" si="4"/>
+        <v>1271630000</v>
+      </c>
+      <c r="L27" s="173"/>
+      <c r="M27" s="150">
+        <f t="shared" si="7"/>
+        <v>9303925</v>
+      </c>
+      <c r="N27" s="173"/>
+      <c r="O27" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R27" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S27" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="145">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="148" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="171">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F28" s="173"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I28" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="173"/>
+      <c r="K28" s="172">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L28" s="173"/>
+      <c r="M28" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N28" s="173"/>
+      <c r="O28" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R28" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S28" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="145">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="171">
+        <v>42164</v>
+      </c>
+      <c r="D29" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F29" s="173"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I29" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="173"/>
+      <c r="K29" s="172">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L29" s="173"/>
+      <c r="M29" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N29" s="173"/>
+      <c r="O29" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R29" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S29" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="145">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="171">
+        <v>42187</v>
+      </c>
+      <c r="D30" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F30" s="173"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I30" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="173"/>
+      <c r="K30" s="172">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L30" s="173"/>
+      <c r="M30" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N30" s="173"/>
+      <c r="O30" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R30" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S30" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="145">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="171">
+        <v>42195</v>
+      </c>
+      <c r="D31" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="150">
+        <v>1375000000</v>
+      </c>
+      <c r="F31" s="173"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I31" s="172">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="173"/>
+      <c r="K31" s="172">
+        <f t="shared" si="4"/>
+        <v>1362500000</v>
+      </c>
+      <c r="L31" s="173"/>
+      <c r="M31" s="150">
+        <f t="shared" si="7"/>
+        <v>11343750</v>
+      </c>
+      <c r="N31" s="173"/>
+      <c r="O31" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R31" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S31" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="145">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="171">
+        <v>42215</v>
+      </c>
+      <c r="D32" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="150">
+        <v>916620000</v>
+      </c>
+      <c r="F32" s="173"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I32" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="173"/>
+      <c r="K32" s="172">
+        <f t="shared" si="4"/>
+        <v>908290000</v>
+      </c>
+      <c r="L32" s="173"/>
+      <c r="M32" s="150">
+        <f t="shared" si="7"/>
+        <v>7562115</v>
+      </c>
+      <c r="N32" s="173"/>
+      <c r="O32" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R32" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S32" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="145">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="171">
+        <v>42229</v>
+      </c>
+      <c r="D33" s="149">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="150">
+        <v>916620000</v>
+      </c>
+      <c r="F33" s="173"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="149">
+        <v>42874</v>
+      </c>
+      <c r="I33" s="172">
+        <v>8330000</v>
+      </c>
+      <c r="J33" s="173"/>
+      <c r="K33" s="172">
+        <f t="shared" si="4"/>
+        <v>908290000</v>
+      </c>
+      <c r="L33" s="173"/>
+      <c r="M33" s="150">
+        <f t="shared" si="7"/>
+        <v>7562115</v>
+      </c>
+      <c r="N33" s="173"/>
+      <c r="O33" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="189">
+        <f t="shared" si="9"/>
+        <v>42874</v>
+      </c>
+      <c r="R33" s="188">
+        <v>0.09</v>
+      </c>
+      <c r="S33" s="152" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="147" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="145">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="148" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="171">
+        <v>42860</v>
+      </c>
+      <c r="D34" s="171">
+        <v>42983</v>
+      </c>
+      <c r="E34" s="172">
+        <v>0</v>
+      </c>
+      <c r="F34" s="173">
+        <v>87000</v>
+      </c>
+      <c r="G34" s="172"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="172">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="173">
+        <f>F34</f>
+        <v>87000</v>
+      </c>
+      <c r="M34" s="150"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="137">
+        <f t="shared" si="8"/>
+        <v>181.25</v>
+      </c>
+      <c r="P34" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="189">
+        <v>42871</v>
+      </c>
+      <c r="R34" s="188">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="152" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="128"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="163"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="138"/>
+    </row>
+    <row r="36" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="260" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="260"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="140">
+        <f>SUM(E20:E35)</f>
+        <v>18333040000</v>
+      </c>
+      <c r="F36" s="141">
+        <f>SUM(F20:F35)</f>
+        <v>87000</v>
+      </c>
+      <c r="G36" s="140">
+        <f>SUM(G20:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="141"/>
+      <c r="I36" s="140">
+        <f t="shared" ref="I36:P36" si="10">SUM(I20:I35)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="140">
+        <f t="shared" si="10"/>
+        <v>18166360000</v>
+      </c>
+      <c r="L36" s="141">
+        <f t="shared" si="10"/>
+        <v>87000</v>
+      </c>
+      <c r="M36" s="140">
+        <f t="shared" si="10"/>
+        <v>149964280</v>
+      </c>
+      <c r="N36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="141">
+        <f t="shared" si="10"/>
+        <v>181.25</v>
+      </c>
+      <c r="P36" s="141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="143"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F37" s="178"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F38" s="175"/>
+      <c r="K38" s="237"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F39" s="175"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="175"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="178"/>
+    </row>
+    <row r="50" spans="1:19" s="183" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="174"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="185"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="185"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="174"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S19"/>
   <mergeCells count="11">
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
@@ -18535,10 +22454,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="247" t="s">
+      <c r="N20" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="247"/>
+      <c r="O20" s="251"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -18552,10 +22471,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="248" t="s">
+      <c r="N21" s="252" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="248"/>
+      <c r="O21" s="252"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -18717,7 +22636,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18747,20 +22666,20 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="10">
-        <v>42878</v>
+        <v>42915</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -18771,31 +22690,31 @@
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0    0   2    6    8    6    1    5")</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0   2    6    8    6    1    5</v>
+        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.5" customHeight="1">
-      <c r="F8" s="249">
+      <c r="F8" s="253">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>1200000</v>
-      </c>
-      <c r="G8" s="249"/>
+        <v>243800</v>
+      </c>
+      <c r="G8" s="253"/>
       <c r="K8" s="7" t="str">
         <f>IF(O2="vnđ","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="L8" s="7" t="str">
         <f>IF(O2="usd","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Một triệu, hai trăm ngàn đồng.</v>
+        <v>Hai trăm bốn mươi ba ngàn, tám trăm đô la mỹ.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1">
@@ -18806,13 +22725,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán phí kiểm nghiệm T04/2017</v>
+        <v>Chuyển NT</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="22.5" customHeight="1">
       <c r="F13" s="203" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>TRUNG TÂM CHẤT LƯỢNG NÔNG LÂM THUỶ SẢN VÙNG 4</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -18823,13 +22742,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>3511.0.1053950</v>
+        <v>1402 148 5100 9479</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>KHO BẠC NHÀ NƯỚC QUẬN 1, TPHCM</v>
+        <v>Eximbank - CN Q4, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -18912,11 +22831,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="249" t="e">
+      <c r="E8" s="254" t="e">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="249"/>
+      <c r="F8" s="254"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -19226,11 +23145,11 @@
         <v>112</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="253" t="e">
+      <c r="L17" s="258" t="e">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="253"/>
+      <c r="M17" s="258"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -19292,11 +23211,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="250" t="s">
+      <c r="N21" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="251"/>
-      <c r="P21" s="251"/>
+      <c r="O21" s="256"/>
+      <c r="P21" s="256"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -19311,11 +23230,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="252" t="s">
+      <c r="N22" s="257" t="s">
         <v>62</v>
       </c>
-      <c r="O22" s="248"/>
-      <c r="P22" s="248"/>
+      <c r="O22" s="252"/>
+      <c r="P22" s="252"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -19529,36 +23448,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E2" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="254" t="s">
+      <c r="G2" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H2" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="254"/>
-      <c r="C3" s="254"/>
+      <c r="A3" s="259"/>
+      <c r="C3" s="259"/>
       <c r="E3" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G3" s="254"/>
+      <c r="G3" s="259"/>
       <c r="H3" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J3" s="254"/>
+      <c r="J3" s="259"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="211" t="s">
@@ -19602,36 +23521,36 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C7" s="254" t="s">
+      <c r="C7" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E7" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G7" s="254" t="s">
+      <c r="G7" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H7" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J7" s="254" t="s">
+      <c r="J7" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="254"/>
-      <c r="C8" s="254"/>
+      <c r="A8" s="259"/>
+      <c r="C8" s="259"/>
       <c r="E8" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="254"/>
+      <c r="G8" s="259"/>
       <c r="H8" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J8" s="254"/>
+      <c r="J8" s="259"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="211" t="s">
@@ -19675,36 +23594,36 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="254" t="s">
+      <c r="A12" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="254" t="s">
+      <c r="C12" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E12" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G12" s="254" t="s">
+      <c r="G12" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H12" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J12" s="254" t="s">
+      <c r="J12" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A13" s="254"/>
-      <c r="C13" s="254"/>
+      <c r="A13" s="259"/>
+      <c r="C13" s="259"/>
       <c r="E13" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G13" s="254"/>
+      <c r="G13" s="259"/>
       <c r="H13" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J13" s="254"/>
+      <c r="J13" s="259"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="211" t="s">
@@ -19748,36 +23667,36 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A17" s="254" t="s">
+      <c r="A17" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C17" s="254" t="s">
+      <c r="C17" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E17" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G17" s="254" t="s">
+      <c r="G17" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H17" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J17" s="254" t="s">
+      <c r="J17" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A18" s="254"/>
-      <c r="C18" s="254"/>
+      <c r="A18" s="259"/>
+      <c r="C18" s="259"/>
       <c r="E18" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G18" s="254"/>
+      <c r="G18" s="259"/>
       <c r="H18" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J18" s="254"/>
+      <c r="J18" s="259"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A19" s="211" t="s">
@@ -19821,36 +23740,36 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A22" s="254" t="s">
+      <c r="A22" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C22" s="254" t="s">
+      <c r="C22" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E22" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G22" s="254" t="s">
+      <c r="G22" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H22" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J22" s="254" t="s">
+      <c r="J22" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A23" s="254"/>
-      <c r="C23" s="254"/>
+      <c r="A23" s="259"/>
+      <c r="C23" s="259"/>
       <c r="E23" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G23" s="254"/>
+      <c r="G23" s="259"/>
       <c r="H23" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J23" s="254"/>
+      <c r="J23" s="259"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A24" s="211" t="s">
@@ -19894,36 +23813,36 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A27" s="254" t="s">
+      <c r="A27" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C27" s="254" t="s">
+      <c r="C27" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E27" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G27" s="254" t="s">
+      <c r="G27" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H27" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J27" s="254" t="s">
+      <c r="J27" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A28" s="254"/>
-      <c r="C28" s="254"/>
+      <c r="A28" s="259"/>
+      <c r="C28" s="259"/>
       <c r="E28" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G28" s="254"/>
+      <c r="G28" s="259"/>
       <c r="H28" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J28" s="254"/>
+      <c r="J28" s="259"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A29" s="211" t="s">
@@ -19967,36 +23886,36 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E32" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G32" s="254" t="s">
+      <c r="G32" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H32" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J32" s="254" t="s">
+      <c r="J32" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A33" s="254"/>
-      <c r="C33" s="254"/>
+      <c r="A33" s="259"/>
+      <c r="C33" s="259"/>
       <c r="E33" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G33" s="254"/>
+      <c r="G33" s="259"/>
       <c r="H33" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J33" s="254"/>
+      <c r="J33" s="259"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A34" s="211" t="s">
@@ -20040,36 +23959,36 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C37" s="254" t="s">
+      <c r="C37" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E37" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G37" s="254" t="s">
+      <c r="G37" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H37" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J37" s="254" t="s">
+      <c r="J37" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A38" s="254"/>
-      <c r="C38" s="254"/>
+      <c r="A38" s="259"/>
+      <c r="C38" s="259"/>
       <c r="E38" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G38" s="254"/>
+      <c r="G38" s="259"/>
       <c r="H38" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J38" s="254"/>
+      <c r="J38" s="259"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="211" t="s">
@@ -20113,36 +24032,36 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A42" s="254" t="s">
+      <c r="A42" s="259" t="s">
         <v>435</v>
       </c>
-      <c r="C42" s="254" t="s">
+      <c r="C42" s="259" t="s">
         <v>431</v>
       </c>
       <c r="E42" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="G42" s="254" t="s">
+      <c r="G42" s="259" t="s">
         <v>435</v>
       </c>
       <c r="H42" s="212" t="s">
         <v>440</v>
       </c>
-      <c r="J42" s="254" t="s">
+      <c r="J42" s="259" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A43" s="254"/>
-      <c r="C43" s="254"/>
+      <c r="A43" s="259"/>
+      <c r="C43" s="259"/>
       <c r="E43" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="G43" s="254"/>
+      <c r="G43" s="259"/>
       <c r="H43" s="212" t="s">
         <v>441</v>
       </c>
-      <c r="J43" s="254"/>
+      <c r="J43" s="259"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A44" s="211" t="s">
@@ -20501,46 +24420,46 @@
       <c r="R1" s="111"/>
     </row>
     <row r="2" spans="1:19" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="261" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="261" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="262" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258" t="s">
+      <c r="D2" s="262"/>
+      <c r="E2" s="263" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="259" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="264" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259" t="s">
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259" t="s">
+      <c r="L2" s="264"/>
+      <c r="M2" s="264" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="259"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="260" t="s">
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="265" t="s">
         <v>266</v>
       </c>
-      <c r="R2" s="256" t="s">
+      <c r="R2" s="261" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -20583,8 +24502,8 @@
       <c r="P3" s="218" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="256"/>
+      <c r="Q3" s="265"/>
+      <c r="R3" s="261"/>
     </row>
     <row r="4" spans="1:19" s="132" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="128">
@@ -20791,10 +24710,10 @@
       <c r="R8" s="225"/>
     </row>
     <row r="9" spans="1:19" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="266" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="261"/>
+      <c r="B9" s="266"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="140"/>
@@ -21598,10 +25517,10 @@
       <c r="R26" s="138"/>
     </row>
     <row r="27" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="255" t="s">
+      <c r="A27" s="260" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="255"/>
+      <c r="B27" s="260"/>
       <c r="C27" s="165"/>
       <c r="D27" s="165"/>
       <c r="E27" s="140">
@@ -22476,10 +26395,10 @@
       <c r="R43" s="138"/>
     </row>
     <row r="44" spans="1:18" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="255" t="s">
+      <c r="A44" s="260" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="255"/>
+      <c r="B44" s="260"/>
       <c r="C44" s="165"/>
       <c r="D44" s="165"/>
       <c r="E44" s="140">
@@ -22635,47 +26554,47 @@
       <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:20" s="122" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="261" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="261" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="262" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="257"/>
-      <c r="E2" s="258" t="s">
+      <c r="D2" s="262"/>
+      <c r="E2" s="263" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="264" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="269" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="259" t="s">
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="259"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="264"/>
+      <c r="M2" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="268" t="s">
         <v>266</v>
       </c>
-      <c r="S2" s="256" t="s">
+      <c r="S2" s="261" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="122" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="261"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="123" t="s">
         <v>268</v>
       </c>
@@ -22721,8 +26640,8 @@
       <c r="Q3" s="205" t="s">
         <v>276</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="256"/>
+      <c r="R3" s="268"/>
+      <c r="S3" s="261"/>
     </row>
     <row r="4" spans="1:20" s="147" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -22936,10 +26855,10 @@
       <c r="S8" s="160"/>
     </row>
     <row r="9" spans="1:20" s="144" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="261" t="s">
+      <c r="A9" s="266" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="261"/>
+      <c r="B9" s="266"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
       <c r="E9" s="140"/>
@@ -23516,10 +27435,10 @@
       <c r="S21" s="152"/>
     </row>
     <row r="22" spans="1:20" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="260" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="255"/>
+      <c r="B22" s="260"/>
       <c r="C22" s="165"/>
       <c r="D22" s="165"/>
       <c r="E22" s="140">
@@ -24429,10 +28348,10 @@
       <c r="S39" s="138"/>
     </row>
     <row r="40" spans="1:19" s="168" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="255" t="s">
+      <c r="A40" s="260" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="255"/>
+      <c r="B40" s="260"/>
       <c r="C40" s="165"/>
       <c r="D40" s="165"/>
       <c r="E40" s="140">

--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2385" windowWidth="21840" windowHeight="7695" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="2385" windowWidth="21840" windowHeight="7695" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="01-17" sheetId="16" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="07-17" sheetId="21" r:id="rId5"/>
     <sheet name="08-17" sheetId="22" r:id="rId6"/>
     <sheet name="09-17" sheetId="24" r:id="rId7"/>
+    <sheet name="10-17" sheetId="25" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
@@ -23,6 +24,7 @@
     <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-17'!$A$3:$S$22</definedName>
@@ -31,13 +33,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'07-17'!$A$3:$S$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'08-17'!$A$3:$S$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'09-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'10-17'!$A$3:$S$22</definedName>
+    <definedName name="Dong" localSheetId="7">IF('10-17'!Loai="p1",ROW('10-17'!Loai)-1,"")</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
+    <definedName name="DS" localSheetId="7">#REF!</definedName>
     <definedName name="DS">#REF!</definedName>
+    <definedName name="Loai" localSheetId="7">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
     <definedName name="Loai">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
+    <definedName name="N_1" localSheetId="7">#REF!</definedName>
     <definedName name="N_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'07-17'!$A$20:$S$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'08-17'!$A$20:$S$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'09-17'!$A$20:$S$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'10-17'!$A$23:$S$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'05-17'!$2:$3</definedName>
@@ -45,6 +53,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'07-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'08-17'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'09-17'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'10-17'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -97,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="102">
   <si>
     <t>USD</t>
   </si>
@@ -370,6 +379,39 @@
   </si>
   <si>
     <t>1402LDS201700777</t>
+  </si>
+  <si>
+    <t>LD1715715201</t>
+  </si>
+  <si>
+    <t>LD1717910547</t>
+  </si>
+  <si>
+    <t>LD1718001976</t>
+  </si>
+  <si>
+    <t>LD1718609148</t>
+  </si>
+  <si>
+    <t>LD1722005872</t>
+  </si>
+  <si>
+    <t>LD1722725170</t>
+  </si>
+  <si>
+    <t>LD1725100091</t>
+  </si>
+  <si>
+    <t>LD1726338999</t>
+  </si>
+  <si>
+    <t>LD1726941340</t>
+  </si>
+  <si>
+    <t>LD1727013707</t>
+  </si>
+  <si>
+    <t>LD1716460104</t>
   </si>
 </sst>
 </file>
@@ -816,7 +858,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,22 +1211,34 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,46 +1652,46 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="124" t="s">
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="125" t="s">
+      <c r="R2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1680,8 +1734,8 @@
       <c r="P3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="128"/>
     </row>
     <row r="4" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="18">
@@ -1888,10 +1942,10 @@
       <c r="R8" s="99"/>
     </row>
     <row r="9" spans="1:19" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -3649,11 +3703,6 @@
     <sortCondition ref="C10:C25"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -3661,6 +3710,11 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3732,47 +3786,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -3818,8 +3872,8 @@
       <c r="Q3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -4033,10 +4087,10 @@
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:20" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -5619,11 +5673,6 @@
   </sheetData>
   <autoFilter ref="A3:S22"/>
   <mergeCells count="12">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -5631,6 +5680,11 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5702,47 +5756,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -5788,8 +5842,8 @@
       <c r="Q3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -7553,47 +7607,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -7639,8 +7693,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -9459,47 +9513,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -9545,8 +9599,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -11309,47 +11363,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -11395,8 +11449,8 @@
       <c r="Q3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -13103,12 +13157,12 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -13159,47 +13213,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="123" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="123"/>
-      <c r="M2" s="130" t="s">
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="131" t="s">
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="128" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -13245,8 +13299,8 @@
       <c r="Q3" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -14944,4 +14998,1926 @@
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="65" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="71" customWidth="1"/>
+    <col min="7" max="7" width="8" style="67" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="11" style="70" customWidth="1"/>
+    <col min="10" max="10" width="10" style="70" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="71" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="72" customWidth="1"/>
+    <col min="14" max="14" width="10" style="72" customWidth="1"/>
+    <col min="15" max="15" width="9" style="72" customWidth="1"/>
+    <col min="16" max="16" width="9" style="73" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="74" customWidth="1"/>
+    <col min="19" max="19" width="15" style="64" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="65" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="131"/>
+      <c r="M2" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="135"/>
+      <c r="S3" s="128"/>
+    </row>
+    <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="35">
+        <f t="shared" ref="A4:A20" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25">
+        <v>183000</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20">
+        <f t="shared" ref="L4:L20" si="1">F4-J4</f>
+        <v>183000</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="27">
+        <f t="shared" ref="O4:O20" si="2">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <f>IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>571.875</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R4" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="80"/>
+    </row>
+    <row r="5" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25">
+        <v>40000</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" ref="P4:P20" si="3">IF((LEFT(B5,4)="ld17"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,DAY(Q5)),Q5,"d")/360,0)</f>
+        <v>125</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R5" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25">
+        <v>110000</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="3"/>
+        <v>343.75</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R6" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="81"/>
+    </row>
+    <row r="7" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R7" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="81"/>
+    </row>
+    <row r="8" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25">
+        <v>82000</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
+        <v>82000</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
+        <v>256.25</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R8" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="82">
+        <f>E7*R7/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25">
+        <v>89000</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="3"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R9" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="81"/>
+    </row>
+    <row r="10" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="53">
+        <v>70000</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="3"/>
+        <v>218.75</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R10" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53">
+        <v>67000</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
+        <v>67000</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
+        <v>209.375</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R11" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="81"/>
+    </row>
+    <row r="12" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53">
+        <v>32420</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20">
+        <f t="shared" si="1"/>
+        <v>32420</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54">
+        <f>P12*G12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="3"/>
+        <v>101.3125</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R12" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53">
+        <v>84000</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="3"/>
+        <v>262.5</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R13" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53">
+        <v>92500</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20">
+        <f t="shared" si="1"/>
+        <v>92500</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="3"/>
+        <v>289.0625</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R14" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53">
+        <v>63000</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="20">
+        <f t="shared" ref="L15:L17" si="4">F15-J15</f>
+        <v>63000</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="27">
+        <f t="shared" ref="O15:O17" si="5">IF((LEFT(B15,4)="1402"),F15*R15*DATEDIF(DATE(YEAR(Q15),MONTH(Q15)-1,IF(MONTH(C15)=(MONTH(Q15)-1),DAY(C15),16)),Q15,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" ref="P15:P17" si="6">IF((LEFT(B15,4)="ld17"),F15*R15*DATEDIF(DATE(YEAR(Q15),MONTH(Q15)-1,DAY(Q15)),Q15,"d")/360,0)</f>
+        <v>196.875</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R15" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53">
+        <v>83500</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20">
+        <f t="shared" si="4"/>
+        <v>83500</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="6"/>
+        <v>260.9375</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R16" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53">
+        <v>87500</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20">
+        <f t="shared" si="4"/>
+        <v>87500</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="6"/>
+        <v>273.4375</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R17" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S17" s="42"/>
+    </row>
+    <row r="18" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="35">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53">
+        <v>95900</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20">
+        <f t="shared" si="1"/>
+        <v>95900</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <f t="shared" si="3"/>
+        <v>299.6875</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R18" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53">
+        <v>89600</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20">
+        <f t="shared" ref="L19" si="7">F19-J19</f>
+        <v>89600</v>
+      </c>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="27">
+        <f t="shared" ref="O19" si="8">IF((LEFT(B19,4)="1402"),F19*R19*DATEDIF(DATE(YEAR(Q19),MONTH(Q19)-1,IF(MONTH(C19)=(MONTH(Q19)-1),DAY(C19),16)),Q19,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="27">
+        <f t="shared" ref="P19" si="9">IF((LEFT(B19,4)="ld17"),F19*R19*DATEDIF(DATE(YEAR(Q19),MONTH(Q19)-1,DAY(Q19)),Q19,"d")/360,0)</f>
+        <v>280</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R19" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="53">
+        <v>89600</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20">
+        <v>36600</v>
+      </c>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R20" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="127" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="127"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="30">
+        <f>SUM(E4:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
+        <f>SUM(F4:F21)</f>
+        <v>1399020</v>
+      </c>
+      <c r="G22" s="30">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31">
+        <f>SUM(I4:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
+        <f>SUM(J4:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <f>SUM(K4:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
+        <f>SUM(L4:L21)</f>
+        <v>1346020</v>
+      </c>
+      <c r="M22" s="31">
+        <f>SUM(M4:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31">
+        <f>SUM(O4:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="31">
+        <f>SUM(P4:P21)</f>
+        <v>4371.9375</v>
+      </c>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="33"/>
+    </row>
+    <row r="23" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="35">
+        <f>ROW()-19</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="39">
+        <v>41870</v>
+      </c>
+      <c r="D23" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="40">
+        <v>899920000</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I23" s="40">
+        <v>8340000</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="40">
+        <f t="shared" ref="K23:K37" si="10">E23-I23</f>
+        <v>891580000</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="40">
+        <f>IF((LEFT(B23,4)="1402"),E23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
+        <v>7224357.777777778</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27">
+        <f>IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" ref="P23:P37" si="11">IF((LEFT(B23,4)="1015"),F23*R23*DATEDIF(Q23,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="79">
+        <f>H23</f>
+        <v>42966</v>
+      </c>
+      <c r="R23" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="35">
+        <f t="shared" ref="A24:A37" si="12">ROW()-19</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="39">
+        <v>41905</v>
+      </c>
+      <c r="D24" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="40">
+        <v>1799960000</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I24" s="40">
+        <v>16670000</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="40">
+        <f t="shared" si="10"/>
+        <v>1783290000</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="40">
+        <f t="shared" ref="M24:M36" si="13">IF((LEFT(B24,4)="1402"),E24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
+        <v>14449678.888888888</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27">
+        <f t="shared" ref="O24:O37" si="14">IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="79">
+        <f t="shared" ref="Q24:Q36" si="15">H24</f>
+        <v>42966</v>
+      </c>
+      <c r="R24" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="35">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="61">
+        <v>41934</v>
+      </c>
+      <c r="D25" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1439920000</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I25" s="62">
+        <v>13340000</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="40">
+        <f t="shared" si="10"/>
+        <v>1426580000</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="40">
+        <f t="shared" si="13"/>
+        <v>11559357.77777778</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R25" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="35">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="61">
+        <v>41963</v>
+      </c>
+      <c r="D26" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I26" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="40">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="40">
+        <f t="shared" si="13"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N26" s="63"/>
+      <c r="O26" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R26" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="35">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="61">
+        <v>41984</v>
+      </c>
+      <c r="D27" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="40">
+        <v>900040000</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I27" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="62">
+        <f t="shared" si="10"/>
+        <v>891710000</v>
+      </c>
+      <c r="L27" s="63"/>
+      <c r="M27" s="40">
+        <f t="shared" si="13"/>
+        <v>7225321.111111111</v>
+      </c>
+      <c r="N27" s="63"/>
+      <c r="O27" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R27" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="35">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="61">
+        <v>42033</v>
+      </c>
+      <c r="D28" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I28" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="62">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="40">
+        <f t="shared" si="13"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N28" s="63"/>
+      <c r="O28" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R28" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="35">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="61">
+        <v>42088</v>
+      </c>
+      <c r="D29" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="40">
+        <v>1799960000</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I29" s="62">
+        <v>16670000</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62">
+        <f t="shared" si="10"/>
+        <v>1783290000</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="40">
+        <f t="shared" si="13"/>
+        <v>14449678.888888888</v>
+      </c>
+      <c r="N29" s="63"/>
+      <c r="O29" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R29" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="35">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="61">
+        <v>42114</v>
+      </c>
+      <c r="D30" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1259960000</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I30" s="62">
+        <v>11670000</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62">
+        <f t="shared" si="10"/>
+        <v>1248290000</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="40">
+        <f t="shared" si="13"/>
+        <v>10114678.88888889</v>
+      </c>
+      <c r="N30" s="63"/>
+      <c r="O30" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R30" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="35">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="61">
+        <v>42138</v>
+      </c>
+      <c r="D31" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I31" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="63"/>
+      <c r="K31" s="62">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L31" s="63"/>
+      <c r="M31" s="40">
+        <f t="shared" si="13"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R31" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="35">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="61">
+        <v>42164</v>
+      </c>
+      <c r="D32" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I32" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J32" s="63"/>
+      <c r="K32" s="62">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L32" s="63"/>
+      <c r="M32" s="40">
+        <f t="shared" si="13"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N32" s="63"/>
+      <c r="O32" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R32" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S32" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="35">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="61">
+        <v>42187</v>
+      </c>
+      <c r="D33" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I33" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="62">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L33" s="63"/>
+      <c r="M33" s="40">
+        <f t="shared" si="13"/>
+        <v>15300000.000000002</v>
+      </c>
+      <c r="N33" s="63"/>
+      <c r="O33" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R33" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S33" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="35">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="61">
+        <v>42195</v>
+      </c>
+      <c r="D34" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F34" s="63"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I34" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="62">
+        <f t="shared" si="10"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L34" s="63"/>
+      <c r="M34" s="40">
+        <f t="shared" si="13"/>
+        <v>12750000.000000002</v>
+      </c>
+      <c r="N34" s="63"/>
+      <c r="O34" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R34" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S34" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="35">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="61">
+        <v>42215</v>
+      </c>
+      <c r="D35" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="40">
+        <v>899960000</v>
+      </c>
+      <c r="F35" s="63"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I35" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J35" s="63"/>
+      <c r="K35" s="62">
+        <f t="shared" si="10"/>
+        <v>891630000</v>
+      </c>
+      <c r="L35" s="63"/>
+      <c r="M35" s="40">
+        <f t="shared" si="13"/>
+        <v>4249811.111111111</v>
+      </c>
+      <c r="N35" s="63"/>
+      <c r="O35" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R35" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S35" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="35">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="61">
+        <v>42229</v>
+      </c>
+      <c r="D36" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="40">
+        <v>899960000</v>
+      </c>
+      <c r="F36" s="63"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I36" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J36" s="63"/>
+      <c r="K36" s="62">
+        <f t="shared" si="10"/>
+        <v>891630000</v>
+      </c>
+      <c r="L36" s="63"/>
+      <c r="M36" s="40">
+        <f t="shared" si="13"/>
+        <v>7224678.888888889</v>
+      </c>
+      <c r="N36" s="63"/>
+      <c r="O36" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="79">
+        <f t="shared" si="15"/>
+        <v>42966</v>
+      </c>
+      <c r="R36" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S36" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="35">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="61">
+        <v>42860</v>
+      </c>
+      <c r="D37" s="61">
+        <v>42983</v>
+      </c>
+      <c r="E37" s="62">
+        <v>0</v>
+      </c>
+      <c r="F37" s="63">
+        <v>87000</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="62">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="63">
+        <f>F37</f>
+        <v>87000</v>
+      </c>
+      <c r="M37" s="40"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="27">
+        <f t="shared" si="14"/>
+        <v>217.5</v>
+      </c>
+      <c r="P37" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="79">
+        <v>42871</v>
+      </c>
+      <c r="R37" s="78">
+        <v>0.03</v>
+      </c>
+      <c r="S37" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="28"/>
+    </row>
+    <row r="39" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="127"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="30">
+        <f>SUM(E23:E38)</f>
+        <v>17999680000</v>
+      </c>
+      <c r="F39" s="31">
+        <f>SUM(F23:F38)</f>
+        <v>87000</v>
+      </c>
+      <c r="G39" s="30">
+        <f>SUM(G23:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="30">
+        <f t="shared" ref="I39:P39" si="16">SUM(I23:I38)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J39" s="31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="30">
+        <f t="shared" si="16"/>
+        <v>17833000000</v>
+      </c>
+      <c r="L39" s="31">
+        <f t="shared" si="16"/>
+        <v>87000</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="16"/>
+        <v>147897563.33333334</v>
+      </c>
+      <c r="N39" s="31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="31">
+        <f t="shared" si="16"/>
+        <v>217.5</v>
+      </c>
+      <c r="P39" s="31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="33"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="68"/>
+    </row>
+    <row r="41" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F41" s="65"/>
+      <c r="K41" s="110"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="65"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F43" s="65"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F45" s="68"/>
+    </row>
+    <row r="53" spans="1:19" s="73" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="64"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S22"/>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2385" windowWidth="21840" windowHeight="7695" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="2445" windowWidth="21840" windowHeight="7635" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="01-17" sheetId="16" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="08-17" sheetId="22" r:id="rId6"/>
     <sheet name="09-17" sheetId="24" r:id="rId7"/>
     <sheet name="10-17" sheetId="25" r:id="rId8"/>
+    <sheet name="11-17" sheetId="26" r:id="rId9"/>
+    <sheet name="12-17" sheetId="28" r:id="rId10"/>
+    <sheet name="VPBANK - 2017" sheetId="29" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
@@ -25,6 +28,9 @@
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="9" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01-17'!$A$3:$R$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02-17'!$A$3:$S$22</definedName>
@@ -34,26 +40,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'08-17'!$A$3:$S$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'09-17'!$A$3:$S$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'10-17'!$A$3:$S$22</definedName>
-    <definedName name="Dong" localSheetId="7">IF('10-17'!Loai="p1",ROW('10-17'!Loai)-1,"")</definedName>
-    <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS" localSheetId="7">#REF!</definedName>
-    <definedName name="DS">#REF!</definedName>
-    <definedName name="Loai" localSheetId="7">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
-    <definedName name="Loai">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
-    <definedName name="N_1" localSheetId="7">#REF!</definedName>
-    <definedName name="N_1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'07-17'!$A$20:$S$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'08-17'!$A$20:$S$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'09-17'!$A$20:$S$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'10-17'!$A$23:$S$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'02-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'05-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'06-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'07-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'08-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'09-17'!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'10-17'!$2:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'11-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12-17'!$A$3:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'VPBANK - 2017'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -106,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="142">
   <si>
     <t>USD</t>
   </si>
@@ -413,6 +402,126 @@
   <si>
     <t>LD1716460104</t>
   </si>
+  <si>
+    <t>LD1730320093</t>
+  </si>
+  <si>
+    <t>LD1730609418</t>
+  </si>
+  <si>
+    <t>LD1729602661</t>
+  </si>
+  <si>
+    <t>LD1730</t>
+  </si>
+  <si>
+    <t>1402LDS201701597</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>VAY CCTG</t>
+  </si>
+  <si>
+    <t>NGÀY GỬI</t>
+  </si>
+  <si>
+    <t>SỐ TIỀN</t>
+  </si>
+  <si>
+    <t>CHỨNG CHỈ TIỀN GỬI</t>
+  </si>
+  <si>
+    <t>NGÀY VAY</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
+  </si>
+  <si>
+    <t>GHI CHÚ</t>
+  </si>
+  <si>
+    <t>NGÀY ĐẾN HẠN</t>
+  </si>
+  <si>
+    <t>LÃI XUẤT</t>
+  </si>
+  <si>
+    <t>Trả lãi sau</t>
+  </si>
+  <si>
+    <t>Trả lãi trước</t>
+  </si>
+  <si>
+    <t>TIỀN LÃI 6T</t>
+  </si>
+  <si>
+    <t>Tháng 11/2017:</t>
+  </si>
+  <si>
+    <t>LD1731061035</t>
+  </si>
+  <si>
+    <t>LD1731813552</t>
+  </si>
+  <si>
+    <t>LD1733206701</t>
+  </si>
+  <si>
+    <t>LD1733800695</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>16/12</t>
+  </si>
+  <si>
+    <t>TIỀN LÃI USD</t>
+  </si>
+  <si>
+    <t>TIỀN LÃI VNĐ</t>
+  </si>
+  <si>
+    <t>TIỀN VAY</t>
+  </si>
+  <si>
+    <t>ĐẾN HẠN</t>
+  </si>
+  <si>
+    <t>VAY TÍN CHẤP</t>
+  </si>
+  <si>
+    <t>GỐC ĐẦU KÌ</t>
+  </si>
+  <si>
+    <t>GỐC CUỐI KÌ</t>
+  </si>
+  <si>
+    <t>TRẢ GỐC</t>
+  </si>
+  <si>
+    <t>LÃI VAY</t>
+  </si>
+  <si>
+    <t>CHI TIẾT THÁNG</t>
+  </si>
+  <si>
+    <t>TIỀN VAY:</t>
+  </si>
+  <si>
+    <t>NGÀY TRẢ : 26 HÀNG THÁNG</t>
+  </si>
+  <si>
+    <t>NGÀY TRẢ : 23 HÀNG THÁNG</t>
+  </si>
+  <si>
+    <t>LD1717972238</t>
+  </si>
+  <si>
+    <t>LD1735654094</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +539,7 @@
     <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +748,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -660,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -803,6 +939,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -858,7 +1046,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1408,156 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,6 +1587,51 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -1652,46 +2035,46 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="131" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="132" t="s">
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1734,8 +2117,8 @@
       <c r="P3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="128"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="178"/>
     </row>
     <row r="4" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="18">
@@ -1942,10 +2325,10 @@
       <c r="R8" s="99"/>
     </row>
     <row r="9" spans="1:19" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -2749,10 +3132,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="127"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="30">
@@ -3627,10 +4010,10 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44" spans="1:18" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="127"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="30">
@@ -3720,6 +4103,3120 @@
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="65" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="71" customWidth="1"/>
+    <col min="7" max="7" width="8" style="67" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="11" style="70" customWidth="1"/>
+    <col min="10" max="10" width="10" style="70" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="71" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="72" customWidth="1"/>
+    <col min="14" max="14" width="10" style="72" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="72" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="73" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="74" customWidth="1"/>
+    <col min="19" max="19" width="15" style="64" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="65" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="156" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="155" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
+    </row>
+    <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="35">
+        <f t="shared" ref="A4:A17" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24">
+        <v>42955</v>
+      </c>
+      <c r="D4" s="24">
+        <v>43139</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53">
+        <v>63000</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20">
+        <f>F4-J4</f>
+        <v>63000</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="27">
+        <f t="shared" ref="O4:O17" si="1">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P17" si="2">IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>210</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R4" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="52">
+        <v>42962</v>
+      </c>
+      <c r="D5" s="24">
+        <v>43149</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53">
+        <v>83500</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20">
+        <f>F5-J5</f>
+        <v>83500</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="2"/>
+        <v>285.29166666666669</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R5" s="109">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="52">
+        <v>42986</v>
+      </c>
+      <c r="D6" s="24">
+        <v>43167</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53">
+        <v>87500</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20">
+        <f>F6-J6</f>
+        <v>87500</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="2"/>
+        <v>273.4375</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R6" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="52">
+        <v>42998</v>
+      </c>
+      <c r="D7" s="24">
+        <v>43179</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53">
+        <v>95900</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20">
+        <f>F7-J7</f>
+        <v>95900</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="2"/>
+        <v>299.6875</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R7" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="52">
+        <v>43004</v>
+      </c>
+      <c r="D8" s="24">
+        <v>43185</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53">
+        <v>89000</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20">
+        <f>F8-J8</f>
+        <v>89000</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="2"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R8" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="52">
+        <v>43031</v>
+      </c>
+      <c r="D9" s="24">
+        <v>43213</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
+        <v>182900</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="20">
+        <v>36600</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="2"/>
+        <v>534.98250000000007</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R9" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="52">
+        <v>43038</v>
+      </c>
+      <c r="D10" s="24">
+        <v>43222</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53">
+        <v>189000</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20">
+        <f t="shared" ref="L10:L17" si="3">F10-J10</f>
+        <v>189000</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54">
+        <f>P10*G10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="2"/>
+        <v>552.82500000000005</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R10" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="52">
+        <v>43041</v>
+      </c>
+      <c r="D11" s="24">
+        <v>43222</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53">
+        <v>68400</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
+        <f t="shared" si="3"/>
+        <v>68400</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="2"/>
+        <v>200.07000000000002</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R11" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="81"/>
+    </row>
+    <row r="12" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="52">
+        <v>43046</v>
+      </c>
+      <c r="D12" s="24">
+        <v>43227</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53">
+        <v>82000</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
+        <f t="shared" si="3"/>
+        <v>82000</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="2"/>
+        <v>239.85</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R12" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="81"/>
+    </row>
+    <row r="13" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="52">
+        <v>43053</v>
+      </c>
+      <c r="D13" s="24">
+        <v>43234</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53">
+        <v>89000</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20">
+        <f t="shared" si="3"/>
+        <v>89000</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="2"/>
+        <v>260.32499999999999</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R13" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="52">
+        <v>43067</v>
+      </c>
+      <c r="D14" s="24">
+        <v>43248</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53">
+        <v>70000</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20">
+        <f t="shared" si="3"/>
+        <v>70000</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="2"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R14" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="81"/>
+    </row>
+    <row r="15" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="24">
+        <v>43073</v>
+      </c>
+      <c r="D15" s="24">
+        <v>43255</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25">
+        <v>67000</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20">
+        <f t="shared" si="3"/>
+        <v>67000</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="2"/>
+        <v>223.33333333333334</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R15" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="81"/>
+    </row>
+    <row r="16" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="24">
+        <v>43082</v>
+      </c>
+      <c r="D16" s="24">
+        <v>43264</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="53">
+        <v>84000</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20">
+        <f t="shared" si="3"/>
+        <v>84000</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R16" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="52">
+        <v>43091</v>
+      </c>
+      <c r="D17" s="24">
+        <v>43273</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53">
+        <v>92500</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20">
+        <f t="shared" si="3"/>
+        <v>92500</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="2"/>
+        <v>308.33333333333331</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R17" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="30">
+        <f>SUM(E4:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <f>SUM(F4:F18)</f>
+        <v>1343700</v>
+      </c>
+      <c r="G19" s="30">
+        <f>SUM(G15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="31">
+        <f t="shared" ref="I19:P19" si="4">SUM(I4:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <f t="shared" si="4"/>
+        <v>1197400</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <f t="shared" si="4"/>
+        <v>4179.5941666666668</v>
+      </c>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="33"/>
+    </row>
+    <row r="20" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="35">
+        <f>ROW()-19</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="39">
+        <v>41870</v>
+      </c>
+      <c r="D20" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E20" s="40">
+        <v>866560000</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I20" s="40">
+        <v>8340000</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="40">
+        <f t="shared" ref="K20:K34" si="5">E20-I20</f>
+        <v>858220000</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="40">
+        <f>IF((LEFT(B20,4)="1402"),E20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>6547342.222222222</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" ref="P20:P34" si="6">IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="79">
+        <f>H20</f>
+        <v>43119</v>
+      </c>
+      <c r="R20" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="35">
+        <f t="shared" ref="A21:A34" si="7">ROW()-19</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="39">
+        <v>41905</v>
+      </c>
+      <c r="D21" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1733280000</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I21" s="40">
+        <v>16670000</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="40">
+        <f t="shared" si="5"/>
+        <v>1716610000</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="40">
+        <f t="shared" ref="M21:M33" si="8">IF((LEFT(B21,4)="1402"),E21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>13095893.333333334</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27">
+        <f t="shared" ref="O21:O34" si="9">IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="79">
+        <f t="shared" ref="Q21:Q33" si="10">H21</f>
+        <v>43119</v>
+      </c>
+      <c r="R21" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="61">
+        <v>41934</v>
+      </c>
+      <c r="D22" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1386560000</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I22" s="62">
+        <v>13340000</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="40">
+        <f t="shared" si="5"/>
+        <v>1373220000</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="M22" s="40">
+        <f t="shared" si="8"/>
+        <v>10476231.111111112</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R22" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="61">
+        <v>41963</v>
+      </c>
+      <c r="D23" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I23" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="40">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L23" s="63"/>
+      <c r="M23" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N23" s="63"/>
+      <c r="O23" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R23" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="61">
+        <v>41984</v>
+      </c>
+      <c r="D24" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="40">
+        <v>866720000</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I24" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J24" s="63"/>
+      <c r="K24" s="62">
+        <f t="shared" si="5"/>
+        <v>858390000</v>
+      </c>
+      <c r="L24" s="63"/>
+      <c r="M24" s="40">
+        <f t="shared" si="8"/>
+        <v>6548551.111111111</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="O24" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R24" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="61">
+        <v>42033</v>
+      </c>
+      <c r="D25" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I25" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="62">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R25" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="35">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="61">
+        <v>42088</v>
+      </c>
+      <c r="D26" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1733280000</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I26" s="62">
+        <v>16670000</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="62">
+        <f t="shared" si="5"/>
+        <v>1716610000</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="40">
+        <f t="shared" si="8"/>
+        <v>13095893.333333334</v>
+      </c>
+      <c r="N26" s="63"/>
+      <c r="O26" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R26" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="35">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="61">
+        <v>42114</v>
+      </c>
+      <c r="D27" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1213280000</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I27" s="62">
+        <v>11670000</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="62">
+        <f t="shared" si="5"/>
+        <v>1201610000</v>
+      </c>
+      <c r="L27" s="63"/>
+      <c r="M27" s="40">
+        <f t="shared" si="8"/>
+        <v>9167004.444444444</v>
+      </c>
+      <c r="N27" s="63"/>
+      <c r="O27" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R27" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="35">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="61">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I28" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="62">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N28" s="63"/>
+      <c r="O28" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R28" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="35">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="61">
+        <v>42164</v>
+      </c>
+      <c r="D29" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I29" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N29" s="63"/>
+      <c r="O29" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R29" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="35">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="61">
+        <v>42187</v>
+      </c>
+      <c r="D30" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I30" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N30" s="63"/>
+      <c r="O30" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R30" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="35">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="61">
+        <v>42195</v>
+      </c>
+      <c r="D31" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1300000000</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I31" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="63"/>
+      <c r="K31" s="62">
+        <f t="shared" si="5"/>
+        <v>1287500000</v>
+      </c>
+      <c r="L31" s="63"/>
+      <c r="M31" s="40">
+        <f t="shared" si="8"/>
+        <v>9822222.222222222</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R31" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="35">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="61">
+        <v>42215</v>
+      </c>
+      <c r="D32" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="40">
+        <v>866560000</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I32" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="63"/>
+      <c r="K32" s="62">
+        <f t="shared" si="5"/>
+        <v>858230000</v>
+      </c>
+      <c r="L32" s="63"/>
+      <c r="M32" s="40">
+        <f t="shared" si="8"/>
+        <v>6547342.222222222</v>
+      </c>
+      <c r="N32" s="63"/>
+      <c r="O32" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R32" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S32" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="35">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="61">
+        <v>42229</v>
+      </c>
+      <c r="D33" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="40">
+        <v>866560000</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="39">
+        <v>43119</v>
+      </c>
+      <c r="I33" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="62">
+        <f t="shared" si="5"/>
+        <v>858230000</v>
+      </c>
+      <c r="L33" s="63"/>
+      <c r="M33" s="40">
+        <f t="shared" si="8"/>
+        <v>6547342.222222222</v>
+      </c>
+      <c r="N33" s="63"/>
+      <c r="O33" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="79">
+        <f t="shared" si="10"/>
+        <v>43119</v>
+      </c>
+      <c r="R33" s="78">
+        <v>0.08</v>
+      </c>
+      <c r="S33" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="35">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="61">
+        <v>43054</v>
+      </c>
+      <c r="D34" s="61">
+        <v>43106</v>
+      </c>
+      <c r="E34" s="62">
+        <v>0</v>
+      </c>
+      <c r="F34" s="63">
+        <v>87000</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="63">
+        <f>F34</f>
+        <v>87000</v>
+      </c>
+      <c r="M34" s="40"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="27">
+        <f t="shared" si="9"/>
+        <v>217.5</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="79">
+        <v>42871</v>
+      </c>
+      <c r="R34" s="78">
+        <v>0.03</v>
+      </c>
+      <c r="S34" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="28"/>
+    </row>
+    <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="177"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="30">
+        <f>SUM(E20:E35)</f>
+        <v>17332800000</v>
+      </c>
+      <c r="F36" s="31">
+        <f>SUM(F20:F35)</f>
+        <v>87000</v>
+      </c>
+      <c r="G36" s="30">
+        <f>SUM(G20:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="30">
+        <f t="shared" ref="I36:P36" si="11">SUM(I20:I35)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="11"/>
+        <v>17166120000</v>
+      </c>
+      <c r="L36" s="31">
+        <f t="shared" si="11"/>
+        <v>87000</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" si="11"/>
+        <v>130958933.33333334</v>
+      </c>
+      <c r="N36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="31">
+        <f t="shared" si="11"/>
+        <v>217.5</v>
+      </c>
+      <c r="P36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="33"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F37" s="68"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F38" s="65"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F39" s="65"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="65"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="68"/>
+    </row>
+    <row r="50" spans="1:19" s="73" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="64"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S19"/>
+  <sortState ref="A4:T17">
+    <sortCondition ref="C4:C17"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0000FF"/>
+  </sheetPr>
+  <dimension ref="A1:Z27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="20.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="133" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="131" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="131" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="131" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="131" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" style="131" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="131" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="131" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="131" customWidth="1"/>
+    <col min="12" max="12" width="14" style="131" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="131" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="131" customWidth="1"/>
+    <col min="15" max="17" width="12.5703125" style="131" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.42578125" style="131" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="131" customWidth="1"/>
+    <col min="21" max="21" width="11" style="131" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="131" customWidth="1"/>
+    <col min="23" max="23" width="10" style="131" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" style="131" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="131" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="131" customWidth="1"/>
+    <col min="27" max="16384" width="17.140625" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A1" s="157" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="174" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="174" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="187" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="190" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="191"/>
+      <c r="T2" s="191"/>
+      <c r="U2" s="191"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="187" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="200"/>
+      <c r="B3" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="188" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="188" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="188" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="192"/>
+      <c r="L3" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="188" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="187"/>
+      <c r="R3" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="S3" s="188" t="s">
+        <v>130</v>
+      </c>
+      <c r="T3" s="188" t="s">
+        <v>116</v>
+      </c>
+      <c r="U3" s="188" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="187"/>
+    </row>
+    <row r="4" spans="1:26" s="162" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A4" s="201"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="189"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="160" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="160" t="s">
+        <v>134</v>
+      </c>
+      <c r="X4" s="160" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" s="160" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z4" s="187"/>
+    </row>
+    <row r="5" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A5" s="134">
+        <v>1</v>
+      </c>
+      <c r="B5" s="145">
+        <v>42968</v>
+      </c>
+      <c r="C5" s="145">
+        <v>43157</v>
+      </c>
+      <c r="D5" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E5" s="152">
+        <f>F5*D5/2</f>
+        <v>430062500</v>
+      </c>
+      <c r="F5" s="142">
+        <v>9830000000</v>
+      </c>
+      <c r="G5" s="145">
+        <v>42970</v>
+      </c>
+      <c r="H5" s="145">
+        <v>43154</v>
+      </c>
+      <c r="I5" s="148">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J5" s="163">
+        <f>L5*I5/2</f>
+        <v>7631.28</v>
+      </c>
+      <c r="K5" s="152">
+        <f>J5*22720</f>
+        <v>173382681.59999999</v>
+      </c>
+      <c r="L5" s="139">
+        <v>423960</v>
+      </c>
+      <c r="M5" s="142">
+        <f>L5*22728</f>
+        <v>9635762880</v>
+      </c>
+      <c r="N5" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="158">
+        <f>423960</f>
+        <v>423960</v>
+      </c>
+      <c r="P5" s="158"/>
+      <c r="R5" s="145">
+        <v>42912</v>
+      </c>
+      <c r="S5" s="145">
+        <v>43277</v>
+      </c>
+      <c r="T5" s="148">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="U5" s="139">
+        <v>44000</v>
+      </c>
+      <c r="V5" s="139">
+        <f ca="1">U5-(MONTH(TODAY())-MONTH(R5)-1)*W5</f>
+        <v>66200</v>
+      </c>
+      <c r="W5" s="139">
+        <v>3700</v>
+      </c>
+      <c r="X5" s="139">
+        <f ca="1">V5*T5/365*30</f>
+        <v>500.58082191780818</v>
+      </c>
+      <c r="Y5" s="139">
+        <f ca="1">U5-(MONTH(TODAY())-MONTH(R5))*W5</f>
+        <v>62500</v>
+      </c>
+      <c r="Z5" s="132"/>
+    </row>
+    <row r="6" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A6" s="135">
+        <v>2</v>
+      </c>
+      <c r="B6" s="146">
+        <v>42978</v>
+      </c>
+      <c r="C6" s="146">
+        <v>43159</v>
+      </c>
+      <c r="D6" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E6" s="152">
+        <f t="shared" ref="E6:E7" si="0">F6*D6/2</f>
+        <v>424375000</v>
+      </c>
+      <c r="F6" s="143">
+        <v>9700000000</v>
+      </c>
+      <c r="G6" s="146">
+        <v>42983</v>
+      </c>
+      <c r="H6" s="146">
+        <v>43136</v>
+      </c>
+      <c r="I6" s="149">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J6" s="163">
+        <f t="shared" ref="J6:J10" si="1">L6*I6/2</f>
+        <v>6456.5249999999996</v>
+      </c>
+      <c r="K6" s="152">
+        <f t="shared" ref="K6:K10" si="2">J6*22720</f>
+        <v>146692248</v>
+      </c>
+      <c r="L6" s="140">
+        <v>416550</v>
+      </c>
+      <c r="M6" s="143">
+        <f>L6*22727</f>
+        <v>9466931850</v>
+      </c>
+      <c r="N6" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="158">
+        <f>279400+18000</f>
+        <v>297400</v>
+      </c>
+      <c r="P6" s="158">
+        <v>119150</v>
+      </c>
+      <c r="R6" s="145">
+        <v>43007</v>
+      </c>
+      <c r="S6" s="145">
+        <v>43372</v>
+      </c>
+      <c r="T6" s="149">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="U6" s="139">
+        <v>98840</v>
+      </c>
+      <c r="V6" s="139">
+        <f t="shared" ref="V6:V11" ca="1" si="3">U6-(MONTH(TODAY())-MONTH(R6)-1)*W6</f>
+        <v>173000</v>
+      </c>
+      <c r="W6" s="140">
+        <v>8240</v>
+      </c>
+      <c r="X6" s="139">
+        <f t="shared" ref="X6:X11" ca="1" si="4">V6*T6/365*30</f>
+        <v>1379.2602739726028</v>
+      </c>
+      <c r="Y6" s="139">
+        <f t="shared" ref="Y6:Y11" ca="1" si="5">U6-(MONTH(TODAY())-MONTH(R6))*W6</f>
+        <v>164760</v>
+      </c>
+      <c r="Z6" s="132"/>
+    </row>
+    <row r="7" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A7" s="135">
+        <v>3</v>
+      </c>
+      <c r="B7" s="146">
+        <v>42989</v>
+      </c>
+      <c r="C7" s="146">
+        <v>43171</v>
+      </c>
+      <c r="D7" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E7" s="152">
+        <f t="shared" si="0"/>
+        <v>440562500</v>
+      </c>
+      <c r="F7" s="143">
+        <v>10070000000</v>
+      </c>
+      <c r="G7" s="146">
+        <v>42991</v>
+      </c>
+      <c r="H7" s="146">
+        <v>43144</v>
+      </c>
+      <c r="I7" s="149">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J7" s="163">
+        <f t="shared" si="1"/>
+        <v>6717.7</v>
+      </c>
+      <c r="K7" s="152">
+        <f t="shared" si="2"/>
+        <v>152626144</v>
+      </c>
+      <c r="L7" s="140">
+        <v>433400</v>
+      </c>
+      <c r="M7" s="143">
+        <f>L7*22726</f>
+        <v>9849448400</v>
+      </c>
+      <c r="N7" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158">
+        <f>345050</f>
+        <v>345050</v>
+      </c>
+      <c r="R7" s="145">
+        <v>43069</v>
+      </c>
+      <c r="S7" s="145">
+        <v>43434</v>
+      </c>
+      <c r="T7" s="149">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="U7" s="139">
+        <v>23890</v>
+      </c>
+      <c r="V7" s="139">
+        <f t="shared" ca="1" si="3"/>
+        <v>45890</v>
+      </c>
+      <c r="W7" s="140">
+        <v>2000</v>
+      </c>
+      <c r="X7" s="139">
+        <f t="shared" ca="1" si="4"/>
+        <v>365.86273972602737</v>
+      </c>
+      <c r="Y7" s="139">
+        <f t="shared" ca="1" si="5"/>
+        <v>43890</v>
+      </c>
+      <c r="Z7" s="132"/>
+    </row>
+    <row r="8" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A8" s="135">
+        <v>4</v>
+      </c>
+      <c r="B8" s="146">
+        <v>43053</v>
+      </c>
+      <c r="C8" s="146">
+        <v>43234</v>
+      </c>
+      <c r="D8" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E8" s="151">
+        <v>487897567</v>
+      </c>
+      <c r="F8" s="143">
+        <v>11580000000</v>
+      </c>
+      <c r="G8" s="146">
+        <v>43055</v>
+      </c>
+      <c r="H8" s="146">
+        <v>43206</v>
+      </c>
+      <c r="I8" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J8" s="163">
+        <f t="shared" si="1"/>
+        <v>7481.6</v>
+      </c>
+      <c r="K8" s="152">
+        <f t="shared" si="2"/>
+        <v>169981952</v>
+      </c>
+      <c r="L8" s="140">
+        <v>534400</v>
+      </c>
+      <c r="M8" s="143">
+        <f>L8*22705</f>
+        <v>12133552000</v>
+      </c>
+      <c r="N8" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="139">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="140"/>
+      <c r="X8" s="139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="132"/>
+    </row>
+    <row r="9" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A9" s="135">
+        <v>5</v>
+      </c>
+      <c r="B9" s="146">
+        <v>43061</v>
+      </c>
+      <c r="C9" s="146">
+        <v>43242</v>
+      </c>
+      <c r="D9" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E9" s="151">
+        <v>353494006</v>
+      </c>
+      <c r="F9" s="143">
+        <v>8390000000</v>
+      </c>
+      <c r="G9" s="146">
+        <v>43066</v>
+      </c>
+      <c r="H9" s="146">
+        <v>43217</v>
+      </c>
+      <c r="I9" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J9" s="163">
+        <f t="shared" si="1"/>
+        <v>5157.6000000000004</v>
+      </c>
+      <c r="K9" s="152">
+        <f t="shared" si="2"/>
+        <v>117180672.00000001</v>
+      </c>
+      <c r="L9" s="140">
+        <v>368400</v>
+      </c>
+      <c r="M9" s="143">
+        <f>L9*22719</f>
+        <v>8369679600</v>
+      </c>
+      <c r="N9" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="140"/>
+      <c r="X9" s="139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="132"/>
+    </row>
+    <row r="10" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A10" s="135">
+        <v>6</v>
+      </c>
+      <c r="B10" s="146">
+        <v>43068</v>
+      </c>
+      <c r="C10" s="146">
+        <v>43249</v>
+      </c>
+      <c r="D10" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E10" s="151">
+        <v>442394167</v>
+      </c>
+      <c r="F10" s="143">
+        <v>10500000000</v>
+      </c>
+      <c r="G10" s="146">
+        <v>43069</v>
+      </c>
+      <c r="H10" s="146">
+        <v>43220</v>
+      </c>
+      <c r="I10" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J10" s="163">
+        <f t="shared" si="1"/>
+        <v>6416.2</v>
+      </c>
+      <c r="K10" s="152">
+        <f t="shared" si="2"/>
+        <v>145776064</v>
+      </c>
+      <c r="L10" s="140">
+        <v>458300</v>
+      </c>
+      <c r="M10" s="143">
+        <f>L10*22714</f>
+        <v>10409826200</v>
+      </c>
+      <c r="N10" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="140"/>
+      <c r="X10" s="139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="132"/>
+    </row>
+    <row r="11" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A11" s="137"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="141"/>
+      <c r="X11" s="139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="139">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="138"/>
+    </row>
+    <row r="12" spans="1:26" s="169" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="197"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="166">
+        <f>SUM(E5:E11)</f>
+        <v>2578785740</v>
+      </c>
+      <c r="F12" s="166">
+        <f>SUM(F5:F11)</f>
+        <v>60070000000</v>
+      </c>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167">
+        <f t="shared" ref="J12:K12" si="6">SUM(J5:J11)</f>
+        <v>39860.904999999999</v>
+      </c>
+      <c r="K12" s="166">
+        <f t="shared" si="6"/>
+        <v>905639761.60000002</v>
+      </c>
+      <c r="L12" s="167">
+        <f>SUM(L5:L11)</f>
+        <v>2635010</v>
+      </c>
+      <c r="M12" s="166">
+        <f>SUM(M5:M11)</f>
+        <v>59865200930</v>
+      </c>
+      <c r="N12" s="168"/>
+      <c r="O12" s="159">
+        <f>SUM(O5:O11)</f>
+        <v>721360</v>
+      </c>
+      <c r="P12" s="159">
+        <f t="shared" ref="P12:Q12" si="7">SUM(P5:P11)</f>
+        <v>464200</v>
+      </c>
+      <c r="Q12" s="159">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="S12" s="198"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="172">
+        <f>SUM(U5:U11)</f>
+        <v>166730</v>
+      </c>
+      <c r="V12" s="172">
+        <f t="shared" ref="V12:Y12" ca="1" si="8">SUM(V5:V11)</f>
+        <v>285090</v>
+      </c>
+      <c r="W12" s="172">
+        <f t="shared" si="8"/>
+        <v>13940</v>
+      </c>
+      <c r="X12" s="172">
+        <f t="shared" ca="1" si="8"/>
+        <v>2245.7038356164385</v>
+      </c>
+      <c r="Y12" s="172">
+        <f t="shared" ca="1" si="8"/>
+        <v>271150</v>
+      </c>
+      <c r="Z12" s="168"/>
+    </row>
+    <row r="13" spans="1:26" s="169" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="170"/>
+      <c r="L13" s="175">
+        <f>L12-L18</f>
+        <v>1913650</v>
+      </c>
+      <c r="M13" s="171"/>
+      <c r="U13" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" s="173">
+        <f>3000000000/22700</f>
+        <v>132158.59030837004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="20.25" customHeight="1">
+      <c r="A14" s="157" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="187" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="200"/>
+      <c r="B16" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="188" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="188" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="188" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="192"/>
+      <c r="L16" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="188" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="187"/>
+    </row>
+    <row r="17" spans="1:17" s="162" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A17" s="201"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+    </row>
+    <row r="18" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A18" s="134">
+        <v>1</v>
+      </c>
+      <c r="B18" s="145">
+        <v>42968</v>
+      </c>
+      <c r="C18" s="145">
+        <v>43157</v>
+      </c>
+      <c r="D18" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E18" s="152">
+        <f>F18*D18/2</f>
+        <v>430062500</v>
+      </c>
+      <c r="F18" s="142">
+        <v>9830000000</v>
+      </c>
+      <c r="G18" s="145">
+        <v>43076</v>
+      </c>
+      <c r="H18" s="145">
+        <v>43227</v>
+      </c>
+      <c r="I18" s="148">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J18" s="163">
+        <f>L18*I18/12</f>
+        <v>1683.1733333333334</v>
+      </c>
+      <c r="K18" s="152">
+        <f>J18*22720</f>
+        <v>38241698.133333333</v>
+      </c>
+      <c r="L18" s="139">
+        <v>721360</v>
+      </c>
+      <c r="M18" s="142">
+        <f>L18*22728</f>
+        <v>16395070080</v>
+      </c>
+      <c r="N18" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+    </row>
+    <row r="19" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A19" s="135">
+        <v>2</v>
+      </c>
+      <c r="B19" s="146">
+        <v>42978</v>
+      </c>
+      <c r="C19" s="146">
+        <v>43159</v>
+      </c>
+      <c r="D19" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E19" s="152">
+        <f t="shared" ref="E19:E20" si="9">F19*D19/2</f>
+        <v>424375000</v>
+      </c>
+      <c r="F19" s="143">
+        <v>9700000000</v>
+      </c>
+      <c r="G19" s="146">
+        <v>43085</v>
+      </c>
+      <c r="H19" s="146">
+        <v>43236</v>
+      </c>
+      <c r="I19" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J19" s="163">
+        <f t="shared" ref="J19:J23" si="10">L19*I19/12</f>
+        <v>1083.1333333333334</v>
+      </c>
+      <c r="K19" s="152">
+        <f t="shared" ref="K19:K23" si="11">J19*22720</f>
+        <v>24608789.333333336</v>
+      </c>
+      <c r="L19" s="140">
+        <v>464200</v>
+      </c>
+      <c r="M19" s="143">
+        <f>L19*22727</f>
+        <v>10549873400</v>
+      </c>
+      <c r="N19" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+    </row>
+    <row r="20" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A20" s="135">
+        <v>3</v>
+      </c>
+      <c r="B20" s="146">
+        <v>42989</v>
+      </c>
+      <c r="C20" s="146">
+        <v>43171</v>
+      </c>
+      <c r="D20" s="148">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E20" s="152">
+        <f t="shared" si="9"/>
+        <v>440562500</v>
+      </c>
+      <c r="F20" s="143">
+        <v>10070000000</v>
+      </c>
+      <c r="G20" s="146">
+        <v>43090</v>
+      </c>
+      <c r="H20" s="146">
+        <v>43241</v>
+      </c>
+      <c r="I20" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J20" s="163">
+        <f t="shared" si="10"/>
+        <v>206.15</v>
+      </c>
+      <c r="K20" s="152">
+        <f t="shared" si="11"/>
+        <v>4683728</v>
+      </c>
+      <c r="L20" s="140">
+        <v>88350</v>
+      </c>
+      <c r="M20" s="143">
+        <f>L20*22726</f>
+        <v>2007842100</v>
+      </c>
+      <c r="N20" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+    </row>
+    <row r="21" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A21" s="135">
+        <v>4</v>
+      </c>
+      <c r="B21" s="146">
+        <v>43053</v>
+      </c>
+      <c r="C21" s="146">
+        <v>43234</v>
+      </c>
+      <c r="D21" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E21" s="151">
+        <v>487897567</v>
+      </c>
+      <c r="F21" s="143">
+        <v>11580000000</v>
+      </c>
+      <c r="G21" s="146">
+        <v>43055</v>
+      </c>
+      <c r="H21" s="146">
+        <v>43206</v>
+      </c>
+      <c r="I21" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J21" s="163">
+        <f t="shared" si="10"/>
+        <v>1246.9333333333334</v>
+      </c>
+      <c r="K21" s="152">
+        <f t="shared" si="11"/>
+        <v>28330325.333333336</v>
+      </c>
+      <c r="L21" s="140">
+        <v>534400</v>
+      </c>
+      <c r="M21" s="143">
+        <f>L21*22705</f>
+        <v>12133552000</v>
+      </c>
+      <c r="N21" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+    </row>
+    <row r="22" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A22" s="135">
+        <v>5</v>
+      </c>
+      <c r="B22" s="146">
+        <v>43061</v>
+      </c>
+      <c r="C22" s="146">
+        <v>43242</v>
+      </c>
+      <c r="D22" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E22" s="151">
+        <v>353494006</v>
+      </c>
+      <c r="F22" s="143">
+        <v>8390000000</v>
+      </c>
+      <c r="G22" s="146">
+        <v>43066</v>
+      </c>
+      <c r="H22" s="146">
+        <v>43217</v>
+      </c>
+      <c r="I22" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J22" s="163">
+        <f t="shared" si="10"/>
+        <v>859.6</v>
+      </c>
+      <c r="K22" s="152">
+        <f t="shared" si="11"/>
+        <v>19530112</v>
+      </c>
+      <c r="L22" s="140">
+        <v>368400</v>
+      </c>
+      <c r="M22" s="143">
+        <f>L22*22719</f>
+        <v>8369679600</v>
+      </c>
+      <c r="N22" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+    </row>
+    <row r="23" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A23" s="135">
+        <v>6</v>
+      </c>
+      <c r="B23" s="146">
+        <v>43068</v>
+      </c>
+      <c r="C23" s="146">
+        <v>43249</v>
+      </c>
+      <c r="D23" s="149">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E23" s="151">
+        <v>442394167</v>
+      </c>
+      <c r="F23" s="143">
+        <v>10500000000</v>
+      </c>
+      <c r="G23" s="146">
+        <v>43069</v>
+      </c>
+      <c r="H23" s="146">
+        <v>43220</v>
+      </c>
+      <c r="I23" s="149">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J23" s="163">
+        <f t="shared" si="10"/>
+        <v>1069.3666666666666</v>
+      </c>
+      <c r="K23" s="152">
+        <f t="shared" si="11"/>
+        <v>24296010.666666664</v>
+      </c>
+      <c r="L23" s="140">
+        <v>458300</v>
+      </c>
+      <c r="M23" s="143">
+        <f>L23*22714</f>
+        <v>10409826200</v>
+      </c>
+      <c r="N23" s="132" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+    </row>
+    <row r="24" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A24" s="137"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+    </row>
+    <row r="25" spans="1:17" s="169" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="196" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="197"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166">
+        <f>SUM(E18:E24)</f>
+        <v>2578785740</v>
+      </c>
+      <c r="F25" s="166">
+        <f>SUM(F18:F24)</f>
+        <v>60070000000</v>
+      </c>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="167">
+        <f t="shared" ref="J25:K25" si="12">SUM(J18:J24)</f>
+        <v>6148.3566666666675</v>
+      </c>
+      <c r="K25" s="166">
+        <f t="shared" si="12"/>
+        <v>139690663.46666667</v>
+      </c>
+      <c r="L25" s="167">
+        <f>SUM(L18:L24)</f>
+        <v>2635010</v>
+      </c>
+      <c r="M25" s="166">
+        <f>SUM(M18:M24)</f>
+        <v>59865843380</v>
+      </c>
+      <c r="N25" s="168"/>
+      <c r="O25" s="159">
+        <f>SUM(O18:O24)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="159">
+        <f t="shared" ref="P25:Q25" si="13">SUM(P18:P24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="20.25" customHeight="1">
+      <c r="L27" s="176">
+        <f>L25-L20</f>
+        <v>2546660</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="N2:N4"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3786,47 +7283,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -3872,8 +7369,8 @@
       <c r="Q3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -4087,10 +7584,10 @@
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:20" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -4667,10 +8164,10 @@
       <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="127"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="30">
@@ -5580,10 +9077,10 @@
       <c r="S39" s="28"/>
     </row>
     <row r="40" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="127"/>
+      <c r="B40" s="177"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="30">
@@ -5756,47 +9253,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -5842,8 +9339,8 @@
       <c r="Q3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -6535,10 +10032,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -7429,10 +10926,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -7607,47 +11104,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -7693,8 +11190,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -8386,10 +11883,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -9338,10 +12835,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -9513,47 +13010,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -9599,8 +13096,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -10292,10 +13789,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -11188,10 +14685,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -11363,47 +14860,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -11449,8 +14946,8 @@
       <c r="Q3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -12142,10 +15639,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -13038,10 +16535,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -13213,47 +16710,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -13299,8 +16796,8 @@
       <c r="Q3" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -13992,10 +17489,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="127"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -14888,10 +18385,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -15007,7 +18504,7 @@
   </sheetPr>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
@@ -15063,47 +18560,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="136" t="s">
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="131" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="134" t="s">
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="135" t="s">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="128" t="s">
+      <c r="S2" s="178" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -15149,8 +18646,8 @@
       <c r="Q3" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -15172,7 +18669,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="21"/>
       <c r="L4" s="20">
-        <f t="shared" ref="L4:L20" si="1">F4-J4</f>
+        <f t="shared" ref="L4:L18" si="1">F4-J4</f>
         <v>183000</v>
       </c>
       <c r="M4" s="25"/>
@@ -15226,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="27">
-        <f t="shared" ref="P4:P20" si="3">IF((LEFT(B5,4)="ld17"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,DAY(Q5)),Q5,"d")/360,0)</f>
+        <f t="shared" ref="P5:P20" si="3">IF((LEFT(B5,4)="ld17"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,DAY(Q5)),Q5,"d")/360,0)</f>
         <v>125</v>
       </c>
       <c r="Q5" s="19">
@@ -15914,10 +19411,10 @@
       <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="127"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="30">
@@ -16810,10 +20307,10 @@
       <c r="S38" s="28"/>
     </row>
     <row r="39" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="127"/>
+      <c r="B39" s="177"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="30">
@@ -16920,4 +20417,1852 @@
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="65" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="71" customWidth="1"/>
+    <col min="7" max="7" width="8" style="67" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="11" style="70" customWidth="1"/>
+    <col min="10" max="10" width="10" style="70" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="71" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="72" customWidth="1"/>
+    <col min="14" max="14" width="10" style="72" customWidth="1"/>
+    <col min="15" max="15" width="9" style="72" customWidth="1"/>
+    <col min="16" max="16" width="9" style="73" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="74" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="74" customWidth="1"/>
+    <col min="19" max="19" width="15" style="64" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="65" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="181"/>
+      <c r="M2" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="185" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="185"/>
+      <c r="S3" s="178"/>
+    </row>
+    <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="35">
+        <f t="shared" ref="A4:A17" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="24">
+        <v>42892</v>
+      </c>
+      <c r="D4" s="24">
+        <v>43075</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25">
+        <v>70000</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20">
+        <f t="shared" ref="L4:L12" si="1">F4-J4</f>
+        <v>70000</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="27">
+        <f t="shared" ref="O4:O17" si="2">IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" ref="P4:P17" si="3">IF((LEFT(B4,4)="ld17"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,DAY(Q4)),Q4,"d")/360,0)</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R4" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="24">
+        <v>42899</v>
+      </c>
+      <c r="D5" s="24">
+        <v>43082</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="53">
+        <v>67000</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
+        <f t="shared" si="1"/>
+        <v>67000</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="3"/>
+        <v>223.33333333333334</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R5" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="81"/>
+    </row>
+    <row r="6" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="24">
+        <v>42915</v>
+      </c>
+      <c r="D6" s="24">
+        <v>43098</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="53">
+        <v>84000</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R6" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="52">
+        <v>42921</v>
+      </c>
+      <c r="D7" s="24">
+        <v>43105</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="53">
+        <v>92500</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
+        <v>92500</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="3"/>
+        <v>308.33333333333331</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R7" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="52">
+        <v>42955</v>
+      </c>
+      <c r="D8" s="24">
+        <v>43139</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53">
+        <v>63000</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R8" s="109">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="52">
+        <v>42962</v>
+      </c>
+      <c r="D9" s="24">
+        <v>43149</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53">
+        <v>83500</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="20">
+        <f t="shared" si="1"/>
+        <v>83500</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="3"/>
+        <v>285.29166666666669</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R9" s="109">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="52">
+        <v>42986</v>
+      </c>
+      <c r="D10" s="24">
+        <v>43167</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="53">
+        <v>87500</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
+        <v>87500</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="3"/>
+        <v>273.4375</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R10" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="52">
+        <v>42998</v>
+      </c>
+      <c r="D11" s="24">
+        <v>43179</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="53">
+        <v>95900</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
+        <v>95900</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="3"/>
+        <v>299.6875</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R11" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="52">
+        <v>43004</v>
+      </c>
+      <c r="D12" s="24">
+        <v>43185</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53">
+        <v>89000</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <f t="shared" si="3"/>
+        <v>278.125</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R12" s="109">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="52">
+        <v>43031</v>
+      </c>
+      <c r="D13" s="24">
+        <v>43213</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53">
+        <v>182900</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20">
+        <v>36600</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <f t="shared" si="3"/>
+        <v>534.98250000000007</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R13" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="52">
+        <v>43038</v>
+      </c>
+      <c r="D14" s="24">
+        <v>43222</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53">
+        <v>189000</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20">
+        <f>F14-J14</f>
+        <v>189000</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54">
+        <f>P14*G14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <f t="shared" si="3"/>
+        <v>552.82500000000005</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R14" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="52">
+        <v>43041</v>
+      </c>
+      <c r="D15" s="24">
+        <v>43222</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="53">
+        <v>68400</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20">
+        <f>F15-J15</f>
+        <v>68400</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <f t="shared" si="3"/>
+        <v>200.07000000000002</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R15" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="81"/>
+    </row>
+    <row r="16" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="52">
+        <v>43046</v>
+      </c>
+      <c r="D16" s="24">
+        <v>43227</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="53">
+        <v>82000</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20">
+        <f>F16-J16</f>
+        <v>82000</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <f t="shared" si="3"/>
+        <v>239.85</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R16" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="81"/>
+    </row>
+    <row r="17" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="35">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="53">
+        <v>89000</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20">
+        <f>F17-J17</f>
+        <v>89000</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <f t="shared" si="3"/>
+        <v>260.32499999999999</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>43030</v>
+      </c>
+      <c r="R17" s="109">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="81"/>
+    </row>
+    <row r="18" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="177"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="30">
+        <f>SUM(E4:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <f>SUM(F4:F18)</f>
+        <v>1343700</v>
+      </c>
+      <c r="G19" s="30">
+        <f>SUM(G4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="31">
+        <f>SUM(I4:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <f>SUM(J4:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <f>SUM(K4:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <f>SUM(L4:L18)</f>
+        <v>1197400</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" ref="M19:P19" si="4">SUM(M4:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <f t="shared" si="4"/>
+        <v>4179.5941666666668</v>
+      </c>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="35">
+        <f>ROW()-19</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="39">
+        <v>41870</v>
+      </c>
+      <c r="D20" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E20" s="40">
+        <v>899920000</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I20" s="40">
+        <v>8340000</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="40">
+        <f t="shared" ref="K20:K34" si="5">E20-I20</f>
+        <v>891580000</v>
+      </c>
+      <c r="L20" s="27"/>
+      <c r="M20" s="40">
+        <f>IF((LEFT(B20,4)="1402"),E20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>7224357.777777778</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27">
+        <f>IF((LEFT(B20,4)="1402"),F20*R20*DATEDIF(DATE(YEAR(Q20),MONTH(Q20)-1,IF(MONTH(C20)=(MONTH(Q20)-1),DAY(C20),16)),Q20,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" ref="P20:P34" si="6">IF((LEFT(B20,4)="1015"),F20*R20*DATEDIF(Q20,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="79">
+        <f>H20</f>
+        <v>42966</v>
+      </c>
+      <c r="R20" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="35">
+        <f t="shared" ref="A21:A34" si="7">ROW()-19</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="39">
+        <v>41905</v>
+      </c>
+      <c r="D21" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1799960000</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I21" s="40">
+        <v>16670000</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="40">
+        <f t="shared" si="5"/>
+        <v>1783290000</v>
+      </c>
+      <c r="L21" s="27"/>
+      <c r="M21" s="40">
+        <f t="shared" ref="M21:M33" si="8">IF((LEFT(B21,4)="1402"),E21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>14449678.888888888</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27">
+        <f t="shared" ref="O21:O34" si="9">IF((LEFT(B21,4)="1402"),F21*R21*DATEDIF(DATE(YEAR(Q21),MONTH(Q21)-1,IF(MONTH(C21)=(MONTH(Q21)-1),DAY(C21),16)),Q21,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="79">
+        <f t="shared" ref="Q21:Q33" si="10">H21</f>
+        <v>42966</v>
+      </c>
+      <c r="R21" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="61">
+        <v>41934</v>
+      </c>
+      <c r="D22" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1439920000</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I22" s="62">
+        <v>13340000</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="40">
+        <f t="shared" si="5"/>
+        <v>1426580000</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="M22" s="40">
+        <f t="shared" si="8"/>
+        <v>11559357.77777778</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R22" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="35">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="61">
+        <v>41963</v>
+      </c>
+      <c r="D23" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I23" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="40">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L23" s="63"/>
+      <c r="M23" s="40">
+        <f t="shared" si="8"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N23" s="63"/>
+      <c r="O23" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R23" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="61">
+        <v>41984</v>
+      </c>
+      <c r="D24" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="40">
+        <v>900040000</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I24" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J24" s="63"/>
+      <c r="K24" s="62">
+        <f t="shared" si="5"/>
+        <v>891710000</v>
+      </c>
+      <c r="L24" s="63"/>
+      <c r="M24" s="40">
+        <f t="shared" si="8"/>
+        <v>7225321.111111111</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="O24" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R24" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="35">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="61">
+        <v>42033</v>
+      </c>
+      <c r="D25" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I25" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="63"/>
+      <c r="K25" s="62">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L25" s="63"/>
+      <c r="M25" s="40">
+        <f t="shared" si="8"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R25" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="35">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="61">
+        <v>42088</v>
+      </c>
+      <c r="D26" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="40">
+        <v>1799960000</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I26" s="62">
+        <v>16670000</v>
+      </c>
+      <c r="J26" s="63"/>
+      <c r="K26" s="62">
+        <f t="shared" si="5"/>
+        <v>1783290000</v>
+      </c>
+      <c r="L26" s="63"/>
+      <c r="M26" s="40">
+        <f t="shared" si="8"/>
+        <v>14449678.888888888</v>
+      </c>
+      <c r="N26" s="63"/>
+      <c r="O26" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R26" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="35">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="61">
+        <v>42114</v>
+      </c>
+      <c r="D27" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1259960000</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I27" s="62">
+        <v>11670000</v>
+      </c>
+      <c r="J27" s="63"/>
+      <c r="K27" s="62">
+        <f t="shared" si="5"/>
+        <v>1248290000</v>
+      </c>
+      <c r="L27" s="63"/>
+      <c r="M27" s="40">
+        <f t="shared" si="8"/>
+        <v>10114678.88888889</v>
+      </c>
+      <c r="N27" s="63"/>
+      <c r="O27" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R27" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="35">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="61">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I28" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J28" s="63"/>
+      <c r="K28" s="62">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L28" s="63"/>
+      <c r="M28" s="40">
+        <f t="shared" si="8"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N28" s="63"/>
+      <c r="O28" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R28" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="35">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="61">
+        <v>42164</v>
+      </c>
+      <c r="D29" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I29" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="63"/>
+      <c r="K29" s="62">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="40">
+        <f t="shared" si="8"/>
+        <v>10837500.000000002</v>
+      </c>
+      <c r="N29" s="63"/>
+      <c r="O29" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R29" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="35">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="61">
+        <v>42187</v>
+      </c>
+      <c r="D30" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I30" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="40">
+        <f t="shared" si="8"/>
+        <v>15300000.000000002</v>
+      </c>
+      <c r="N30" s="63"/>
+      <c r="O30" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R30" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="35">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="61">
+        <v>42195</v>
+      </c>
+      <c r="D31" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1350000000</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I31" s="62">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="63"/>
+      <c r="K31" s="62">
+        <f t="shared" si="5"/>
+        <v>1337500000</v>
+      </c>
+      <c r="L31" s="63"/>
+      <c r="M31" s="40">
+        <f t="shared" si="8"/>
+        <v>12750000.000000002</v>
+      </c>
+      <c r="N31" s="63"/>
+      <c r="O31" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R31" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="35">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="61">
+        <v>42215</v>
+      </c>
+      <c r="D32" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="40">
+        <v>899960000</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I32" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J32" s="63"/>
+      <c r="K32" s="62">
+        <f t="shared" si="5"/>
+        <v>891630000</v>
+      </c>
+      <c r="L32" s="63"/>
+      <c r="M32" s="40">
+        <f t="shared" si="8"/>
+        <v>4249811.111111111</v>
+      </c>
+      <c r="N32" s="63"/>
+      <c r="O32" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R32" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S32" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="35">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="61">
+        <v>42229</v>
+      </c>
+      <c r="D33" s="39">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="40">
+        <v>899960000</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="39">
+        <v>42966</v>
+      </c>
+      <c r="I33" s="62">
+        <v>8330000</v>
+      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="62">
+        <f t="shared" si="5"/>
+        <v>891630000</v>
+      </c>
+      <c r="L33" s="63"/>
+      <c r="M33" s="40">
+        <f t="shared" si="8"/>
+        <v>7224678.888888889</v>
+      </c>
+      <c r="N33" s="63"/>
+      <c r="O33" s="27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="79">
+        <f t="shared" si="10"/>
+        <v>42966</v>
+      </c>
+      <c r="R33" s="78">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="S33" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="35">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="61">
+        <v>43054</v>
+      </c>
+      <c r="D34" s="61">
+        <v>43106</v>
+      </c>
+      <c r="E34" s="62">
+        <v>0</v>
+      </c>
+      <c r="F34" s="63">
+        <v>87000</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="63">
+        <f>F34</f>
+        <v>87000</v>
+      </c>
+      <c r="M34" s="40"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="27">
+        <f t="shared" si="9"/>
+        <v>217.5</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="79">
+        <v>42871</v>
+      </c>
+      <c r="R34" s="78">
+        <v>0.03</v>
+      </c>
+      <c r="S34" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="28"/>
+    </row>
+    <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="177"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="30">
+        <f>SUM(E20:E35)</f>
+        <v>17999680000</v>
+      </c>
+      <c r="F36" s="31">
+        <f>SUM(F20:F35)</f>
+        <v>87000</v>
+      </c>
+      <c r="G36" s="30">
+        <f>SUM(G20:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="31"/>
+      <c r="I36" s="30">
+        <f t="shared" ref="I36:P36" si="11">SUM(I20:I35)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="11"/>
+        <v>17833000000</v>
+      </c>
+      <c r="L36" s="31">
+        <f t="shared" si="11"/>
+        <v>87000</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" si="11"/>
+        <v>147897563.33333334</v>
+      </c>
+      <c r="N36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="31">
+        <f t="shared" si="11"/>
+        <v>217.5</v>
+      </c>
+      <c r="P36" s="31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="33"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F37" s="68"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F38" s="65"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F39" s="65"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="65"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="68"/>
+    </row>
+    <row r="50" spans="1:19" s="73" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="64"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S19"/>
+  <sortState ref="A4:T15">
+    <sortCondition ref="C4:C15"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/NH Q11 - Q4 - PV/NH - 2017.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2017.xlsx
@@ -1046,7 +1046,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,17 +1558,8 @@
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,7 +1567,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,31 +1591,28 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1624,13 +1624,16 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2035,46 +2038,46 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="181" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="182" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="178" t="s">
+      <c r="R2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -2117,8 +2120,8 @@
       <c r="P3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="178"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="180"/>
     </row>
     <row r="4" spans="1:19" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="18">
@@ -2325,10 +2328,10 @@
       <c r="R8" s="99"/>
     </row>
     <row r="9" spans="1:19" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -3132,10 +3135,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="177"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="30">
@@ -4010,10 +4013,10 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44" spans="1:18" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="177"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="30">
@@ -4086,6 +4089,11 @@
     <sortCondition ref="C10:C25"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
@@ -4093,11 +4101,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -4118,7 +4121,7 @@
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -4169,47 +4172,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -4255,8 +4258,8 @@
       <c r="Q3" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -4944,10 +4947,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -5843,10 +5846,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -5965,8 +5968,8 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -6007,44 +6010,44 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187" t="s">
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="190" t="s">
+      <c r="R2" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="192"/>
-      <c r="Z2" s="187" t="s">
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="193" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="200"/>
+      <c r="A3" s="191"/>
       <c r="B3" s="188" t="s">
         <v>109</v>
       </c>
@@ -6069,17 +6072,17 @@
       <c r="I3" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="190" t="s">
+      <c r="J3" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="192"/>
+      <c r="K3" s="195"/>
       <c r="L3" s="188" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="187"/>
+      <c r="N3" s="193"/>
       <c r="R3" s="188" t="s">
         <v>112</v>
       </c>
@@ -6092,16 +6095,16 @@
       <c r="U3" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="193" t="s">
+      <c r="V3" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="187"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="193"/>
     </row>
     <row r="4" spans="1:26" s="162" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="201"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="189"/>
       <c r="C4" s="189"/>
       <c r="D4" s="189"/>
@@ -6118,7 +6121,7 @@
       </c>
       <c r="L4" s="189"/>
       <c r="M4" s="189"/>
-      <c r="N4" s="187"/>
+      <c r="N4" s="193"/>
       <c r="O4" s="161" t="s">
         <v>125</v>
       </c>
@@ -6141,7 +6144,7 @@
       <c r="Y4" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="Z4" s="187"/>
+      <c r="Z4" s="193"/>
     </row>
     <row r="5" spans="1:26" ht="20.25" customHeight="1">
       <c r="A5" s="134">
@@ -6644,11 +6647,11 @@
       <c r="H12" s="166"/>
       <c r="I12" s="166"/>
       <c r="J12" s="167">
-        <f t="shared" ref="J12:K12" si="6">SUM(J5:J11)</f>
-        <v>39860.904999999999</v>
+        <f>SUM(J5:J11)/6</f>
+        <v>6643.4841666666662</v>
       </c>
       <c r="K12" s="166">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K12" si="6">SUM(K5:K11)</f>
         <v>905639761.60000002</v>
       </c>
       <c r="L12" s="167">
@@ -6720,31 +6723,35 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187" t="s">
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187" t="s">
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193" t="s">
         <v>114</v>
       </c>
+      <c r="W15" s="177">
+        <f ca="1">J12+W12+X12</f>
+        <v>22829.188002283103</v>
+      </c>
     </row>
     <row r="16" spans="1:26" s="136" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="200"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="188" t="s">
         <v>109</v>
       </c>
@@ -6769,20 +6776,20 @@
       <c r="I16" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="J16" s="190" t="s">
+      <c r="J16" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="192"/>
+      <c r="K16" s="195"/>
       <c r="L16" s="188" t="s">
         <v>0</v>
       </c>
       <c r="M16" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="187"/>
+      <c r="N16" s="193"/>
     </row>
     <row r="17" spans="1:17" s="162" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="189"/>
       <c r="C17" s="189"/>
       <c r="D17" s="189"/>
@@ -6799,7 +6806,7 @@
       </c>
       <c r="L17" s="189"/>
       <c r="M17" s="189"/>
-      <c r="N17" s="187"/>
+      <c r="N17" s="193"/>
       <c r="O17" s="161"/>
       <c r="P17" s="161"/>
     </row>
@@ -7174,6 +7181,31 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:F15"/>
@@ -7189,31 +7221,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -7283,47 +7290,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -7369,8 +7376,8 @@
       <c r="Q3" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="37" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -7584,10 +7591,10 @@
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:20" s="34" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -8164,10 +8171,10 @@
       <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="30">
@@ -9077,10 +9084,10 @@
       <c r="S39" s="28"/>
     </row>
     <row r="40" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="177" t="s">
+      <c r="A40" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="177"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="30">
@@ -9170,6 +9177,11 @@
   </sheetData>
   <autoFilter ref="A3:S22"/>
   <mergeCells count="12">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -9177,11 +9189,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -9253,47 +9260,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -9339,8 +9346,8 @@
       <c r="Q3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -10032,10 +10039,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -10926,10 +10933,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -11104,47 +11111,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -11190,8 +11197,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -11883,10 +11890,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -12835,10 +12842,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -13010,47 +13017,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -13096,8 +13103,8 @@
       <c r="Q3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -13789,10 +13796,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -14685,10 +14692,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -14860,47 +14867,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -14946,8 +14953,8 @@
       <c r="Q3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -15639,10 +15646,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -16535,10 +16542,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -16710,47 +16717,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -16796,8 +16803,8 @@
       <c r="Q3" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -17489,10 +17496,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -18385,10 +18392,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
@@ -18560,47 +18567,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -18646,8 +18653,8 @@
       <c r="Q3" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -19411,10 +19418,10 @@
       <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="30">
@@ -20307,10 +20314,10 @@
       <c r="S38" s="28"/>
     </row>
     <row r="39" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="177"/>
+      <c r="B39" s="182"/>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
       <c r="E39" s="30">
@@ -20482,47 +20489,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180" t="s">
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="186" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="181" t="s">
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="181"/>
-      <c r="M2" s="184" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185" t="s">
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="178" t="s">
+      <c r="S2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -20568,8 +20575,8 @@
       <c r="Q3" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="185"/>
-      <c r="S3" s="178"/>
+      <c r="R3" s="186"/>
+      <c r="S3" s="180"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="35">
@@ -21253,10 +21260,10 @@
       <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:20" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="177"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="30">
@@ -22152,10 +22159,10 @@
       <c r="S35" s="28"/>
     </row>
     <row r="36" spans="1:19" s="58" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="177" t="s">
+      <c r="A36" s="182" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="177"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="30">
